--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ED4B79-B47A-4B76-BC4E-6DD9A0DAF1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF31C6-145B-439D-8FB5-A51F3DD64275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="area 1" sheetId="1" r:id="rId1"/>
     <sheet name="area2" sheetId="2" r:id="rId2"/>
+    <sheet name="area 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>PC</t>
   </si>
@@ -138,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -147,6 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -906,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
   <dimension ref="A2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1927,4 +1929,1031 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
+  <dimension ref="A2:V26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>130000</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2+10000</f>
+        <v>140000</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:G2" si="0">D2+10000</f>
+        <v>150000</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.7372099999999999</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1.7402</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.7396</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.7421899999999999</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.7448900000000001</v>
+      </c>
+      <c r="K3">
+        <v>1.7436</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <f>$K$3*M2</f>
+        <v>0.17436000000000001</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" ref="N3:V3" si="1">$K$3*N2</f>
+        <v>0.34872000000000003</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" si="1"/>
+        <v>0.52307999999999999</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" si="1"/>
+        <v>0.69744000000000006</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.04616</v>
+      </c>
+      <c r="S3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.22052</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3948800000000001</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.56924</v>
+      </c>
+      <c r="V3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.7436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.08931</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.0883</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.0944</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.0950899999999999</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.0958000000000001</v>
+      </c>
+      <c r="K4">
+        <v>1.2951999999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <f>$K$4*M2</f>
+        <v>0.12952</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:V4" si="2">$K$4*N2</f>
+        <v>0.25903999999999999</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.38855999999999996</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.51807999999999998</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.77711999999999992</v>
+      </c>
+      <c r="S4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.90663999999999989</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.03616</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.16568</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.2951999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B10" si="3">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.95130000000000003</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.95369999999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.95520000000000005</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.95609999999999995</v>
+      </c>
+      <c r="K5">
+        <v>1.0659000000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L10" si="4">L4+1</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="8">
+        <f>$K$5*M2</f>
+        <v>0.10659000000000002</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:V5" si="5">$K$5*N2</f>
+        <v>0.21318000000000004</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.31977</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="5"/>
+        <v>0.42636000000000007</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.53295000000000003</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.63954</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.74612999999999996</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.85272000000000014</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.95931000000000011</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0659000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.83830000000000005</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.84089999999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.8427</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.84244699999999995</v>
+      </c>
+      <c r="K6">
+        <v>0.75019999999999998</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="8">
+        <f>$K$6*M2</f>
+        <v>7.5020000000000003E-2</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
+        <v>0.15004000000000001</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.22505999999999998</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.30008000000000001</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.45011999999999996</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="6"/>
+        <v>0.52513999999999994</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.60016000000000003</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.67518</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.75019999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.54569999999999996</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.54772299999999996</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.54886199999999996</v>
+      </c>
+      <c r="K7">
+        <v>0.46875</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="8">
+        <f>$K$7*M2</f>
+        <v>4.6875E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.140625</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.234375</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.28125</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.328125</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.375</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.421875</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.47660000000000002</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.47910000000000003</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.47849999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.33409</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="8">
+        <f>$K$8*M2</f>
+        <v>3.3409000000000001E-2</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <v>6.6818000000000002E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.100227</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.133636</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.167045</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.20045399999999999</v>
+      </c>
+      <c r="S8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.23386299999999999</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.26727200000000001</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="8"/>
+        <v>0.30068100000000003</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.33409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.2525</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.253</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.25308999999999998</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="K9">
+        <v>0.21931</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="8">
+        <f>$K$9*M2</f>
+        <v>2.1931000000000003E-2</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <v>4.3862000000000005E-2</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="9"/>
+        <v>6.5793000000000004E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="9"/>
+        <v>8.772400000000001E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.109655</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="9"/>
+        <v>0.13158600000000001</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.15351699999999999</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.17544800000000002</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.197379</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.21931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.2165</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.2172</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.21748999999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.21775</v>
+      </c>
+      <c r="K10">
+        <v>0.16769000000000001</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="8">
+        <f>$K$10*M2</f>
+        <v>1.6769000000000003E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <v>3.3538000000000005E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="10"/>
+        <v>5.0306999999999998E-2</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="10"/>
+        <v>6.7076000000000011E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="10"/>
+        <v>8.3845000000000003E-2</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.100614</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="10"/>
+        <v>0.117383</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.13415200000000002</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.150921</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.16769000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0.15659999999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="K11">
+        <v>0.143041</v>
+      </c>
+      <c r="L11" s="3">
+        <f>L10+1</f>
+        <v>9</v>
+      </c>
+      <c r="M11" s="8">
+        <f>$K$11*M2</f>
+        <v>1.43041E-2</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <v>2.86082E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="11"/>
+        <v>4.29123E-2</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="11"/>
+        <v>5.7216400000000001E-2</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="11"/>
+        <v>7.1520500000000001E-2</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="11"/>
+        <v>8.5824600000000001E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="11"/>
+        <v>0.1001287</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="11"/>
+        <v>0.1144328</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="11"/>
+        <v>0.12873690000000002</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="11"/>
+        <v>0.143041</v>
+      </c>
+    </row>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1.518</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="P18" s="8">
+        <v>1.484</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1.488</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="L19" s="3">
+        <f>L18+1</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="R19" s="8">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="S19" s="8">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L20" s="3">
+        <f t="shared" ref="L20:L25" si="12">L19+1</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L21" s="3">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.433</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L23" s="3">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0.371</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="U23" s="4">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.219</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="S24" s="8">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="T24" s="8">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="U24" s="8">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="N25" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0.161</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L26" s="3">
+        <f>L25+1</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.127</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0.124</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0.122</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="T26" s="8">
+        <v>0.121</v>
+      </c>
+      <c r="U26" s="8">
+        <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF31C6-145B-439D-8FB5-A51F3DD64275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E9D94-D769-466A-9727-F718790D2989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="area 1" sheetId="1" r:id="rId1"/>
-    <sheet name="area2" sheetId="2" r:id="rId2"/>
+    <sheet name="area 2" sheetId="2" r:id="rId2"/>
     <sheet name="area 3" sheetId="3" r:id="rId3"/>
+    <sheet name="area 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
   <si>
     <t>PC</t>
   </si>
@@ -53,6 +54,15 @@
   </si>
   <si>
     <t>optimal value</t>
+  </si>
+  <si>
+    <t>…..</t>
+  </si>
+  <si>
+    <t>4 and 5</t>
+  </si>
+  <si>
+    <t>spherical model better according to CV</t>
   </si>
 </sst>
 </file>
@@ -1935,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
   <dimension ref="A2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2956,4 +2966,1071 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
+  <dimension ref="A2:V28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="U9" activeCellId="8" sqref="P3 P5 R4 S6 T7 S8 R10 T11 U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>110000</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2+10000</f>
+        <v>120000</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:H2" si="0">D2+10000</f>
+        <v>130000</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1.821</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1.819</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1.8240000000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1.8318000000000001</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="K3">
+        <v>2.1871999999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <f>$K$3*M2</f>
+        <v>0.21872</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" ref="N3:V3" si="1">$K$3*N2</f>
+        <v>0.43744</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" si="1"/>
+        <v>0.65615999999999997</v>
+      </c>
+      <c r="P3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87487999999999999</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0935999999999999</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.3123199999999999</v>
+      </c>
+      <c r="S3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.5310399999999997</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.74976</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9684799999999998</v>
+      </c>
+      <c r="V3" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1871999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.355</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.365</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.367</v>
+      </c>
+      <c r="K4">
+        <v>1.3206</v>
+      </c>
+      <c r="L4" s="3">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <f>$K$4*M2</f>
+        <v>0.13206000000000001</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" ref="N4:V4" si="2">$K$4*N2</f>
+        <v>0.26412000000000002</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.39617999999999998</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.52824000000000004</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.6603</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.79235999999999995</v>
+      </c>
+      <c r="S4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.92441999999999991</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0564800000000001</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.1885399999999999</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.3206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B10" si="3">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.07</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.071</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="K5">
+        <v>1.0278</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L10" si="4">L4+1</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="8">
+        <f>$K$5*M2</f>
+        <v>0.10278000000000001</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:V5" si="5">$K$5*N2</f>
+        <v>0.20556000000000002</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.30834</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="5"/>
+        <v>0.41112000000000004</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.51390000000000002</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.61668000000000001</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.71945999999999999</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.82224000000000008</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.92502000000000006</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.622</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.623</v>
+      </c>
+      <c r="K6">
+        <v>0.61168</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="8">
+        <f>$K$6*M2</f>
+        <v>6.1168E-2</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
+        <v>0.122336</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.183504</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.244672</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.30584</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.367008</v>
+      </c>
+      <c r="S6" s="4">
+        <f t="shared" si="6"/>
+        <v>0.428176</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.489344</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.550512</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.61168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="8">
+        <f>$K$7*M2</f>
+        <v>4.2860000000000002E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <v>8.5720000000000005E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.12858</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.17144000000000001</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.25716</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.30001999999999995</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.34288000000000002</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.38573999999999997</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.42859999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.3715</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="8">
+        <f>$K$8*M2</f>
+        <v>3.7150000000000002E-2</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.11144999999999999</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.18575</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="8"/>
+        <v>0.26005</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.29720000000000002</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.33434999999999998</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.3715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="8">
+        <f>$K$9*M2</f>
+        <v>2.2650000000000003E-2</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <v>4.5300000000000007E-2</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="9"/>
+        <v>6.7949999999999997E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="9"/>
+        <v>9.0600000000000014E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.11325</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.15855</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.18120000000000003</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="9"/>
+        <v>0.20385</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.22650000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.188</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.189</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.189</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.189</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="K10">
+        <v>0.1605</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="8">
+        <f>$K$10*M2</f>
+        <v>1.6050000000000002E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <v>3.2100000000000004E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="10"/>
+        <v>4.8149999999999998E-2</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="10"/>
+        <v>6.4200000000000007E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="10"/>
+        <v>8.0250000000000002E-2</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="10"/>
+        <v>9.6299999999999997E-2</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.11234999999999999</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.12840000000000001</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.14445</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.1605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="K11">
+        <v>0.122</v>
+      </c>
+      <c r="L11" s="3">
+        <f>L10+1</f>
+        <v>9</v>
+      </c>
+      <c r="M11" s="8">
+        <f>$K$11*M2</f>
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="11"/>
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="11"/>
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="11"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="11"/>
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="11"/>
+        <v>8.539999999999999E-2</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="11"/>
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="11"/>
+        <v>0.10979999999999999</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="11"/>
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1.6054999999999999</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>1.597</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="S18" s="8">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="T18" s="8">
+        <v>1.6589</v>
+      </c>
+      <c r="U18" s="8">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="L19" s="3">
+        <f>L18+1</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="R19" s="4">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="S19" s="8">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="T19" s="8">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="U19" s="8">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L20" s="3">
+        <f t="shared" ref="L20:L25" si="12">L19+1</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L21" s="3">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0.504</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S21" s="4">
+        <v>0.499</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0.501</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="T22" s="4">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L23" s="3">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L24" s="3">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0.221</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>0.217</v>
+      </c>
+      <c r="R24" s="8">
+        <v>0.214</v>
+      </c>
+      <c r="S24" s="8">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="T24" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0.155</v>
+      </c>
+      <c r="S25" s="8">
+        <v>0.155</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L26" s="3">
+        <f>L25+1</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.129</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0.125</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0.122</v>
+      </c>
+      <c r="R26" s="8">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="U26" s="6">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858E9D94-D769-466A-9727-F718790D2989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F964020-54D1-4D16-9C52-915A00B0B81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="area 1" sheetId="1" r:id="rId1"/>
     <sheet name="area 2" sheetId="2" r:id="rId2"/>
     <sheet name="area 3" sheetId="3" r:id="rId3"/>
     <sheet name="area 4" sheetId="4" r:id="rId4"/>
+    <sheet name="area 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>PC</t>
   </si>
@@ -64,15 +65,36 @@
   <si>
     <t>spherical model better according to CV</t>
   </si>
+  <si>
+    <t>for pc07, not the lowest value is taken</t>
+  </si>
+  <si>
+    <t>otherwise model has to be spherical</t>
+  </si>
+  <si>
+    <t>area 1 --&gt; finding out the workflow</t>
+  </si>
+  <si>
+    <t>from area2 onwards, same workflow is followed</t>
+  </si>
+  <si>
+    <t>(will do 1 again)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -149,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -159,6 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -473,15 +496,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB579DC-AAD1-40B5-A0BE-BFC0B4A3D9E4}">
-  <dimension ref="B3:U13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +566,7 @@
         <v>0.37079999999999996</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -569,7 +608,7 @@
         <v>0.23549999999999999</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <f>1+B4</f>
         <v>2</v>
@@ -612,7 +651,7 @@
         <v>0.17535000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <f t="shared" ref="B6:B11" si="1">1+B5</f>
         <v>3</v>
@@ -655,7 +694,7 @@
         <v>0.14474999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -698,7 +737,7 @@
         <v>9.3659999999999993E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -741,7 +780,7 @@
         <v>8.7599999999999997E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -784,7 +823,7 @@
         <v>6.5489999999999993E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -827,7 +866,7 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -870,7 +909,7 @@
         <v>4.224E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f>1+B11</f>
         <v>9</v>
@@ -906,7 +945,7 @@
         <v>0.14180000000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
     </row>
   </sheetData>
@@ -1946,7 +1985,7 @@
   <dimension ref="A2:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2972,7 +3011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
   <dimension ref="A2:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="U9" activeCellId="8" sqref="P3 P5 R4 S6 T7 S8 R10 T11 U9"/>
     </sheetView>
   </sheetViews>
@@ -4033,4 +4072,1038 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46B17F-3465-4774-B397-C386614D55B2}">
+  <dimension ref="A2:V26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>120000</v>
+      </c>
+      <c r="D2" s="7">
+        <f>C2+10000</f>
+        <v>130000</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:G2" si="0">D2+10000</f>
+        <v>140000</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="V2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="K3">
+        <v>2.746</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <f>$K$3*M2</f>
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" ref="N3:V3" si="1">$K$3*N2</f>
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="O3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.0984</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.373</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.6476</v>
+      </c>
+      <c r="S3" s="8">
+        <f t="shared" si="1"/>
+        <v>1.9221999999999999</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" si="1"/>
+        <v>2.1968000000000001</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" si="1"/>
+        <v>2.4714</v>
+      </c>
+      <c r="V3" s="8">
+        <f t="shared" si="1"/>
+        <v>2.746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.621</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="L4" s="3">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="8">
+        <f>$K$4*M2</f>
+        <v>0.1797</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" ref="N4:V4" si="2">$K$4*N2</f>
+        <v>0.3594</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.53909999999999991</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.0781999999999998</v>
+      </c>
+      <c r="S4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.2578999999999998</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.4376</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.6173</v>
+      </c>
+      <c r="V4" s="8">
+        <f t="shared" si="2"/>
+        <v>1.7969999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <f t="shared" ref="B5:B10" si="3">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.298</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="K5">
+        <v>1.3281000000000001</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" ref="L5:L10" si="4">L4+1</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="8">
+        <f>$K$5*M2</f>
+        <v>0.13281000000000001</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:V5" si="5">$K$5*N2</f>
+        <v>0.26562000000000002</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.39843000000000001</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.53124000000000005</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.66405000000000003</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="5"/>
+        <v>0.79686000000000001</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" si="5"/>
+        <v>0.92967</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0624800000000001</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="5"/>
+        <v>1.1952900000000002</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" si="5"/>
+        <v>1.3281000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="8">
+        <f>$K$6*M2</f>
+        <v>8.6550000000000016E-2</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
+        <v>0.17310000000000003</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.25964999999999999</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.34620000000000006</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.43275000000000002</v>
+      </c>
+      <c r="R6" s="4">
+        <f t="shared" si="6"/>
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="6"/>
+        <v>0.60585</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.69240000000000013</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.77895000000000003</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.86550000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.61960000000000004</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="8">
+        <f>$K$7*M2</f>
+        <v>6.1960000000000008E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <v>0.12392000000000002</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.18588000000000002</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.24784000000000003</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.37176000000000003</v>
+      </c>
+      <c r="S7" s="4">
+        <f t="shared" si="7"/>
+        <v>0.43371999999999999</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.49568000000000006</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.55764000000000002</v>
+      </c>
+      <c r="V7" s="8">
+        <f t="shared" si="7"/>
+        <v>0.61960000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="8">
+        <f>$K$8*M2</f>
+        <v>4.4770000000000004E-2</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <v>8.9540000000000008E-2</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.13430999999999998</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.17908000000000002</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.22384999999999999</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.26861999999999997</v>
+      </c>
+      <c r="S8" s="4">
+        <f t="shared" si="8"/>
+        <v>0.31338999999999995</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.35816000000000003</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.40293000000000001</v>
+      </c>
+      <c r="V8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.44769999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.26869999999999999</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="8">
+        <f>$K$9*M2</f>
+        <v>2.6870000000000002E-2</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <v>5.3740000000000003E-2</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="9"/>
+        <v>8.0610000000000001E-2</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.10748000000000001</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="9"/>
+        <v>0.13435</v>
+      </c>
+      <c r="R9" s="8">
+        <f>$K$9*R2</f>
+        <v>0.16122</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.18808999999999998</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.21496000000000001</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.24182999999999999</v>
+      </c>
+      <c r="V9" s="8">
+        <f t="shared" si="9"/>
+        <v>0.26869999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.192</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.193</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.1467</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="8">
+        <f>$K$10*M2</f>
+        <v>1.4670000000000001E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <v>2.9340000000000001E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="10"/>
+        <v>4.4010000000000001E-2</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="10"/>
+        <v>5.8680000000000003E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="10"/>
+        <v>7.3349999999999999E-2</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="10"/>
+        <v>8.8020000000000001E-2</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="10"/>
+        <v>0.10268999999999999</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.11736000000000001</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.13203000000000001</v>
+      </c>
+      <c r="V10" s="8">
+        <f t="shared" si="10"/>
+        <v>0.1467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.1101</v>
+      </c>
+      <c r="L11" s="3">
+        <f>L10+1</f>
+        <v>9</v>
+      </c>
+      <c r="M11" s="8">
+        <f>$K$11*M2</f>
+        <v>1.1010000000000001E-2</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <v>2.2020000000000001E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="11"/>
+        <v>3.3029999999999997E-2</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="11"/>
+        <v>4.4040000000000003E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="11"/>
+        <v>5.5050000000000002E-2</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="11"/>
+        <v>6.6059999999999994E-2</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="11"/>
+        <v>7.707E-2</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="11"/>
+        <v>8.8080000000000006E-2</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="11"/>
+        <v>9.9090000000000011E-2</v>
+      </c>
+      <c r="V11" s="8">
+        <f t="shared" si="11"/>
+        <v>0.1101</v>
+      </c>
+    </row>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="T17" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>2.161</v>
+      </c>
+      <c r="N18" s="8">
+        <v>2.11</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2.097</v>
+      </c>
+      <c r="P18" s="8">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>2.121</v>
+      </c>
+      <c r="R18" s="8">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="S18" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T18" s="8">
+        <v>2.27</v>
+      </c>
+      <c r="U18" s="6">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="L19" s="3">
+        <f>L18+1</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1.448</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.444</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1.452</v>
+      </c>
+      <c r="P19" s="8">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>1.488</v>
+      </c>
+      <c r="R19" s="8">
+        <v>1.514</v>
+      </c>
+      <c r="S19" s="8">
+        <v>1.548</v>
+      </c>
+      <c r="T19" s="8">
+        <v>1.593</v>
+      </c>
+      <c r="U19" s="6">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L20" s="3">
+        <f t="shared" ref="L20:L25" si="12">L19+1</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1.238</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>1.151</v>
+      </c>
+      <c r="R20" s="4">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="S20" s="8">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="T20" s="8">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="U20" s="8">
+        <v>1.1950000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L21" s="3">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.621</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="S22" s="4">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L23" s="3">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="S23" s="4">
+        <v>0.39</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="3">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.249</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0.158</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>0.156</v>
+      </c>
+      <c r="R25" s="8">
+        <v>0.154</v>
+      </c>
+      <c r="S25" s="4">
+        <v>0.153</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0.153</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L26" s="3">
+        <f>L25+1</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0.127</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0.123</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="R26" s="6">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="S26" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="T26" s="4">
+        <v>0.115</v>
+      </c>
+      <c r="U26" s="8">
+        <v>0.115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F964020-54D1-4D16-9C52-915A00B0B81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EDC302-E5D6-4342-BED3-151FEA389528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="area 1" sheetId="1" r:id="rId1"/>
+    <sheet name="area1" sheetId="6" r:id="rId1"/>
     <sheet name="area 2" sheetId="2" r:id="rId2"/>
     <sheet name="area 3" sheetId="3" r:id="rId3"/>
     <sheet name="area 4" sheetId="4" r:id="rId4"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
-  <si>
-    <t>PC</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
   <si>
     <t>range</t>
   </si>
@@ -72,13 +69,7 @@
     <t>otherwise model has to be spherical</t>
   </si>
   <si>
-    <t>area 1 --&gt; finding out the workflow</t>
-  </si>
-  <si>
-    <t>from area2 onwards, same workflow is followed</t>
-  </si>
-  <si>
-    <t>(will do 1 again)</t>
+    <t>….</t>
   </si>
 </sst>
 </file>
@@ -171,10 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -495,458 +485,1090 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB579DC-AAD1-40B5-A0BE-BFC0B4A3D9E4}">
-  <dimension ref="A1:U13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424C6FD-858B-4715-AB2E-8F192D327931}">
+  <dimension ref="A2:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C2" s="6">
+        <v>145000</v>
+      </c>
+      <c r="D2" s="6">
+        <f>C2+10000</f>
+        <v>155000</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:G2" si="0">D2+10000</f>
+        <v>165000</v>
+      </c>
+      <c r="F2" s="6">
+        <f t="shared" si="0"/>
+        <v>175000</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" si="0"/>
+        <v>185000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="6">
         <v>0.2</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="O2" s="6">
         <v>0.3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="P2" s="6">
         <v>0.33</v>
       </c>
-      <c r="G3" s="1">
+      <c r="Q2" s="6">
         <v>0.4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="R2" s="6">
         <v>0.5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="S2" s="6">
         <v>0.6</v>
       </c>
-      <c r="J3" s="1">
+      <c r="T2" s="6">
         <v>0.7</v>
       </c>
-      <c r="K3" s="1">
+      <c r="U2" s="6">
         <v>0.8</v>
       </c>
-      <c r="L3" s="1">
+      <c r="V2" s="6">
         <v>0.9</v>
       </c>
+      <c r="W2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.2803</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.2826</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.2822</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1.2810600000000001</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1.2819</v>
+      </c>
+      <c r="K3">
+        <v>1.236</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
       <c r="M3">
+        <f>$K$3*M2</f>
+        <v>0.1236</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:W3" si="1">$K$3*N2</f>
+        <v>0.2472</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.37079999999999996</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3" si="2">$K$3*P2</f>
+        <v>0.40788000000000002</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.49440000000000001</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74159999999999993</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.98880000000000001</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1124000000000001</v>
+      </c>
+      <c r="W3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.75107999999999997</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.75116000000000005</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.75409999999999999</v>
+      </c>
+      <c r="K4">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="L4" s="2">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <f>$K$4*M2</f>
+        <v>7.8500000000000014E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:W4" si="3">$K$4*N2</f>
+        <v>0.15700000000000003</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4" si="4">$K$4*P2</f>
+        <v>0.25905</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.31400000000000006</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.62800000000000011</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B10" si="5">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.56950000000000001</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.56969999999999998</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.57130000000000003</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.57240000000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.58450000000000002</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L10" si="6">L4+1</f>
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <f>$K$5*M2</f>
+        <v>5.8450000000000002E-2</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:W5" si="7">$K$5*N2</f>
+        <v>0.1169</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.17535000000000001</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5" si="8">$K$5*P2</f>
+        <v>0.19288500000000003</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="7"/>
+        <v>0.23380000000000001</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="7"/>
+        <v>0.29225000000000001</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="7"/>
+        <v>0.35070000000000001</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="7"/>
+        <v>0.40915000000000001</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="7"/>
+        <v>0.46760000000000002</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="7"/>
+        <v>0.52605000000000002</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="7"/>
+        <v>0.58450000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.59970000000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.60060000000000002</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.60089999999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.60040000000000004</v>
+      </c>
+      <c r="K6">
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <f>$K$6*M2</f>
+        <v>4.8250000000000001E-2</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:W6" si="9">$K$6*N2</f>
+        <v>9.6500000000000002E-2</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="9"/>
+        <v>0.14474999999999999</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6" si="10">$K$6*P2</f>
+        <v>0.15922500000000001</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="9"/>
+        <v>0.193</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="9"/>
+        <v>0.24124999999999999</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="9"/>
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="9"/>
+        <v>0.33774999999999999</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="9"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="9"/>
+        <v>0.43424999999999997</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="9"/>
+        <v>0.48249999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.37680000000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.37730000000000002</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.378</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.37790000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <f>$K$7*M2</f>
+        <v>3.1219999999999998E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:W7" si="11">$K$7*N2</f>
+        <v>6.2439999999999996E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="11"/>
+        <v>9.3659999999999993E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7" si="12">$K$7*P2</f>
+        <v>0.10302599999999999</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="11"/>
+        <v>0.12487999999999999</v>
+      </c>
+      <c r="R7" s="3">
+        <f t="shared" si="11"/>
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="11"/>
+        <v>0.18731999999999999</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="11"/>
+        <v>0.21853999999999998</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="11"/>
+        <v>0.24975999999999998</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="11"/>
+        <v>0.28098000000000001</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="11"/>
+        <v>0.31219999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.3332</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.3332</v>
+      </c>
+      <c r="K8">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <f>$K$8*M2</f>
+        <v>2.92E-2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ref="N8:W8" si="13">$K$8*N2</f>
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="13"/>
+        <v>8.7599999999999997E-2</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ref="P8" si="14">$K$8*P2</f>
+        <v>9.6360000000000001E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="13"/>
+        <v>0.1168</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="13"/>
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="13"/>
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="13"/>
+        <v>0.20439999999999997</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="13"/>
+        <v>0.2336</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="13"/>
+        <v>0.26279999999999998</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="13"/>
+        <v>0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.2591</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.2596</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.25990000000000002</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.25990000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <f>$K$9*M2</f>
+        <v>2.1830000000000002E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:W9" si="15">$K$9*N2</f>
+        <v>4.3660000000000004E-2</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="15"/>
+        <v>6.5489999999999993E-2</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ref="P9" si="16">$K$9*P2</f>
+        <v>7.2039000000000006E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="15"/>
+        <v>8.7320000000000009E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="15"/>
+        <v>0.10915</v>
+      </c>
+      <c r="S9" s="3">
+        <f t="shared" si="15"/>
+        <v>0.13097999999999999</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="15"/>
+        <v>0.15280999999999997</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="15"/>
+        <v>0.17464000000000002</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="15"/>
+        <v>0.19647000000000001</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="15"/>
+        <v>0.21829999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.2487</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.2492</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.21</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f>$K$10*M2</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:W10" si="17">$K$10*N2</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="17"/>
+        <v>6.3E-2</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10" si="18">$K$10*P2</f>
+        <v>6.93E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="17"/>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="17"/>
+        <v>0.105</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="17"/>
+        <v>0.126</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="17"/>
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="17"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="17"/>
+        <v>0.189</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="17"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.1583</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0.1583</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <f>L10+1</f>
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <f>$K$11*M2</f>
+        <v>1.4080000000000002E-2</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:W11" si="19">$K$11*N2</f>
+        <v>2.8160000000000004E-2</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="19"/>
+        <v>4.224E-2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11" si="20">$K$11*P2</f>
+        <v>4.6464000000000005E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="19"/>
+        <v>5.6320000000000009E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <f t="shared" si="19"/>
+        <v>7.0400000000000004E-2</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="19"/>
+        <v>8.448E-2</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="19"/>
+        <v>9.8559999999999995E-2</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="19"/>
+        <v>0.11264000000000002</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="19"/>
+        <v>0.12672</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="19"/>
+        <v>0.14080000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="T3">
-        <v>1.236</v>
-      </c>
-      <c r="U3">
-        <f>T3*0.3</f>
-        <v>0.37079999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="M17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1.03</v>
-      </c>
-      <c r="D4">
-        <v>1.03586</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="M18" s="7">
+        <v>1.0517000000000001</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="4">
         <v>1.0351999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="P18" s="3">
         <v>1.0343100000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="Q18" s="4">
         <v>1.0345500000000001</v>
       </c>
-      <c r="H4">
+      <c r="R18">
         <v>1.0388599999999999</v>
       </c>
-      <c r="I4">
+      <c r="S18">
         <v>1.0471999999999999</v>
       </c>
-      <c r="J4">
+      <c r="T18">
         <v>1.0601700000000001</v>
       </c>
-      <c r="K4">
+      <c r="U18">
         <v>1.0808500000000001</v>
       </c>
-      <c r="L4">
+      <c r="V18">
         <v>1.12018</v>
       </c>
-      <c r="T4">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="U4">
-        <f t="shared" ref="U4:U11" si="0">T4*0.3</f>
-        <v>0.23549999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <f>1+B4</f>
+    </row>
+    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
+        <f>L18+1</f>
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>0.61919999999999997</v>
-      </c>
-      <c r="D5">
-        <v>0.61556</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="M19" s="7">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="4">
         <v>0.61319999999999997</v>
       </c>
-      <c r="F5" s="4">
+      <c r="P19" s="3">
         <v>0.61240000000000006</v>
       </c>
-      <c r="G5" s="5">
+      <c r="Q19" s="4">
         <v>0.61226999999999998</v>
       </c>
-      <c r="H5">
+      <c r="R19">
         <v>0.61481200000000003</v>
       </c>
-      <c r="I5">
+      <c r="S19">
         <v>0.62050000000000005</v>
       </c>
-      <c r="J5">
+      <c r="T19">
         <v>0.63029999999999997</v>
       </c>
-      <c r="K5">
+      <c r="U19">
         <v>0.64649999999999996</v>
       </c>
-      <c r="L5">
+      <c r="V19">
         <v>0.67700000000000005</v>
       </c>
-      <c r="T5">
-        <v>0.58450000000000002</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0.17535000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
-        <f t="shared" ref="B6:B11" si="1">1+B5</f>
+    </row>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L20" s="2">
+        <f t="shared" ref="L20:L25" si="21">L19+1</f>
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>0.44966</v>
-      </c>
-      <c r="D6">
-        <v>0.44624999999999998</v>
-      </c>
-      <c r="E6">
+      <c r="M20" s="7">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20">
         <v>0.44340000000000002</v>
       </c>
-      <c r="F6">
+      <c r="P20">
         <v>0.44112000000000001</v>
       </c>
-      <c r="G6">
+      <c r="Q20">
         <v>0.43790000000000001</v>
       </c>
-      <c r="H6">
+      <c r="R20">
         <v>0.435172</v>
       </c>
-      <c r="I6" s="4">
+      <c r="S20" s="3">
         <v>0.43409999999999999</v>
       </c>
-      <c r="J6">
+      <c r="T20">
         <v>0.43530000000000002</v>
       </c>
-      <c r="K6">
+      <c r="U20">
         <v>0.43890000000000001</v>
       </c>
-      <c r="L6">
+      <c r="V20">
         <v>0.44790000000000002</v>
       </c>
-      <c r="T6">
-        <v>0.48249999999999998</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0.14474999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L21" s="2">
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>0.46277000000000001</v>
-      </c>
-      <c r="D7">
-        <v>0.46122000000000002</v>
-      </c>
-      <c r="E7">
+      <c r="M21" s="7">
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21">
         <v>0.45989999999999998</v>
       </c>
-      <c r="F7">
+      <c r="P21">
         <v>0.45856000000000002</v>
       </c>
-      <c r="G7">
+      <c r="Q21">
         <v>0.45660000000000001</v>
       </c>
-      <c r="H7">
+      <c r="R21">
         <v>0.45506799999999997</v>
       </c>
-      <c r="I7" s="4">
+      <c r="S21" s="3">
         <v>0.45450000000000002</v>
       </c>
-      <c r="J7">
+      <c r="T21">
         <v>0.45469999999999999</v>
       </c>
-      <c r="K7">
+      <c r="U21">
         <v>0.45579999999999998</v>
       </c>
-      <c r="L7">
+      <c r="V21">
         <v>0.45800000000000002</v>
       </c>
-      <c r="T7">
-        <v>0.31219999999999998</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="0"/>
-        <v>9.3659999999999993E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L22" s="2">
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
-      <c r="C8">
-        <v>0.30172399999999999</v>
-      </c>
-      <c r="D8">
-        <v>0.29936800000000002</v>
-      </c>
-      <c r="E8">
+      <c r="M22" s="7">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22">
         <v>0.29770000000000002</v>
       </c>
-      <c r="F8">
+      <c r="P22">
         <v>0.29703000000000002</v>
       </c>
-      <c r="G8">
+      <c r="Q22">
         <v>0.29599999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="R22" s="3">
         <v>0.29538900000000001</v>
       </c>
-      <c r="I8">
+      <c r="S22">
         <v>0.29565000000000002</v>
       </c>
-      <c r="J8">
+      <c r="T22">
         <v>0.29670000000000002</v>
       </c>
-      <c r="K8">
+      <c r="U22">
         <v>0.29899999999999999</v>
       </c>
-      <c r="L8">
+      <c r="V22">
         <v>0.3034</v>
       </c>
-      <c r="T8">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="0"/>
-        <v>8.7599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L23" s="2">
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="C9">
-        <v>0.26484999999999997</v>
-      </c>
-      <c r="D9">
-        <v>0.26381100000000002</v>
-      </c>
-      <c r="E9">
+      <c r="M23" s="7">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23">
         <v>0.26344499999999998</v>
       </c>
-      <c r="F9">
+      <c r="P23">
         <v>0.26344299999999998</v>
       </c>
-      <c r="G9">
+      <c r="Q23">
         <v>0.26200000000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="R23" s="3">
         <v>0.26298300000000002</v>
       </c>
-      <c r="I9">
+      <c r="S23">
         <v>0.26449</v>
       </c>
-      <c r="J9">
+      <c r="T23">
         <v>0.26733499999999999</v>
       </c>
-      <c r="K9">
+      <c r="U23">
         <v>0.27179999999999999</v>
       </c>
-      <c r="L9">
+      <c r="V23">
         <v>0.24890000000000001</v>
       </c>
-      <c r="T9">
-        <v>0.21829999999999999</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>6.5489999999999993E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L24" s="2">
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
-      <c r="C10">
-        <v>0.19902</v>
-      </c>
-      <c r="D10">
-        <v>0.197297</v>
-      </c>
-      <c r="E10">
+      <c r="M24" s="7">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24">
         <v>0.1961</v>
       </c>
-      <c r="F10">
+      <c r="P24">
         <v>0.22242999999999999</v>
       </c>
-      <c r="G10">
+      <c r="Q24">
         <v>0.19400000000000001</v>
       </c>
-      <c r="H10">
+      <c r="R24">
         <v>0.19340499999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="S24" s="3">
         <v>0.19328100000000001</v>
       </c>
-      <c r="J10">
+      <c r="T24">
         <v>0.19423000000000001</v>
       </c>
-      <c r="K10">
+      <c r="U24">
         <v>0.19650000000000001</v>
       </c>
-      <c r="L10">
+      <c r="V24">
         <v>0.2014</v>
       </c>
-      <c r="T10">
-        <v>0.21</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="0"/>
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <f t="shared" si="1"/>
+    </row>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L25" s="2">
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
-      <c r="C11">
-        <v>0.197404</v>
-      </c>
-      <c r="D11">
-        <v>0.19581299999999999</v>
-      </c>
-      <c r="E11">
+      <c r="M25" s="7">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25">
         <v>0.194716</v>
       </c>
-      <c r="F11">
+      <c r="P25">
         <v>0.19417000000000001</v>
       </c>
-      <c r="G11">
+      <c r="Q25">
         <v>0.193</v>
       </c>
-      <c r="H11">
+      <c r="R25">
         <v>0.191746</v>
       </c>
-      <c r="I11" s="4">
+      <c r="S25" s="3">
         <v>0.191163</v>
       </c>
-      <c r="J11">
+      <c r="T25">
         <v>0.19120000000000001</v>
       </c>
-      <c r="K11">
+      <c r="U25">
         <v>0.19203000000000001</v>
       </c>
-      <c r="L11">
+      <c r="V25">
         <v>0.1943</v>
       </c>
-      <c r="T11">
-        <v>0.14080000000000001</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="0"/>
-        <v>4.224E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <f>1+B11</f>
+    </row>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L26" s="2">
+        <f>L25+1</f>
         <v>9</v>
       </c>
-      <c r="C12">
-        <v>0.12260600000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.12189999999999999</v>
-      </c>
-      <c r="E12">
+      <c r="M26" s="7">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26">
         <v>0.12139999999999999</v>
       </c>
-      <c r="F12">
+      <c r="P26">
         <v>0.12103999999999999</v>
       </c>
-      <c r="G12">
+      <c r="Q26">
         <v>0.1205</v>
       </c>
-      <c r="H12" s="4">
+      <c r="R26" s="3">
         <v>0.12019100000000001</v>
       </c>
-      <c r="I12">
+      <c r="S26">
         <v>0.12034400000000001</v>
       </c>
-      <c r="J12">
+      <c r="T26">
         <v>0.12089999999999999</v>
       </c>
-      <c r="K12">
+      <c r="U26">
         <v>0.122</v>
       </c>
-      <c r="L12">
+      <c r="V26">
         <v>0.14180000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -958,7 +1580,7 @@
   <dimension ref="A2:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:V11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,69 +1590,69 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
         <v>130000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>C2+10000</f>
         <v>140000</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f t="shared" ref="E2:G2" si="0">D2+10000</f>
         <v>150000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
         <v>0.1</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.2</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.3</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0.5</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0.6</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.7</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>0.8</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <v>0.9</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.2307299999999999</v>
       </c>
       <c r="D3">
@@ -1048,7 +1670,7 @@
       <c r="K3">
         <v>1.7796000000000001</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
       <c r="M3">
@@ -1071,7 +1693,7 @@
         <f t="shared" si="1"/>
         <v>0.88980000000000004</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <f t="shared" si="1"/>
         <v>1.06776</v>
       </c>
@@ -1093,14 +1715,14 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4">
         <v>1.3515600000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.3471299999999999</v>
       </c>
       <c r="E4">
@@ -1115,7 +1737,7 @@
       <c r="K4">
         <v>1.2577</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>L3+1</f>
         <v>2</v>
       </c>
@@ -1135,7 +1757,7 @@
         <f t="shared" si="2"/>
         <v>0.50308000000000008</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <f t="shared" si="2"/>
         <v>0.62885000000000002</v>
       </c>
@@ -1161,7 +1783,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="3">B4+1</f>
         <v>3</v>
       </c>
@@ -1171,7 +1793,7 @@
       <c r="D5">
         <v>0.86960800000000005</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.86663100000000004</v>
       </c>
       <c r="F5">
@@ -1183,7 +1805,7 @@
       <c r="K5">
         <v>0.85880000000000001</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" ref="L5:L10" si="4">L4+1</f>
         <v>3</v>
       </c>
@@ -1211,7 +1833,7 @@
         <f t="shared" si="5"/>
         <v>0.51527999999999996</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <f t="shared" si="5"/>
         <v>0.60115999999999992</v>
       </c>
@@ -1229,14 +1851,14 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="C6">
         <v>0.67230000000000001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>0.67266000000000004</v>
       </c>
       <c r="E6">
@@ -1251,7 +1873,7 @@
       <c r="K6">
         <v>0.63739999999999997</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -1279,7 +1901,7 @@
         <f t="shared" si="6"/>
         <v>0.38243999999999995</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <f t="shared" si="6"/>
         <v>0.44617999999999997</v>
       </c>
@@ -1297,14 +1919,14 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="C7">
         <v>0.56276999999999999</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.56125000000000003</v>
       </c>
       <c r="E7">
@@ -1319,7 +1941,7 @@
       <c r="K7">
         <v>0.45700000000000002</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -1347,7 +1969,7 @@
         <f t="shared" si="7"/>
         <v>0.2742</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <f t="shared" si="7"/>
         <v>0.31990000000000002</v>
       </c>
@@ -1365,7 +1987,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
@@ -1381,13 +2003,13 @@
       <c r="F8">
         <v>0.42996600000000001</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>0.43066199999999999</v>
       </c>
       <c r="K8">
         <v>0.34029999999999999</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -1415,7 +2037,7 @@
         <f t="shared" si="8"/>
         <v>0.20418</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <f t="shared" si="8"/>
         <v>0.23820999999999998</v>
       </c>
@@ -1433,7 +2055,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
@@ -1443,7 +2065,7 @@
       <c r="D9">
         <v>0.33474700000000002</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>0.33468799999999999</v>
       </c>
       <c r="F9">
@@ -1455,7 +2077,7 @@
       <c r="K9">
         <v>0.25929999999999997</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -1487,7 +2109,7 @@
         <f t="shared" si="9"/>
         <v>0.18150999999999998</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <f t="shared" si="9"/>
         <v>0.20743999999999999</v>
       </c>
@@ -1501,11 +2123,11 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.33050000000000002</v>
       </c>
       <c r="D10">
@@ -1523,7 +2145,7 @@
       <c r="K10">
         <v>0.2472</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -1555,7 +2177,7 @@
         <f t="shared" si="10"/>
         <v>0.17304</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <f t="shared" si="10"/>
         <v>0.19776000000000002</v>
       </c>
@@ -1569,14 +2191,14 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
       </c>
       <c r="C11">
         <v>0.192637</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.19244</v>
       </c>
       <c r="E11">
@@ -1591,7 +2213,7 @@
       <c r="K11">
         <v>0.15329999999999999</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f>L10+1</f>
         <v>9</v>
       </c>
@@ -1619,7 +2241,7 @@
         <f t="shared" si="11"/>
         <v>9.1979999999999992E-2</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <f t="shared" si="11"/>
         <v>0.10730999999999999</v>
       </c>
@@ -1638,33 +2260,33 @@
     </row>
     <row r="17" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
         <v>0.1</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>0.2</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>0.3</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>0.5</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>0.6</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>0.7</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>0.8</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>0.9</v>
       </c>
       <c r="V17">
@@ -1673,10 +2295,10 @@
     </row>
     <row r="18" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="L18" s="2">
         <v>1</v>
       </c>
       <c r="M18">
@@ -1694,7 +2316,7 @@
       <c r="Q18">
         <v>1.8080000000000001</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <v>1.8029999999999999</v>
       </c>
       <c r="S18">
@@ -1709,26 +2331,26 @@
     </row>
     <row r="19" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="L19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
         <f>L18+1</f>
         <v>2</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>1.1064000000000001</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <v>1.077</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <v>1.0680000000000001</v>
       </c>
       <c r="P19">
         <v>1.0620000000000001</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>1.06</v>
       </c>
       <c r="R19">
@@ -1745,14 +2367,14 @@
       </c>
     </row>
     <row r="20" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" ref="L20:L25" si="12">L19+1</f>
         <v>3</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>0.755</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <v>0.72699999999999998</v>
       </c>
       <c r="O20">
@@ -1767,7 +2389,7 @@
       <c r="R20">
         <v>0.69099999999999995</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="3">
         <v>0.69</v>
       </c>
       <c r="T20">
@@ -1778,7 +2400,7 @@
       </c>
     </row>
     <row r="21" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
@@ -1800,7 +2422,7 @@
       <c r="R21">
         <v>0.55000000000000004</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="3">
         <v>0.54900000000000004</v>
       </c>
       <c r="T21">
@@ -1811,14 +2433,14 @@
       </c>
     </row>
     <row r="22" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>0.48499999999999999</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>0.46899999999999997</v>
       </c>
       <c r="O22">
@@ -1833,7 +2455,7 @@
       <c r="R22">
         <v>0.44700000000000001</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="3">
         <v>0.44600000000000001</v>
       </c>
       <c r="T22">
@@ -1844,17 +2466,17 @@
       </c>
     </row>
     <row r="23" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>0.35899999999999999</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>0.34899999999999998</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>0.34300000000000003</v>
       </c>
       <c r="P23">
@@ -1866,7 +2488,7 @@
       <c r="R23">
         <v>0.33600000000000002</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <v>0.33500000000000002</v>
       </c>
       <c r="T23">
@@ -1877,23 +2499,23 @@
       </c>
     </row>
     <row r="24" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>0.28499999999999998</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>0.27400000000000002</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>0.26800000000000002</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>0.26400000000000001</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>0.26200000000000001</v>
       </c>
       <c r="R24">
@@ -1902,7 +2524,7 @@
       <c r="S24">
         <v>0.25800000000000001</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <v>0.25700000000000001</v>
       </c>
       <c r="U24">
@@ -1910,32 +2532,32 @@
       </c>
     </row>
     <row r="25" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>0.27100000000000002</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>0.25900000000000001</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>0.253</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <v>0.249</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>0.247</v>
       </c>
-      <c r="R25" s="6">
+      <c r="R25" s="5">
         <v>0.246</v>
       </c>
-      <c r="S25" s="6">
+      <c r="S25" s="5">
         <v>0.245</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <v>0.245</v>
       </c>
       <c r="U25">
@@ -1943,20 +2565,20 @@
       </c>
     </row>
     <row r="26" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <f>L25+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>0.154</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>0.14799999999999999</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>0.14599999999999999</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <v>0.14399999999999999</v>
       </c>
       <c r="Q26">
@@ -1965,7 +2587,7 @@
       <c r="R26">
         <v>0.14299999999999999</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="3">
         <v>0.1426</v>
       </c>
       <c r="T26">
@@ -1995,703 +2617,703 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
         <v>130000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>C2+10000</f>
         <v>140000</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f t="shared" ref="E2:G2" si="0">D2+10000</f>
         <v>150000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
         <v>0.1</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.2</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.3</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0.5</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0.6</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.7</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>0.8</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <v>0.9</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.7372099999999999</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>1.7402</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1.7396</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>1.7421899999999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>1.7448900000000001</v>
       </c>
       <c r="K3">
         <v>1.7436</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f>$K$3*M2</f>
         <v>0.17436000000000001</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f t="shared" ref="N3:V3" si="1">$K$3*N2</f>
         <v>0.34872000000000003</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f t="shared" si="1"/>
         <v>0.52307999999999999</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <f t="shared" si="1"/>
         <v>0.69744000000000006</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <f t="shared" si="1"/>
         <v>0.87180000000000002</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <f t="shared" si="1"/>
         <v>1.04616</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="7">
         <f t="shared" si="1"/>
         <v>1.22052</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <f t="shared" si="1"/>
         <v>1.3948800000000001</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <f t="shared" si="1"/>
         <v>1.56924</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <f t="shared" si="1"/>
         <v>1.7436</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1.08931</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>1.0883</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1.0944</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>1.0950899999999999</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>1.0958000000000001</v>
       </c>
       <c r="K4">
         <v>1.2951999999999999</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>L3+1</f>
         <v>2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f>$K$4*M2</f>
         <v>0.12952</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f t="shared" ref="N4:V4" si="2">$K$4*N2</f>
         <v>0.25903999999999999</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f t="shared" si="2"/>
         <v>0.38855999999999996</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f t="shared" si="2"/>
         <v>0.51807999999999998</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <f t="shared" si="2"/>
         <v>0.64759999999999995</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <f t="shared" si="2"/>
         <v>0.77711999999999992</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <f t="shared" si="2"/>
         <v>0.90663999999999989</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f t="shared" si="2"/>
         <v>1.03616</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <f t="shared" si="2"/>
         <v>1.16568</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <f t="shared" si="2"/>
         <v>1.2951999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="3">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.95130000000000003</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.95420000000000005</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.95369999999999999</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.95520000000000005</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0.95609999999999995</v>
       </c>
       <c r="K5">
         <v>1.0659000000000001</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" ref="L5:L10" si="4">L4+1</f>
         <v>3</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f>$K$5*M2</f>
         <v>0.10659000000000002</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f t="shared" ref="N5:V5" si="5">$K$5*N2</f>
         <v>0.21318000000000004</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f t="shared" si="5"/>
         <v>0.31977</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <f t="shared" si="5"/>
         <v>0.42636000000000007</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f t="shared" si="5"/>
         <v>0.53295000000000003</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <f t="shared" si="5"/>
         <v>0.63954</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <f t="shared" si="5"/>
         <v>0.74612999999999996</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" si="5"/>
         <v>0.85272000000000014</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f t="shared" si="5"/>
         <v>0.95931000000000011</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <f t="shared" si="5"/>
         <v>1.0659000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.83830000000000005</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.83960000000000001</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.84089999999999998</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.8427</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0.84244699999999995</v>
       </c>
       <c r="K6">
         <v>0.75019999999999998</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f>$K$6*M2</f>
         <v>7.5020000000000003E-2</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
         <v>0.15004000000000001</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f t="shared" si="6"/>
         <v>0.22505999999999998</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f t="shared" si="6"/>
         <v>0.30008000000000001</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <f t="shared" si="6"/>
         <v>0.37509999999999999</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <f t="shared" si="6"/>
         <v>0.45011999999999996</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <f t="shared" si="6"/>
         <v>0.52513999999999994</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <f t="shared" si="6"/>
         <v>0.60016000000000003</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <f t="shared" si="6"/>
         <v>0.67518</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <f t="shared" si="6"/>
         <v>0.75019999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.54500000000000004</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.54579999999999995</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.54569999999999996</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0.54772299999999996</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.54886199999999996</v>
       </c>
       <c r="K7">
         <v>0.46875</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f>$K$7*M2</f>
         <v>4.6875E-2</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
         <v>9.375E-2</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f t="shared" si="7"/>
         <v>0.140625</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f t="shared" si="7"/>
         <v>0.1875</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <f t="shared" si="7"/>
         <v>0.234375</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f t="shared" si="7"/>
         <v>0.28125</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <f t="shared" si="7"/>
         <v>0.328125</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <f t="shared" si="7"/>
         <v>0.375</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f t="shared" si="7"/>
         <v>0.421875</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <f t="shared" si="7"/>
         <v>0.46875</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.47660000000000002</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.47849999999999998</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.47910000000000003</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>0.47810000000000002</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>0.47849999999999998</v>
       </c>
       <c r="K8">
         <v>0.33409</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f>$K$8*M2</f>
         <v>3.3409000000000001E-2</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
         <v>6.6818000000000002E-2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <f t="shared" si="8"/>
         <v>0.100227</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f t="shared" si="8"/>
         <v>0.133636</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <f t="shared" si="8"/>
         <v>0.167045</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <f t="shared" si="8"/>
         <v>0.20045399999999999</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="7">
         <f t="shared" si="8"/>
         <v>0.23386299999999999</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <f t="shared" si="8"/>
         <v>0.26727200000000001</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <f t="shared" si="8"/>
         <v>0.30068100000000003</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <f t="shared" si="8"/>
         <v>0.33409</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.25240000000000001</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.2525</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.253</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0.25308999999999998</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0.25340000000000001</v>
       </c>
       <c r="K9">
         <v>0.21931</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f>$K$9*M2</f>
         <v>2.1931000000000003E-2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
         <v>4.3862000000000005E-2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <f t="shared" si="9"/>
         <v>6.5793000000000004E-2</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f t="shared" si="9"/>
         <v>8.772400000000001E-2</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <f t="shared" si="9"/>
         <v>0.109655</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <f t="shared" si="9"/>
         <v>0.13158600000000001</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <f t="shared" si="9"/>
         <v>0.15351699999999999</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <f t="shared" si="9"/>
         <v>0.17544800000000002</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <f t="shared" si="9"/>
         <v>0.197379</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <f t="shared" si="9"/>
         <v>0.21931</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.2165</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.21709999999999999</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.2172</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.21748999999999999</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0.21775</v>
       </c>
       <c r="K10">
         <v>0.16769000000000001</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f>$K$10*M2</f>
         <v>1.6769000000000003E-2</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
         <v>3.3538000000000005E-2</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <f t="shared" si="10"/>
         <v>5.0306999999999998E-2</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f t="shared" si="10"/>
         <v>6.7076000000000011E-2</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f t="shared" si="10"/>
         <v>8.3845000000000003E-2</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <f t="shared" si="10"/>
         <v>0.100614</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <f t="shared" si="10"/>
         <v>0.117383</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <f t="shared" si="10"/>
         <v>0.13415200000000002</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <f t="shared" si="10"/>
         <v>0.150921</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <f t="shared" si="10"/>
         <v>0.16769000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.15620000000000001</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.15659999999999999</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.15679999999999999</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.15679999999999999</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0.157</v>
       </c>
       <c r="K11">
         <v>0.143041</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f>L10+1</f>
         <v>9</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f>$K$11*M2</f>
         <v>1.43041E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
         <v>2.86082E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f t="shared" si="11"/>
         <v>4.29123E-2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f t="shared" si="11"/>
         <v>5.7216400000000001E-2</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <f t="shared" si="11"/>
         <v>7.1520500000000001E-2</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <f t="shared" si="11"/>
         <v>8.5824600000000001E-2</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <f t="shared" si="11"/>
         <v>0.1001287</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="7">
         <f t="shared" si="11"/>
         <v>0.1144328</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <f t="shared" si="11"/>
         <v>0.12873690000000002</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <f t="shared" si="11"/>
         <v>0.143041</v>
       </c>
     </row>
     <row r="17" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
         <v>0.1</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>0.2</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>0.3</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>0.5</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>0.6</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>0.7</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>0.8</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>0.9</v>
       </c>
       <c r="V17">
@@ -2700,305 +3322,305 @@
     </row>
     <row r="18" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>1.5620000000000001</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>1.518</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>1.4950000000000001</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <v>1.484</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <v>1.4810000000000001</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>1.488</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="7">
         <v>1.5049999999999999</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <v>1.5369999999999999</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>1.599</v>
       </c>
     </row>
     <row r="19" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="L19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
         <f>L18+1</f>
         <v>2</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <v>0.97299999999999998</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>0.95</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>0.93899999999999995</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <v>0.93400000000000005</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <v>0.93400000000000005</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="7">
         <v>0.93700000000000006</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="7">
         <v>0.94499999999999995</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="7">
         <v>0.96099999999999997</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="7">
         <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="20" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" ref="L20:L25" si="12">L19+1</f>
         <v>3</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>0.88100000000000001</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>0.86099999999999999</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>0.85399999999999998</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>0.85399999999999998</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>0.85899999999999999</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>0.86899999999999999</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <v>0.88500000000000001</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>0.91200000000000003</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="7">
         <v>0.95799999999999996</v>
       </c>
     </row>
     <row r="21" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="5">
         <v>0.71199999999999997</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <v>0.68</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="5">
         <v>0.66500000000000004</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>0.65300000000000002</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>0.64500000000000002</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="7">
         <v>0.64</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="3">
         <v>0.63900000000000001</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="7">
         <v>0.64100000000000001</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="7">
         <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="22" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>0.46899999999999997</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <v>0.45100000000000001</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <v>0.44</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <v>0.433</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="7">
         <v>0.42899999999999999</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <v>0.42599999999999999</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="3">
         <v>0.42499999999999999</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <v>0.42699999999999999</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="7">
         <v>0.433</v>
       </c>
     </row>
     <row r="23" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <v>0.40400000000000003</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <v>0.38300000000000001</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="5">
         <v>0.371</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <v>0.36199999999999999</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <v>0.35499999999999998</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <v>0.34899999999999998</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="7">
         <v>0.34300000000000003</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="7">
         <v>0.33800000000000002</v>
       </c>
-      <c r="U23" s="4">
+      <c r="U23" s="3">
         <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="24" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>0.219</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <v>0.21099999999999999</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>0.20799999999999999</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="7">
         <v>0.20499999999999999</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="7">
         <v>0.20399999999999999</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <v>0.20300000000000001</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="7">
         <v>0.20399999999999999</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <v>0.20599999999999999</v>
       </c>
-      <c r="U24" s="8">
+      <c r="U24" s="7">
         <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="25" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="5">
         <v>0.17899999999999999</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <v>0.17</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="5">
         <v>0.16600000000000001</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="5">
         <v>0.16400000000000001</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="Q25" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="7">
         <v>0.161</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <v>0.16</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="7">
         <v>0.16</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="7">
         <v>0.161</v>
       </c>
     </row>
     <row r="26" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <f>L25+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>0.13300000000000001</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>0.127</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>0.124</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="5">
         <v>0.122</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26" s="3">
         <v>0.12</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="7">
         <v>0.12</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="7">
         <v>0.12</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="7">
         <v>0.121</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="7">
         <v>0.125</v>
       </c>
     </row>
@@ -3023,734 +3645,734 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
         <v>110000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>C2+10000</f>
         <v>120000</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f t="shared" ref="E2:H2" si="0">D2+10000</f>
         <v>130000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
         <v>0.1</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.2</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.3</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0.5</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0.6</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.7</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>0.8</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <v>0.9</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1.821</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>1.819</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1.8240000000000001</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>1.8360000000000001</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>1.8318000000000001</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>1.8360000000000001</v>
       </c>
       <c r="K3">
         <v>2.1871999999999998</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f>$K$3*M2</f>
         <v>0.21872</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f t="shared" ref="N3:V3" si="1">$K$3*N2</f>
         <v>0.43744</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <f t="shared" si="1"/>
         <v>0.65615999999999997</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <f t="shared" si="1"/>
         <v>0.87487999999999999</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <f t="shared" si="1"/>
         <v>1.0935999999999999</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <f t="shared" si="1"/>
         <v>1.3123199999999999</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="7">
         <f t="shared" si="1"/>
         <v>1.5310399999999997</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <f t="shared" si="1"/>
         <v>1.74976</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <f t="shared" si="1"/>
         <v>1.9684799999999998</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <f t="shared" si="1"/>
         <v>2.1871999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.35</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1.3520000000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1.3560000000000001</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>1.355</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>1.365</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1.367</v>
       </c>
       <c r="K4">
         <v>1.3206</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>L3+1</f>
         <v>2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f>$K$4*M2</f>
         <v>0.13206000000000001</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <f t="shared" ref="N4:V4" si="2">$K$4*N2</f>
         <v>0.26412000000000002</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f t="shared" si="2"/>
         <v>0.39617999999999998</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f t="shared" si="2"/>
         <v>0.52824000000000004</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <f t="shared" si="2"/>
         <v>0.6603</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <f t="shared" si="2"/>
         <v>0.79235999999999995</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <f t="shared" si="2"/>
         <v>0.92441999999999991</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f t="shared" si="2"/>
         <v>1.0564800000000001</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <f t="shared" si="2"/>
         <v>1.1885399999999999</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <f t="shared" si="2"/>
         <v>1.3206</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="3">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1.07</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.0649999999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1.0669999999999999</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>1.07</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1.071</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>1.0960000000000001</v>
       </c>
       <c r="K5">
         <v>1.0278</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" ref="L5:L10" si="4">L4+1</f>
         <v>3</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f>$K$5*M2</f>
         <v>0.10278000000000001</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f t="shared" ref="N5:V5" si="5">$K$5*N2</f>
         <v>0.20556000000000002</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f t="shared" si="5"/>
         <v>0.30834</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <f t="shared" si="5"/>
         <v>0.41112000000000004</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f t="shared" si="5"/>
         <v>0.51390000000000002</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <f t="shared" si="5"/>
         <v>0.61668000000000001</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <f t="shared" si="5"/>
         <v>0.71945999999999999</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" si="5"/>
         <v>0.82224000000000008</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f t="shared" si="5"/>
         <v>0.92502000000000006</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <f t="shared" si="5"/>
         <v>1.0278</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.60799999999999998</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.60799999999999998</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0.60699999999999998</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.64</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0.622</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>0.623</v>
       </c>
       <c r="K6">
         <v>0.61168</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f>$K$6*M2</f>
         <v>6.1168E-2</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
         <v>0.122336</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f t="shared" si="6"/>
         <v>0.183504</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f t="shared" si="6"/>
         <v>0.244672</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <f t="shared" si="6"/>
         <v>0.30584</v>
       </c>
-      <c r="R6" s="8">
+      <c r="R6" s="7">
         <f t="shared" si="6"/>
         <v>0.367008</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <f t="shared" si="6"/>
         <v>0.428176</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <f t="shared" si="6"/>
         <v>0.489344</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <f t="shared" si="6"/>
         <v>0.550512</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <f t="shared" si="6"/>
         <v>0.61168</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.44600000000000001</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.44600000000000001</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0.45600000000000002</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.45300000000000001</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>0.45500000000000002</v>
       </c>
       <c r="K7">
         <v>0.42859999999999998</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f>$K$7*M2</f>
         <v>4.2860000000000002E-2</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
         <v>8.5720000000000005E-2</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f t="shared" si="7"/>
         <v>0.12858</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f t="shared" si="7"/>
         <v>0.17144000000000001</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <f t="shared" si="7"/>
         <v>0.21429999999999999</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f t="shared" si="7"/>
         <v>0.25716</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="7">
         <f t="shared" si="7"/>
         <v>0.30001999999999995</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <f t="shared" si="7"/>
         <v>0.34288000000000002</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f t="shared" si="7"/>
         <v>0.38573999999999997</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <f t="shared" si="7"/>
         <v>0.42859999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.42299999999999999</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.42399999999999999</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0.42199999999999999</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>0.42199999999999999</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>0.42199999999999999</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>0.42599999999999999</v>
       </c>
       <c r="K8">
         <v>0.3715</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f>$K$8*M2</f>
         <v>3.7150000000000002E-2</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <f t="shared" si="8"/>
         <v>0.11144999999999999</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f t="shared" si="8"/>
         <v>0.14860000000000001</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <f t="shared" si="8"/>
         <v>0.18575</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <f t="shared" si="8"/>
         <v>0.22289999999999999</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <f t="shared" si="8"/>
         <v>0.26005</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <f t="shared" si="8"/>
         <v>0.29720000000000002</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <f t="shared" si="8"/>
         <v>0.33434999999999998</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <f t="shared" si="8"/>
         <v>0.3715</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.26500000000000001</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.26600000000000001</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0.26800000000000002</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0.26800000000000002</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.26800000000000002</v>
       </c>
       <c r="K9">
         <v>0.22650000000000001</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f>$K$9*M2</f>
         <v>2.2650000000000003E-2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
         <v>4.5300000000000007E-2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <f t="shared" si="9"/>
         <v>6.7949999999999997E-2</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f t="shared" si="9"/>
         <v>9.0600000000000014E-2</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <f t="shared" si="9"/>
         <v>0.11325</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <f t="shared" si="9"/>
         <v>0.13589999999999999</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <f t="shared" si="9"/>
         <v>0.15855</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <f t="shared" si="9"/>
         <v>0.18120000000000003</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <f t="shared" si="9"/>
         <v>0.20385</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <f t="shared" si="9"/>
         <v>0.22650000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.188</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.189</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.189</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.189</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0.19</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0.191</v>
       </c>
       <c r="K10">
         <v>0.1605</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f>$K$10*M2</f>
         <v>1.6050000000000002E-2</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
         <v>3.2100000000000004E-2</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <f t="shared" si="10"/>
         <v>4.8149999999999998E-2</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f t="shared" si="10"/>
         <v>6.4200000000000007E-2</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f t="shared" si="10"/>
         <v>8.0250000000000002E-2</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <f t="shared" si="10"/>
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="7">
         <f t="shared" si="10"/>
         <v>0.11234999999999999</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <f t="shared" si="10"/>
         <v>0.12840000000000001</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <f t="shared" si="10"/>
         <v>0.14445</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <f t="shared" si="10"/>
         <v>0.1605</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.155</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.155</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.155</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.157</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0.157</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.157</v>
       </c>
       <c r="K11">
         <v>0.122</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f>L10+1</f>
         <v>9</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f>$K$11*M2</f>
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
         <v>2.4400000000000002E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f t="shared" si="11"/>
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f t="shared" si="11"/>
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <f t="shared" si="11"/>
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <f t="shared" si="11"/>
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <f t="shared" si="11"/>
         <v>8.539999999999999E-2</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <f t="shared" si="11"/>
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <f t="shared" si="11"/>
         <v>0.10979999999999999</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <f t="shared" si="11"/>
         <v>0.122</v>
       </c>
     </row>
     <row r="17" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
         <v>0.1</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>0.2</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>0.3</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>0.5</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>0.6</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>0.7</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>0.8</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>0.9</v>
       </c>
       <c r="V17">
@@ -3759,314 +4381,314 @@
     </row>
     <row r="18" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O18" s="8">
+      <c r="M18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="7">
         <v>1.6054999999999999</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <v>1.5960000000000001</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>1.597</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>1.6060000000000001</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="7">
         <v>1.6259999999999999</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <v>1.6589</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U18" s="7">
         <v>1.716</v>
       </c>
     </row>
     <row r="19" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="L19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
         <f>L18+1</f>
         <v>2</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O19" s="8">
+      <c r="M19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="7">
         <v>1.2150000000000001</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <v>1.1990000000000001</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <v>1.19</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="3">
         <v>1.1859999999999999</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="7">
         <v>1.1870000000000001</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="7">
         <v>1.1950000000000001</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="7">
         <v>1.216</v>
       </c>
     </row>
     <row r="20" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" ref="L20:L25" si="12">L19+1</f>
         <v>3</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O20" s="8">
+      <c r="M20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="7">
         <v>0.92300000000000004</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>0.92500000000000004</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="7">
         <v>0.93200000000000005</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <v>0.94399999999999995</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>0.96099999999999997</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="7">
         <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="21" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O21" s="6">
+      <c r="M21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="5">
         <v>0.52</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21" s="5">
         <v>0.51600000000000001</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21" s="5">
         <v>0.504</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21" s="5">
         <v>0.5</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="3">
         <v>0.499</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <v>0.501</v>
       </c>
-      <c r="U21" s="6">
+      <c r="U21" s="5">
         <v>0.51</v>
       </c>
     </row>
     <row r="22" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O22" s="6">
+      <c r="M22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="5">
         <v>0.375</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22" s="5">
         <v>0.36599999999999999</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22" s="5">
         <v>0.35899999999999999</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22" s="5">
         <v>0.35299999999999998</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="5">
         <v>0.35</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="3">
         <v>0.34899999999999998</v>
       </c>
-      <c r="U22" s="6">
+      <c r="U22" s="5">
         <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="23" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="M23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O23" s="8">
+      <c r="M23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="7">
         <v>0.35499999999999998</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <v>0.34799999999999998</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <v>0.34300000000000003</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <v>0.34</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <v>0.33900000000000002</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="7">
         <v>0.33900000000000002</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="7">
         <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="24" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="M24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O24" s="8">
+      <c r="M24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="7">
         <v>0.22600000000000001</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="7">
         <v>0.221</v>
       </c>
-      <c r="Q24" s="8">
+      <c r="Q24" s="7">
         <v>0.217</v>
       </c>
-      <c r="R24" s="8">
+      <c r="R24" s="7">
         <v>0.214</v>
       </c>
-      <c r="S24" s="8">
+      <c r="S24" s="7">
         <v>0.21099999999999999</v>
       </c>
-      <c r="T24" s="8">
+      <c r="T24" s="7">
         <v>0.21</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="3">
         <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="25" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="M25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O25" s="8">
+      <c r="M25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O25" s="7">
         <v>0.16</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="7">
         <v>0.157</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="7">
         <v>0.156</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <v>0.155</v>
       </c>
-      <c r="S25" s="8">
+      <c r="S25" s="7">
         <v>0.155</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="7">
         <v>0.156</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="7">
         <v>0.157</v>
       </c>
     </row>
     <row r="26" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <f>L25+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="8" t="s">
+      <c r="M26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.129</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.122</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="U26" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I28" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="O26" s="8">
-        <v>0.129</v>
-      </c>
-      <c r="P26" s="8">
-        <v>0.125</v>
-      </c>
-      <c r="Q26" s="8">
-        <v>0.122</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="S26" s="8">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="T26" s="4">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="U26" s="6">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4078,7 +4700,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46B17F-3465-4774-B397-C386614D55B2}">
   <dimension ref="A2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -4089,703 +4711,703 @@
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
         <v>120000</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <f>C2+10000</f>
         <v>130000</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f t="shared" ref="E2:G2" si="0">D2+10000</f>
         <v>140000</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
         <v>0.1</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <v>0.2</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="6">
         <v>0.3</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="6">
         <v>0.5</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="6">
         <v>0.6</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0.7</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="6">
         <v>0.8</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="6">
         <v>0.9</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.4710000000000001</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>2.4950000000000001</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>2.4990000000000001</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>2.5139999999999998</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>2.5110000000000001</v>
       </c>
       <c r="K3">
         <v>2.746</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="7">
         <f>$K$3*M2</f>
         <v>0.27460000000000001</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f t="shared" ref="N3:V3" si="1">$K$3*N2</f>
         <v>0.54920000000000002</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <f t="shared" si="1"/>
         <v>0.82379999999999998</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <f t="shared" si="1"/>
         <v>1.0984</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="7">
         <f t="shared" si="1"/>
         <v>1.373</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="7">
         <f t="shared" si="1"/>
         <v>1.6476</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="7">
         <f t="shared" si="1"/>
         <v>1.9221999999999999</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <f t="shared" si="1"/>
         <v>2.1968000000000001</v>
       </c>
-      <c r="U3" s="8">
+      <c r="U3" s="7">
         <f t="shared" si="1"/>
         <v>2.4714</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="7">
         <f t="shared" si="1"/>
         <v>2.746</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.6040000000000001</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>1.6220000000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1.621</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>1.6279999999999999</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>1.6359999999999999</v>
       </c>
       <c r="K4">
         <v>1.7969999999999999</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>L3+1</f>
         <v>2</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f>$K$4*M2</f>
         <v>0.1797</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f t="shared" ref="N4:V4" si="2">$K$4*N2</f>
         <v>0.3594</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <f t="shared" si="2"/>
         <v>0.53909999999999991</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <f t="shared" si="2"/>
         <v>0.71879999999999999</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <f t="shared" si="2"/>
         <v>0.89849999999999997</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <f t="shared" si="2"/>
         <v>1.0781999999999998</v>
       </c>
-      <c r="S4" s="8">
+      <c r="S4" s="7">
         <f t="shared" si="2"/>
         <v>1.2578999999999998</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f t="shared" si="2"/>
         <v>1.4376</v>
       </c>
-      <c r="U4" s="8">
+      <c r="U4" s="7">
         <f t="shared" si="2"/>
         <v>1.6173</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="7">
         <f t="shared" si="2"/>
         <v>1.7969999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="3">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1.2969999999999999</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>1.2949999999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1.298</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>1.3009999999999999</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1.3080000000000001</v>
       </c>
       <c r="K5">
         <v>1.3281000000000001</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f t="shared" ref="L5:L10" si="4">L4+1</f>
         <v>3</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f>$K$5*M2</f>
         <v>0.13281000000000001</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <f t="shared" ref="N5:V5" si="5">$K$5*N2</f>
         <v>0.26562000000000002</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <f t="shared" si="5"/>
         <v>0.39843000000000001</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <f t="shared" si="5"/>
         <v>0.53124000000000005</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <f t="shared" si="5"/>
         <v>0.66405000000000003</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <f t="shared" si="5"/>
         <v>0.79686000000000001</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="7">
         <f t="shared" si="5"/>
         <v>0.92967</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" si="5"/>
         <v>1.0624800000000001</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f t="shared" si="5"/>
         <v>1.1952900000000002</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <f t="shared" si="5"/>
         <v>1.3281000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.98099999999999998</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.98399999999999999</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>0.98899999999999999</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>0.98899999999999999</v>
       </c>
       <c r="K6">
         <v>0.86550000000000005</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <f>$K$6*M2</f>
         <v>8.6550000000000016E-2</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
         <v>0.17310000000000003</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <f t="shared" si="6"/>
         <v>0.25964999999999999</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <f t="shared" si="6"/>
         <v>0.34620000000000006</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="Q6" s="7">
         <f t="shared" si="6"/>
         <v>0.43275000000000002</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <f t="shared" si="6"/>
         <v>0.51929999999999998</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <f t="shared" si="6"/>
         <v>0.60585</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <f t="shared" si="6"/>
         <v>0.69240000000000013</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="7">
         <f t="shared" si="6"/>
         <v>0.77895000000000003</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="7">
         <f t="shared" si="6"/>
         <v>0.86550000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.71099999999999997</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.71299999999999997</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>0.71699999999999997</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>0.72</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>0.72199999999999998</v>
       </c>
       <c r="K7">
         <v>0.61960000000000004</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <f>$K$7*M2</f>
         <v>6.1960000000000008E-2</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
         <v>0.12392000000000002</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <f t="shared" si="7"/>
         <v>0.18588000000000002</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <f t="shared" si="7"/>
         <v>0.24784000000000003</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="7">
         <f t="shared" si="7"/>
         <v>0.30980000000000002</v>
       </c>
-      <c r="R7" s="8">
+      <c r="R7" s="7">
         <f t="shared" si="7"/>
         <v>0.37176000000000003</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <f t="shared" si="7"/>
         <v>0.43371999999999999</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <f t="shared" si="7"/>
         <v>0.49568000000000006</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="7">
         <f t="shared" si="7"/>
         <v>0.55764000000000002</v>
       </c>
-      <c r="V7" s="8">
+      <c r="V7" s="7">
         <f t="shared" si="7"/>
         <v>0.61960000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.44700000000000001</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.45100000000000001</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>0.45300000000000001</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>0.45400000000000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>0.45500000000000002</v>
       </c>
       <c r="K8">
         <v>0.44769999999999999</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f>$K$8*M2</f>
         <v>4.4770000000000004E-2</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
         <v>8.9540000000000008E-2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <f t="shared" si="8"/>
         <v>0.13430999999999998</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <f t="shared" si="8"/>
         <v>0.17908000000000002</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <f t="shared" si="8"/>
         <v>0.22384999999999999</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <f t="shared" si="8"/>
         <v>0.26861999999999997</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <f t="shared" si="8"/>
         <v>0.31338999999999995</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <f t="shared" si="8"/>
         <v>0.35816000000000003</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="7">
         <f t="shared" si="8"/>
         <v>0.40293000000000001</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="7">
         <f t="shared" si="8"/>
         <v>0.44769999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.29199999999999998</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0.29299999999999998</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0.29299999999999998</v>
       </c>
       <c r="K9">
         <v>0.26869999999999999</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f>$K$9*M2</f>
         <v>2.6870000000000002E-2</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
         <v>5.3740000000000003E-2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <f t="shared" si="9"/>
         <v>8.0610000000000001E-2</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <f t="shared" si="9"/>
         <v>0.10748000000000001</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <f t="shared" si="9"/>
         <v>0.13435</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <f>$K$9*R2</f>
         <v>0.16122</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <f t="shared" si="9"/>
         <v>0.18808999999999998</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <f t="shared" si="9"/>
         <v>0.21496000000000001</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <f t="shared" si="9"/>
         <v>0.24182999999999999</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <f t="shared" si="9"/>
         <v>0.26869999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.192</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.193</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.19600000000000001</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0.19600000000000001</v>
       </c>
       <c r="K10">
         <v>0.1467</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f>$K$10*M2</f>
         <v>1.4670000000000001E-2</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
         <v>2.9340000000000001E-2</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <f t="shared" si="10"/>
         <v>4.4010000000000001E-2</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <f t="shared" si="10"/>
         <v>5.8680000000000003E-2</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <f t="shared" si="10"/>
         <v>7.3349999999999999E-2</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <f t="shared" si="10"/>
         <v>8.8020000000000001E-2</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <f t="shared" si="10"/>
         <v>0.10268999999999999</v>
       </c>
-      <c r="T10" s="8">
+      <c r="T10" s="7">
         <f t="shared" si="10"/>
         <v>0.11736000000000001</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="7">
         <f t="shared" si="10"/>
         <v>0.13203000000000001</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="7">
         <f t="shared" si="10"/>
         <v>0.1467</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0.17499999999999999</v>
       </c>
       <c r="K11">
         <v>0.1101</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <f>L10+1</f>
         <v>9</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f>$K$11*M2</f>
         <v>1.1010000000000001E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
         <v>2.2020000000000001E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <f t="shared" si="11"/>
         <v>3.3029999999999997E-2</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <f t="shared" si="11"/>
         <v>4.4040000000000003E-2</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <f t="shared" si="11"/>
         <v>5.5050000000000002E-2</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <f t="shared" si="11"/>
         <v>6.6059999999999994E-2</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="7">
         <f t="shared" si="11"/>
         <v>7.707E-2</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <f t="shared" si="11"/>
         <v>8.8080000000000006E-2</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="7">
         <f t="shared" si="11"/>
         <v>9.9090000000000011E-2</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="7">
         <f t="shared" si="11"/>
         <v>0.1101</v>
       </c>
     </row>
     <row r="17" spans="9:22" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
-        <v>2</v>
-      </c>
-      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
         <v>0.1</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <v>0.2</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <v>0.3</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <v>0.5</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="6">
         <v>0.6</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>0.7</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <v>0.8</v>
       </c>
-      <c r="U17" s="7">
+      <c r="U17" s="6">
         <v>0.9</v>
       </c>
       <c r="V17">
@@ -4794,311 +5416,311 @@
     </row>
     <row r="18" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="L18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>2.161</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>2.11</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>2.097</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <v>2.1019999999999999</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>2.121</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="7">
         <v>2.1520000000000001</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T18" s="7">
         <v>2.27</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>2.38</v>
       </c>
     </row>
     <row r="19" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="L19" s="3">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
         <f>L18+1</f>
         <v>2</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <v>1.448</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>1.444</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>1.452</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <v>1.4670000000000001</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <v>1.488</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="7">
         <v>1.514</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="7">
         <v>1.548</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="7">
         <v>1.593</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>1.65</v>
       </c>
     </row>
     <row r="20" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L20" s="3">
+      <c r="L20" s="2">
         <f t="shared" ref="L20:L25" si="12">L19+1</f>
         <v>3</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <v>1.238</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>1.2</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>1.1759999999999999</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <v>1.1599999999999999</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>1.151</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="3">
         <v>1.1479999999999999</v>
       </c>
-      <c r="S20" s="8">
+      <c r="S20" s="7">
         <v>1.1519999999999999</v>
       </c>
-      <c r="T20" s="8">
+      <c r="T20" s="7">
         <v>1.1659999999999999</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="7">
         <v>1.1950000000000001</v>
       </c>
     </row>
     <row r="21" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <v>0.86699999999999999</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>0.83399999999999996</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <v>0.81699999999999995</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <v>0.80800000000000005</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="7">
         <v>0.80300000000000005</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="3">
         <v>0.80200000000000005</v>
       </c>
-      <c r="S21" s="8">
+      <c r="S21" s="7">
         <v>0.80300000000000005</v>
       </c>
-      <c r="T21" s="8">
+      <c r="T21" s="7">
         <v>0.80700000000000005</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="7">
         <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="22" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>0.64800000000000002</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>0.621</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <v>0.60299999999999998</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <v>0.58899999999999997</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="7">
         <v>0.57899999999999996</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="7">
         <v>0.57199999999999995</v>
       </c>
-      <c r="S22" s="4">
+      <c r="S22" s="3">
         <v>0.56799999999999995</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="7">
         <v>0.56899999999999995</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="7">
         <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="23" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <v>0.41799999999999998</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>0.41</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <v>0.40400000000000003</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <v>0.39900000000000002</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="7">
         <v>0.39500000000000002</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="7">
         <v>0.39200000000000002</v>
       </c>
-      <c r="S23" s="4">
+      <c r="S23" s="3">
         <v>0.39</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="7">
         <v>0.39100000000000001</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="7">
         <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="24" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" s="3">
+        <v>8</v>
+      </c>
+      <c r="L24" s="2">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <v>0.25800000000000001</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>0.249</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>0.24299999999999999</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="5">
         <v>0.23899999999999999</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="Q24" s="5">
         <v>0.23599999999999999</v>
       </c>
-      <c r="R24" s="6">
+      <c r="R24" s="5">
         <v>0.23499999999999999</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <v>0.23599999999999999</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <v>0.23899999999999999</v>
       </c>
-      <c r="U24" s="6">
+      <c r="U24" s="5">
         <v>0.245</v>
       </c>
     </row>
     <row r="25" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="3">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <v>0.17199999999999999</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>0.16600000000000001</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <v>0.16200000000000001</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="7">
         <v>0.158</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="Q25" s="7">
         <v>0.156</v>
       </c>
-      <c r="R25" s="8">
+      <c r="R25" s="7">
         <v>0.154</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <v>0.153</v>
       </c>
-      <c r="T25" s="8">
+      <c r="T25" s="7">
         <v>0.153</v>
       </c>
-      <c r="U25" s="8">
+      <c r="U25" s="7">
         <v>0.154</v>
       </c>
     </row>
     <row r="26" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L26" s="3">
+      <c r="L26" s="2">
         <f>L25+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <v>0.127</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="5">
         <v>0.123</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="7">
         <v>0.12</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="7">
         <v>0.11799999999999999</v>
       </c>
-      <c r="R26" s="6">
+      <c r="R26" s="5">
         <v>0.11700000000000001</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="7">
         <v>0.11600000000000001</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="3">
         <v>0.115</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="7">
         <v>0.115</v>
       </c>
     </row>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EDC302-E5D6-4342-BED3-151FEA389528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40473EA3-E79D-4C92-9B19-CF556C8935C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="area1" sheetId="6" r:id="rId1"/>
-    <sheet name="area 2" sheetId="2" r:id="rId2"/>
-    <sheet name="area 3" sheetId="3" r:id="rId3"/>
-    <sheet name="area 4" sheetId="4" r:id="rId4"/>
-    <sheet name="area 5" sheetId="5" r:id="rId5"/>
+    <sheet name="# control points" sheetId="7" r:id="rId1"/>
+    <sheet name="area1" sheetId="6" r:id="rId2"/>
+    <sheet name="area 2" sheetId="2" r:id="rId3"/>
+    <sheet name="area 3" sheetId="3" r:id="rId4"/>
+    <sheet name="area 4" sheetId="4" r:id="rId5"/>
+    <sheet name="area 5" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>range</t>
   </si>
@@ -70,6 +71,27 @@
   </si>
   <si>
     <t>….</t>
+  </si>
+  <si>
+    <t>initial control points</t>
+  </si>
+  <si>
+    <t>new control points</t>
+  </si>
+  <si>
+    <t>area1</t>
+  </si>
+  <si>
+    <t>area2</t>
+  </si>
+  <si>
+    <t>area3</t>
+  </si>
+  <si>
+    <t>area4</t>
+  </si>
+  <si>
+    <t>area5</t>
   </si>
 </sst>
 </file>
@@ -485,10 +507,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B619B-5250-4BC6-8A52-0322DD650F59}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1623</v>
+      </c>
+      <c r="C2">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424C6FD-858B-4715-AB2E-8F192D327931}">
   <dimension ref="A2:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1575,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
   <dimension ref="A2:V26"/>
   <sheetViews>
@@ -2602,7 +2683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
   <dimension ref="A2:V26"/>
   <sheetViews>
@@ -3629,7 +3710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
   <dimension ref="A2:V28"/>
   <sheetViews>
@@ -4696,7 +4777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46B17F-3465-4774-B397-C386614D55B2}">
   <dimension ref="A2:V26"/>
   <sheetViews>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40473EA3-E79D-4C92-9B19-CF556C8935C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ACE6A2-1C0C-4B7A-AAD5-24C8A9A8A4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>range</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>area5</t>
+  </si>
+  <si>
+    <t>initial critical distance</t>
+  </si>
+  <si>
+    <t>new critical distance</t>
+  </si>
+  <si>
+    <t>same</t>
   </si>
 </sst>
 </file>
@@ -508,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B619B-5250-4BC6-8A52-0322DD650F59}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,18 +528,27 @@
     <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2">
@@ -539,25 +557,79 @@
       <c r="C2">
         <v>1459</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E2">
+        <v>40000</v>
+      </c>
+      <c r="F2">
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B3">
+        <v>1135</v>
+      </c>
+      <c r="C3">
+        <v>1039</v>
+      </c>
+      <c r="E3">
+        <v>57000</v>
+      </c>
+      <c r="F3">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B4">
+        <v>1201</v>
+      </c>
+      <c r="C4">
+        <v>1110</v>
+      </c>
+      <c r="E4">
+        <v>46000</v>
+      </c>
+      <c r="F4">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B5">
+        <v>476</v>
+      </c>
+      <c r="C5">
+        <v>466</v>
+      </c>
+      <c r="E5">
+        <v>65000</v>
+      </c>
+      <c r="F5">
+        <v>63500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B6">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>59000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9ACE6A2-1C0C-4B7A-AAD5-24C8A9A8A4B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EF193-D4C6-406A-AD17-F87D1F342487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
   <si>
     <t>range</t>
   </si>
@@ -102,6 +102,15 @@
   <si>
     <t>same</t>
   </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>new boundaries</t>
+  </si>
+  <si>
+    <t>.....</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +174,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -193,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -203,6 +218,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -519,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5B619B-5250-4BC6-8A52-0322DD650F59}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -639,18 +658,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424C6FD-858B-4715-AB2E-8F192D327931}">
-  <dimension ref="A2:W26"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T25" activeCellId="6" sqref="Q19 S20 R21 S22 S23 S24 T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -712,8 +737,41 @@
       <c r="W2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AB2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -782,8 +840,43 @@
         <f t="shared" si="1"/>
         <v>1.236</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>1.0517000000000001</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>1.0351999999999999</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1.0343100000000001</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>1.0345500000000001</v>
+      </c>
+      <c r="AH3">
+        <v>1.0388599999999999</v>
+      </c>
+      <c r="AI3">
+        <v>1.0471999999999999</v>
+      </c>
+      <c r="AJ3">
+        <v>1.0601700000000001</v>
+      </c>
+      <c r="AK3">
+        <v>1.0808500000000001</v>
+      </c>
+      <c r="AL3">
+        <v>1.12018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
@@ -854,8 +947,46 @@
         <f t="shared" si="3"/>
         <v>0.78500000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="3"/>
+      <c r="AB4" s="2">
+        <f>AB3+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0.61319999999999997</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.61240000000000006</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0.61226999999999998</v>
+      </c>
+      <c r="AH4">
+        <v>0.61481200000000003</v>
+      </c>
+      <c r="AI4">
+        <v>0.62050000000000005</v>
+      </c>
+      <c r="AJ4">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="AK4">
+        <v>0.64649999999999996</v>
+      </c>
+      <c r="AL4">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="5">B4+1</f>
         <v>3</v>
@@ -926,8 +1057,42 @@
         <f t="shared" si="7"/>
         <v>0.58450000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AB5" s="2">
+        <f t="shared" ref="AB5:AB10" si="9">AB4+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5">
+        <v>0.44340000000000002</v>
+      </c>
+      <c r="AF5">
+        <v>0.44112000000000001</v>
+      </c>
+      <c r="AG5">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="AH5">
+        <v>0.435172</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.43530000000000002</v>
+      </c>
+      <c r="AK5">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="AL5">
+        <v>0.44790000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -959,47 +1124,81 @@
         <v>4.8250000000000001E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:W6" si="9">$K$6*N2</f>
+        <f t="shared" ref="N6:W6" si="10">$K$6*N2</f>
         <v>9.6500000000000002E-2</v>
       </c>
       <c r="O6">
+        <f t="shared" si="10"/>
+        <v>0.14474999999999999</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6" si="11">$K$6*P2</f>
+        <v>0.15922500000000001</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="10"/>
+        <v>0.193</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="10"/>
+        <v>0.24124999999999999</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="10"/>
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="10"/>
+        <v>0.33774999999999999</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="10"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="10"/>
+        <v>0.43424999999999997</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="10"/>
+        <v>0.48249999999999998</v>
+      </c>
+      <c r="AB6" s="2">
         <f t="shared" si="9"/>
-        <v>0.14474999999999999</v>
-      </c>
-      <c r="P6">
-        <f t="shared" ref="P6" si="10">$K$6*P2</f>
-        <v>0.15922500000000001</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="9"/>
-        <v>0.193</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="9"/>
-        <v>0.24124999999999999</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="9"/>
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="9"/>
-        <v>0.33774999999999999</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="9"/>
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="9"/>
-        <v>0.43424999999999997</v>
-      </c>
-      <c r="W6" s="7">
-        <f t="shared" si="9"/>
-        <v>0.48249999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0.47339999999999999</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE6">
+        <v>0.45989999999999998</v>
+      </c>
+      <c r="AF6">
+        <v>0.45856000000000002</v>
+      </c>
+      <c r="AG6">
+        <v>0.45660000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.45506799999999997</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>0.45469999999999999</v>
+      </c>
+      <c r="AK6">
+        <v>0.45579999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -1031,47 +1230,81 @@
         <v>3.1219999999999998E-2</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:W7" si="11">$K$7*N2</f>
+        <f t="shared" ref="N7:W7" si="12">$K$7*N2</f>
         <v>6.2439999999999996E-2</v>
       </c>
       <c r="O7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.3659999999999993E-2</v>
       </c>
       <c r="P7">
-        <f t="shared" ref="P7" si="12">$K$7*P2</f>
+        <f t="shared" ref="P7" si="13">$K$7*P2</f>
         <v>0.10302599999999999</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12487999999999999</v>
       </c>
       <c r="R7" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15609999999999999</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18731999999999999</v>
       </c>
       <c r="T7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.21853999999999998</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.24975999999999998</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.28098000000000001</v>
       </c>
       <c r="W7" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.31219999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AB7" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0.31059999999999999</v>
+      </c>
+      <c r="AD7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7">
+        <v>0.29770000000000002</v>
+      </c>
+      <c r="AF7">
+        <v>0.29703000000000002</v>
+      </c>
+      <c r="AG7">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0.29538900000000001</v>
+      </c>
+      <c r="AI7">
+        <v>0.29565000000000002</v>
+      </c>
+      <c r="AJ7">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="AL7">
+        <v>0.3034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -1103,47 +1336,81 @@
         <v>2.92E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:W8" si="13">$K$8*N2</f>
+        <f t="shared" ref="N8:W8" si="14">$K$8*N2</f>
         <v>5.8400000000000001E-2</v>
       </c>
       <c r="O8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.7599999999999997E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" ref="P8" si="14">$K$8*P2</f>
+        <f t="shared" ref="P8" si="15">$K$8*P2</f>
         <v>9.6360000000000001E-2</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1168</v>
       </c>
       <c r="R8" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14599999999999999</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17519999999999999</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.20439999999999997</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2336</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.26279999999999998</v>
       </c>
       <c r="W8" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.29199999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AB8" s="2">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="AD8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8">
+        <v>0.26344499999999998</v>
+      </c>
+      <c r="AF8">
+        <v>0.26344299999999998</v>
+      </c>
+      <c r="AG8">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0.26298300000000002</v>
+      </c>
+      <c r="AI8">
+        <v>0.26449</v>
+      </c>
+      <c r="AJ8">
+        <v>0.26733499999999999</v>
+      </c>
+      <c r="AK8">
+        <v>0.27179999999999999</v>
+      </c>
+      <c r="AL8">
+        <v>0.24890000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -1175,47 +1442,81 @@
         <v>2.1830000000000002E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:W9" si="15">$K$9*N2</f>
+        <f t="shared" ref="N9:W9" si="16">$K$9*N2</f>
         <v>4.3660000000000004E-2</v>
       </c>
       <c r="O9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.5489999999999993E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9" si="16">$K$9*P2</f>
+        <f t="shared" ref="P9" si="17">$K$9*P2</f>
         <v>7.2039000000000006E-2</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.7320000000000009E-2</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.10915</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.13097999999999999</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15280999999999997</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.17464000000000002</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.19647000000000001</v>
       </c>
       <c r="W9" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.21829999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AB9" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE9">
+        <v>0.1961</v>
+      </c>
+      <c r="AF9">
+        <v>0.22242999999999999</v>
+      </c>
+      <c r="AG9">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AH9">
+        <v>0.19340499999999999</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0.19328100000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.19423000000000001</v>
+      </c>
+      <c r="AK9">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="AL9">
+        <v>0.2014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -1247,47 +1548,81 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:W10" si="17">$K$10*N2</f>
+        <f t="shared" ref="N10:W10" si="18">$K$10*N2</f>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.3E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" ref="P10" si="18">$K$10*P2</f>
+        <f t="shared" ref="P10" si="19">$K$10*P2</f>
         <v>6.93E-2</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.105</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.126</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.14699999999999999</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.16800000000000001</v>
       </c>
       <c r="V10" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.189</v>
       </c>
       <c r="W10" s="7">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AB10" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0.20380000000000001</v>
+      </c>
+      <c r="AD10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>0.194716</v>
+      </c>
+      <c r="AF10">
+        <v>0.19417000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>0.193</v>
+      </c>
+      <c r="AH10">
+        <v>0.191746</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0.191163</v>
+      </c>
+      <c r="AJ10">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="AK10">
+        <v>0.19203000000000001</v>
+      </c>
+      <c r="AL10">
+        <v>0.1943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
@@ -1319,47 +1654,115 @@
         <v>1.4080000000000002E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:W11" si="19">$K$11*N2</f>
+        <f t="shared" ref="N11:W11" si="20">$K$11*N2</f>
         <v>2.8160000000000004E-2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.224E-2</v>
       </c>
       <c r="P11">
-        <f t="shared" ref="P11" si="20">$K$11*P2</f>
+        <f t="shared" ref="P11" si="21">$K$11*P2</f>
         <v>4.6464000000000005E-2</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.6320000000000009E-2</v>
       </c>
       <c r="R11" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.0400000000000004E-2</v>
       </c>
       <c r="S11" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.448E-2</v>
       </c>
       <c r="T11" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.8559999999999995E-2</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.11264000000000002</v>
       </c>
       <c r="V11" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.12672</v>
       </c>
       <c r="W11" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14080000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="AB11" s="2">
+        <f>AB10+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0.12570000000000001</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.12103999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.1205</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0.12019100000000001</v>
+      </c>
+      <c r="AI11">
+        <v>0.12034400000000001</v>
+      </c>
+      <c r="AJ11">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="AK11">
+        <v>0.122</v>
+      </c>
+      <c r="AL11">
+        <v>0.14180000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>135000</v>
+      </c>
+      <c r="D17" s="6">
+        <v>145000</v>
+      </c>
+      <c r="E17" s="6">
+        <f>D17+10000</f>
+        <v>155000</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17" si="22">E17+10000</f>
+        <v>165000</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ref="G17" si="23">F17+10000</f>
+        <v>175000</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17" si="24">G17+10000</f>
+        <v>185000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
       <c r="L17" t="s">
         <v>1</v>
       </c>
@@ -1369,359 +1772,992 @@
       <c r="N17" s="6">
         <v>0.2</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="6">
         <v>0.3</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="6">
         <v>0.33</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="6">
         <v>0.4</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="6">
         <v>0.5</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="6">
         <v>0.6</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T17" s="6">
         <v>0.7</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U17" s="6">
         <v>0.8</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="6">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
+      <c r="W17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.2783899999999999</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.2798499999999999</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.2808999999999999</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.2811999999999999</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.2812399999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.25851</v>
+      </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="7">
-        <v>1.0517000000000001</v>
-      </c>
-      <c r="N18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O18" s="4">
-        <v>1.0351999999999999</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1.0343100000000001</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>1.0345500000000001</v>
+      <c r="M18">
+        <f>$K$18*M17</f>
+        <v>0.12585100000000002</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ref="N18:W18" si="25">$K$18*N17</f>
+        <v>0.25170200000000004</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="25"/>
+        <v>0.37755299999999997</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="25"/>
+        <v>0.41530830000000002</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="25"/>
+        <v>0.50340400000000007</v>
       </c>
       <c r="R18">
-        <v>1.0388599999999999</v>
+        <f t="shared" si="25"/>
+        <v>0.62925500000000001</v>
       </c>
       <c r="S18">
-        <v>1.0471999999999999</v>
+        <f t="shared" si="25"/>
+        <v>0.75510599999999994</v>
       </c>
       <c r="T18">
-        <v>1.0601700000000001</v>
+        <f t="shared" si="25"/>
+        <v>0.88095699999999999</v>
       </c>
       <c r="U18">
-        <v>1.0808500000000001</v>
+        <f t="shared" si="25"/>
+        <v>1.0068080000000001</v>
       </c>
       <c r="V18">
-        <v>1.12018</v>
-      </c>
-    </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3"/>
+        <f t="shared" si="25"/>
+        <v>1.1326590000000001</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="25"/>
+        <v>1.25851</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f>B18+1</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.72619999999999996</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.72640000000000005</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.7278</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.72813499999999998</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.72812399999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.78959999999999997</v>
+      </c>
       <c r="L19" s="2">
         <f>L18+1</f>
         <v>2</v>
       </c>
-      <c r="M19" s="7">
-        <v>0.63160000000000005</v>
-      </c>
-      <c r="N19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.61319999999999997</v>
-      </c>
-      <c r="P19" s="3">
-        <v>0.61240000000000006</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0.61226999999999998</v>
+      <c r="M19">
+        <f>$K$19*M17</f>
+        <v>7.8960000000000002E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:W19" si="26">$K$19*N17</f>
+        <v>0.15792</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="26"/>
+        <v>0.23687999999999998</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="26"/>
+        <v>0.26056800000000002</v>
+      </c>
+      <c r="Q19" s="3">
+        <f t="shared" si="26"/>
+        <v>0.31584000000000001</v>
       </c>
       <c r="R19">
-        <v>0.61481200000000003</v>
+        <f t="shared" si="26"/>
+        <v>0.39479999999999998</v>
       </c>
       <c r="S19">
-        <v>0.62050000000000005</v>
+        <f t="shared" si="26"/>
+        <v>0.47375999999999996</v>
       </c>
       <c r="T19">
-        <v>0.63029999999999997</v>
+        <f t="shared" si="26"/>
+        <v>0.55271999999999999</v>
       </c>
       <c r="U19">
-        <v>0.64649999999999996</v>
+        <f t="shared" si="26"/>
+        <v>0.63168000000000002</v>
       </c>
       <c r="V19">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>0.71063999999999994</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="26"/>
+        <v>0.78959999999999997</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="11">
+        <v>1.0471999999999999</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="AF19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>1.0467</v>
+      </c>
+      <c r="AH19" s="10">
+        <v>1.0526</v>
+      </c>
+      <c r="AI19" s="10">
+        <v>1.0622</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>1.0759000000000001</v>
+      </c>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" ref="B20:B25" si="27">B19+1</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.56154999999999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.56194999999999995</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.56379999999999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.5645</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.56479999999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.58720000000000006</v>
+      </c>
       <c r="L20" s="2">
-        <f t="shared" ref="L20:L25" si="21">L19+1</f>
+        <f t="shared" ref="L20:L25" si="28">L19+1</f>
         <v>3</v>
       </c>
-      <c r="M20" s="7">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="N20" s="7" t="s">
-        <v>10</v>
+      <c r="M20">
+        <f>$K$20*M17</f>
+        <v>5.8720000000000008E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:W20" si="29">$K$20*N17</f>
+        <v>0.11744000000000002</v>
       </c>
       <c r="O20">
-        <v>0.44340000000000002</v>
+        <f t="shared" si="29"/>
+        <v>0.17616000000000001</v>
       </c>
       <c r="P20">
-        <v>0.44112000000000001</v>
+        <f t="shared" si="29"/>
+        <v>0.19377600000000003</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="29"/>
+        <v>0.23488000000000003</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="29"/>
+        <v>0.29360000000000003</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="29"/>
+        <v>0.35232000000000002</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="29"/>
+        <v>0.41104000000000002</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="29"/>
+        <v>0.46976000000000007</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="29"/>
+        <v>0.52848000000000006</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="29"/>
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="AB20" s="2">
+        <f>AB19+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="11">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="AE20" s="10">
+        <v>0.58489999999999998</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG20" s="12">
+        <v>0.58420000000000005</v>
+      </c>
+      <c r="AH20" s="10">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="AI20" s="10">
+        <v>0.59389999999999998</v>
+      </c>
+      <c r="AJ20" s="10">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.56930000000000003</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.56998000000000004</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.57669999999999999</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.57089999999999996</v>
+      </c>
+      <c r="K21">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <f>$K$21*M17</f>
+        <v>4.7620000000000003E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:W21" si="30">$K$21*N17</f>
+        <v>9.5240000000000005E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="30"/>
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="30"/>
+        <v>0.15714600000000001</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="30"/>
+        <v>0.19048000000000001</v>
+      </c>
+      <c r="R21" s="3">
+        <f t="shared" si="30"/>
+        <v>0.23810000000000001</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="30"/>
+        <v>0.28571999999999997</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="30"/>
+        <v>0.33333999999999997</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="30"/>
+        <v>0.38096000000000002</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="30"/>
+        <v>0.42858000000000002</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="30"/>
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" ref="AB21:AB26" si="31">AB20+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="11">
+        <v>0.44109999999999999</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>0.43490000000000001</v>
+      </c>
+      <c r="AF21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG21" s="10">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="AH21" s="10">
+        <v>0.42830000000000001</v>
+      </c>
+      <c r="AI21" s="12">
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>0.4279</v>
+      </c>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.35320000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.35367999999999999</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.35410000000000003</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.35489999999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.28322000000000003</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <f>$K$22*M17</f>
+        <v>2.8322000000000003E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:W22" si="32">$K$22*N17</f>
+        <v>5.6644000000000007E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="32"/>
+        <v>8.4966E-2</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="32"/>
+        <v>9.3462600000000007E-2</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="32"/>
+        <v>0.11328800000000001</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="32"/>
+        <v>0.14161000000000001</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="32"/>
+        <v>0.169932</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="32"/>
+        <v>0.19825400000000001</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="32"/>
+        <v>0.22657600000000003</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="32"/>
+        <v>0.25489800000000001</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="32"/>
+        <v>0.28322000000000003</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="11">
+        <v>0.4415</v>
+      </c>
+      <c r="AE22" s="10">
         <v>0.43790000000000001</v>
       </c>
-      <c r="R20">
-        <v>0.435172</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0.43409999999999999</v>
-      </c>
-      <c r="T20">
-        <v>0.43530000000000002</v>
-      </c>
-      <c r="U20">
-        <v>0.43890000000000001</v>
-      </c>
-      <c r="V20">
-        <v>0.44790000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L21" s="2">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0.47339999999999999</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O21">
-        <v>0.45989999999999998</v>
-      </c>
-      <c r="P21">
-        <v>0.45856000000000002</v>
-      </c>
-      <c r="Q21">
-        <v>0.45660000000000001</v>
-      </c>
-      <c r="R21">
-        <v>0.45506799999999997</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0.45450000000000002</v>
-      </c>
-      <c r="T21">
-        <v>0.45469999999999999</v>
-      </c>
-      <c r="U21">
-        <v>0.45579999999999998</v>
-      </c>
-      <c r="V21">
-        <v>0.45800000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L22" s="2">
-        <f t="shared" si="21"/>
+      <c r="AF22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG22" s="10">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="AH22" s="12">
+        <v>0.43580000000000002</v>
+      </c>
+      <c r="AI22" s="10">
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>0.43580000000000002</v>
+      </c>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="10"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.32569999999999999</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.32599</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.32586999999999999</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.32644000000000001</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.32690000000000002</v>
+      </c>
+      <c r="K23">
+        <v>0.26523999999999998</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="M23">
+        <f>$K$23*M17</f>
+        <v>2.6523999999999999E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:W23" si="33">$K$23*N17</f>
+        <v>5.3047999999999998E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="33"/>
+        <v>7.957199999999999E-2</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="33"/>
+        <v>8.7529200000000001E-2</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="33"/>
+        <v>0.106096</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="33"/>
+        <v>0.13261999999999999</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="33"/>
+        <v>0.15914399999999998</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="33"/>
+        <v>0.18566799999999997</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="33"/>
+        <v>0.21219199999999999</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="33"/>
+        <v>0.23871599999999998</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="33"/>
+        <v>0.26523999999999998</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="M22" s="7">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O22">
-        <v>0.29770000000000002</v>
-      </c>
-      <c r="P22">
-        <v>0.29703000000000002</v>
-      </c>
-      <c r="Q22">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0.29538900000000001</v>
-      </c>
-      <c r="S22">
-        <v>0.29565000000000002</v>
-      </c>
-      <c r="T22">
-        <v>0.29670000000000002</v>
-      </c>
-      <c r="U22">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="V22">
-        <v>0.3034</v>
-      </c>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L23" s="2">
-        <f t="shared" si="21"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="11">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="AE23" s="11">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="AF23" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG23" s="10">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="AH23" s="10">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AI23" s="12">
+        <v>0.25729999999999997</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>0.2576</v>
+      </c>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.23769999999999999</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.23777999999999999</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.2379</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.21060000000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <f>$K$24*M17</f>
+        <v>2.1060000000000002E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:W24" si="34">$K$24*N17</f>
+        <v>4.2120000000000005E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="34"/>
+        <v>6.318E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="34"/>
+        <v>6.9498000000000004E-2</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="34"/>
+        <v>8.4240000000000009E-2</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="34"/>
+        <v>0.1053</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="34"/>
+        <v>0.12636</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="34"/>
+        <v>0.14742</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="34"/>
+        <v>0.16848000000000002</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="34"/>
+        <v>0.18954000000000001</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="34"/>
+        <v>0.21060000000000001</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="M23" s="7">
-        <v>0.27079999999999999</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O23">
-        <v>0.26344499999999998</v>
-      </c>
-      <c r="P23">
-        <v>0.26344299999999998</v>
-      </c>
-      <c r="Q23">
-        <v>0.26200000000000001</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0.26298300000000002</v>
-      </c>
-      <c r="S23">
-        <v>0.26449</v>
-      </c>
-      <c r="T23">
-        <v>0.26733499999999999</v>
-      </c>
-      <c r="U23">
-        <v>0.27179999999999999</v>
-      </c>
-      <c r="V23">
-        <v>0.24890000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L24" s="2">
-        <f t="shared" si="21"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="11">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="AE24" s="10">
+        <v>0.2505</v>
+      </c>
+      <c r="AF24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG24" s="10">
+        <v>0.24809999999999999</v>
+      </c>
+      <c r="AH24" s="10">
+        <v>0.247</v>
+      </c>
+      <c r="AI24" s="12">
+        <v>0.2467</v>
+      </c>
+      <c r="AJ24" s="10">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.2281</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.2286</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.22869999999999999</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.2288</v>
+      </c>
+      <c r="K25">
+        <v>0.18725</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <f>$K$25*M17</f>
+        <v>1.8725000000000002E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:W25" si="35">$K$25*N17</f>
+        <v>3.7450000000000004E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="35"/>
+        <v>5.6174999999999996E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="35"/>
+        <v>6.17925E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="35"/>
+        <v>7.4900000000000008E-2</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="35"/>
+        <v>9.3625E-2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="35"/>
+        <v>0.11234999999999999</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="35"/>
+        <v>0.131075</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="35"/>
+        <v>0.14980000000000002</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="35"/>
+        <v>0.16852500000000001</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="35"/>
+        <v>0.18725</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="31"/>
         <v>7</v>
       </c>
-      <c r="M24" s="7">
-        <v>0.21640000000000001</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>0.1961</v>
-      </c>
-      <c r="P24">
-        <v>0.22242999999999999</v>
-      </c>
-      <c r="Q24">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="R24">
-        <v>0.19340499999999999</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0.19328100000000001</v>
-      </c>
-      <c r="T24">
-        <v>0.19423000000000001</v>
-      </c>
-      <c r="U24">
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="V24">
-        <v>0.2014</v>
-      </c>
-    </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L25" s="2">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0.20380000000000001</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O25">
-        <v>0.194716</v>
-      </c>
-      <c r="P25">
-        <v>0.19417000000000001</v>
-      </c>
-      <c r="Q25">
-        <v>0.193</v>
-      </c>
-      <c r="R25">
-        <v>0.191746</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0.191163</v>
-      </c>
-      <c r="T25">
-        <v>0.19120000000000001</v>
-      </c>
-      <c r="U25">
-        <v>0.19203000000000001</v>
-      </c>
-      <c r="V25">
-        <v>0.1943</v>
-      </c>
-    </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="11">
+        <v>0.18859999999999999</v>
+      </c>
+      <c r="AE25" s="11">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="AF25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="AH25" s="10">
+        <v>0.18390000000000001</v>
+      </c>
+      <c r="AI25" s="12">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f>B25+1</f>
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.1293</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.1288</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.12892999999999999</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.12902</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.12507699999999999</v>
+      </c>
       <c r="L26" s="2">
         <f>L25+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="7">
-        <v>0.12570000000000001</v>
-      </c>
-      <c r="N26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="O26">
-        <v>0.12139999999999999</v>
+      <c r="M26">
+        <f>$K$26*M17</f>
+        <v>1.25077E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:W26" si="36">$K$26*N17</f>
+        <v>2.50154E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="36"/>
+        <v>3.7523099999999997E-2</v>
       </c>
       <c r="P26">
-        <v>0.12103999999999999</v>
+        <f t="shared" si="36"/>
+        <v>4.1275409999999998E-2</v>
       </c>
       <c r="Q26">
-        <v>0.1205</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0.12019100000000001</v>
+        <f t="shared" si="36"/>
+        <v>5.00308E-2</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="36"/>
+        <v>6.2538499999999997E-2</v>
       </c>
       <c r="S26">
-        <v>0.12034400000000001</v>
+        <f t="shared" si="36"/>
+        <v>7.5046199999999993E-2</v>
       </c>
       <c r="T26">
-        <v>0.12089999999999999</v>
+        <f t="shared" si="36"/>
+        <v>8.755389999999999E-2</v>
       </c>
       <c r="U26">
-        <v>0.122</v>
+        <f t="shared" si="36"/>
+        <v>0.1000616</v>
       </c>
       <c r="V26">
-        <v>0.14180000000000001</v>
-      </c>
+        <f t="shared" si="36"/>
+        <v>0.1125693</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="36"/>
+        <v>0.12507699999999999</v>
+      </c>
+      <c r="AB26" s="2">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="11">
+        <v>0.185</v>
+      </c>
+      <c r="AE26" s="11">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AF26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG26" s="10">
+        <v>0.1749</v>
+      </c>
+      <c r="AH26" s="10">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AI26" s="10">
+        <v>0.1734</v>
+      </c>
+      <c r="AJ26" s="12">
+        <v>0.17319999999999999</v>
+      </c>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AB27" s="2">
+        <f>AB26+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="11">
+        <v>0.10081</v>
+      </c>
+      <c r="AE27" s="12">
+        <v>0.1008</v>
+      </c>
+      <c r="AF27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG27" s="10">
+        <v>0.1008</v>
+      </c>
+      <c r="AH27" s="10">
+        <v>0.1014</v>
+      </c>
+      <c r="AI27" s="10">
+        <v>0.1023</v>
+      </c>
+      <c r="AJ27" s="10">
+        <v>0.10366</v>
+      </c>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8EF193-D4C6-406A-AD17-F87D1F342487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88AD073-02BD-4853-A915-D513B5164242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>range</t>
   </si>
@@ -111,6 +111,12 @@
   <si>
     <t>.....</t>
   </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>new boundaies</t>
+  </si>
 </sst>
 </file>
 
@@ -131,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -208,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -222,6 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -660,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424C6FD-858B-4715-AB2E-8F192D327931}">
   <dimension ref="A1:AL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T25" activeCellId="6" sqref="Q19 S20 R21 S22 S23 S24 T25"/>
     </sheetView>
   </sheetViews>
@@ -2766,18 +2779,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
-  <dimension ref="A2:V26"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="S26" activeCellId="8" sqref="R18 Q19 S20 S21 S22 S23 T24 T25 S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2836,8 +2855,41 @@
       <c r="V2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -2902,8 +2954,42 @@
         <f t="shared" si="1"/>
         <v>1.7796000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1.95</v>
+      </c>
+      <c r="AC3">
+        <v>1.883</v>
+      </c>
+      <c r="AD3">
+        <v>1.845</v>
+      </c>
+      <c r="AE3">
+        <v>1.821</v>
+      </c>
+      <c r="AF3">
+        <v>1.8080000000000001</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>1.8089999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>1.8283</v>
+      </c>
+      <c r="AJ3">
+        <v>1.8680000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
@@ -2970,8 +3056,43 @@
         <f t="shared" si="2"/>
         <v>1.2577</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="AA4" s="2">
+        <f>AA3+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>1.1064000000000001</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>1.077</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1.06</v>
+      </c>
+      <c r="AG4">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="AH4">
+        <v>1.073</v>
+      </c>
+      <c r="AI4">
+        <v>1.0907</v>
+      </c>
+      <c r="AJ4">
+        <v>1.1240000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="3">B4+1</f>
         <v>3</v>
@@ -3038,8 +3159,39 @@
         <f t="shared" si="5"/>
         <v>0.85880000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA5" s="2">
+        <f t="shared" ref="AA5:AA10" si="6">AA4+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.755</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AD5">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AE5">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="AF5">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="AG5">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="AI5">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="AJ5">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3071,43 +3223,74 @@
         <v>6.3740000000000005E-2</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
+        <f t="shared" ref="N6:V6" si="7">$K$6*N2</f>
         <v>0.12748000000000001</v>
       </c>
       <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0.19121999999999997</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="7"/>
+        <v>0.25496000000000002</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="7"/>
+        <v>0.38243999999999995</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.44617999999999997</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>0.50992000000000004</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>0.57365999999999995</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>0.63739999999999997</v>
+      </c>
+      <c r="AA6" s="2">
         <f t="shared" si="6"/>
-        <v>0.19121999999999997</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="6"/>
-        <v>0.25496000000000002</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="6"/>
-        <v>0.31869999999999998</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="6"/>
-        <v>0.38243999999999995</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="6"/>
-        <v>0.44617999999999997</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="6"/>
-        <v>0.50992000000000004</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="6"/>
-        <v>0.57365999999999995</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="6"/>
-        <v>0.63739999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="AC6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AD6">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AE6">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="AF6">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AG6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AI6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3139,43 +3322,74 @@
         <v>4.5700000000000005E-2</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <f t="shared" ref="N7:V7" si="8">$K$7*N2</f>
         <v>9.1400000000000009E-2</v>
       </c>
       <c r="O7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1371</v>
       </c>
       <c r="P7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.18280000000000002</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.22850000000000001</v>
       </c>
       <c r="R7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.2742</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.31990000000000002</v>
       </c>
       <c r="T7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.36560000000000004</v>
       </c>
       <c r="U7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.4113</v>
       </c>
       <c r="V7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.45700000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA7" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AD7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AE7">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="AG7">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AI7">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AJ7">
+        <v>0.4521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3207,43 +3421,74 @@
         <v>3.4029999999999998E-2</v>
       </c>
       <c r="N8">
-        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <f t="shared" ref="N8:V8" si="9">$K$8*N2</f>
         <v>6.8059999999999996E-2</v>
       </c>
       <c r="O8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.10209</v>
       </c>
       <c r="P8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.13611999999999999</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.17015</v>
       </c>
       <c r="R8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.20418</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.23820999999999998</v>
       </c>
       <c r="T8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.27223999999999998</v>
       </c>
       <c r="U8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30626999999999999</v>
       </c>
       <c r="V8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.34029999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA8" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AE8">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AF8">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AG8">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AI8">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="AJ8">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3275,43 +3520,74 @@
         <v>2.5929999999999998E-2</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <f t="shared" ref="N9:V9" si="10">$K$9*N2</f>
         <v>5.1859999999999996E-2</v>
       </c>
       <c r="O9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.7789999999999984E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.10371999999999999</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.12964999999999999</v>
       </c>
       <c r="R9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15557999999999997</v>
       </c>
       <c r="S9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18150999999999998</v>
       </c>
       <c r="T9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.20743999999999999</v>
       </c>
       <c r="U9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.23336999999999999</v>
       </c>
       <c r="V9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.25929999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA9" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="AG9">
+        <v>0.26</v>
+      </c>
+      <c r="AH9">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AJ9">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3343,43 +3619,74 @@
         <v>2.4720000000000002E-2</v>
       </c>
       <c r="N10">
-        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <f t="shared" ref="N10:V10" si="11">$K$10*N2</f>
         <v>4.9440000000000005E-2</v>
       </c>
       <c r="O10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.4160000000000004E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.888000000000001E-2</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1236</v>
       </c>
       <c r="R10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14832000000000001</v>
       </c>
       <c r="S10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.17304</v>
       </c>
       <c r="T10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.19776000000000002</v>
       </c>
       <c r="U10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.22248000000000001</v>
       </c>
       <c r="V10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.2472</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA10" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0.253</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0.249</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0.247</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0.246</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0.245</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>0.245</v>
+      </c>
+      <c r="AJ10">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
@@ -3411,43 +3718,104 @@
         <v>1.533E-2</v>
       </c>
       <c r="N11">
-        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <f t="shared" ref="N11:V11" si="12">$K$11*N2</f>
         <v>3.066E-2</v>
       </c>
       <c r="O11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5989999999999996E-2</v>
       </c>
       <c r="P11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.132E-2</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.6649999999999996E-2</v>
       </c>
       <c r="R11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.1979999999999992E-2</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10730999999999999</v>
       </c>
       <c r="T11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12264</v>
       </c>
       <c r="U11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.13797000000000001</v>
       </c>
       <c r="V11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.15329999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="AA11" s="2">
+        <f>AA10+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0.154</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AG11">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>0.1426</v>
+      </c>
+      <c r="AI11">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="AJ11">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6">
+        <v>110000</v>
+      </c>
+      <c r="D17" s="6">
+        <f>C17+10000</f>
+        <v>120000</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17" si="13">D17+10000</f>
+        <v>130000</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17" si="14">E17+10000</f>
+        <v>140000</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ref="G17:H17" si="15">F17+10000</f>
+        <v>150000</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="15"/>
+        <v>160000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
       <c r="L17" t="s">
         <v>1</v>
       </c>
@@ -3478,312 +3846,961 @@
       <c r="U17" s="6">
         <v>0.9</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="5"/>
+      <c r="AA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2.2063999999999999</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2.2231000000000001</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2.2204999999999999</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.2235</v>
+      </c>
+      <c r="G18" s="7">
+        <v>2.2277</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2.2317999999999998</v>
+      </c>
+      <c r="K18">
+        <v>1.7808999999999999</v>
+      </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.95</v>
+        <f>$K$18*M17</f>
+        <v>0.17809</v>
       </c>
       <c r="N18">
-        <v>1.883</v>
+        <f t="shared" ref="N18:V18" si="16">$K$18*N17</f>
+        <v>0.35618</v>
       </c>
       <c r="O18">
-        <v>1.845</v>
+        <f t="shared" si="16"/>
+        <v>0.53426999999999991</v>
       </c>
       <c r="P18">
-        <v>1.821</v>
+        <f t="shared" si="16"/>
+        <v>0.71235999999999999</v>
       </c>
       <c r="Q18">
-        <v>1.8080000000000001</v>
+        <f t="shared" si="16"/>
+        <v>0.89044999999999996</v>
       </c>
       <c r="R18" s="3">
+        <f t="shared" si="16"/>
+        <v>1.0685399999999998</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="16"/>
+        <v>1.2466299999999999</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="16"/>
+        <v>1.42472</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="16"/>
+        <v>1.6028100000000001</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="16"/>
+        <v>1.7808999999999999</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="7">
+        <v>1.8046</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>1.7937000000000001</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1.7928999999999999</v>
+      </c>
+      <c r="AH18" s="7">
         <v>1.8029999999999999</v>
       </c>
-      <c r="S18">
-        <v>1.8089999999999999</v>
-      </c>
-      <c r="T18">
-        <v>1.8283</v>
-      </c>
-      <c r="U18">
-        <v>1.8680000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3"/>
+      <c r="AI18" s="7">
+        <v>1.8277000000000001</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>1.8766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f>B18+1</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1.3711899999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.3692</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.3726</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.3732</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.3771</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.3791</v>
+      </c>
+      <c r="K19">
+        <v>1.2699</v>
+      </c>
       <c r="L19" s="2">
         <f>L18+1</f>
         <v>2</v>
       </c>
-      <c r="M19" s="5">
-        <v>1.1064000000000001</v>
-      </c>
-      <c r="N19" s="5">
-        <v>1.077</v>
-      </c>
-      <c r="O19" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M19">
+        <f>$K$19*M17</f>
+        <v>0.12699000000000002</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:V19" si="17">$K$19*N17</f>
+        <v>0.25398000000000004</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="17"/>
+        <v>0.38096999999999998</v>
       </c>
       <c r="P19">
-        <v>1.0620000000000001</v>
+        <f t="shared" si="17"/>
+        <v>0.50796000000000008</v>
       </c>
       <c r="Q19" s="3">
-        <v>1.06</v>
+        <f t="shared" si="17"/>
+        <v>0.63495000000000001</v>
       </c>
       <c r="R19">
-        <v>1.0640000000000001</v>
+        <f t="shared" si="17"/>
+        <v>0.76193999999999995</v>
       </c>
       <c r="S19">
-        <v>1.073</v>
+        <f t="shared" si="17"/>
+        <v>0.88893</v>
       </c>
       <c r="T19">
-        <v>1.0907</v>
+        <f t="shared" si="17"/>
+        <v>1.0159200000000002</v>
       </c>
       <c r="U19">
-        <v>1.1240000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>1.1429100000000001</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="17"/>
+        <v>1.2699</v>
+      </c>
+      <c r="X19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="AA19" s="2">
+        <f>AA18+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>1.0534300000000001</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1.0506</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>1.0544800000000001</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>1.0613300000000001</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>1.0775699999999999</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>1.1104000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" ref="B20:B25" si="18">B19+1</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.84609999999999996</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.84709999999999996</v>
+      </c>
       <c r="L20" s="2">
-        <f t="shared" ref="L20:L25" si="12">L19+1</f>
+        <f t="shared" ref="L20:L25" si="19">L19+1</f>
         <v>3</v>
       </c>
-      <c r="M20" s="5">
-        <v>0.755</v>
-      </c>
-      <c r="N20" s="5">
-        <v>0.72699999999999998</v>
+      <c r="M20">
+        <f>$K$20*M17</f>
+        <v>8.4710000000000008E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ref="N20:V20" si="20">$K$20*N17</f>
+        <v>0.16942000000000002</v>
       </c>
       <c r="O20">
-        <v>0.71299999999999997</v>
+        <f t="shared" si="20"/>
+        <v>0.25412999999999997</v>
       </c>
       <c r="P20">
-        <v>0.70199999999999996</v>
+        <f t="shared" si="20"/>
+        <v>0.33884000000000003</v>
       </c>
       <c r="Q20">
-        <v>0.69499999999999995</v>
+        <f t="shared" si="20"/>
+        <v>0.42354999999999998</v>
       </c>
       <c r="R20">
-        <v>0.69099999999999995</v>
+        <f t="shared" si="20"/>
+        <v>0.50825999999999993</v>
       </c>
       <c r="S20" s="3">
-        <v>0.69</v>
+        <f t="shared" si="20"/>
+        <v>0.59296999999999989</v>
       </c>
       <c r="T20">
-        <v>0.69199999999999995</v>
+        <f t="shared" si="20"/>
+        <v>0.67768000000000006</v>
       </c>
       <c r="U20">
-        <v>0.70199999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>0.76239000000000001</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="20"/>
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="X20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3"/>
+      <c r="AA20" s="2">
+        <f t="shared" ref="AA20:AA25" si="21">AA19+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="7">
+        <v>0.67669999999999997</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>0.66930000000000001</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>0.66439999999999999</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0.67283999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.67220000000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.67759999999999998</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.67879999999999996</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.67820000000000003</v>
+      </c>
+      <c r="K21">
+        <v>0.62929999999999997</v>
+      </c>
       <c r="L21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="M21">
-        <v>0.58699999999999997</v>
+        <f>$K$21*M17</f>
+        <v>6.293E-2</v>
       </c>
       <c r="N21">
-        <v>0.56999999999999995</v>
+        <f t="shared" ref="N21:V21" si="22">$K$21*N17</f>
+        <v>0.12586</v>
       </c>
       <c r="O21">
-        <v>0.56100000000000005</v>
+        <f t="shared" si="22"/>
+        <v>0.18878999999999999</v>
       </c>
       <c r="P21">
-        <v>0.55500000000000005</v>
+        <f t="shared" si="22"/>
+        <v>0.25172</v>
       </c>
       <c r="Q21">
-        <v>0.55200000000000005</v>
+        <f t="shared" si="22"/>
+        <v>0.31464999999999999</v>
       </c>
       <c r="R21">
-        <v>0.55000000000000004</v>
+        <f t="shared" si="22"/>
+        <v>0.37757999999999997</v>
       </c>
       <c r="S21" s="3">
-        <v>0.54900000000000004</v>
+        <f t="shared" si="22"/>
+        <v>0.44050999999999996</v>
       </c>
       <c r="T21">
-        <v>0.55000000000000004</v>
+        <f t="shared" si="22"/>
+        <v>0.50344</v>
       </c>
       <c r="U21">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>0.56637000000000004</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="22"/>
+        <v>0.62929999999999997</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AB21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0.5413</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0.54549999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.55889999999999995</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.5595</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.56120000000000003</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.56340000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.44969999999999999</v>
+      </c>
       <c r="L22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="M22" s="5">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0.46899999999999997</v>
+      <c r="M22">
+        <f>$K$22*M17</f>
+        <v>4.4970000000000003E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:V22" si="23">$K$22*N17</f>
+        <v>8.9940000000000006E-2</v>
       </c>
       <c r="O22">
-        <v>0.46100000000000002</v>
+        <f t="shared" si="23"/>
+        <v>0.13491</v>
       </c>
       <c r="P22">
-        <v>0.45400000000000001</v>
+        <f t="shared" si="23"/>
+        <v>0.17988000000000001</v>
       </c>
       <c r="Q22">
-        <v>0.44900000000000001</v>
+        <f t="shared" si="23"/>
+        <v>0.22484999999999999</v>
       </c>
       <c r="R22">
-        <v>0.44700000000000001</v>
+        <f t="shared" si="23"/>
+        <v>0.26982</v>
       </c>
       <c r="S22" s="3">
-        <v>0.44600000000000001</v>
+        <f t="shared" si="23"/>
+        <v>0.31478999999999996</v>
       </c>
       <c r="T22">
-        <v>0.44700000000000001</v>
+        <f t="shared" si="23"/>
+        <v>0.35976000000000002</v>
       </c>
       <c r="U22">
-        <v>0.4521</v>
-      </c>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>0.40472999999999998</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="23"/>
+        <v>0.44969999999999999</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AB22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0.43209999999999998</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>0.4299</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AI22" s="7">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.3891</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.38979999999999998</v>
+      </c>
+      <c r="K23">
+        <v>0.29409999999999997</v>
+      </c>
       <c r="L23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="M23" s="5">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0.34300000000000003</v>
+      <c r="M23">
+        <f>$K$23*M17</f>
+        <v>2.9409999999999999E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:V23" si="24">$K$23*N17</f>
+        <v>5.8819999999999997E-2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="24"/>
+        <v>8.8229999999999989E-2</v>
       </c>
       <c r="P23">
-        <v>0.34100000000000003</v>
+        <f t="shared" si="24"/>
+        <v>0.11763999999999999</v>
       </c>
       <c r="Q23">
-        <v>0.33800000000000002</v>
+        <f t="shared" si="24"/>
+        <v>0.14704999999999999</v>
       </c>
       <c r="R23">
-        <v>0.33600000000000002</v>
+        <f t="shared" si="24"/>
+        <v>0.17645999999999998</v>
       </c>
       <c r="S23" s="3">
-        <v>0.33500000000000002</v>
+        <f t="shared" si="24"/>
+        <v>0.20586999999999997</v>
       </c>
       <c r="T23">
-        <v>0.33500000000000002</v>
+        <f t="shared" si="24"/>
+        <v>0.23527999999999999</v>
       </c>
       <c r="U23">
-        <v>0.33600000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="24"/>
+        <v>0.26468999999999998</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="24"/>
+        <v>0.29409999999999997</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AB23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>0.2923</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="AG23" s="7">
+        <v>0.28810000000000002</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0.28739999999999999</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>0.28760000000000002</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>0.28920000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.35009000000000001</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.3503</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.3508</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.35160000000000002</v>
+      </c>
+      <c r="K24">
+        <v>0.2631</v>
+      </c>
       <c r="L24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="M24" s="5">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0.27400000000000002</v>
-      </c>
-      <c r="O24" s="5">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0.26200000000000001</v>
+      <c r="M24">
+        <f>$K$24*M17</f>
+        <v>2.631E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:V24" si="25">$K$24*N17</f>
+        <v>5.262E-2</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="25"/>
+        <v>7.893E-2</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="25"/>
+        <v>0.10524</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="25"/>
+        <v>0.13155</v>
       </c>
       <c r="R24">
-        <v>0.26</v>
+        <f t="shared" si="25"/>
+        <v>0.15786</v>
       </c>
       <c r="S24">
-        <v>0.25800000000000001</v>
+        <f t="shared" si="25"/>
+        <v>0.18417</v>
       </c>
       <c r="T24" s="3">
-        <v>0.25700000000000001</v>
+        <f t="shared" si="25"/>
+        <v>0.21048</v>
       </c>
       <c r="U24">
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="25"/>
+        <v>0.23679</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="25"/>
+        <v>0.2631</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="AB24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>0.26829999999999998</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="AH24" s="7">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.3306</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.3322</v>
+      </c>
+      <c r="K25">
+        <v>0.24440000000000001</v>
+      </c>
       <c r="L25" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="M25" s="5">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="O25" s="5">
-        <v>0.253</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0.249</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>0.247</v>
-      </c>
-      <c r="R25" s="5">
-        <v>0.246</v>
-      </c>
-      <c r="S25" s="5">
-        <v>0.245</v>
+      <c r="M25">
+        <f>$K$25*M17</f>
+        <v>2.4440000000000003E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" ref="N25:V25" si="26">$K$25*N17</f>
+        <v>4.8880000000000007E-2</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="26"/>
+        <v>7.3319999999999996E-2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="26"/>
+        <v>9.7760000000000014E-2</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="26"/>
+        <v>0.1222</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="26"/>
+        <v>0.14663999999999999</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="26"/>
+        <v>0.17107999999999998</v>
       </c>
       <c r="T25" s="3">
-        <v>0.245</v>
+        <f t="shared" si="26"/>
+        <v>0.19552000000000003</v>
       </c>
       <c r="U25">
-        <v>0.246</v>
-      </c>
-    </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>0.21996000000000002</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="26"/>
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AB25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0.2445</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>0.2432</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>0.2442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f>B25+1</f>
+        <v>9</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.1971</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.19639999999999999</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.1968</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.19750000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.15329999999999999</v>
+      </c>
       <c r="L26" s="2">
         <f>L25+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="5">
-        <v>0.154</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="O26" s="5">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="P26" s="5">
-        <v>0.14399999999999999</v>
+      <c r="M26">
+        <f>$K$26*M17</f>
+        <v>1.533E-2</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:V26" si="27">$K$26*N17</f>
+        <v>3.066E-2</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="27"/>
+        <v>4.5989999999999996E-2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="27"/>
+        <v>6.132E-2</v>
       </c>
       <c r="Q26">
-        <v>0.14299999999999999</v>
+        <f t="shared" si="27"/>
+        <v>7.6649999999999996E-2</v>
       </c>
       <c r="R26">
-        <v>0.14299999999999999</v>
+        <f t="shared" si="27"/>
+        <v>9.1979999999999992E-2</v>
       </c>
       <c r="S26" s="3">
-        <v>0.1426</v>
+        <f t="shared" si="27"/>
+        <v>0.10730999999999999</v>
       </c>
       <c r="T26">
-        <v>0.14319999999999999</v>
+        <f t="shared" si="27"/>
+        <v>0.12264</v>
       </c>
       <c r="U26">
-        <v>0.14499999999999999</v>
+        <f t="shared" si="27"/>
+        <v>0.13797000000000001</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="27"/>
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="AA26" s="2">
+        <f>AA25+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>0.1459</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>0.1444</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="AI26" s="7">
+        <v>0.1449</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>0.14680000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88AD073-02BD-4853-A915-D513B5164242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265CA197-CB6F-44F1-A6F9-738C1A6A4F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
   <si>
     <t>range</t>
   </si>
@@ -2781,7 +2781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="S26" activeCellId="8" sqref="R18 Q19 S20 S21 S22 S23 T24 T25 S26"/>
     </sheetView>
   </sheetViews>
@@ -4810,18 +4810,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
-  <dimension ref="A2:V26"/>
+  <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U23" activeCellId="8" sqref="Q18 R19 S21 P20 S22 S26 T25 R24 U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4881,7 +4887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -4946,8 +4952,41 @@
         <f t="shared" si="1"/>
         <v>1.7436</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
@@ -5014,8 +5053,42 @@
         <f t="shared" si="2"/>
         <v>1.2951999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="5"/>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>1.518</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1.484</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1.4810000000000001</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>1.488</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="3">B4+1</f>
         <v>3</v>
@@ -5082,8 +5155,43 @@
         <f t="shared" si="5"/>
         <v>1.0659000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y5" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="3"/>
+      <c r="AB5" s="2">
+        <f>AB4+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -5150,8 +5258,39 @@
         <f t="shared" si="6"/>
         <v>0.75019999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AB6" s="2">
+        <f t="shared" ref="AB6:AB11" si="7">AB5+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="AH6" s="7">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -5183,43 +5322,74 @@
         <v>4.6875E-2</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <f t="shared" ref="N7:V7" si="8">$K$7*N2</f>
         <v>9.375E-2</v>
       </c>
       <c r="O7" s="7">
+        <f t="shared" si="8"/>
+        <v>0.140625</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1875</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="8"/>
+        <v>0.234375</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="8"/>
+        <v>0.28125</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="8"/>
+        <v>0.328125</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="8"/>
+        <v>0.375</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="8"/>
+        <v>0.421875</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="8"/>
+        <v>0.46875</v>
+      </c>
+      <c r="AB7" s="2">
         <f t="shared" si="7"/>
-        <v>0.140625</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.1875</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.234375</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.28125</v>
-      </c>
-      <c r="S7" s="3">
-        <f t="shared" si="7"/>
-        <v>0.328125</v>
-      </c>
-      <c r="T7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.375</v>
-      </c>
-      <c r="U7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.421875</v>
-      </c>
-      <c r="V7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AH7" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0.65200000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -5251,43 +5421,74 @@
         <v>3.3409000000000001E-2</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <f t="shared" ref="N8:V8" si="9">$K$8*N2</f>
         <v>6.6818000000000002E-2</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.100227</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.133636</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.167045</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.20045399999999999</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.23386299999999999</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.26727200000000001</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.30068100000000003</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.33409</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AB8" s="2">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.433</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -5319,43 +5520,74 @@
         <v>2.1931000000000003E-2</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <f t="shared" ref="N9:V9" si="10">$K$9*N2</f>
         <v>4.3862000000000005E-2</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.5793000000000004E-2</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.772400000000001E-2</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.109655</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13158600000000001</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15351699999999999</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.17544800000000002</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.197379</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.21931</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AB9" s="2">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.371</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -5387,43 +5619,74 @@
         <v>1.6769000000000003E-2</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <f t="shared" ref="N10:V10" si="11">$K$10*N2</f>
         <v>3.3538000000000005E-2</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.0306999999999998E-2</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.7076000000000011E-2</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.3845000000000003E-2</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.100614</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.117383</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13415200000000002</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.150921</v>
       </c>
       <c r="V10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.16769000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AB10" s="2">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>0.219</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
@@ -5455,43 +5718,142 @@
         <v>1.43041E-2</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <f t="shared" ref="N11:V11" si="12">$K$11*N2</f>
         <v>2.86082E-2</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.29123E-2</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.7216400000000001E-2</v>
       </c>
       <c r="Q11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1520500000000001E-2</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.5824600000000001E-2</v>
       </c>
       <c r="S11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1001287</v>
       </c>
       <c r="T11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.1144328</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.12873690000000002</v>
       </c>
       <c r="V11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.143041</v>
       </c>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="AB11" s="2">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0.161</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AB12" s="2">
+        <f>AB11+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0.127</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0.124</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0.122</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>0.121</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17+10000</f>
+        <v>110000</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" ref="E17" si="13">D17+10000</f>
+        <v>120000</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" ref="F17" si="14">E17+10000</f>
+        <v>130000</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" ref="G17:H17" si="15">F17+10000</f>
+        <v>140000</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="15"/>
+        <v>150000</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
       <c r="L17" t="s">
         <v>1</v>
       </c>
@@ -5522,312 +5884,925 @@
       <c r="U17" s="6">
         <v>0.9</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="5"/>
+      <c r="AB17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1.77966</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.7721</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1.7805</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1.7847</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1.7875000000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1.7881499999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.7664</v>
+      </c>
       <c r="L18" s="2">
         <v>1</v>
       </c>
-      <c r="M18" s="5">
-        <v>1.5620000000000001</v>
+      <c r="M18" s="7">
+        <f>$K$18*M17</f>
+        <v>0.17664000000000002</v>
       </c>
       <c r="N18" s="7">
-        <v>1.518</v>
+        <f t="shared" ref="N18:V18" si="16">$K$18*N17</f>
+        <v>0.35328000000000004</v>
       </c>
       <c r="O18" s="7">
-        <v>1.4950000000000001</v>
+        <f t="shared" si="16"/>
+        <v>0.52991999999999995</v>
       </c>
       <c r="P18" s="7">
-        <v>1.484</v>
+        <f t="shared" si="16"/>
+        <v>0.70656000000000008</v>
       </c>
       <c r="Q18" s="3">
-        <v>1.4810000000000001</v>
+        <f t="shared" si="16"/>
+        <v>0.88319999999999999</v>
       </c>
       <c r="R18" s="7">
-        <v>1.488</v>
+        <f t="shared" si="16"/>
+        <v>1.0598399999999999</v>
       </c>
       <c r="S18" s="7">
-        <v>1.5049999999999999</v>
+        <f t="shared" si="16"/>
+        <v>1.2364799999999998</v>
       </c>
       <c r="T18" s="7">
-        <v>1.5369999999999999</v>
+        <f t="shared" si="16"/>
+        <v>1.4131200000000002</v>
       </c>
       <c r="U18" s="7">
-        <v>1.599</v>
-      </c>
-    </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3"/>
+        <f t="shared" si="16"/>
+        <v>1.5897600000000001</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="16"/>
+        <v>1.7664</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="5"/>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7">
+        <v>1.5142</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>1.4978</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1.4913000000000001</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>1.494</v>
+      </c>
+      <c r="AI18" s="7">
+        <v>1.5081</v>
+      </c>
+      <c r="AJ18" s="7">
+        <v>1.5385</v>
+      </c>
+      <c r="AK18" s="7">
+        <v>1.6003000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f>B18+1</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.1477999999999999</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.1520999999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.1529</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.1569</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.1552</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.1613</v>
+      </c>
+      <c r="K19">
+        <v>1.3254999999999999</v>
+      </c>
       <c r="L19" s="2">
         <f>L18+1</f>
         <v>2</v>
       </c>
-      <c r="M19" s="5">
-        <v>0.97299999999999998</v>
+      <c r="M19" s="7">
+        <f>$K$19*M17</f>
+        <v>0.13255</v>
       </c>
       <c r="N19" s="7">
-        <v>0.95</v>
+        <f t="shared" ref="N19:V19" si="17">$K$19*N17</f>
+        <v>0.2651</v>
       </c>
       <c r="O19" s="7">
-        <v>0.93899999999999995</v>
+        <f t="shared" si="17"/>
+        <v>0.39764999999999995</v>
       </c>
       <c r="P19" s="7">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.93700000000000006</v>
+        <f t="shared" si="17"/>
+        <v>0.5302</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="17"/>
+        <v>0.66274999999999995</v>
+      </c>
+      <c r="R19" s="3">
+        <f t="shared" si="17"/>
+        <v>0.7952999999999999</v>
       </c>
       <c r="S19" s="7">
-        <v>0.94499999999999995</v>
+        <f t="shared" si="17"/>
+        <v>0.92784999999999984</v>
       </c>
       <c r="T19" s="7">
-        <v>0.96099999999999997</v>
+        <f t="shared" si="17"/>
+        <v>1.0604</v>
       </c>
       <c r="U19" s="7">
-        <v>0.96099999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="17"/>
+        <v>1.19295</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="17"/>
+        <v>1.3254999999999999</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="2">
+        <f>AB18+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7">
+        <v>0.98680000000000001</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0.9708</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>1.0109999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" ref="B20:B25" si="18">B19+1</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.995</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.99490000000000001</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.004</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="K20">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L20" s="2">
-        <f t="shared" ref="L20:L25" si="12">L19+1</f>
+        <f t="shared" ref="L20:L25" si="19">L19+1</f>
         <v>3</v>
       </c>
-      <c r="M20" s="5">
-        <v>0.88100000000000001</v>
+      <c r="M20" s="7">
+        <f>$K$20*M17</f>
+        <v>0.11000000000000001</v>
       </c>
       <c r="N20" s="7">
-        <v>0.86099999999999999</v>
+        <f t="shared" ref="N20:V20" si="20">$K$20*N17</f>
+        <v>0.22000000000000003</v>
       </c>
       <c r="O20" s="7">
-        <v>0.85399999999999998</v>
+        <f t="shared" si="20"/>
+        <v>0.33</v>
       </c>
       <c r="P20" s="3">
-        <v>0.85399999999999998</v>
+        <f t="shared" si="20"/>
+        <v>0.44000000000000006</v>
       </c>
       <c r="Q20" s="7">
-        <v>0.85899999999999999</v>
+        <f t="shared" si="20"/>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R20" s="7">
-        <v>0.86899999999999999</v>
+        <f t="shared" si="20"/>
+        <v>0.66</v>
       </c>
       <c r="S20" s="7">
-        <v>0.88500000000000001</v>
+        <f t="shared" si="20"/>
+        <v>0.77</v>
       </c>
       <c r="T20" s="7">
-        <v>0.91200000000000003</v>
+        <f t="shared" si="20"/>
+        <v>0.88000000000000012</v>
       </c>
       <c r="U20" s="7">
-        <v>0.95799999999999996</v>
-      </c>
-    </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="20"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="20"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AB20" s="2">
+        <f t="shared" ref="AB20:AB25" si="21">AB19+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7">
+        <v>0.8972</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>0.90269999999999995</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>0.98160000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.8599</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.86209999999999998</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.86409999999999998</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="K21">
+        <v>0.76419999999999999</v>
+      </c>
       <c r="L21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="M21" s="5">
-        <v>0.71199999999999997</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0.66500000000000004</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0.65300000000000002</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>0.64500000000000002</v>
+      <c r="M21" s="7">
+        <f>$K$21*M17</f>
+        <v>7.6420000000000002E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" ref="N21:V21" si="22">$K$21*N17</f>
+        <v>0.15284</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="22"/>
+        <v>0.22925999999999999</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="22"/>
+        <v>0.30568000000000001</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="22"/>
+        <v>0.3821</v>
       </c>
       <c r="R21" s="7">
-        <v>0.64</v>
+        <f t="shared" si="22"/>
+        <v>0.45851999999999998</v>
       </c>
       <c r="S21" s="3">
-        <v>0.63900000000000001</v>
+        <f t="shared" si="22"/>
+        <v>0.53493999999999997</v>
       </c>
       <c r="T21" s="7">
-        <v>0.64100000000000001</v>
+        <f t="shared" si="22"/>
+        <v>0.61136000000000001</v>
       </c>
       <c r="U21" s="7">
-        <v>0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="22"/>
+        <v>0.68778000000000006</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="22"/>
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="5">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0.6472</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>0.65559999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.57440000000000002</v>
+      </c>
+      <c r="K22">
+        <v>0.48956</v>
+      </c>
       <c r="L22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="M22" s="5">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="N22" s="5">
+      <c r="M22" s="7">
+        <f>$K$22*M17</f>
+        <v>4.8956E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" ref="N22:V22" si="23">$K$22*N17</f>
+        <v>9.7911999999999999E-2</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="23"/>
+        <v>0.146868</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="23"/>
+        <v>0.195824</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="23"/>
+        <v>0.24478</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="23"/>
+        <v>0.293736</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="23"/>
+        <v>0.342692</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="23"/>
+        <v>0.391648</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="23"/>
+        <v>0.440604</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="23"/>
+        <v>0.48956</v>
+      </c>
+      <c r="AB22" s="2">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7">
+        <v>0.46410000000000001</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="AG22" s="7">
         <v>0.45100000000000001</v>
       </c>
-      <c r="O22" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="P22" s="7">
-        <v>0.433</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0.433</v>
-      </c>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="AH22" s="7">
+        <v>0.44790000000000002</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="AJ22" s="7">
+        <v>0.44850000000000001</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.49220000000000003</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.49609999999999999</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.49709999999999999</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.34449999999999997</v>
+      </c>
       <c r="L23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="M23" s="5">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0.38300000000000001</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0.371</v>
+      <c r="M23" s="7">
+        <f>$K$23*M17</f>
+        <v>3.4450000000000001E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ref="N23:V23" si="24">$K$23*N17</f>
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="24"/>
+        <v>0.10334999999999998</v>
       </c>
       <c r="P23" s="7">
-        <v>0.36199999999999999</v>
+        <f t="shared" si="24"/>
+        <v>0.13780000000000001</v>
       </c>
       <c r="Q23" s="7">
+        <f t="shared" si="24"/>
+        <v>0.17224999999999999</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="24"/>
+        <v>0.20669999999999997</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="24"/>
+        <v>0.24114999999999998</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="24"/>
+        <v>0.27560000000000001</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="24"/>
+        <v>0.31004999999999999</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="24"/>
+        <v>0.34449999999999997</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="5">
+        <v>0.39610000000000001</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="AH23" s="7">
+        <v>0.3705</v>
+      </c>
+      <c r="AI23" s="7">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AJ23" s="7">
+        <v>0.35870000000000002</v>
+      </c>
+      <c r="AK23" s="3">
         <v>0.35499999999999998</v>
       </c>
-      <c r="R23" s="7">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0.33500000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.25003999999999998</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="K24">
+        <v>0.2157</v>
+      </c>
       <c r="L24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
-      <c r="M24" s="5">
-        <v>0.219</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="O24" s="5">
-        <v>0.20799999999999999</v>
+      <c r="M24" s="7">
+        <f>$K$24*M17</f>
+        <v>2.1570000000000002E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" ref="N24:V24" si="25">$K$24*N17</f>
+        <v>4.3140000000000005E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="25"/>
+        <v>6.4710000000000004E-2</v>
       </c>
       <c r="P24" s="7">
-        <v>0.20499999999999999</v>
+        <f t="shared" si="25"/>
+        <v>8.6280000000000009E-2</v>
       </c>
       <c r="Q24" s="7">
-        <v>0.20399999999999999</v>
+        <f t="shared" si="25"/>
+        <v>0.10785</v>
       </c>
       <c r="R24" s="3">
-        <v>0.20300000000000001</v>
+        <f t="shared" si="25"/>
+        <v>0.12942000000000001</v>
       </c>
       <c r="S24" s="7">
-        <v>0.20399999999999999</v>
+        <f t="shared" si="25"/>
+        <v>0.15098999999999999</v>
       </c>
       <c r="T24" s="7">
-        <v>0.20599999999999999</v>
+        <f t="shared" si="25"/>
+        <v>0.17256000000000002</v>
       </c>
       <c r="U24" s="7">
-        <v>0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="25"/>
+        <v>0.19413</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="25"/>
+        <v>0.2157</v>
+      </c>
+      <c r="AB24" s="2">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>0.20250000000000001</v>
+      </c>
+      <c r="AG24" s="7">
+        <v>0.20050000000000001</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0.1996</v>
+      </c>
+      <c r="AI24" s="7">
+        <v>0.19969999999999999</v>
+      </c>
+      <c r="AJ24" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="AK24" s="7">
+        <v>0.20380000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.22670000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.2276</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.2276</v>
+      </c>
+      <c r="K25">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="L25" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
-      <c r="M25" s="5">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="N25" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="O25" s="5">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="P25" s="5">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="Q25" s="5">
-        <v>0.16200000000000001</v>
+      <c r="M25" s="7">
+        <f>$K$25*M17</f>
+        <v>1.78E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" ref="N25:V25" si="26">$K$25*N17</f>
+        <v>3.56E-2</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="26"/>
+        <v>5.3399999999999996E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="26"/>
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="26"/>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="R25" s="7">
-        <v>0.161</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0.16</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0.16</v>
+        <f t="shared" si="26"/>
+        <v>0.10679999999999999</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="26"/>
+        <v>0.12459999999999999</v>
+      </c>
+      <c r="T25" s="3">
+        <f t="shared" si="26"/>
+        <v>0.1424</v>
       </c>
       <c r="U25" s="7">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+        <f t="shared" si="26"/>
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="26"/>
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="AB25" s="2">
+        <f t="shared" si="21"/>
+        <v>8</v>
+      </c>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="5">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0.1724</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="AH25" s="7">
+        <v>0.1686</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>0.1676</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="AK25" s="7">
+        <v>0.16869999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f>B25+1</f>
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.16819999999999999</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.16850000000000001</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.16880000000000001</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.16919999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.15129999999999999</v>
+      </c>
       <c r="L26" s="2">
         <f>L25+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="7">
+        <f>$K$26*M17</f>
+        <v>1.5129999999999999E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" ref="N26:V26" si="27">$K$26*N17</f>
+        <v>3.0259999999999999E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="27"/>
+        <v>4.5389999999999993E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="27"/>
+        <v>6.0519999999999997E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="27"/>
+        <v>7.5649999999999995E-2</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="27"/>
+        <v>9.0779999999999986E-2</v>
+      </c>
+      <c r="S26" s="3">
+        <f t="shared" si="27"/>
+        <v>0.10590999999999999</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="27"/>
+        <v>0.12103999999999999</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="27"/>
+        <v>0.13616999999999999</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="27"/>
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="AB26" s="2">
+        <f>AB25+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="5">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0.1313</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="AH26" s="7">
+        <v>0.1293</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="AJ26" s="7">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="AK26" s="5">
         <v>0.13300000000000001</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0.127</v>
-      </c>
-      <c r="O26" s="5">
-        <v>0.124</v>
-      </c>
-      <c r="P26" s="5">
-        <v>0.122</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="S26" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="T26" s="7">
-        <v>0.121</v>
-      </c>
-      <c r="U26" s="7">
-        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265CA197-CB6F-44F1-A6F9-738C1A6A4F92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40AC4C9-1448-44DA-A5AD-EABAA5897E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
   <si>
     <t>range</t>
   </si>
@@ -137,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +192,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -220,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -235,6 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2781,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
   <dimension ref="A1:AK26"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S26" activeCellId="8" sqref="R18 Q19 S20 S21 S22 S23 T24 T25 S26"/>
     </sheetView>
   </sheetViews>
@@ -4812,8 +4819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U23" activeCellId="8" sqref="Q18 R19 S21 P20 S22 S26 T25 R24 U23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6812,10 +6819,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
-  <dimension ref="A2:V28"/>
+  <dimension ref="A2:AK28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="U9" activeCellId="8" sqref="P3 P5 R4 S6 T7 S8 R10 T11 U9"/>
+    <sheetView tabSelected="1" topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6824,7 +6831,7 @@
     <col min="10" max="10" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6887,8 +6894,41 @@
       <c r="V2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -6956,8 +6996,42 @@
         <f t="shared" si="1"/>
         <v>2.1871999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>1.6054999999999999</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>1.597</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>1.6589</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
@@ -7027,8 +7101,43 @@
         <f t="shared" si="2"/>
         <v>1.3206</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="AA4" s="2">
+        <f>AA3+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>1.19</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>1.216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="3">B4+1</f>
         <v>3</v>
@@ -7098,8 +7207,39 @@
         <f t="shared" si="5"/>
         <v>1.0278</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA5" s="2">
+        <f t="shared" ref="AA5:AA10" si="6">AA4+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -7134,43 +7274,74 @@
         <v>6.1168E-2</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
+        <f t="shared" ref="N6:V6" si="7">$K$6*N2</f>
         <v>0.122336</v>
       </c>
       <c r="O6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.183504</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.244672</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.30584</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.367008</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.428176</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.489344</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.550512</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.61168</v>
+      </c>
+      <c r="AA6" s="2">
         <f t="shared" si="6"/>
-        <v>0.183504</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.244672</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.30584</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.367008</v>
-      </c>
-      <c r="S6" s="3">
-        <f t="shared" si="6"/>
-        <v>0.428176</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.489344</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.550512</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.61168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0.504</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.499</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>0.501</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -7205,43 +7376,74 @@
         <v>4.2860000000000002E-2</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <f t="shared" ref="N7:V7" si="8">$K$7*N2</f>
         <v>8.5720000000000005E-2</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12858</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17144000000000001</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.21429999999999999</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.25716</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.30001999999999995</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.34288000000000002</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.38573999999999997</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.42859999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA7" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AB7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -7276,43 +7478,74 @@
         <v>3.7150000000000002E-2</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <f t="shared" ref="N8:V8" si="9">$K$8*N2</f>
         <v>7.4300000000000005E-2</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11144999999999999</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14860000000000001</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.18575</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22289999999999999</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.26005</v>
       </c>
       <c r="T8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.29720000000000002</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.33434999999999998</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.3715</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA8" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AB8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -7347,43 +7580,74 @@
         <v>2.2650000000000003E-2</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <f t="shared" ref="N9:V9" si="10">$K$9*N2</f>
         <v>4.5300000000000007E-2</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.7949999999999997E-2</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.0600000000000014E-2</v>
       </c>
       <c r="Q9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.11325</v>
       </c>
       <c r="R9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.13589999999999999</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15855</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.18120000000000003</v>
       </c>
       <c r="U9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.20385</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.22650000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA9" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>0.221</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>0.217</v>
+      </c>
+      <c r="AG9" s="7">
+        <v>0.214</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -7418,43 +7682,74 @@
         <v>1.6050000000000002E-2</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <f t="shared" ref="N10:V10" si="11">$K$10*N2</f>
         <v>3.2100000000000004E-2</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.8149999999999998E-2</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4200000000000007E-2</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.0250000000000002E-2</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.6299999999999997E-2</v>
       </c>
       <c r="S10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11234999999999999</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.12840000000000001</v>
       </c>
       <c r="U10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.14445</v>
       </c>
       <c r="V10" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1605</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="AA10" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AB10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0.157</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>0.155</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0.155</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
@@ -7489,387 +7784,1072 @@
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <f t="shared" ref="N11:V11" si="12">$K$11*N2</f>
         <v>2.4400000000000002E-2</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.6600000000000001E-2</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.8800000000000003E-2</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="S11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.539999999999999E-2</v>
       </c>
       <c r="T11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.7600000000000006E-2</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.10979999999999999</v>
       </c>
       <c r="V11" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.122</v>
       </c>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L17" t="s">
+      <c r="AA11" s="2">
+        <f>AA10+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0.129</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>0.122</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="X13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>110000</v>
+      </c>
+      <c r="D18" s="6">
+        <f>C18+10000</f>
+        <v>120000</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" ref="E18" si="13">D18+10000</f>
+        <v>130000</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18" si="14">E18+10000</f>
+        <v>140000</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" ref="G18" si="15">F18+10000</f>
+        <v>150000</v>
+      </c>
+      <c r="H18" s="6">
+        <v>160000</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M18" s="6">
         <v>0.1</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N18" s="6">
         <v>0.2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O18" s="6">
         <v>0.3</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P18" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q18" s="6">
         <v>0.5</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R18" s="6">
         <v>0.6</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S18" s="6">
         <v>0.7</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T18" s="6">
         <v>0.8</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U18" s="6">
         <v>0.9</v>
       </c>
-      <c r="V17">
+      <c r="V18" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1.8407</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1.8376999999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1.8425</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1.8527</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1.8495999999999999</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1.8539000000000001</v>
+      </c>
+      <c r="K19">
+        <v>2.2303700000000002</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <f>$K$19*M18</f>
+        <v>0.22303700000000004</v>
+      </c>
+      <c r="N19" s="7">
+        <f t="shared" ref="N19:V19" si="16">$K$19*N18</f>
+        <v>0.44607400000000008</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="16"/>
+        <v>0.66911100000000001</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="16"/>
+        <v>0.89214800000000016</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="16"/>
+        <v>1.1151850000000001</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="16"/>
+        <v>1.338222</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="16"/>
+        <v>1.561259</v>
+      </c>
+      <c r="T19" s="7">
+        <f t="shared" si="16"/>
+        <v>1.7842960000000003</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="16"/>
+        <v>2.007333</v>
+      </c>
+      <c r="V19" s="7">
+        <f t="shared" si="16"/>
+        <v>2.2303700000000002</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f>B19+1</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.373</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.3768</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.3809</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.3831</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.3877999999999999</v>
+      </c>
+      <c r="K20">
+        <v>1.3211999999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <f>L19+1</f>
+        <v>2</v>
+      </c>
+      <c r="M20" s="7">
+        <f>$K$20*M18</f>
+        <v>0.13211999999999999</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" ref="N20:V20" si="17">$K$20*N18</f>
+        <v>0.26423999999999997</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="17"/>
+        <v>0.39635999999999999</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" si="17"/>
+        <v>0.52847999999999995</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="17"/>
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="17"/>
+        <v>0.79271999999999998</v>
+      </c>
+      <c r="S20" s="3">
+        <f t="shared" si="17"/>
+        <v>0.92483999999999988</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="17"/>
+        <v>1.0569599999999999</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="17"/>
+        <v>1.1890799999999999</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="17"/>
+        <v>1.3211999999999999</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="3">
+        <v>1.6147</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>1.6151</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>1.6245000000000001</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>1.6782999999999999</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>1.7383999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" ref="B21:B26" si="18">B20+1</f>
         <v>3</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="C21" s="7">
+        <v>1.0768500000000001</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.0711999999999999</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1.0730999999999999</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1.0779000000000001</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1.0782</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1.1042000000000001</v>
+      </c>
+      <c r="K21">
+        <v>1.0282</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" ref="L21:L26" si="19">L20+1</f>
+        <v>3</v>
+      </c>
+      <c r="M21" s="7">
+        <f>$K$21*M18</f>
+        <v>0.10282000000000001</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" ref="N21:V21" si="20">$K$21*N18</f>
+        <v>0.20564000000000002</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.30846000000000001</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="20"/>
+        <v>0.41128000000000003</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.5141</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.61692000000000002</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.71973999999999994</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.82256000000000007</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="20"/>
+        <v>0.92537999999999998</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="20"/>
+        <v>1.0282</v>
+      </c>
+      <c r="AA21" s="2">
+        <f>AA20+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="AC21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="7">
-        <v>1.6054999999999999</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>1.597</v>
-      </c>
-      <c r="R18" s="7">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="S18" s="7">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1.6589</v>
-      </c>
-      <c r="U18" s="7">
-        <v>1.716</v>
-      </c>
-    </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7">
+        <v>1.2144999999999999</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>1.2035</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>1.1976</v>
+      </c>
+      <c r="AH21" s="3">
+        <v>1.1971000000000001</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>1.2037</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>1.2230000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="L19" s="2">
-        <f>L18+1</f>
-        <v>2</v>
-      </c>
-      <c r="M19" s="7" t="s">
+      <c r="C22" s="7">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.60619999999999996</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.60450000000000004</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.60629999999999995</v>
+      </c>
+      <c r="K22">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="M22" s="7">
+        <f>$K$22*M18</f>
+        <v>6.164E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" ref="N22:V22" si="21">$K$22*N18</f>
+        <v>0.12328</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="21"/>
+        <v>0.18491999999999997</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="21"/>
+        <v>0.24656</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="21"/>
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="21"/>
+        <v>0.36983999999999995</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="21"/>
+        <v>0.43147999999999992</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="21"/>
+        <v>0.49312</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="21"/>
+        <v>0.55475999999999992</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="21"/>
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" ref="AA22:AA27" si="22">AA21+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="AC22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="7">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="P19" s="7">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1.19</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="S19" s="7">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="T19" s="7">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="U19" s="7">
-        <v>1.216</v>
-      </c>
-    </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L20" s="2">
-        <f t="shared" ref="L20:L25" si="12">L19+1</f>
-        <v>3</v>
-      </c>
-      <c r="M20" s="7" t="s">
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="3">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>0.92720000000000002</v>
+      </c>
+      <c r="AG22" s="7">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="AH22" s="7">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0.96819999999999995</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>0.99439999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="C23" s="7">
+        <v>0.43690000000000001</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.437</v>
+      </c>
+      <c r="K23">
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="O20" s="7">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L21" s="2">
-        <f t="shared" si="12"/>
+      <c r="M23" s="7">
+        <f>$K$23*M18</f>
+        <v>4.3360000000000003E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ref="N23:V23" si="23">$K$23*N18</f>
+        <v>8.6720000000000005E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="23"/>
+        <v>0.13008</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="23"/>
+        <v>0.17344000000000001</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="23"/>
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="23"/>
+        <v>0.26016</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="23"/>
+        <v>0.30351999999999996</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="23"/>
+        <v>0.34688000000000002</v>
+      </c>
+      <c r="U23" s="7">
+        <f t="shared" si="23"/>
+        <v>0.39023999999999998</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="23"/>
+        <v>0.43359999999999999</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="AB23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="AC23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="5">
-        <v>0.52</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>0.504</v>
-      </c>
-      <c r="R21" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0.499</v>
-      </c>
-      <c r="T21" s="5">
-        <v>0.501</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L22" s="2">
-        <f t="shared" si="12"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7">
+        <v>0.50929999999999997</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0.503</v>
+      </c>
+      <c r="AG23" s="7">
+        <v>0.49897000000000002</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0.49780000000000002</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0.49980000000000002</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>0.5091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.4325</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.43180000000000002</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.42959999999999998</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="K24">
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="M24" s="7">
+        <f>$K$24*M18</f>
+        <v>3.7159999999999999E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" ref="N24:V24" si="24">$K$24*N18</f>
+        <v>7.4319999999999997E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="24"/>
+        <v>0.11148</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="24"/>
+        <v>0.14863999999999999</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="24"/>
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="24"/>
+        <v>0.22295999999999999</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="24"/>
+        <v>0.26011999999999996</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="24"/>
+        <v>0.29727999999999999</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="24"/>
+        <v>0.33444000000000002</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="24"/>
+        <v>0.37159999999999999</v>
+      </c>
+      <c r="AA24" s="5">
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
-      <c r="M22" s="7" t="s">
+      <c r="AB24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="AC24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0.35299999999999998</v>
-      </c>
-      <c r="S22" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L23" s="2">
-        <f t="shared" si="12"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="5">
+        <v>0.35849999999999999</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>0.3478</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0.34549999999999997</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0.3458</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>0.35120000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.2722</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.2697</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.27150000000000002</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.27229999999999999</v>
+      </c>
+      <c r="K25">
+        <v>0.2303</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="M25" s="7">
+        <f>$K$25*M18</f>
+        <v>2.3030000000000002E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" ref="N25:V25" si="25">$K$25*N18</f>
+        <v>4.6060000000000004E-2</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="25"/>
+        <v>6.9089999999999999E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="25"/>
+        <v>9.2120000000000007E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="25"/>
+        <v>0.11515</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="25"/>
+        <v>0.13818</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="25"/>
+        <v>0.16120999999999999</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="25"/>
+        <v>0.18424000000000001</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="25"/>
+        <v>0.20727000000000001</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="25"/>
+        <v>0.2303</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="AB25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="AC25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="7">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0.33900000000000002</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0.34300000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L24" s="2">
-        <f t="shared" si="12"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>0.35149999999999998</v>
+      </c>
+      <c r="AG25" s="7">
+        <v>0.34810000000000002</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="AJ25" s="7">
+        <v>0.34998000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.1862</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.1862</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.1867</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.18729999999999999</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.18770000000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.1615</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="M26" s="7">
+        <f>$K$26*M18</f>
+        <v>1.6150000000000001E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" ref="N26:V26" si="26">$K$26*N18</f>
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="26"/>
+        <v>4.845E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="26"/>
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="26"/>
+        <v>8.0750000000000002E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="26"/>
+        <v>9.69E-2</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="26"/>
+        <v>0.11305</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="26"/>
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="26"/>
+        <v>0.14535000000000001</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="26"/>
+        <v>0.1615</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
-      <c r="M24" s="7" t="s">
+      <c r="AB26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="AC26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O24" s="7">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="P24" s="7">
-        <v>0.221</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0.217</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0.214</v>
-      </c>
-      <c r="S24" s="7">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="T24" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L25" s="2">
-        <f t="shared" si="12"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="AG26" s="7">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="AH26" s="7">
+        <v>0.21429999999999999</v>
+      </c>
+      <c r="AI26" s="7">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>0.2114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <f>B26+1</f>
+        <v>9</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.1555</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.15640000000000001</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="K27">
+        <v>0.1227</v>
+      </c>
+      <c r="L27" s="2">
+        <f>L26+1</f>
+        <v>9</v>
+      </c>
+      <c r="M27" s="7">
+        <f>$K$27*M18</f>
+        <v>1.2270000000000001E-2</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" ref="N27:V27" si="27">$K$27*N18</f>
+        <v>2.4540000000000003E-2</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="27"/>
+        <v>3.6810000000000002E-2</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="27"/>
+        <v>4.9080000000000006E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="27"/>
+        <v>6.1350000000000002E-2</v>
+      </c>
+      <c r="R27" s="3">
+        <f t="shared" si="27"/>
+        <v>7.3620000000000005E-2</v>
+      </c>
+      <c r="S27" s="7">
+        <f t="shared" si="27"/>
+        <v>8.5889999999999994E-2</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" si="27"/>
+        <v>9.8160000000000011E-2</v>
+      </c>
+      <c r="U27" s="7">
+        <f t="shared" si="27"/>
+        <v>0.11043</v>
+      </c>
+      <c r="V27" s="7">
+        <f t="shared" si="27"/>
+        <v>0.1227</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="AB27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="AC27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O25" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0.157</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0.156</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0.155</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0.155</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0.156</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0.157</v>
-      </c>
-    </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L26" s="2">
-        <f>L25+1</f>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="AF27" s="7">
+        <v>0.154</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="AH27" s="7">
+        <v>0.15329999999999999</v>
+      </c>
+      <c r="AI27" s="7">
+        <v>0.154</v>
+      </c>
+      <c r="AJ27" s="7">
+        <v>0.15590000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AA28" s="2">
+        <f>AA27+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="AB28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="AC28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O26" s="7">
-        <v>0.129</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0.125</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0.122</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="S26" s="7">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="U26" s="5">
-        <v>0.11700000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>7</v>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7">
+        <v>0.12559999999999999</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>0.1225</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0.1201</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>0.1177</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>0.1177</v>
       </c>
     </row>
   </sheetData>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40AC4C9-1448-44DA-A5AD-EABAA5897E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF01984-4E2E-460F-8673-E6D4F0057191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="area 3" sheetId="3" r:id="rId4"/>
     <sheet name="area 4" sheetId="4" r:id="rId5"/>
     <sheet name="area 5" sheetId="5" r:id="rId6"/>
+    <sheet name="area6" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
   <si>
     <t>range</t>
   </si>
@@ -122,6 +123,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -242,6 +247,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -6821,7 +6833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
   <dimension ref="A2:AK28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
@@ -8862,7 +8874,7 @@
   <dimension ref="A2:V26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9889,4 +9901,1039 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D51598-43C8-43C8-B0AF-4826DB32F76D}">
+  <dimension ref="A2:V26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="17">
+        <f>C2+5000</f>
+        <v>105000</v>
+      </c>
+      <c r="E2" s="17">
+        <f t="shared" ref="E2:G2" si="0">D2+5000</f>
+        <v>110000</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" si="0"/>
+        <v>115000</v>
+      </c>
+      <c r="G2" s="17">
+        <f t="shared" si="0"/>
+        <v>120000</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1.8950199999999999</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1.8937200000000001</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1.8966000000000001</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1.8977999999999999</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1.8974</v>
+      </c>
+      <c r="K3" s="19">
+        <v>2.0103900000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <f>$K$3*M2</f>
+        <v>0.20103900000000002</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:V3" si="1">$K$3*N2</f>
+        <v>0.40207800000000005</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60311700000000001</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.80415600000000009</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0051950000000001</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.206234</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.407273</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6083120000000002</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.8093510000000002</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0103900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.34968</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1.35005</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.3505</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.3512999999999999</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.3519000000000001</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1.12252</v>
+      </c>
+      <c r="L4" s="2">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <f>$K$4*M2</f>
+        <v>0.112252</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:V4" si="2">$K$4*N2</f>
+        <v>0.22450400000000001</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.336756</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.44900800000000002</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.56125999999999998</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.673512</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.78576399999999991</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89801600000000004</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0102679999999999</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="2"/>
+        <v>1.12252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B10" si="3">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.64117999999999997</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.55628</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L10" si="4">L4+1</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="7">
+        <f>$K$5*M2</f>
+        <v>5.5628000000000004E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5:V5" si="5">$K$5*N2</f>
+        <v>0.11125600000000001</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.166884</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.22251200000000002</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>$K$5*Q2</f>
+        <v>0.27814</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.33376800000000001</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.38939599999999996</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.44502400000000003</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.50065199999999999</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.55628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.39443</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.39412999999999998</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.39416000000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.28588999999999998</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="7">
+        <f>$K$6*M2</f>
+        <v>2.8589E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
+        <v>5.7178E-2</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="6"/>
+        <v>8.5766999999999996E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.114356</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.14294499999999999</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.17153399999999999</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="6"/>
+        <v>0.20012299999999997</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.228712</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.257301</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.28588999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.32052000000000003</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.32057999999999998</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.32067000000000001</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.32057000000000002</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.32074000000000003</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.240561</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="7">
+        <f>$K$7*M2</f>
+        <v>2.40561E-2</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <v>4.8112200000000001E-2</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="7"/>
+        <v>7.2168299999999991E-2</v>
+      </c>
+      <c r="P7" s="7">
+        <f>$K$7*P2</f>
+        <v>9.6224400000000002E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.1202805</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.14433659999999998</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.16839269999999998</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.1924488</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.2165049</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.240561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.26595000000000002</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.26577000000000001</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.26617000000000002</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.26605000000000001</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.19155700000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="7">
+        <f>$K$8*M2</f>
+        <v>1.9155700000000001E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <v>3.8311400000000002E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="8"/>
+        <v>5.74671E-2</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="8"/>
+        <v>7.6622800000000005E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="8"/>
+        <v>9.5778500000000003E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1149342</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.13408989999999998</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="8"/>
+        <v>0.15324560000000001</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.17240130000000001</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.19155700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.16975999999999999</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.17003099999999999</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.16966999999999999</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.16955999999999999</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.16974</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.14216400000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="7">
+        <f>$K$9*M2</f>
+        <v>1.4216400000000002E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <v>2.8432800000000005E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="9"/>
+        <v>4.2649200000000005E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="9"/>
+        <v>5.6865600000000009E-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="9"/>
+        <v>7.1082000000000006E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f>$K$9*R2</f>
+        <v>8.529840000000001E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="9"/>
+        <v>9.95148E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11373120000000002</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.12794760000000002</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.14216400000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.17868899999999999</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.180198</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.1807</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.128384</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="7">
+        <f>$K$10*M2</f>
+        <v>1.28384E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <v>2.56768E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="10"/>
+        <v>3.8515199999999999E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="10"/>
+        <v>5.1353599999999999E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="10"/>
+        <v>6.4191999999999999E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="10"/>
+        <v>7.7030399999999999E-2</v>
+      </c>
+      <c r="S10" s="7">
+        <f>$K$10*S2</f>
+        <v>8.9868799999999999E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.1027072</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="10"/>
+        <v>0.1155456</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.128384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="18">
+        <v>8.6275000000000004E-2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8.6569999999999994E-2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>8.6696999999999996E-2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="G11" s="15">
+        <v>8.7169999999999997E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>7.7323000000000003E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <f>L10+1</f>
+        <v>9</v>
+      </c>
+      <c r="M11" s="7">
+        <f>$K$11*M2</f>
+        <v>7.732300000000001E-3</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <v>1.5464600000000002E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="11"/>
+        <v>2.3196899999999999E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <f>$K$11*P2</f>
+        <v>3.0929200000000004E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8661500000000001E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="11"/>
+        <v>4.6393799999999999E-2</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="11"/>
+        <v>5.4126099999999996E-2</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="11"/>
+        <v>6.1858400000000008E-2</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="11"/>
+        <v>6.9590700000000005E-2</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="11"/>
+        <v>7.7323000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1.6125</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.6153999999999999</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1.6335999999999999</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1.6675</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1.7145999999999999</v>
+      </c>
+      <c r="R18" s="7">
+        <v>1.776</v>
+      </c>
+      <c r="S18" s="7">
+        <v>1.8554999999999999</v>
+      </c>
+      <c r="T18" s="7">
+        <v>1.9608000000000001</v>
+      </c>
+      <c r="U18" s="7">
+        <v>2.1082399999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
+        <f>L18+1</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.9456</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.8861</v>
+      </c>
+      <c r="U19" s="7">
+        <v>0.89739999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L20" s="2">
+        <f t="shared" ref="L20:L25" si="12">L19+1</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="R20" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0.57050000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L21" s="2">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.26829999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L22" s="2">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.2238</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0.2172</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0.216</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0.21609999999999999</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L23" s="2">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.19220000000000001</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.19009999999999999</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.18690000000000001</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0.1857</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.14043</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.1298</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.129</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0.13389999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.1293</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+      <c r="L26" s="2">
+        <f>L25+1</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7.5109999999999996E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <v>7.2620000000000004E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <v>7.1059999999999998E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <v>6.9959999999999994E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>6.9150000000000003E-2</v>
+      </c>
+      <c r="R26" s="7">
+        <v>6.8669999999999995E-2</v>
+      </c>
+      <c r="S26" s="3">
+        <v>6.8489999999999995E-2</v>
+      </c>
+      <c r="T26" s="7">
+        <v>6.8779999999999994E-2</v>
+      </c>
+      <c r="U26" s="7">
+        <v>7.0279999999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF01984-4E2E-460F-8673-E6D4F0057191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A541C-3B87-4885-AD99-9084AC5042DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="area 3" sheetId="3" r:id="rId4"/>
     <sheet name="area 4" sheetId="4" r:id="rId5"/>
     <sheet name="area 5" sheetId="5" r:id="rId6"/>
-    <sheet name="area6" sheetId="8" r:id="rId7"/>
+    <sheet name="area2_a" sheetId="8" r:id="rId7"/>
+    <sheet name="area2_b" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="28">
   <si>
     <t>range</t>
   </si>
@@ -118,14 +119,20 @@
   <si>
     <t>new boundaies</t>
   </si>
+  <si>
+    <t>spherical model = best model here!?</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -231,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -247,13 +254,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -9907,8 +9919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D51598-43C8-43C8-B0AF-4826DB32F76D}">
   <dimension ref="A2:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10829,9 +10841,6 @@
       </c>
     </row>
     <row r="24" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
       <c r="L24" s="2">
         <f t="shared" si="12"/>
         <v>7</v>
@@ -10865,9 +10874,6 @@
       </c>
     </row>
     <row r="25" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
       <c r="L25" s="2">
         <f t="shared" si="12"/>
         <v>8</v>
@@ -10936,4 +10942,1583 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A3264-3A61-4411-A092-3122019449F9}">
+  <dimension ref="A2:V38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>75000</v>
+      </c>
+      <c r="D2" s="17">
+        <f>C2+5000</f>
+        <v>80000</v>
+      </c>
+      <c r="E2" s="17">
+        <f t="shared" ref="E2:H2" si="0">D2+5000</f>
+        <v>85000</v>
+      </c>
+      <c r="F2" s="17">
+        <f t="shared" si="0"/>
+        <v>90000</v>
+      </c>
+      <c r="G2" s="17">
+        <f t="shared" si="0"/>
+        <v>95000</v>
+      </c>
+      <c r="H2" s="17">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>2.7652000000000001</v>
+      </c>
+      <c r="D3" s="26">
+        <v>2.7642000000000002</v>
+      </c>
+      <c r="E3" s="26">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="F3" s="26">
+        <v>2.7681</v>
+      </c>
+      <c r="G3" s="26">
+        <v>2.7696999999999998</v>
+      </c>
+      <c r="H3" s="26">
+        <v>2.7719</v>
+      </c>
+      <c r="K3" s="16">
+        <v>1.7316</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <f>$K$3*M2</f>
+        <v>0.17316000000000001</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:V3" si="1">$K$3*N2</f>
+        <v>0.34632000000000002</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.51947999999999994</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.69264000000000003</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86580000000000001</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0389599999999999</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2121199999999999</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3852800000000001</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.55844</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="26">
+        <v>1.1156999999999999</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1.1153999999999999</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1.1168</v>
+      </c>
+      <c r="F4" s="26">
+        <v>1.1165</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="H4" s="26">
+        <v>1.1187</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1.0281100000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <f>$K$4*M2</f>
+        <v>0.10281100000000001</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:V4" si="2">$K$4*N2</f>
+        <v>0.20562200000000003</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.30843300000000001</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.41124400000000005</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.51405500000000004</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.61686600000000003</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.71967700000000001</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.82248800000000011</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="2"/>
+        <v>0.92529900000000009</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="2"/>
+        <v>1.0281100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B10" si="3">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0.79930000000000001</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.80049999999999999</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.80059999999999998</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.65720000000000001</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L10" si="4">L4+1</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="7">
+        <f>$K$5*M2</f>
+        <v>6.5720000000000001E-2</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" ref="N5:V5" si="5">$K$5*N2</f>
+        <v>0.13144</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.19716</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.26288</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>$K$5*Q2</f>
+        <v>0.3286</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.39432</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.46003999999999995</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.52576000000000001</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.59148000000000001</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="5"/>
+        <v>0.65720000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.7903</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.7913</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="7">
+        <f>$K$6*M2</f>
+        <v>5.7330000000000006E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
+        <v>0.11466000000000001</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.17199</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.22932000000000002</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.28665000000000002</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.34398000000000001</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="6"/>
+        <v>0.40131</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.45864000000000005</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.51597000000000004</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.57330000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0.49590000000000001</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="7">
+        <f>$K$7*M2</f>
+        <v>4.9590000000000002E-2</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <v>9.9180000000000004E-2</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.14876999999999999</v>
+      </c>
+      <c r="P7" s="7">
+        <f>$K$7*P2</f>
+        <v>0.19836000000000001</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.24795</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.29753999999999997</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.34712999999999999</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.39672000000000002</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.44631000000000004</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.49590000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.5645</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0.5655</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.56610000000000005</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.56569999999999998</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.56610000000000005</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.4491</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="7">
+        <f>$K$8*M2</f>
+        <v>4.4910000000000005E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <v>8.9820000000000011E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.13472999999999999</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.17964000000000002</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.22455</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.26945999999999998</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.31436999999999998</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.35928000000000004</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.40418999999999999</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.4491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0.43309999999999998</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0.43369999999999997</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.43369999999999997</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="7">
+        <f>$K$9*M2</f>
+        <v>2.768E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <v>5.5359999999999999E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="9"/>
+        <v>8.3039999999999989E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11072</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.1384</v>
+      </c>
+      <c r="R9" s="7">
+        <f>$K$9*R2</f>
+        <v>0.16607999999999998</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.19375999999999999</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.22144</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.24912000000000001</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.27679999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0.31609999999999999</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0.31659999999999999</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.31730000000000003</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.3175</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.31769999999999998</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="7">
+        <f>$K$10*M2</f>
+        <v>2.3930000000000003E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <v>4.7860000000000007E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="10"/>
+        <v>7.1790000000000007E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="10"/>
+        <v>9.5720000000000013E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.11965000000000001</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.14358000000000001</v>
+      </c>
+      <c r="S10" s="7">
+        <f>$K$10*S2</f>
+        <v>0.16750999999999999</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.19144000000000003</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.21537000000000001</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.23930000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.25629999999999997</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.18679999999999999</v>
+      </c>
+      <c r="L11" s="2">
+        <f>L10+1</f>
+        <v>9</v>
+      </c>
+      <c r="M11" s="7">
+        <f>$K$11*M2</f>
+        <v>1.8679999999999999E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <v>3.7359999999999997E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="11"/>
+        <v>5.604E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <f>$K$11*P2</f>
+        <v>7.4719999999999995E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="11"/>
+        <v>9.3399999999999997E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="11"/>
+        <v>0.11208</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="11"/>
+        <v>0.13075999999999999</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="11"/>
+        <v>0.14943999999999999</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="11"/>
+        <v>0.16811999999999999</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="11"/>
+        <v>0.18679999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C13" s="25">
+        <v>25000</v>
+      </c>
+      <c r="D13" s="24">
+        <f>C13+5000</f>
+        <v>30000</v>
+      </c>
+      <c r="E13" s="24">
+        <f t="shared" ref="E13:G13" si="12">D13+5000</f>
+        <v>35000</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" si="12"/>
+        <v>40000</v>
+      </c>
+      <c r="G13" s="24">
+        <v>50000</v>
+      </c>
+      <c r="H13" s="24">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="22">
+        <v>2.6520000000000001</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2.6783000000000001</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2.7153999999999998</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2.7299000000000002</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2.7410000000000001</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2.7498999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <f>B14+1</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1.0851999999999999</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1.0840700000000001</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1.101</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1.10022</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1.1048</v>
+      </c>
+      <c r="H15" s="15">
+        <v>1.1086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <f t="shared" ref="B16:B21" si="13">B15+1</f>
+        <v>3</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.76929999999999998</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.77880000000000005</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0.78644999999999998</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0.79710000000000003</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.79518</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.7702</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.7742</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.78290000000000004</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="K17" s="23">
+        <v>75000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.55059999999999998</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0.55889999999999995</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G18" s="15">
+        <v>0.56789999999999996</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2.2677</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2.0817999999999999</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1.9697</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1.8927</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1.8366</v>
+      </c>
+      <c r="R18" s="7">
+        <v>1.7948999999999999</v>
+      </c>
+      <c r="S18" s="7">
+        <v>1.7652000000000001</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1.7483</v>
+      </c>
+      <c r="U18" s="7">
+        <v>1.7558</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.55620000000000003</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0.55940000000000001</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.56040000000000001</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
+        <f>L18+1</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.98909999999999998</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.97860000000000003</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1.0083</v>
+      </c>
+      <c r="S19" s="7">
+        <v>1.0230999999999999</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1.0407999999999999</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1.0628500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.41020000000000001</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.42270000000000002</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.42820000000000003</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0.42949999999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" ref="L20:L25" si="14">L19+1</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.56310000000000004</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="T20" s="7">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="U20" s="7">
+        <v>0.56330000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.30549999999999999</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0.30719999999999997</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.30840000000000001</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.70660000000000001</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.67020000000000002</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.65890000000000004</v>
+      </c>
+      <c r="R21" s="7">
+        <v>0.64949999999999997</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.62780000000000002</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.61480000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f>B21+1</f>
+        <v>9</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.24759999999999999</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.24729999999999999</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0.25190000000000001</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.25389</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.48570000000000002</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.46179999999999999</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0.4501</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.434</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0.43619999999999998</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0.44440000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.54210000000000003</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.495</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0.48659999999999998</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.47949999999999998</v>
+      </c>
+      <c r="S23" s="7">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0.46039999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L24" s="2">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="O24" s="7">
+        <v>0.3296</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.3206</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>0.31380000000000002</v>
+      </c>
+      <c r="R24" s="7">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="S24" s="7">
+        <v>0.3024</v>
+      </c>
+      <c r="T24" s="7">
+        <v>0.29670000000000002</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0.28989999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L25" s="2">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.2576</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.2394</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.2326</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.2341</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.23180000000000001</v>
+      </c>
+      <c r="S25" s="7">
+        <v>0.2303</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0.23330000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L26" s="2">
+        <f>L25+1</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0.2082</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.2051</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.2029</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="T26" s="7">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0.1953</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="K29" s="23">
+        <v>25000</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S29" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T29" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L30" s="2">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7">
+        <v>2.1429</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>2.0630999999999999</v>
+      </c>
+      <c r="R30" s="7">
+        <v>1.9917</v>
+      </c>
+      <c r="S30" s="7">
+        <v>1.9281999999999999</v>
+      </c>
+      <c r="T30" s="7">
+        <v>1.8731</v>
+      </c>
+      <c r="U30" s="3">
+        <v>1.8283</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L31" s="2">
+        <f>L30+1</f>
+        <v>2</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1.0217000000000001</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="O31" s="7">
+        <v>0.97470000000000001</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0.97150000000000003</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0.98029999999999995</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="L32" s="2">
+        <f t="shared" ref="L32:L37" si="15">L31+1</f>
+        <v>3</v>
+      </c>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7">
+        <v>0.57779999999999998</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="R32" s="7">
+        <v>0.5464</v>
+      </c>
+      <c r="S32" s="7">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0.52929999999999999</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0.52729999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L33" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7">
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0.69440000000000002</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0.66759999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L34" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7">
+        <v>0.45889999999999997</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0.44869999999999999</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0.437</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="U34" s="7">
+        <v>0.43980000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L35" s="2">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7">
+        <v>0.51270000000000004</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.47420000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L36" s="2">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7">
+        <v>0.3387</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0.3281</v>
+      </c>
+      <c r="R36" s="7">
+        <v>0.31919999999999998</v>
+      </c>
+      <c r="S36" s="7">
+        <v>0.31169999999999998</v>
+      </c>
+      <c r="T36" s="7">
+        <v>0.3054</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L37" s="2">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>0.245</v>
+      </c>
+      <c r="R37" s="7">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0.24210000000000001</v>
+      </c>
+      <c r="T37" s="7">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="U37" s="7">
+        <v>0.24740000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="12:21" x14ac:dyDescent="0.3">
+      <c r="L38" s="2">
+        <f>L37+1</f>
+        <v>9</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>0.2117</v>
+      </c>
+      <c r="R38" s="7">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="S38" s="7">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0.20669999999999999</v>
+      </c>
+      <c r="U38" s="7">
+        <v>0.2074</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628A541C-3B87-4885-AD99-9084AC5042DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D509B8-F3B0-44D9-A46B-AE79013E3E20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="31">
   <si>
     <t>range</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>adapted PCA</t>
+  </si>
+  <si>
+    <t>critical distance</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
 </sst>
 </file>
@@ -702,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424C6FD-858B-4715-AB2E-8F192D327931}">
-  <dimension ref="A1:AL27"/>
+  <dimension ref="A1:AL44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T25" activeCellId="6" sqref="Q19 S20 R21 S22 S23 S24 T25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2803,17 +2812,1058 @@
       <c r="AK27" s="10"/>
       <c r="AL27" s="10"/>
     </row>
+    <row r="29" spans="1:38" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>25000</v>
+      </c>
+      <c r="D32" s="6">
+        <v>35000</v>
+      </c>
+      <c r="E32" s="3">
+        <f>D32+5000</f>
+        <v>40000</v>
+      </c>
+      <c r="F32" s="6">
+        <f>E32+5000</f>
+        <v>45000</v>
+      </c>
+      <c r="G32" s="6">
+        <f>F32+5000</f>
+        <v>50000</v>
+      </c>
+      <c r="H32" s="6">
+        <v>110000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V32" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="W32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7">
+        <v>1.09118</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.0818000000000001</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.0857000000000001</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.0849</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.1055999999999999</v>
+      </c>
+      <c r="K33">
+        <v>1.0726899999999999</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f>$K$33*M32</f>
+        <v>0.107269</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:W33" si="37">$K$33*N32</f>
+        <v>0.21453800000000001</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="37"/>
+        <v>0.32180699999999995</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="37"/>
+        <v>0.35398770000000002</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="37"/>
+        <v>0.42907600000000001</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="37"/>
+        <v>0.53634499999999996</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="37"/>
+        <v>0.64361399999999991</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="37"/>
+        <v>0.75088299999999986</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="37"/>
+        <v>0.85815200000000003</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="37"/>
+        <v>0.96542099999999997</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="37"/>
+        <v>1.0726899999999999</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI33" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AJ33" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AK33" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AL33" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f>B33+1</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.5696</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.57150000000000001</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.58730000000000004</v>
+      </c>
+      <c r="K34">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="L34" s="2">
+        <f>L33+1</f>
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <f>$K$34*M32</f>
+        <v>6.4549999999999996E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:W34" si="38">$K$34*N32</f>
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="38"/>
+        <v>0.19364999999999999</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="38"/>
+        <v>0.21301500000000001</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="38"/>
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="38"/>
+        <v>0.32274999999999998</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="38"/>
+        <v>0.38729999999999998</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="38"/>
+        <v>0.45184999999999992</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="38"/>
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="38"/>
+        <v>0.58094999999999997</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="38"/>
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="AE34" s="10">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="AF34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG34" s="10">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="AH34" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="AI34" s="10">
+        <v>0.91439999999999999</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>0.9244</v>
+      </c>
+      <c r="AK34" s="10">
+        <v>0.94220000000000004</v>
+      </c>
+      <c r="AL34" s="10"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:B40" si="39">B34+1</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7">
+        <v>0.4088</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.4103</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.41909999999999997</v>
+      </c>
+      <c r="K35">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ref="L35:L40" si="40">L34+1</f>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f>$K$35*M32</f>
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:W35" si="41">$K$35*N32</f>
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="41"/>
+        <v>0.10919999999999999</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="41"/>
+        <v>0.12012</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="41"/>
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="41"/>
+        <v>0.182</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="41"/>
+        <v>0.21839999999999998</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="41"/>
+        <v>0.25479999999999997</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="41"/>
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="41"/>
+        <v>0.3276</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="41"/>
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AB35" s="2">
+        <f>AB34+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>0.48870000000000002</v>
+      </c>
+      <c r="AF35" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG35" s="10">
+        <v>0.4819</v>
+      </c>
+      <c r="AH35" s="10">
+        <v>0.47810000000000002</v>
+      </c>
+      <c r="AI35" s="12">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>0.47789999999999999</v>
+      </c>
+      <c r="AK35" s="10">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="AL35" s="10"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7">
+        <v>0.31790000000000002</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.32769999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="40"/>
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <f>$K$36*M32</f>
+        <v>2.7130000000000001E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:W36" si="42">$K$36*N32</f>
+        <v>5.4260000000000003E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="42"/>
+        <v>8.138999999999999E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="42"/>
+        <v>8.9528999999999997E-2</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="42"/>
+        <v>0.10852000000000001</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="42"/>
+        <v>0.13564999999999999</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="42"/>
+        <v>0.16277999999999998</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="42"/>
+        <v>0.18990999999999997</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="42"/>
+        <v>0.21704000000000001</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="42"/>
+        <v>0.24417</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="42"/>
+        <v>0.27129999999999999</v>
+      </c>
+      <c r="AB36" s="2">
+        <f t="shared" ref="AB36:AB41" si="43">AB35+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="AE36" s="10">
+        <v>0.3342</v>
+      </c>
+      <c r="AF36" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG36" s="10">
+        <v>0.32919999999999999</v>
+      </c>
+      <c r="AH36" s="10">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="AI36" s="12">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AJ36" s="10">
+        <v>0.32519999999999999</v>
+      </c>
+      <c r="AK36" s="10">
+        <v>0.32729999999999998</v>
+      </c>
+      <c r="AL36" s="10"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f t="shared" si="39"/>
+        <v>5</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="3">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.3246</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="K37">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <f>$K$37*M32</f>
+        <v>2.5669999999999998E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:W37" si="44">$K$37*N32</f>
+        <v>5.1339999999999997E-2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="44"/>
+        <v>7.7009999999999995E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="44"/>
+        <v>8.4710999999999995E-2</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="44"/>
+        <v>0.10267999999999999</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="44"/>
+        <v>0.12834999999999999</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="44"/>
+        <v>0.15401999999999999</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="44"/>
+        <v>0.17968999999999999</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="44"/>
+        <v>0.20535999999999999</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="44"/>
+        <v>0.23102999999999999</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="44"/>
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="AB37" s="2">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="AE37" s="10">
+        <v>0.25979999999999998</v>
+      </c>
+      <c r="AF37" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG37" s="10">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="AH37" s="12">
+        <v>0.25530000000000003</v>
+      </c>
+      <c r="AI37" s="10">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="AJ37" s="10">
+        <v>0.25690000000000002</v>
+      </c>
+      <c r="AK37" s="10">
+        <v>0.25990000000000002</v>
+      </c>
+      <c r="AL37" s="10"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.21990000000000001</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.22359999999999999</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.2233</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <f>$K$38*M32</f>
+        <v>1.8820000000000003E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:W38" si="45">$K$38*N32</f>
+        <v>3.7640000000000007E-2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="45"/>
+        <v>5.6459999999999996E-2</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="45"/>
+        <v>6.2106000000000008E-2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="45"/>
+        <v>7.5280000000000014E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="45"/>
+        <v>9.4100000000000003E-2</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="45"/>
+        <v>0.11291999999999999</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="45"/>
+        <v>0.13174</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="45"/>
+        <v>0.15056000000000003</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="45"/>
+        <v>0.16938</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="45"/>
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="AB38" s="2">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="AE38" s="10">
+        <v>0.2666</v>
+      </c>
+      <c r="AF38" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG38" s="10">
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="AH38" s="10">
+        <v>0.25659999999999999</v>
+      </c>
+      <c r="AI38" s="10">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="AJ38" s="12">
+        <v>0.25319999999999998</v>
+      </c>
+      <c r="AK38" s="10">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="AL38" s="10"/>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <f t="shared" si="39"/>
+        <v>7</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7">
+        <v>0.13150000000000001</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.1308</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.1328</v>
+      </c>
+      <c r="K39">
+        <v>0.1321</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <f>$K$39*M32</f>
+        <v>1.321E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:W39" si="46">$K$39*N32</f>
+        <v>2.6419999999999999E-2</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="46"/>
+        <v>3.9629999999999999E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="46"/>
+        <v>4.3593E-2</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="46"/>
+        <v>5.2839999999999998E-2</v>
+      </c>
+      <c r="R39" s="3">
+        <f t="shared" si="46"/>
+        <v>6.6049999999999998E-2</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="46"/>
+        <v>7.9259999999999997E-2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="46"/>
+        <v>9.2469999999999997E-2</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="46"/>
+        <v>0.10568</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="46"/>
+        <v>0.11889</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="46"/>
+        <v>0.1321</v>
+      </c>
+      <c r="AB39" s="2">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="AF39" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG39" s="10">
+        <v>0.1787</v>
+      </c>
+      <c r="AH39" s="10">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="AI39" s="10">
+        <v>0.1744</v>
+      </c>
+      <c r="AJ39" s="12">
+        <v>0.1736</v>
+      </c>
+      <c r="AK39" s="10">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="AL39" s="10"/>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7">
+        <v>5.0990000000000001E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>5.0959999999999998E-2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>5.1110000000000003E-2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>5.1589999999999997E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <v>5.2540000000000003E-2</v>
+      </c>
+      <c r="K40">
+        <v>4.4650000000000002E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <f>$K$40*M32</f>
+        <v>4.4650000000000002E-3</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:W40" si="47">$K$40*N32</f>
+        <v>8.9300000000000004E-3</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="47"/>
+        <v>1.3395000000000001E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="47"/>
+        <v>1.4734500000000001E-2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="47"/>
+        <v>1.7860000000000001E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="47"/>
+        <v>2.2325000000000001E-2</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="47"/>
+        <v>2.6790000000000001E-2</v>
+      </c>
+      <c r="T40" s="3">
+        <f t="shared" si="47"/>
+        <v>3.1254999999999998E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="47"/>
+        <v>3.5720000000000002E-2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="47"/>
+        <v>4.0185000000000005E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="47"/>
+        <v>4.4650000000000002E-2</v>
+      </c>
+      <c r="AB40" s="2">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="11">
+        <v>0.1091</v>
+      </c>
+      <c r="AE40" s="11">
+        <v>0.1067</v>
+      </c>
+      <c r="AF40" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG40" s="11">
+        <v>0.1055</v>
+      </c>
+      <c r="AH40" s="12">
+        <v>0.10489999999999999</v>
+      </c>
+      <c r="AI40" s="11">
+        <v>0.1051</v>
+      </c>
+      <c r="AJ40" s="11">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>0.1075</v>
+      </c>
+      <c r="AL40" s="10"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <f>B40+1</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7">
+        <v>1.558E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1.558E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.5980000000000001E-2</v>
+      </c>
+      <c r="K41">
+        <v>1.5650000000000001E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <f>L40+1</f>
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <f>$K$41*M32</f>
+        <v>1.5650000000000002E-3</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:W41" si="48">$K$41*N32</f>
+        <v>3.1300000000000004E-3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="48"/>
+        <v>4.6950000000000004E-3</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="48"/>
+        <v>5.1645000000000007E-3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="48"/>
+        <v>6.2600000000000008E-3</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="48"/>
+        <v>7.8250000000000004E-3</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="48"/>
+        <v>9.3900000000000008E-3</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="48"/>
+        <v>1.0954999999999999E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="48"/>
+        <v>1.2520000000000002E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="48"/>
+        <v>1.4085E-2</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="48"/>
+        <v>1.5650000000000001E-2</v>
+      </c>
+      <c r="AB41" s="2">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10">
+        <v>4.2279999999999998E-2</v>
+      </c>
+      <c r="AE41" s="10">
+        <v>4.1149999999999999E-2</v>
+      </c>
+      <c r="AF41" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG41" s="10">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="AH41" s="10">
+        <v>3.9849999999999997E-2</v>
+      </c>
+      <c r="AI41" s="10">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AJ41" s="12">
+        <v>3.9320000000000001E-2</v>
+      </c>
+      <c r="AK41" s="10">
+        <v>3.9570000000000001E-2</v>
+      </c>
+      <c r="AL41" s="10"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AB42" s="2">
+        <f>AB41+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10">
+        <v>1.384E-2</v>
+      </c>
+      <c r="AE42" s="10">
+        <v>1.3520000000000001E-2</v>
+      </c>
+      <c r="AF42" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG42" s="10">
+        <v>1.3310000000000001E-2</v>
+      </c>
+      <c r="AH42" s="10">
+        <v>1.3180000000000001E-2</v>
+      </c>
+      <c r="AI42" s="10">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="AJ42" s="12">
+        <v>1.308E-2</v>
+      </c>
+      <c r="AK42" s="10">
+        <v>1.3140000000000001E-2</v>
+      </c>
+      <c r="AL42" s="10"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>24500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S26" activeCellId="8" sqref="R18 Q19 S20 S21 S22 S23 T24 T25 S26"/>
+    <sheetView tabSelected="1" topLeftCell="O15" workbookViewId="0">
+      <selection activeCell="AJ37" sqref="AJ37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4834,6 +5884,1050 @@
         <v>0.14680000000000001</v>
       </c>
     </row>
+    <row r="30" spans="1:36" s="13" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
+        <v>40000</v>
+      </c>
+      <c r="D32" s="6">
+        <f>C32+5000</f>
+        <v>45000</v>
+      </c>
+      <c r="E32" s="6">
+        <f>D32+5000</f>
+        <v>50000</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="E32:H32" si="28">E32+5000</f>
+        <v>55000</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="28"/>
+        <v>60000</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="28"/>
+        <v>65000</v>
+      </c>
+      <c r="I32" s="6">
+        <f>H32+5000</f>
+        <v>70000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="3">
+        <v>1.8982000000000001</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1.901</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.909</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.9132</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.9343999999999999</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1.9358</v>
+      </c>
+      <c r="K33">
+        <v>1.5872999999999999</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f>$K$33*M32</f>
+        <v>0.15873000000000001</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:V33" si="29">$K$33*N32</f>
+        <v>0.31746000000000002</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="29"/>
+        <v>0.47618999999999995</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="29"/>
+        <v>0.63492000000000004</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="29"/>
+        <v>0.79364999999999997</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="29"/>
+        <v>0.95237999999999989</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="29"/>
+        <v>1.1111099999999998</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="29"/>
+        <v>1.2698400000000001</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="29"/>
+        <v>1.4285699999999999</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="29"/>
+        <v>1.5872999999999999</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>1.6222000000000001</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>1.6024</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>1.5914999999999999</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>1.5891999999999999</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>1.5968</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>1.6188</v>
+      </c>
+      <c r="AJ33" s="7">
+        <v>1.6674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f>B33+1</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7">
+        <v>0.73340000000000005</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0.72509999999999997</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.7319</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.74009999999999998</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.73680000000000001</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.72970000000000002</v>
+      </c>
+      <c r="K34">
+        <v>0.70860000000000001</v>
+      </c>
+      <c r="L34" s="2">
+        <f>L33+1</f>
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <f>$K$34*M32</f>
+        <v>7.0860000000000006E-2</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:V34" si="30">$K$34*N32</f>
+        <v>0.14172000000000001</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="30"/>
+        <v>0.21257999999999999</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="30"/>
+        <v>0.28344000000000003</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="30"/>
+        <v>0.3543</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="30"/>
+        <v>0.42515999999999998</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="30"/>
+        <v>0.49601999999999996</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="30"/>
+        <v>0.56688000000000005</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="30"/>
+        <v>0.63773999999999997</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="30"/>
+        <v>0.70860000000000001</v>
+      </c>
+      <c r="X34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="5"/>
+      <c r="AA34" s="2">
+        <f>AA33+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0.59319999999999995</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>0.58830000000000005</v>
+      </c>
+      <c r="AG34" s="7">
+        <v>0.5857</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>0.58840000000000003</v>
+      </c>
+      <c r="AJ34" s="7">
+        <v>0.59670000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:B40" si="31">B34+1</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7">
+        <v>0.4662</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.46350000000000002</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.46610000000000001</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="K35">
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ref="L35:L40" si="32">L34+1</f>
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <f>$K$35*M32</f>
+        <v>3.696E-2</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:V35" si="33">$K$35*N32</f>
+        <v>7.392E-2</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="33"/>
+        <v>0.11087999999999999</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="33"/>
+        <v>0.14784</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="33"/>
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="33"/>
+        <v>0.22175999999999998</v>
+      </c>
+      <c r="S35" s="3">
+        <f t="shared" si="33"/>
+        <v>0.25871999999999995</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="33"/>
+        <v>0.29568</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="33"/>
+        <v>0.33263999999999999</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="33"/>
+        <v>0.36959999999999998</v>
+      </c>
+      <c r="X35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="AA35" s="2">
+        <f t="shared" ref="AA35:AA40" si="34">AA34+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="7">
+        <v>0.377</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="AG35" s="7">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="AI35" s="7">
+        <v>0.3644</v>
+      </c>
+      <c r="AJ35" s="7">
+        <v>0.36890000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f t="shared" si="31"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7">
+        <v>0.39829999999999999</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.39829999999999999</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="K36">
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <f>$K$36*M32</f>
+        <v>3.082E-2</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36:V36" si="35">$K$36*N32</f>
+        <v>6.164E-2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="35"/>
+        <v>9.2459999999999987E-2</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="35"/>
+        <v>0.12328</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="35"/>
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="35"/>
+        <v>0.18491999999999997</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="35"/>
+        <v>0.21573999999999996</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="35"/>
+        <v>0.24656</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="35"/>
+        <v>0.27737999999999996</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="35"/>
+        <v>0.30819999999999997</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>0.312</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>0.30809999999999998</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>0.30559999999999998</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="AI36" s="7">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AJ36" s="7">
+        <v>0.30790000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f t="shared" si="31"/>
+        <v>5</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.3483</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.34639999999999999</v>
+      </c>
+      <c r="K37">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="M37">
+        <f>$K$37*M32</f>
+        <v>2.6540000000000005E-2</v>
+      </c>
+      <c r="N37">
+        <f t="shared" ref="N37:V37" si="36">$K$37*N32</f>
+        <v>5.3080000000000009E-2</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="36"/>
+        <v>7.962000000000001E-2</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="36"/>
+        <v>0.10616000000000002</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="36"/>
+        <v>0.13270000000000001</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="36"/>
+        <v>0.15924000000000002</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="36"/>
+        <v>0.18578</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="36"/>
+        <v>0.21232000000000004</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="36"/>
+        <v>0.23886000000000002</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="36"/>
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="AA37" s="2">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>0.2918</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>0.28610000000000002</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>0.28170000000000001</v>
+      </c>
+      <c r="AG37" s="7">
+        <v>0.27850000000000003</v>
+      </c>
+      <c r="AH37" s="7">
+        <v>0.27629999999999999</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="AJ37" s="5">
+        <v>0.2757</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="3">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.32269999999999999</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.32390000000000002</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="32"/>
+        <v>6</v>
+      </c>
+      <c r="M38">
+        <f>$K$38*M32</f>
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:V38" si="37">$K$38*N32</f>
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="37"/>
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="37"/>
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="37"/>
+        <v>0.122</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="37"/>
+        <v>0.1464</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="37"/>
+        <v>0.17079999999999998</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="37"/>
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="37"/>
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="37"/>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>0.249</v>
+      </c>
+      <c r="AH38" s="7">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0.246</v>
+      </c>
+      <c r="AJ38" s="7">
+        <v>0.24679999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <f t="shared" si="31"/>
+        <v>7</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="3">
+        <v>0.1948</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.1953</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.19570000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="M39">
+        <f>$K$39*M32</f>
+        <v>1.5570000000000001E-2</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:V39" si="38">$K$39*N32</f>
+        <v>3.1140000000000001E-2</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="38"/>
+        <v>4.6710000000000002E-2</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="38"/>
+        <v>6.2280000000000002E-2</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="38"/>
+        <v>7.7850000000000003E-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="38"/>
+        <v>9.3420000000000003E-2</v>
+      </c>
+      <c r="S39" s="3">
+        <f t="shared" si="38"/>
+        <v>0.10899</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="38"/>
+        <v>0.12456</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="38"/>
+        <v>0.14013</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="38"/>
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>0.1545</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>0.15179999999999999</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>0.1489</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>0.1484</v>
+      </c>
+      <c r="AI39" s="5">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="AJ39" s="5">
+        <v>0.1507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7">
+        <v>8.0280000000000004E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>7.9250000000000001E-2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>7.9710000000000003E-2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>8.0799999999999997E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <v>8.0670000000000006E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>8.0600000000000005E-2</v>
+      </c>
+      <c r="K40">
+        <v>6.8870000000000001E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="32"/>
+        <v>8</v>
+      </c>
+      <c r="M40">
+        <f>$K$40*M32</f>
+        <v>6.8870000000000008E-3</v>
+      </c>
+      <c r="N40">
+        <f t="shared" ref="N40:V40" si="39">$K$40*N32</f>
+        <v>1.3774000000000002E-2</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="39"/>
+        <v>2.0660999999999999E-2</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="39"/>
+        <v>2.7548000000000003E-2</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="39"/>
+        <v>3.4435E-2</v>
+      </c>
+      <c r="R40" s="3">
+        <f t="shared" si="39"/>
+        <v>4.1321999999999998E-2</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="39"/>
+        <v>4.8208999999999995E-2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="39"/>
+        <v>5.5096000000000006E-2</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="39"/>
+        <v>6.1983000000000003E-2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="39"/>
+        <v>6.8870000000000001E-2</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="34"/>
+        <v>8</v>
+      </c>
+      <c r="AB40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>6.7150000000000001E-2</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>6.608E-2</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>6.6199999999999995E-2</v>
+      </c>
+      <c r="AI40" s="7">
+        <v>6.6739999999999994E-2</v>
+      </c>
+      <c r="AJ40" s="7">
+        <v>6.7890000000000006E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <f>B40+1</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7">
+        <v>2.0830000000000001E-2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2.0639999999999999E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>2.0650000000000002E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>2.07E-2</v>
+      </c>
+      <c r="H41" s="3">
+        <v>2.061E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="K41">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <f>L40+1</f>
+        <v>9</v>
+      </c>
+      <c r="M41">
+        <f>$K$41*M32</f>
+        <v>1.8100000000000002E-3</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:V41" si="40">$K$41*N32</f>
+        <v>3.6200000000000004E-3</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="40"/>
+        <v>5.4299999999999999E-3</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="40"/>
+        <v>7.2400000000000008E-3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="40"/>
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="40"/>
+        <v>1.086E-2</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="40"/>
+        <v>1.2670000000000001E-2</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="40"/>
+        <v>1.4480000000000002E-2</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="40"/>
+        <v>1.6290000000000002E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="40"/>
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="AA41" s="2">
+        <f>AA40+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>1.762E-2</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>0.17349999999999999</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>1.7010000000000001E-2</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>1.695E-2</v>
+      </c>
+      <c r="AI41" s="7">
+        <v>1.695E-2</v>
+      </c>
+      <c r="AJ41" s="7">
+        <v>1.7049999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4843,7 +6937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
   <dimension ref="A1:AL26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -6845,7 +8939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
   <dimension ref="A2:AK28"/>
   <sheetViews>
-    <sheetView topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
@@ -10948,7 +13042,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A3264-3A61-4411-A092-3122019449F9}">
   <dimension ref="A2:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+    <sheetView topLeftCell="D10" workbookViewId="0">
       <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
@@ -11670,7 +13764,7 @@
         <v>30000</v>
       </c>
       <c r="E13" s="24">
-        <f t="shared" ref="E13:G13" si="12">D13+5000</f>
+        <f t="shared" ref="E13:F13" si="12">D13+5000</f>
         <v>35000</v>
       </c>
       <c r="F13" s="24">

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8919A8FC-5567-4C74-9BD2-05BAD735C8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A790C-B8A2-4D93-9F8E-F063192098DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="area2_b" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="31">
   <si>
     <t>range</t>
   </si>
@@ -248,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -277,6 +276,12 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -3864,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
   <dimension ref="A1:AK44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A31" sqref="A31:XFD45"/>
     </sheetView>
   </sheetViews>
@@ -6939,7 +6944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
   <dimension ref="A1:AL52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="C16" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -10894,10 +10899,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
-  <dimension ref="A2:AK28"/>
+  <dimension ref="A2:AK44"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V25" sqref="V25"/>
+    <sheetView topLeftCell="O16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="A29:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12927,6 +12932,1068 @@
         <v>0.1177</v>
       </c>
     </row>
+    <row r="29" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
+        <v>80000</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ref="D32:I32" si="24">C32+5000</f>
+        <v>85000</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="24"/>
+        <v>90000</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="24"/>
+        <v>95000</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="24"/>
+        <v>100000</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="24"/>
+        <v>105000</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="24"/>
+        <v>110000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.4699</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1.4622999999999999</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1.4581</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.4621</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.4672000000000001</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.4758</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1.4748000000000001</v>
+      </c>
+      <c r="K33">
+        <v>1.6767000000000001</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <f>$K$33*M32</f>
+        <v>0.16767000000000001</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" ref="N33:V33" si="25">$K$33*N32</f>
+        <v>0.33534000000000003</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="25"/>
+        <v>0.50300999999999996</v>
+      </c>
+      <c r="P33" s="7">
+        <f t="shared" si="25"/>
+        <v>0.67068000000000005</v>
+      </c>
+      <c r="Q33" s="7">
+        <f t="shared" si="25"/>
+        <v>0.83835000000000004</v>
+      </c>
+      <c r="R33" s="3">
+        <f t="shared" si="25"/>
+        <v>1.0060199999999999</v>
+      </c>
+      <c r="S33" s="7">
+        <f t="shared" si="25"/>
+        <v>1.1736899999999999</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="25"/>
+        <v>1.3413600000000001</v>
+      </c>
+      <c r="U33" s="7">
+        <f t="shared" si="25"/>
+        <v>1.5090300000000001</v>
+      </c>
+      <c r="V33" s="7">
+        <f t="shared" si="25"/>
+        <v>1.6767000000000001</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>1.3176000000000001</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>1.3026</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>1.2943</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>1.2928999999999999</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>1.3005</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>1.3223</v>
+      </c>
+      <c r="AJ33" s="5">
+        <v>1.3671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f>B33+1</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.61170000000000002</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.61619999999999997</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.63180000000000003</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.62739999999999996</v>
+      </c>
+      <c r="K34">
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="L34" s="2">
+        <f>L33+1</f>
+        <v>2</v>
+      </c>
+      <c r="M34" s="7">
+        <f>$K$34*M32</f>
+        <v>6.386E-2</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" ref="N34:V34" si="26">$K$34*N32</f>
+        <v>0.12772</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="26"/>
+        <v>0.19157999999999997</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="26"/>
+        <v>0.25544</v>
+      </c>
+      <c r="Q34" s="7">
+        <f t="shared" si="26"/>
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="26"/>
+        <v>0.38315999999999995</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="26"/>
+        <v>0.44701999999999992</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" si="26"/>
+        <v>0.51088</v>
+      </c>
+      <c r="U34" s="7">
+        <f t="shared" si="26"/>
+        <v>0.57473999999999992</v>
+      </c>
+      <c r="V34" s="7">
+        <f t="shared" si="26"/>
+        <v>0.63859999999999995</v>
+      </c>
+      <c r="X34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="5"/>
+      <c r="AA34" s="2">
+        <f>AA33+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="AG34" s="7">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="AJ34" s="5">
+        <v>0.50266999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:B40" si="27">B34+1</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.50570000000000004</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.50260000000000005</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.50190000000000001</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.504</v>
+      </c>
+      <c r="K35">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ref="L35:L40" si="28">L34+1</f>
+        <v>3</v>
+      </c>
+      <c r="M35" s="7">
+        <f>$K$35*M32</f>
+        <v>4.1830000000000006E-2</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" ref="N35:V35" si="29">$K$35*N32</f>
+        <v>8.3660000000000012E-2</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" si="29"/>
+        <v>0.12548999999999999</v>
+      </c>
+      <c r="P35" s="7">
+        <f t="shared" si="29"/>
+        <v>0.16732000000000002</v>
+      </c>
+      <c r="Q35" s="7">
+        <f t="shared" si="29"/>
+        <v>0.20915</v>
+      </c>
+      <c r="R35" s="7">
+        <f t="shared" si="29"/>
+        <v>0.25097999999999998</v>
+      </c>
+      <c r="S35" s="7">
+        <f t="shared" si="29"/>
+        <v>0.29280999999999996</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="29"/>
+        <v>0.33464000000000005</v>
+      </c>
+      <c r="U35" s="7">
+        <f t="shared" si="29"/>
+        <v>0.37647000000000003</v>
+      </c>
+      <c r="V35" s="7">
+        <f t="shared" si="29"/>
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="X35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="AA35" s="2">
+        <f t="shared" ref="AA35:AA40" si="30">AA34+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD35" s="28">
+        <v>0.44140000000000001</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0.43080000000000002</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>0.4224</v>
+      </c>
+      <c r="AG35" s="7">
+        <v>0.41560000000000002</v>
+      </c>
+      <c r="AH35" s="7">
+        <v>0.41070000000000001</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0.40479999999999999</v>
+      </c>
+      <c r="AJ35" s="5">
+        <v>0.41060000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.28920000000000001</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.28849999999999998</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.28910000000000002</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="K36">
+        <v>0.3301</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="M36" s="7">
+        <f>$K$36*M32</f>
+        <v>3.3010000000000005E-2</v>
+      </c>
+      <c r="N36" s="7">
+        <f t="shared" ref="N36:V36" si="31">$K$36*N32</f>
+        <v>6.6020000000000009E-2</v>
+      </c>
+      <c r="O36" s="7">
+        <f t="shared" si="31"/>
+        <v>9.9029999999999993E-2</v>
+      </c>
+      <c r="P36" s="7">
+        <f t="shared" si="31"/>
+        <v>0.13204000000000002</v>
+      </c>
+      <c r="Q36" s="7">
+        <f t="shared" si="31"/>
+        <v>0.16505</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="31"/>
+        <v>0.19805999999999999</v>
+      </c>
+      <c r="S36" s="7">
+        <f t="shared" si="31"/>
+        <v>0.23107</v>
+      </c>
+      <c r="T36" s="7">
+        <f t="shared" si="31"/>
+        <v>0.26408000000000004</v>
+      </c>
+      <c r="U36" s="7">
+        <f t="shared" si="31"/>
+        <v>0.29709000000000002</v>
+      </c>
+      <c r="V36" s="7">
+        <f t="shared" si="31"/>
+        <v>0.3301</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>0.24990000000000001</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>0.24790000000000001</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>0.2475</v>
+      </c>
+      <c r="AI36" s="7">
+        <v>0.24940000000000001</v>
+      </c>
+      <c r="AJ36" s="7">
+        <v>0.25319999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.25119999999999998</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.2077</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="M37" s="7">
+        <f>$K$37*M32</f>
+        <v>2.077E-2</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" ref="N37:V37" si="32">$K$37*N32</f>
+        <v>4.1540000000000001E-2</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="32"/>
+        <v>6.2309999999999997E-2</v>
+      </c>
+      <c r="P37" s="7">
+        <f t="shared" si="32"/>
+        <v>8.3080000000000001E-2</v>
+      </c>
+      <c r="Q37" s="7">
+        <f t="shared" si="32"/>
+        <v>0.10385</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="32"/>
+        <v>0.12461999999999999</v>
+      </c>
+      <c r="S37" s="7">
+        <f t="shared" si="32"/>
+        <v>0.14538999999999999</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="32"/>
+        <v>0.16616</v>
+      </c>
+      <c r="U37" s="7">
+        <f t="shared" si="32"/>
+        <v>0.18693000000000001</v>
+      </c>
+      <c r="V37" s="7">
+        <f t="shared" si="32"/>
+        <v>0.2077</v>
+      </c>
+      <c r="AA37" s="2">
+        <f t="shared" si="30"/>
+        <v>5</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>0.20849999999999999</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>0.2044</v>
+      </c>
+      <c r="AG37" s="7">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="AH37" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0.19789999999999999</v>
+      </c>
+      <c r="AJ37" s="7">
+        <v>0.1983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.1741</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.1734</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.1731</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.17280000000000001</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.1734</v>
+      </c>
+      <c r="K38">
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="28"/>
+        <v>6</v>
+      </c>
+      <c r="M38" s="7">
+        <f>$K$38*M32</f>
+        <v>1.478E-2</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" ref="N38:V38" si="33">$K$38*N32</f>
+        <v>2.9559999999999999E-2</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="33"/>
+        <v>4.4339999999999997E-2</v>
+      </c>
+      <c r="P38" s="7">
+        <f t="shared" si="33"/>
+        <v>5.9119999999999999E-2</v>
+      </c>
+      <c r="Q38" s="7">
+        <f t="shared" si="33"/>
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="33"/>
+        <v>8.8679999999999995E-2</v>
+      </c>
+      <c r="S38" s="7">
+        <f t="shared" si="33"/>
+        <v>0.10345999999999998</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="33"/>
+        <v>0.11824</v>
+      </c>
+      <c r="U38" s="7">
+        <f t="shared" si="33"/>
+        <v>0.13302</v>
+      </c>
+      <c r="V38" s="7">
+        <f t="shared" si="33"/>
+        <v>0.14779999999999999</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="30"/>
+        <v>6</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0.1507</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>0.14929999999999999</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="AH38" s="7">
+        <v>0.14849999999999999</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0.1492</v>
+      </c>
+      <c r="AJ38" s="5">
+        <v>0.1512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1.577</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.1552</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.15529999999999999</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.15570000000000001</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.1205</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="28"/>
+        <v>7</v>
+      </c>
+      <c r="M39" s="7">
+        <f>$K$39*M32</f>
+        <v>1.205E-2</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" ref="N39:V39" si="34">$K$39*N32</f>
+        <v>2.41E-2</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="34"/>
+        <v>3.6149999999999995E-2</v>
+      </c>
+      <c r="P39" s="7">
+        <f t="shared" si="34"/>
+        <v>4.82E-2</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="34"/>
+        <v>6.0249999999999998E-2</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="34"/>
+        <v>7.2299999999999989E-2</v>
+      </c>
+      <c r="S39" s="7">
+        <f t="shared" si="34"/>
+        <v>8.4349999999999994E-2</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="34"/>
+        <v>9.64E-2</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="34"/>
+        <v>0.10845</v>
+      </c>
+      <c r="V39" s="7">
+        <f t="shared" si="34"/>
+        <v>0.1205</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="30"/>
+        <v>7</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>0.1308</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0.1268</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>0.1236</v>
+      </c>
+      <c r="AG39" s="7">
+        <v>0.121</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>0.1191</v>
+      </c>
+      <c r="AI39" s="7">
+        <v>0.1177</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.1318</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0.13070000000000001</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0.1295</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.1293</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="K40">
+        <v>0.1105</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="28"/>
+        <v>8</v>
+      </c>
+      <c r="M40" s="7">
+        <f>$K$40*M32</f>
+        <v>1.1050000000000001E-2</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" ref="N40:V40" si="35">$K$40*N32</f>
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="35"/>
+        <v>3.3149999999999999E-2</v>
+      </c>
+      <c r="P40" s="7">
+        <f t="shared" si="35"/>
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="35"/>
+        <v>5.525E-2</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" si="35"/>
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="S40" s="7">
+        <f t="shared" si="35"/>
+        <v>7.7350000000000002E-2</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="35"/>
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="U40" s="3">
+        <f t="shared" si="35"/>
+        <v>9.9449999999999997E-2</v>
+      </c>
+      <c r="V40" s="7">
+        <f t="shared" si="35"/>
+        <v>0.1105</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="30"/>
+        <v>8</v>
+      </c>
+      <c r="AB40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>0.1143</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>0.1105</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>0.1082</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>0.1076</v>
+      </c>
+      <c r="AJ40" s="5">
+        <v>0.1074</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <f>B40+1</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3.542E-2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3.4909999999999997E-2</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3.4819999999999997E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>3.458E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>3.4729999999999997E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>3.4680000000000002E-2</v>
+      </c>
+      <c r="K41">
+        <v>2.9340000000000001E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <f>L40+1</f>
+        <v>9</v>
+      </c>
+      <c r="M41" s="7">
+        <f>$K$41*M32</f>
+        <v>2.9340000000000004E-3</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" ref="N41:V41" si="36">$K$41*N32</f>
+        <v>5.8680000000000008E-3</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="36"/>
+        <v>8.8020000000000008E-3</v>
+      </c>
+      <c r="P41" s="7">
+        <f t="shared" si="36"/>
+        <v>1.1736000000000002E-2</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="36"/>
+        <v>1.4670000000000001E-2</v>
+      </c>
+      <c r="R41" s="3">
+        <f t="shared" si="36"/>
+        <v>1.7604000000000002E-2</v>
+      </c>
+      <c r="S41" s="7">
+        <f t="shared" si="36"/>
+        <v>2.0538000000000001E-2</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="36"/>
+        <v>2.3472000000000003E-2</v>
+      </c>
+      <c r="U41" s="7">
+        <f t="shared" si="36"/>
+        <v>2.6406000000000002E-2</v>
+      </c>
+      <c r="V41" s="7">
+        <f t="shared" si="36"/>
+        <v>2.9340000000000001E-2</v>
+      </c>
+      <c r="AA41" s="2">
+        <f>AA40+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>2.9180000000000001E-2</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>2.8379999999999999E-2</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>2.8479999999999998E-2</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>2.8379999999999999E-2</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>2.845E-2</v>
+      </c>
+      <c r="AI41" s="5">
+        <v>2.8709999999999999E-2</v>
+      </c>
+      <c r="AJ41" s="5">
+        <v>2.9219999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>63500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12934,10 +14001,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46B17F-3465-4774-B397-C386614D55B2}">
-  <dimension ref="A2:V26"/>
+  <dimension ref="A2:AJ44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="N16" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13615,7 +14682,7 @@
         <v>0.1101</v>
       </c>
     </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
         <v>1</v>
       </c>
@@ -13650,7 +14717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="I18" t="s">
         <v>3</v>
       </c>
@@ -13686,7 +14753,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="I19" t="s">
         <v>4</v>
       </c>
@@ -13723,7 +14790,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L20" s="2">
         <f t="shared" ref="L20:L25" si="11">L19+1</f>
         <v>3</v>
@@ -13756,7 +14823,7 @@
         <v>1.1950000000000001</v>
       </c>
     </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L21" s="2">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -13789,7 +14856,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L22" s="2">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -13822,7 +14889,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L23" s="2">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -13855,7 +14922,7 @@
         <v>0.39600000000000002</v>
       </c>
     </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="I24" t="s">
         <v>8</v>
       </c>
@@ -13891,7 +14958,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="I25" t="s">
         <v>9</v>
       </c>
@@ -13927,7 +14994,7 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="L26" s="2">
         <f>L25+1</f>
         <v>9</v>
@@ -13958,6 +15025,1068 @@
       </c>
       <c r="U26" s="7">
         <v>0.115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
+        <v>55000</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ref="D32:I32" si="12">C32+5000</f>
+        <v>60000</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="12"/>
+        <v>65000</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="12"/>
+        <v>70000</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="12"/>
+        <v>75000</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="12"/>
+        <v>80000</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="12"/>
+        <v>85000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.8714999999999999</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1.8177000000000001</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1.8165</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.8106</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.8116000000000001</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.8222</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1.849</v>
+      </c>
+      <c r="K33">
+        <v>1.7244999999999999</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <f>$K$33*M32</f>
+        <v>0.17244999999999999</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" ref="N33:V33" si="13">$K$33*N32</f>
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="13"/>
+        <v>0.51734999999999998</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="13"/>
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="Q33" s="7">
+        <f t="shared" si="13"/>
+        <v>0.86224999999999996</v>
+      </c>
+      <c r="R33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0347</v>
+      </c>
+      <c r="S33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.2071499999999999</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.3795999999999999</v>
+      </c>
+      <c r="U33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.5520499999999999</v>
+      </c>
+      <c r="V33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.7244999999999999</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>1.6282000000000001</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>1.6114999999999999</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>1.6091</v>
+      </c>
+      <c r="AG33" s="7">
+        <v>1.62042</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>1.64</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>1.6717</v>
+      </c>
+      <c r="AJ33" s="7">
+        <v>1.7231000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f>B33+1</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.92201</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.9325</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="K34">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="L34" s="2">
+        <f>L33+1</f>
+        <v>2</v>
+      </c>
+      <c r="M34" s="7">
+        <f>$K$34*M32</f>
+        <v>8.5880000000000012E-2</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" ref="N34:V34" si="14">$K$34*N32</f>
+        <v>0.17176000000000002</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.25763999999999998</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.34352000000000005</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="14"/>
+        <v>0.4294</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.51527999999999996</v>
+      </c>
+      <c r="S34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.60115999999999992</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.6870400000000001</v>
+      </c>
+      <c r="U34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.77292000000000005</v>
+      </c>
+      <c r="V34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="X34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="5"/>
+      <c r="AA34" s="2">
+        <f>AA33+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="AH34" s="7">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="AJ34" s="7">
+        <v>0.83260000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:B40" si="15">B34+1</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.70050000000000001</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="K35">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ref="L35:L40" si="16">L34+1</f>
+        <v>3</v>
+      </c>
+      <c r="M35" s="7">
+        <f>$K$35*M32</f>
+        <v>6.5990000000000007E-2</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" ref="N35:V35" si="17">$K$35*N32</f>
+        <v>0.13198000000000001</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="P35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.26396000000000003</v>
+      </c>
+      <c r="Q35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.32995000000000002</v>
+      </c>
+      <c r="R35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.39594000000000001</v>
+      </c>
+      <c r="S35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.46193000000000001</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="17"/>
+        <v>0.52792000000000006</v>
+      </c>
+      <c r="U35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.59391000000000005</v>
+      </c>
+      <c r="V35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="X35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="AA35" s="2">
+        <f t="shared" ref="AA35:AA40" si="18">AA34+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0.6321</v>
+      </c>
+      <c r="AD35" s="29">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0.60170000000000001</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="AG35" s="7">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="AH35" s="7">
+        <v>0.5786</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AJ35" s="7">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.4254</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.40870000000000001</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.3962</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.3901</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M36" s="7">
+        <f>$K$36*M32</f>
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="N36" s="7">
+        <f t="shared" ref="N36:V36" si="19">$K$36*N32</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="O36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.10619999999999999</v>
+      </c>
+      <c r="P36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.1416</v>
+      </c>
+      <c r="Q36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.21239999999999998</v>
+      </c>
+      <c r="S36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.24779999999999996</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="19"/>
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="U36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="V36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>0.3659</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>0.3619</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="AJ36" s="7">
+        <v>0.36209999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.2041</v>
+      </c>
+      <c r="K37">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="M37" s="7">
+        <f>$K$37*M32</f>
+        <v>2.239E-2</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" ref="N37:V37" si="20">$K$37*N32</f>
+        <v>4.478E-2</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="20"/>
+        <v>6.7169999999999994E-2</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="20"/>
+        <v>8.9560000000000001E-2</v>
+      </c>
+      <c r="Q37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.11194999999999999</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.13433999999999999</v>
+      </c>
+      <c r="S37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.15672999999999998</v>
+      </c>
+      <c r="T37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.17912</v>
+      </c>
+      <c r="U37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.20150999999999999</v>
+      </c>
+      <c r="V37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="AA37" s="2">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="AG37" s="7">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="AH37" s="7">
+        <v>0.18779999999999999</v>
+      </c>
+      <c r="AI37" s="7">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="AJ37" s="7">
+        <v>0.19889999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.19370000000000001</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.1885</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="K38">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="M38" s="7">
+        <f>$K$38*M32</f>
+        <v>1.4879999999999999E-2</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" ref="N38:V38" si="21">$K$38*N32</f>
+        <v>2.9759999999999998E-2</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="21"/>
+        <v>4.4639999999999992E-2</v>
+      </c>
+      <c r="P38" s="7">
+        <f t="shared" si="21"/>
+        <v>5.9519999999999997E-2</v>
+      </c>
+      <c r="Q38" s="7">
+        <f t="shared" si="21"/>
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="21"/>
+        <v>8.9279999999999984E-2</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="21"/>
+        <v>0.10415999999999999</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" si="21"/>
+        <v>0.11903999999999999</v>
+      </c>
+      <c r="U38" s="7">
+        <f t="shared" si="21"/>
+        <v>0.13391999999999998</v>
+      </c>
+      <c r="V38" s="7">
+        <f t="shared" si="21"/>
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0.1673</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>0.1646</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>0.1605</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AI38" s="7">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="AJ38" s="7">
+        <v>0.16317999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.17469999999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.1759</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.1774</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.1774</v>
+      </c>
+      <c r="K39">
+        <v>0.1123</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="M39" s="7">
+        <f>$K$39*M32</f>
+        <v>1.123E-2</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" ref="N39:V39" si="22">$K$39*N32</f>
+        <v>2.2460000000000001E-2</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="22"/>
+        <v>3.3689999999999998E-2</v>
+      </c>
+      <c r="P39" s="7">
+        <f t="shared" si="22"/>
+        <v>4.4920000000000002E-2</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="22"/>
+        <v>5.6149999999999999E-2</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="22"/>
+        <v>6.7379999999999995E-2</v>
+      </c>
+      <c r="S39" s="7">
+        <f t="shared" si="22"/>
+        <v>7.8609999999999999E-2</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="22"/>
+        <v>8.9840000000000003E-2</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="22"/>
+        <v>0.10106999999999999</v>
+      </c>
+      <c r="V39" s="7">
+        <f t="shared" si="22"/>
+        <v>0.1123</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>0.1394</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>0.1336</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="AG39" s="7">
+        <v>0.1249</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>0.1235</v>
+      </c>
+      <c r="AI39" s="7">
+        <v>0.1225</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>6.7290000000000003E-2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>6.8019999999999997E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>6.7769999999999997E-2</v>
+      </c>
+      <c r="K40">
+        <v>6.4180000000000001E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="M40" s="7">
+        <f>$K$40*M32</f>
+        <v>6.4180000000000001E-3</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" ref="N40:V40" si="23">$K$40*N32</f>
+        <v>1.2836E-2</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="23"/>
+        <v>1.9254E-2</v>
+      </c>
+      <c r="P40" s="7">
+        <f t="shared" si="23"/>
+        <v>2.5672E-2</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="23"/>
+        <v>3.209E-2</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" si="23"/>
+        <v>3.8508000000000001E-2</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="23"/>
+        <v>4.4926000000000001E-2</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="23"/>
+        <v>5.1344000000000001E-2</v>
+      </c>
+      <c r="U40" s="7">
+        <f t="shared" si="23"/>
+        <v>5.7762000000000001E-2</v>
+      </c>
+      <c r="V40" s="7">
+        <f t="shared" si="23"/>
+        <v>6.4180000000000001E-2</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>5.9720000000000002E-2</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>5.892E-2</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>5.8450000000000002E-2</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>5.8139999999999997E-2</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>5.8090000000000003E-2</v>
+      </c>
+      <c r="AI40" s="7">
+        <v>5.8389999999999997E-2</v>
+      </c>
+      <c r="AJ40" s="7">
+        <v>5.8689999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <f>B40+1</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.251E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.247E-2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1.256E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1.2630000000000001E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.2670000000000001E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.2579999999999999E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="K41">
+        <v>1.064E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <f>L40+1</f>
+        <v>9</v>
+      </c>
+      <c r="M41" s="7">
+        <f>$K$41*M32</f>
+        <v>1.0640000000000001E-3</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" ref="N41:V41" si="24">$K$41*N32</f>
+        <v>2.1280000000000001E-3</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="24"/>
+        <v>3.192E-3</v>
+      </c>
+      <c r="P41" s="7">
+        <f t="shared" si="24"/>
+        <v>4.2560000000000002E-3</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="24"/>
+        <v>5.3200000000000001E-3</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" si="24"/>
+        <v>6.3839999999999999E-3</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="24"/>
+        <v>7.4479999999999998E-3</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="24"/>
+        <v>8.5120000000000005E-3</v>
+      </c>
+      <c r="U41" s="7">
+        <f t="shared" si="24"/>
+        <v>9.5760000000000012E-3</v>
+      </c>
+      <c r="V41" s="7">
+        <f t="shared" si="24"/>
+        <v>1.064E-2</v>
+      </c>
+      <c r="AA41" s="2">
+        <f>AA40+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>1.12E-2</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>1.1039999999999999E-2</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>1.0919999999999999E-2</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>1.085E-2</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>1.081E-2</v>
+      </c>
+      <c r="AI41" s="7">
+        <v>1.082E-2</v>
+      </c>
+      <c r="AJ41" s="7">
+        <v>0.10920000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>59000</v>
       </c>
     </row>
   </sheetData>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0A790C-B8A2-4D93-9F8E-F063192098DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492461A4-4D60-4EF9-95BA-B13E795FA5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="31">
   <si>
     <t>range</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -282,6 +282,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -6944,7 +6949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
   <dimension ref="A1:AL52"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -10901,7 +10906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
   <dimension ref="A2:AK44"/>
   <sheetViews>
-    <sheetView topLeftCell="O16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O29" sqref="A29:XFD43"/>
     </sheetView>
   </sheetViews>
@@ -14003,8 +14008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46B17F-3465-4774-B397-C386614D55B2}">
   <dimension ref="A2:AJ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N16" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16097,10 +16102,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D51598-43C8-43C8-B0AF-4826DB32F76D}">
-  <dimension ref="A2:V26"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="U28" activeCellId="8" sqref="P20 P21 S22 S24 U23 U25 R26 S27 U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16110,7 +16115,10 @@
     <col min="11" max="11" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="Z1" s="19"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -16169,8 +16177,42 @@
       <c r="V2" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z2" s="19"/>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -16235,8 +16277,43 @@
         <f t="shared" si="0"/>
         <v>2.0103900000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1.6125</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1.6153999999999999</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>1.6335999999999999</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>1.6675</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>1.7145999999999999</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>1.776</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>1.8554999999999999</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>1.9608000000000001</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>2.1082399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
@@ -16303,8 +16380,44 @@
         <f t="shared" si="1"/>
         <v>1.12252</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="2">
+        <f>AA3+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0.9456</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0.8861</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0.89739999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B10" si="2">B4+1</f>
         <v>3</v>
@@ -16371,8 +16484,40 @@
         <f t="shared" si="4"/>
         <v>0.55628</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="2">
+        <f t="shared" ref="AA5:AA10" si="5">AA4+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.57050000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -16404,43 +16549,75 @@
         <v>2.8589E-2</v>
       </c>
       <c r="N6" s="7">
-        <f t="shared" ref="N6:V6" si="5">$K$6*N2</f>
+        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
         <v>5.7178E-2</v>
       </c>
       <c r="O6" s="7">
+        <f t="shared" si="6"/>
+        <v>8.5766999999999996E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.114356</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.14294499999999999</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.17153399999999999</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="6"/>
+        <v>0.20012299999999997</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.228712</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.257301</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.28588999999999998</v>
+      </c>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="2">
         <f t="shared" si="5"/>
-        <v>8.5766999999999996E-2</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.114356</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.14294499999999999</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.17153399999999999</v>
-      </c>
-      <c r="S6" s="21">
-        <f t="shared" si="5"/>
-        <v>0.20012299999999997</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.228712</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.257301</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.28588999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0.26829999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -16472,11 +16649,11 @@
         <v>2.40561E-2</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" ref="N7:V7" si="6">$K$7*N2</f>
+        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
         <v>4.8112200000000001E-2</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.2168299999999991E-2</v>
       </c>
       <c r="P7" s="7">
@@ -16484,31 +16661,63 @@
         <v>9.6224400000000002E-2</v>
       </c>
       <c r="Q7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1202805</v>
       </c>
       <c r="R7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.14433659999999998</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.16839269999999998</v>
       </c>
       <c r="T7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.1924488</v>
       </c>
       <c r="U7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2165049</v>
       </c>
       <c r="V7" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.240561</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.2238</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.2172</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.216</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.21609999999999999</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -16540,43 +16749,75 @@
         <v>1.9155700000000001E-2</v>
       </c>
       <c r="N8" s="7">
-        <f t="shared" ref="N8:V8" si="7">$K$8*N2</f>
+        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
         <v>3.8311400000000002E-2</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.74671E-2</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6622800000000005E-2</v>
       </c>
       <c r="Q8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5778500000000003E-2</v>
       </c>
       <c r="R8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1149342</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13408989999999998</v>
       </c>
       <c r="T8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.15324560000000001</v>
       </c>
       <c r="U8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17240130000000001</v>
       </c>
       <c r="V8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.19155700000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0.19220000000000001</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0.19009999999999999</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0.18690000000000001</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.1857</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -16608,19 +16849,19 @@
         <v>1.4216400000000002E-2</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" ref="N9:V9" si="8">$K$9*N2</f>
+        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
         <v>2.8432800000000005E-2</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.2649200000000005E-2</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.6865600000000009E-2</v>
       </c>
       <c r="Q9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.1082000000000006E-2</v>
       </c>
       <c r="R9" s="7">
@@ -16628,23 +16869,55 @@
         <v>8.529840000000001E-2</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9.95148E-2</v>
       </c>
       <c r="T9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11373120000000002</v>
       </c>
       <c r="U9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.12794760000000002</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14216400000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0.14043</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.1298</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0.129</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0.13389999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -16676,23 +16949,23 @@
         <v>1.28384E-2</v>
       </c>
       <c r="N10" s="7">
-        <f t="shared" ref="N10:V10" si="9">$K$10*N2</f>
+        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
         <v>2.56768E-2</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8515199999999999E-2</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1353599999999999E-2</v>
       </c>
       <c r="Q10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.4191999999999999E-2</v>
       </c>
       <c r="R10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.7030399999999999E-2</v>
       </c>
       <c r="S10" s="7">
@@ -16700,19 +16973,51 @@
         <v>8.9868799999999999E-2</v>
       </c>
       <c r="T10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1027072</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.1155456</v>
       </c>
       <c r="V10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.128384</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0.1293</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>9</v>
@@ -16744,11 +17049,11 @@
         <v>7.732300000000001E-3</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" ref="N11:V11" si="10">$K$11*N2</f>
+        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
         <v>1.5464600000000002E-2</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3196899999999999E-2</v>
       </c>
       <c r="P11" s="7">
@@ -16756,368 +17061,1156 @@
         <v>3.0929200000000004E-2</v>
       </c>
       <c r="Q11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.8661500000000001E-2</v>
       </c>
       <c r="R11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.6393799999999999E-2</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4126099999999996E-2</v>
       </c>
       <c r="T11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1858400000000008E-2</v>
       </c>
       <c r="U11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9590700000000005E-2</v>
       </c>
       <c r="V11" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.7323000000000003E-2</v>
       </c>
-    </row>
-    <row r="17" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L17" t="s">
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="2">
+        <f>AA10+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>7.5109999999999996E-2</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>7.2620000000000004E-2</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>7.1059999999999998E-2</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>6.9959999999999994E-2</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>6.9150000000000003E-2</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>6.8669999999999995E-2</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>6.8489999999999995E-2</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>6.8779999999999994E-2</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>7.0279999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="16" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:I19" si="12">C19+5000</f>
+        <v>20000</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="12"/>
+        <v>25000</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="12"/>
+        <v>30000</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="12"/>
+        <v>35000</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="12"/>
+        <v>40000</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M19" s="6">
         <v>0.1</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N19" s="6">
         <v>0.2</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O19" s="6">
         <v>0.3</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P19" s="6">
         <v>0.4</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q19" s="6">
         <v>0.5</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R19" s="6">
         <v>0.6</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S19" s="6">
         <v>0.7</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T19" s="6">
         <v>0.8</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U19" s="6">
         <v>0.9</v>
       </c>
-      <c r="V17">
+      <c r="V19" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.7770999999999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.7625999999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.7667999999999999</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.7827999999999999</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.7838000000000001</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="K20">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <f>$K$20*M19</f>
+        <v>0.1757</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" ref="N20:V20" si="13">$K$20*N19</f>
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="13"/>
+        <v>0.5270999999999999</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="13"/>
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="13"/>
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0541999999999998</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.2298999999999998</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.4056</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.5812999999999999</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>1.5921000000000001</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1.5468</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>1.5291999999999999</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1.5267999999999999</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>1.5365</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>1.5586</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>1.5971</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>1.6584000000000001</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>1.7637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f>B20+1</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.5897</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.58460000000000001</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.58960000000000001</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="K21">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="L21" s="2">
+        <f>L20+1</f>
+        <v>2</v>
+      </c>
+      <c r="M21" s="7">
+        <f>$K$21*M19</f>
+        <v>5.6090000000000001E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" ref="N21:V21" si="14">$K$21*N19</f>
+        <v>0.11218</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.16826999999999998</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="14"/>
+        <v>0.22436</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.28044999999999998</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.33653999999999995</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.39262999999999992</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.44872000000000001</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.50480999999999998</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="X21" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="5">
-        <v>1.6125</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1.6153999999999999</v>
-      </c>
-      <c r="O18" s="7">
-        <v>1.6335999999999999</v>
-      </c>
-      <c r="P18" s="7">
-        <v>1.6675</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>1.7145999999999999</v>
-      </c>
-      <c r="R18" s="7">
-        <v>1.776</v>
-      </c>
-      <c r="S18" s="7">
-        <v>1.8554999999999999</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1.9608000000000001</v>
-      </c>
-      <c r="U18" s="7">
-        <v>2.1082399999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
+      <c r="Y21" s="5"/>
+      <c r="AA21" s="2">
+        <f>AA20+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0.505</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0.54820000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" ref="B22:B27" si="15">B21+1</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.28841</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.2908</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="K22">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ref="L22:L27" si="16">L21+1</f>
+        <v>3</v>
+      </c>
+      <c r="M22" s="7">
+        <f>$K$22*M19</f>
+        <v>2.5819999999999999E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" ref="N22:V22" si="17">$K$22*N19</f>
+        <v>5.1639999999999998E-2</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="17"/>
+        <v>7.7459999999999987E-2</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.10328</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.15491999999999997</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.18073999999999998</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.20655999999999999</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.23238</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="X22" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="L19" s="2">
-        <f>L18+1</f>
-        <v>2</v>
-      </c>
-      <c r="M19" s="5">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="N19" s="5">
-        <v>0.9456</v>
-      </c>
-      <c r="O19" s="5">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="P19" s="5">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>0.89629999999999999</v>
-      </c>
-      <c r="R19" s="5">
-        <v>0.88919999999999999</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="T19" s="3">
-        <v>0.8861</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0.89739999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L20" s="2">
-        <f t="shared" ref="L20:L25" si="11">L19+1</f>
+      <c r="Y22" s="3"/>
+      <c r="AA22" s="2">
+        <f t="shared" ref="AA22:AA27" si="18">AA21+1</f>
         <v>3</v>
       </c>
-      <c r="M20" s="7">
-        <v>0.55789999999999995</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0.55579999999999996</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0.55979999999999996</v>
-      </c>
-      <c r="P20" s="7">
-        <v>0.56440000000000001</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>0.56850000000000001</v>
-      </c>
-      <c r="R20" s="7">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0.57050000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L21" s="2">
-        <f t="shared" si="11"/>
+      <c r="AB22" s="7">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="AD22" s="33">
+        <v>0.219</v>
+      </c>
+      <c r="AE22" s="33">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="AF22" s="32">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="AH22" s="34">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="AI22" s="32">
+        <v>0.2087</v>
+      </c>
+      <c r="AJ22" s="32">
+        <v>0.21190000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="M21" s="5">
-        <v>0.29149999999999998</v>
-      </c>
-      <c r="N21" s="5">
-        <v>0.27910000000000001</v>
-      </c>
-      <c r="O21" s="5">
-        <v>0.27350000000000002</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0.27029999999999998</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0.26719999999999999</v>
-      </c>
-      <c r="R21" s="7">
-        <v>0.26479999999999998</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0.26379999999999998</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0.26440000000000002</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0.26829999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L22" s="2">
-        <f t="shared" si="11"/>
+      <c r="C23" s="3">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.3453</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="K23">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M23" s="7">
+        <f>$K$23*M19</f>
+        <v>2.1479999999999999E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ref="N23:V23" si="19">$K$23*N19</f>
+        <v>4.2959999999999998E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="19"/>
+        <v>6.4439999999999997E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="19"/>
+        <v>8.5919999999999996E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.1074</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.12887999999999999</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.15035999999999999</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.17183999999999999</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="19"/>
+        <v>0.19331999999999999</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0.255</v>
+      </c>
+      <c r="AE23" s="33">
+        <v>0.2432</v>
+      </c>
+      <c r="AF23" s="33">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="AG23" s="33">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="AH23" s="33">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="AI23" s="33">
+        <v>0.20910000000000001</v>
+      </c>
+      <c r="AJ23" s="34">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="M22" s="5">
-        <v>0.24440000000000001</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0.23080000000000001</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0.2238</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0.21970000000000001</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0.2172</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0.216</v>
-      </c>
-      <c r="S22" s="5">
-        <v>0.21609999999999999</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0.21709999999999999</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0.22020000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L23" s="2">
-        <f t="shared" si="11"/>
+      <c r="C24" s="7">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="K24">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="M24" s="7">
+        <f>$K$24*M19</f>
+        <v>1.5970000000000002E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" ref="N24:V24" si="20">$K$24*N19</f>
+        <v>3.1940000000000003E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="20"/>
+        <v>4.7910000000000001E-2</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="20"/>
+        <v>6.3880000000000006E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="20"/>
+        <v>7.9850000000000004E-2</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="20"/>
+        <v>9.5820000000000002E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="20"/>
+        <v>0.11179</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="20"/>
+        <v>0.12776000000000001</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="20"/>
+        <v>0.14373000000000002</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="20"/>
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>0.1845</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>0.17080000000000001</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0.1636</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>0.1593</v>
+      </c>
+      <c r="AF24" s="32">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>0.1545</v>
+      </c>
+      <c r="AH24" s="34">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>0.1542</v>
+      </c>
+      <c r="AJ24" s="33">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="M23" s="5">
-        <v>0.20219999999999999</v>
-      </c>
-      <c r="N23" s="5">
-        <v>0.19539999999999999</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0.19220000000000001</v>
-      </c>
-      <c r="P23" s="5">
-        <v>0.19009999999999999</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0.1883</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0.18690000000000001</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0.186</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0.1857</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0.18640000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L24" s="2">
-        <f t="shared" si="11"/>
+      <c r="C25" s="3">
+        <v>0.1633</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.1668</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.16678000000000001</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="K25">
+        <v>0.1371</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="M25" s="7">
+        <f>$K$25*M19</f>
+        <v>1.371E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" ref="N25:V25" si="21">$K$25*N19</f>
+        <v>2.742E-2</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="21"/>
+        <v>4.113E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="21"/>
+        <v>5.484E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="21"/>
+        <v>6.855E-2</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="21"/>
+        <v>8.226E-2</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="21"/>
+        <v>9.597E-2</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="21"/>
+        <v>0.10968</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="21"/>
+        <v>0.12339</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="21"/>
+        <v>0.1371</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0.1457</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0.1366</v>
+      </c>
+      <c r="AE25" s="33">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AF25" s="33">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="AG25" s="33">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="AH25" s="33">
+        <v>0.1288</v>
+      </c>
+      <c r="AI25" s="33">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="AJ25" s="34">
+        <v>0.12709999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="M24" s="5">
-        <v>0.14043</v>
-      </c>
-      <c r="N24" s="5">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="O24" s="5">
-        <v>0.13139999999999999</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0.1298</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0.129</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0.129</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0.13389999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L25" s="2">
-        <f t="shared" si="11"/>
+      <c r="C26" s="3">
+        <v>8.8359999999999994E-2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>8.9359999999999995E-2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>8.9039999999999994E-2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>8.9249999999999996E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>9.8140000000000005E-2</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="K26">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="M26" s="7">
+        <f>$K$26*M19</f>
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" ref="N26:V26" si="22">$K$26*N19</f>
+        <v>1.8319999999999999E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="22"/>
+        <v>2.7480000000000001E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="22"/>
+        <v>3.6639999999999999E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="22"/>
+        <v>4.58E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="22"/>
+        <v>5.4960000000000002E-2</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="22"/>
+        <v>6.4119999999999996E-2</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="22"/>
+        <v>7.3279999999999998E-2</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="22"/>
+        <v>8.2439999999999999E-2</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="22"/>
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>7.8990000000000005E-2</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>7.6189999999999994E-2</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>7.46E-2</v>
+      </c>
+      <c r="AE26" s="33">
+        <v>7.3609999999999995E-2</v>
+      </c>
+      <c r="AF26" s="33">
+        <v>7.3020000000000002E-2</v>
+      </c>
+      <c r="AG26" s="34">
+        <v>7.2770000000000001E-2</v>
+      </c>
+      <c r="AH26" s="33">
+        <v>7.2910000000000003E-2</v>
+      </c>
+      <c r="AI26" s="33">
+        <v>7.3590000000000003E-2</v>
+      </c>
+      <c r="AJ26" s="33">
+        <v>7.5230000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="M25" s="7">
-        <v>0.15279999999999999</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0.14610000000000001</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0.14149999999999999</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0.13769999999999999</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0.13170000000000001</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0.1293</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0.12659999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="9:22" x14ac:dyDescent="0.3">
-      <c r="L26" s="2">
-        <f>L25+1</f>
+      <c r="C27" s="7">
+        <v>3.918E-2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3.7350000000000001E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.7319999999999999E-2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3.8710000000000001E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3.9039999999999998E-2</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="K27">
+        <v>3.3349999999999998E-2</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="M27" s="7">
+        <f>$K$27*M19</f>
+        <v>3.3349999999999999E-3</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" ref="N27:V27" si="23">$K$27*N19</f>
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="23"/>
+        <v>1.0004999999999998E-2</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="23"/>
+        <v>1.3339999999999999E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="23"/>
+        <v>1.6674999999999999E-2</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="23"/>
+        <v>2.0009999999999997E-2</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="23"/>
+        <v>2.3344999999999998E-2</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" si="23"/>
+        <v>2.6679999999999999E-2</v>
+      </c>
+      <c r="U27" s="7">
+        <f t="shared" si="23"/>
+        <v>3.0015E-2</v>
+      </c>
+      <c r="V27" s="7">
+        <f t="shared" si="23"/>
+        <v>3.3349999999999998E-2</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>3.44E-2</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>3.3250000000000002E-2</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AE27" s="32">
+        <v>3.2009999999999997E-2</v>
+      </c>
+      <c r="AF27" s="32">
+        <v>3.1640000000000001E-2</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>3.1419999999999997E-2</v>
+      </c>
+      <c r="AH27" s="34">
+        <v>3.1350000000000003E-2</v>
+      </c>
+      <c r="AI27" s="32">
+        <v>3.1519999999999999E-2</v>
+      </c>
+      <c r="AJ27" s="32">
+        <v>3.2169999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <f>B27+1</f>
         <v>9</v>
       </c>
-      <c r="M26" s="7">
-        <v>7.5109999999999996E-2</v>
-      </c>
-      <c r="N26" s="7">
-        <v>7.2620000000000004E-2</v>
-      </c>
-      <c r="O26" s="7">
-        <v>7.1059999999999998E-2</v>
-      </c>
-      <c r="P26" s="7">
-        <v>6.9959999999999994E-2</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>6.9150000000000003E-2</v>
-      </c>
-      <c r="R26" s="7">
-        <v>6.8669999999999995E-2</v>
-      </c>
-      <c r="S26" s="3">
-        <v>6.8489999999999995E-2</v>
-      </c>
-      <c r="T26" s="7">
-        <v>6.8779999999999994E-2</v>
-      </c>
-      <c r="U26" s="7">
-        <v>7.0279999999999995E-2</v>
-      </c>
+      <c r="C28" s="7">
+        <v>1.349E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.337E-2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1.3639999999999999E-2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1.3639999999999999E-2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1.3655E-2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="K28">
+        <v>9.8139999999999998E-3</v>
+      </c>
+      <c r="L28" s="2">
+        <f>L27+1</f>
+        <v>9</v>
+      </c>
+      <c r="M28" s="7">
+        <f>$K$28*M19</f>
+        <v>9.8140000000000011E-4</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" ref="N28:V28" si="24">$K$28*N19</f>
+        <v>1.9628000000000002E-3</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="24"/>
+        <v>2.9441999999999997E-3</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" si="24"/>
+        <v>3.9256000000000004E-3</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="24"/>
+        <v>4.9069999999999999E-3</v>
+      </c>
+      <c r="R28" s="7">
+        <f t="shared" si="24"/>
+        <v>5.8883999999999994E-3</v>
+      </c>
+      <c r="S28" s="7">
+        <f t="shared" si="24"/>
+        <v>6.8697999999999997E-3</v>
+      </c>
+      <c r="T28" s="7">
+        <f t="shared" si="24"/>
+        <v>7.8512000000000009E-3</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="24"/>
+        <v>8.8325999999999995E-3</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" si="24"/>
+        <v>9.8139999999999998E-3</v>
+      </c>
+      <c r="AA28" s="2">
+        <f>AA27+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>1.196E-2</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>1.162E-2</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="AE28" s="32">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="AF28" s="32">
+        <v>1.1050000000000001E-2</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>1.09E-2</v>
+      </c>
+      <c r="AH28" s="32">
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="AI28" s="32">
+        <v>1.0619999999999999E-2</v>
+      </c>
+      <c r="AJ28" s="34">
+        <v>1.052E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15500</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="K32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492461A4-4D60-4EF9-95BA-B13E795FA5E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCDB002-A905-47C8-B22A-B0EF49F94159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="area 5" sheetId="5" r:id="rId6"/>
     <sheet name="area2_a" sheetId="8" r:id="rId7"/>
     <sheet name="area2_b" sheetId="9" r:id="rId8"/>
+    <sheet name="area3_a" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="32">
   <si>
     <t>range</t>
   </si>
@@ -133,6 +134,9 @@
   </si>
   <si>
     <t>...</t>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
@@ -247,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -287,6 +291,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -16104,8 +16111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D51598-43C8-43C8-B0AF-4826DB32F76D}">
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="U28" activeCellId="8" sqref="P20 P21 S22 S24 U23 U25 R26 S27 U28"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17152,7 +17159,7 @@
         <v>15000</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:I19" si="12">C19+5000</f>
+        <f t="shared" ref="D19:H19" si="12">C19+5000</f>
         <v>20000</v>
       </c>
       <c r="E19" s="6">
@@ -19794,4 +19801,1140 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6711240D-728F-43A4-869A-5546C70EDBE2}">
+  <dimension ref="A3:AL15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" activeCellId="7" sqref="W4 W5:W6 W8 W9 W12 T11 T10 T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6">
+        <v>11000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3+1000</f>
+        <v>12000</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:J3" si="0">D3+1000</f>
+        <v>13000</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="J3" s="6">
+        <v>20000</v>
+      </c>
+      <c r="K3" s="6">
+        <v>25000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.2257</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.2126999999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.2578</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1.2107000000000001</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.214</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.2181</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.2351000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.2564</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.2810999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <f>$M$4*O3</f>
+        <v>9.3590000000000007E-2</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" ref="P4:X4" si="1">$M$4*P3</f>
+        <v>0.18718000000000001</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.28076999999999996</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.37436000000000003</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.46794999999999998</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.56153999999999993</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.65512999999999988</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74872000000000005</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.84231</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93589999999999995</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0.98229999999999995</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0.9405</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0.9073</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0.85970000000000002</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0.83320000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.5756</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.49609999999999999</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.51570000000000005</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.56179999999999997</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="M5">
+        <v>0.4199</v>
+      </c>
+      <c r="N5" s="2">
+        <f>N4+1</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="7">
+        <f>$M$5*O3</f>
+        <v>4.199E-2</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" ref="P5:X5" si="2">$M$5*P3</f>
+        <v>8.3979999999999999E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.12597</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.16796</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.20995</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.25194</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.29392999999999997</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.33592</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.37791000000000002</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.4199</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AC5" s="2">
+        <f>AC4+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0.35770000000000002</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0.3478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B11" si="3">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.3962</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.38629999999999998</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.33948</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.2288</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N11" si="4">N5+1</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="7">
+        <f>$M$6*O3</f>
+        <v>2.2880000000000001E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" ref="P6:X6" si="5">$M$6*P3</f>
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="5"/>
+        <v>6.8639999999999993E-2</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="5"/>
+        <v>9.1520000000000004E-2</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.1144</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.13727999999999999</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.16016</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.18304000000000001</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="5"/>
+        <v>0.20592000000000002</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.2288</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AC6" s="2">
+        <f t="shared" ref="AC6:AC11" si="6">AC5+1</f>
+        <v>3</v>
+      </c>
+      <c r="AD6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF6" s="32">
+        <v>0.32329999999999998</v>
+      </c>
+      <c r="AG6" s="32">
+        <v>0.3125</v>
+      </c>
+      <c r="AH6" s="32">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="AI6" s="32">
+        <v>0.29339999999999999</v>
+      </c>
+      <c r="AJ6" s="32">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="AK6" s="32">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AL6" s="34">
+        <v>0.26740000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.30080000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.2888</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.2843</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="7">
+        <f>$M$7*O3</f>
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" ref="P7:X7" si="7">$M$7*P3</f>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="7"/>
+        <v>6.1199999999999991E-2</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="7"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.12239999999999998</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.14279999999999998</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.18359999999999999</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AD7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>0.25469999999999998</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>0.24690000000000001</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>0.2407</v>
+      </c>
+      <c r="AI7" s="34">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="AJ7" s="33">
+        <v>0.23150000000000001</v>
+      </c>
+      <c r="AK7" s="33">
+        <v>0.22850000000000001</v>
+      </c>
+      <c r="AL7" s="33">
+        <v>0.22739999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.2162</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.22020000000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.21890000000000001</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="7">
+        <f>$M$8*O3</f>
+        <v>1.634E-2</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" ref="P8:X8" si="8">$M$8*P3</f>
+        <v>3.2680000000000001E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="8"/>
+        <v>4.9019999999999994E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="8"/>
+        <v>6.5360000000000001E-2</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="8"/>
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="8"/>
+        <v>9.8039999999999988E-2</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.11437999999999998</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.13072</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="8"/>
+        <v>0.14706</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AD8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>0.18210000000000001</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="AJ8" s="32">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="AK8" s="32">
+        <v>0.1547</v>
+      </c>
+      <c r="AL8" s="34">
+        <v>0.14879999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.108</v>
+      </c>
+      <c r="D9" s="7">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>9.9169999999999994E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>9.9599999999999994E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.1087</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.1081</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.1133</v>
+      </c>
+      <c r="M9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O9" s="7">
+        <f>$M$9*O3</f>
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" ref="P9:X9" si="9">$M$9*P3</f>
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="9"/>
+        <v>3.0599999999999995E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="9"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="9"/>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="9"/>
+        <v>6.1199999999999991E-2</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="9"/>
+        <v>7.1399999999999991E-2</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="9"/>
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="9"/>
+        <v>9.1799999999999993E-2</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AD9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="32">
+        <v>8.9539999999999995E-2</v>
+      </c>
+      <c r="AG9" s="32">
+        <v>8.7739999999999999E-2</v>
+      </c>
+      <c r="AH9" s="32">
+        <v>8.6410000000000001E-2</v>
+      </c>
+      <c r="AI9" s="32">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="AJ9" s="32">
+        <v>8.4959999999999994E-2</v>
+      </c>
+      <c r="AK9" s="33">
+        <v>8.4580000000000002E-2</v>
+      </c>
+      <c r="AL9" s="34">
+        <v>8.48E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.5399999999999998E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5.7180000000000002E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>5.8119999999999998E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5.7090000000000002E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5.9240000000000001E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5.815E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5.9060000000000001E-2</v>
+      </c>
+      <c r="M10">
+        <v>4.6219999999999997E-2</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O10" s="7">
+        <f>$M$10*O3</f>
+        <v>4.6220000000000002E-3</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" ref="P10:X10" si="10">$M$10*P3</f>
+        <v>9.2440000000000005E-3</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="10"/>
+        <v>1.3865999999999998E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="10"/>
+        <v>1.8488000000000001E-2</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="10"/>
+        <v>2.3109999999999999E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="10"/>
+        <v>2.7731999999999996E-2</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="10"/>
+        <v>3.2353999999999994E-2</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="10"/>
+        <v>3.6976000000000002E-2</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="10"/>
+        <v>4.1597999999999996E-2</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="10"/>
+        <v>4.6219999999999997E-2</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AD10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>5.1929999999999997E-2</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>5.0779999999999999E-2</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>4.999E-2</v>
+      </c>
+      <c r="AI10" s="34">
+        <v>4.9579999999999999E-2</v>
+      </c>
+      <c r="AJ10" s="33">
+        <v>4.9579999999999999E-2</v>
+      </c>
+      <c r="AK10" s="33">
+        <v>4.9820000000000003E-2</v>
+      </c>
+      <c r="AL10" s="32">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.5770000000000003E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.9010000000000003E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.9230000000000001E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3.9890000000000002E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.40539999999999998</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3.7479999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>3.6749999999999998E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O11" s="7">
+        <f>$M$11*O3</f>
+        <v>3.6749999999999999E-3</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" ref="P11:X11" si="11">$M$11*P3</f>
+        <v>7.3499999999999998E-3</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="11"/>
+        <v>1.1024999999999998E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="11"/>
+        <v>1.47E-2</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="11"/>
+        <v>1.8374999999999999E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="11"/>
+        <v>2.2049999999999997E-2</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="11"/>
+        <v>2.5724999999999998E-2</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="11"/>
+        <v>3.3075E-2</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" si="11"/>
+        <v>3.6749999999999998E-2</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AD11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>3.7530000000000001E-2</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>3.7339999999999998E-2</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>3.7240000000000002E-2</v>
+      </c>
+      <c r="AI11" s="34">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>3.721E-2</v>
+      </c>
+      <c r="AK11" s="32">
+        <v>3.7240000000000002E-2</v>
+      </c>
+      <c r="AL11" s="32">
+        <v>3.7289999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f>B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.8839999999999999E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.924E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.9640000000000001E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.883E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.8880000000000001E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.89E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1.89E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.8870000000000001E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.255E-2</v>
+      </c>
+      <c r="N12" s="2">
+        <f>N11+1</f>
+        <v>9</v>
+      </c>
+      <c r="O12" s="7">
+        <f>$M$12*O3</f>
+        <v>1.255E-3</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" ref="P12:X12" si="12">$M$12*P3</f>
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="12"/>
+        <v>3.7650000000000001E-3</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="12"/>
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="12"/>
+        <v>6.2750000000000002E-3</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="12"/>
+        <v>7.5300000000000002E-3</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="12"/>
+        <v>8.7849999999999994E-3</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.004E-2</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="12"/>
+        <v>1.1295000000000001E-2</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.255E-2</v>
+      </c>
+      <c r="AC12" s="2">
+        <f>AC11+1</f>
+        <v>9</v>
+      </c>
+      <c r="AD12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF12" s="33">
+        <v>1.55E-2</v>
+      </c>
+      <c r="AG12" s="33">
+        <v>1.5219999999999999E-2</v>
+      </c>
+      <c r="AH12" s="33">
+        <v>1.502E-2</v>
+      </c>
+      <c r="AI12" s="33">
+        <v>1.486E-2</v>
+      </c>
+      <c r="AJ12" s="33">
+        <v>1.4749999999999999E-2</v>
+      </c>
+      <c r="AK12" s="33">
+        <v>1.4659999999999999E-2</v>
+      </c>
+      <c r="AL12" s="34">
+        <v>1.461E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCDB002-A905-47C8-B22A-B0EF49F94159}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A82A43B-4459-4005-B06C-CEA8182E4FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="area2_a" sheetId="8" r:id="rId7"/>
     <sheet name="area2_b" sheetId="9" r:id="rId8"/>
     <sheet name="area3_a" sheetId="10" r:id="rId9"/>
+    <sheet name="area3_b" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="32">
   <si>
     <t>range</t>
   </si>
@@ -251,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -292,6 +293,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -728,6 +732,1126 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB70D321-8441-4D6C-96CE-087642A6DA2C}">
+  <dimension ref="A3:AL15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O7" activeCellId="2" sqref="U6 R8 O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3+1000</f>
+        <v>11000</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:K3" si="0">D3+1000</f>
+        <v>12000</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>13000</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>14000</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="X3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.63570000000000004</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.60219999999999996</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.57469999999999999</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.59409999999999996</v>
+      </c>
+      <c r="M4">
+        <v>0.435</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <f>$M$4*O3</f>
+        <v>4.3500000000000004E-2</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" ref="P4:X4" si="1">$M$4*P3</f>
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1305</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.17400000000000002</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.2175</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30449999999999999</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.34800000000000003</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.435</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="35">
+        <v>0.55669999999999997</v>
+      </c>
+      <c r="AE4" s="35">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0.47360000000000002</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>0.45789999999999997</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>0.42509999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.38069999999999998</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.35639999999999999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.36009999999999998</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.3669</v>
+      </c>
+      <c r="M5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="N5" s="2">
+        <f>N4+1</f>
+        <v>2</v>
+      </c>
+      <c r="O5" s="7">
+        <f>$M$5*O3</f>
+        <v>1.9500000000000003E-2</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" ref="P5:X5" si="2">$M$5*P3</f>
+        <v>3.9000000000000007E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="2"/>
+        <v>5.8499999999999996E-2</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="2"/>
+        <v>7.8000000000000014E-2</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="2"/>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.13649999999999998</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.17550000000000002</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" s="5"/>
+      <c r="AC5" s="2">
+        <f>AC4+1</f>
+        <v>2</v>
+      </c>
+      <c r="AD5" s="35">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="AE5" s="35">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.2717</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>2.6579999999999999E-2</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B11" si="3">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7">
+        <v>5.6689999999999997E-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5.04E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.9509999999999998E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5.1150000000000001E-2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5.4949999999999999E-2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>5.5019999999999999E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>5.5070000000000001E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5.5109999999999999E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:N11" si="4">N5+1</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="7">
+        <f>$M$6*O3</f>
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" ref="P6:X6" si="5">$M$6*P3</f>
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="5"/>
+        <v>3.4950000000000002E-2</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="5"/>
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="5"/>
+        <v>5.8250000000000003E-2</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="5"/>
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="5"/>
+        <v>8.1549999999999997E-2</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="5"/>
+        <v>9.3200000000000005E-2</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.10485000000000001</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="3"/>
+      <c r="AC6" s="2">
+        <f t="shared" ref="AC6:AC11" si="6">AC5+1</f>
+        <v>3</v>
+      </c>
+      <c r="AD6" s="35">
+        <v>5.0529999999999999E-2</v>
+      </c>
+      <c r="AE6" s="35">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="AF6" s="32">
+        <v>5.1060000000000001E-2</v>
+      </c>
+      <c r="AG6" s="32">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="AH6" s="32">
+        <v>5.2839999999999998E-2</v>
+      </c>
+      <c r="AI6" s="32">
+        <v>5.423E-2</v>
+      </c>
+      <c r="AJ6" s="34">
+        <v>5.6090000000000001E-2</v>
+      </c>
+      <c r="AK6" s="32">
+        <v>5.8279999999999998E-2</v>
+      </c>
+      <c r="AL6" s="32">
+        <v>6.1339999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <v>2.9239999999999999E-2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3.1820000000000001E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3.2919999999999998E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.134E-2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3.329E-2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>3.2009999999999997E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3.1060000000000001E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>3.0329999999999999E-2</v>
+      </c>
+      <c r="M7">
+        <v>3.832E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="O7" s="3">
+        <f>$M$7*O3</f>
+        <v>3.8320000000000003E-3</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" ref="P7:X7" si="7">$M$7*P3</f>
+        <v>7.6640000000000007E-3</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="7"/>
+        <v>1.1495999999999999E-2</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="7"/>
+        <v>1.5328000000000001E-2</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="7"/>
+        <v>1.916E-2</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="7"/>
+        <v>2.2991999999999999E-2</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="7"/>
+        <v>2.6823999999999997E-2</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>3.0656000000000003E-2</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="7"/>
+        <v>3.4487999999999998E-2</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="7"/>
+        <v>3.832E-2</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AD7" s="36">
+        <v>3.3439999999999998E-2</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>3.424E-2</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>3.4979999999999997E-2</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>3.517E-2</v>
+      </c>
+      <c r="AI7" s="32">
+        <v>3.5279999999999999E-2</v>
+      </c>
+      <c r="AJ7" s="32">
+        <v>3.5349999999999999E-2</v>
+      </c>
+      <c r="AK7" s="32">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="AL7" s="32">
+        <v>3.5459999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="3">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2.3820000000000001E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.486E-2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>2.6530000000000001E-2</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2.547E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2.5340000000000001E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2.5229999999999999E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2.5139999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.3310000000000001E-2</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="O8" s="7">
+        <f>$M$8*O3</f>
+        <v>2.3310000000000002E-3</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" ref="P8:X8" si="8">$M$8*P3</f>
+        <v>4.6620000000000003E-3</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="8"/>
+        <v>6.9930000000000001E-3</v>
+      </c>
+      <c r="R8" s="3">
+        <f t="shared" si="8"/>
+        <v>9.3240000000000007E-3</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="8"/>
+        <v>1.1655E-2</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="8"/>
+        <v>1.3986E-2</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="8"/>
+        <v>1.6316999999999998E-2</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="8"/>
+        <v>1.8648000000000001E-2</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="8"/>
+        <v>2.0979000000000001E-2</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="8"/>
+        <v>2.3310000000000001E-2</v>
+      </c>
+      <c r="AC8" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AE8" s="35">
+        <v>2.3029999999999998E-2</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>2.2329999999999999E-2</v>
+      </c>
+      <c r="AG8" s="34">
+        <v>2.197E-2</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>2.189E-2</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>2.205E-2</v>
+      </c>
+      <c r="AJ8" s="32">
+        <v>2.2460000000000001E-2</v>
+      </c>
+      <c r="AK8" s="32">
+        <v>2.316E-2</v>
+      </c>
+      <c r="AL8" s="32">
+        <v>2.4170000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7">
+        <v>5.1846000000000003E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.0469999999999999E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3.8420000000000003E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3.8109999999999998E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3.8670000000000003E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3.9149999999999997E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>3.959E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="M9">
+        <v>1.687E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O9" s="7">
+        <f>$M$9*O3</f>
+        <v>1.6870000000000001E-3</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" ref="P9:X9" si="9">$M$9*P3</f>
+        <v>3.3740000000000003E-3</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="9"/>
+        <v>5.0609999999999995E-3</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="9"/>
+        <v>6.7480000000000005E-3</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="9"/>
+        <v>8.4349999999999998E-3</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="9"/>
+        <v>1.0121999999999999E-2</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1808999999999998E-2</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="9"/>
+        <v>1.3496000000000001E-2</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5183E-2</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="9"/>
+        <v>1.687E-2</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AD9" s="35">
+        <v>3.49E-2</v>
+      </c>
+      <c r="AE9" s="35">
+        <v>3.2419999999999997E-2</v>
+      </c>
+      <c r="AF9" s="32">
+        <v>3.0329999999999999E-2</v>
+      </c>
+      <c r="AG9" s="32">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="AH9" s="32">
+        <v>2.6849999999999999E-2</v>
+      </c>
+      <c r="AI9" s="32">
+        <v>2.5350000000000001E-2</v>
+      </c>
+      <c r="AJ9" s="32">
+        <v>2.3959999999999999E-2</v>
+      </c>
+      <c r="AK9" s="32">
+        <v>2.2669999999999999E-2</v>
+      </c>
+      <c r="AL9" s="34">
+        <v>2.146E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.8199999999999996E-3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4.9699999999999996E-3</v>
+      </c>
+      <c r="G10" s="7">
+        <v>5.2469999999999999E-3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5.1409999999999997E-3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5.1830000000000001E-3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>5.2209999999999999E-3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>5.254E-3</v>
+      </c>
+      <c r="M10">
+        <v>2.415E-3</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="O10" s="7">
+        <f>$M$10*O3</f>
+        <v>2.4150000000000002E-4</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" ref="P10:X10" si="10">$M$10*P3</f>
+        <v>4.8300000000000003E-4</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="10"/>
+        <v>7.2449999999999999E-4</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="10"/>
+        <v>9.6600000000000006E-4</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="10"/>
+        <v>1.2075E-3</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="10"/>
+        <v>1.449E-3</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="10"/>
+        <v>1.6904999999999999E-3</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="10"/>
+        <v>1.9320000000000001E-3</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="10"/>
+        <v>2.1735000000000001E-3</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="10"/>
+        <v>2.415E-3</v>
+      </c>
+      <c r="AC10" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AD10" s="35">
+        <v>4.7939999999999997E-3</v>
+      </c>
+      <c r="AE10" s="35">
+        <v>4.4600000000000004E-3</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>4.1900000000000001E-3</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>3.9639999999999996E-3</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>3.7699999999999999E-3</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>3.601E-3</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>3.4529999999999999E-3</v>
+      </c>
+      <c r="AK10" s="32">
+        <v>3.3240000000000001E-3</v>
+      </c>
+      <c r="AL10" s="34">
+        <v>3.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7">
+        <v>1.307E-3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1.224E-3</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.1969999999999999E-3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.155E-3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.093E-3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.1280000000000001E-3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1.1559999999999999E-3</v>
+      </c>
+      <c r="K11" s="7">
+        <v>1.1800000000000001E-3</v>
+      </c>
+      <c r="M11">
+        <v>9.6960000000000004E-4</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O11" s="7">
+        <f>$M$11*O3</f>
+        <v>9.6960000000000007E-5</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" ref="P11:X11" si="11">$M$11*P3</f>
+        <v>1.9392000000000001E-4</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9087999999999998E-4</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8784000000000003E-4</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="11"/>
+        <v>4.8480000000000002E-4</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="11"/>
+        <v>5.8175999999999996E-4</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="11"/>
+        <v>6.7871999999999995E-4</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="11"/>
+        <v>7.7568000000000005E-4</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="11"/>
+        <v>8.7264000000000005E-4</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" si="11"/>
+        <v>9.6960000000000004E-4</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AD11" s="35">
+        <v>1.114E-3</v>
+      </c>
+      <c r="AE11" s="35">
+        <v>1.1180000000000001E-3</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>1.1379999999999999E-3</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>1.1659999999999999E-3</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>1.1969999999999999E-3</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>3.1539999999999999E-2</v>
+      </c>
+      <c r="AK11" s="34">
+        <v>1.304E-3</v>
+      </c>
+      <c r="AL11" s="32">
+        <v>1.3420000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f>B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="3">
+        <v>6.9910000000000003E-4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7.5502000000000002E-4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>7.4509999999999995E-4</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7.3019999999999997E-4</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7.2440000000000004E-4</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7.3530000000000004E-4</v>
+      </c>
+      <c r="J12" s="7">
+        <v>7.4509999999999995E-4</v>
+      </c>
+      <c r="K12" s="7">
+        <v>7.54E-4</v>
+      </c>
+      <c r="M12">
+        <v>6.579E-4</v>
+      </c>
+      <c r="N12" s="2">
+        <f>N11+1</f>
+        <v>9</v>
+      </c>
+      <c r="O12" s="7">
+        <f>$M$12*O3</f>
+        <v>6.5790000000000005E-5</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" ref="P12:X12" si="12">$M$12*P3</f>
+        <v>1.3158000000000001E-4</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9736999999999999E-4</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="12"/>
+        <v>2.6316000000000002E-4</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="12"/>
+        <v>3.2895E-4</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="12"/>
+        <v>3.9473999999999998E-4</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="12"/>
+        <v>4.6052999999999996E-4</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="12"/>
+        <v>5.2632000000000004E-4</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="12"/>
+        <v>5.9210999999999997E-4</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="12"/>
+        <v>6.579E-4</v>
+      </c>
+      <c r="AC12" s="2">
+        <f>AC11+1</f>
+        <v>9</v>
+      </c>
+      <c r="AD12" s="35">
+        <v>6.9419999999999996E-4</v>
+      </c>
+      <c r="AE12" s="35">
+        <v>6.7610000000000001E-4</v>
+      </c>
+      <c r="AF12" s="32">
+        <v>6.6589999999999998E-4</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>6.5910000000000003E-4</v>
+      </c>
+      <c r="AH12" s="32">
+        <v>6.5410000000000002E-4</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>6.4970000000000002E-4</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>6.4539999999999997E-4</v>
+      </c>
+      <c r="AK12" s="32">
+        <v>6.4079999999999996E-4</v>
+      </c>
+      <c r="AL12" s="34">
+        <v>6.355E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B424C6FD-858B-4715-AB2E-8F192D327931}">
   <dimension ref="A1:AL44"/>
@@ -19807,8 +20931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6711240D-728F-43A4-869A-5546C70EDBE2}">
   <dimension ref="A3:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" activeCellId="7" sqref="W4 W5:W6 W8 W9 W12 T11 T10 T7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A82A43B-4459-4005-B06C-CEA8182E4FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303EE766-49F5-4D32-B5F7-8F6732464F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="area2_b" sheetId="9" r:id="rId8"/>
     <sheet name="area3_a" sheetId="10" r:id="rId9"/>
     <sheet name="area3_b" sheetId="11" r:id="rId10"/>
+    <sheet name="area3_c" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="32">
   <si>
     <t>range</t>
   </si>
@@ -736,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB70D321-8441-4D6C-96CE-087642A6DA2C}">
   <dimension ref="A3:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O7" activeCellId="2" sqref="U6 R8 O7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1845,6 +1846,1044 @@
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC7CF49-3B57-483D-98A7-CE922F6357B9}">
+  <dimension ref="A3:AN15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3+1000</f>
+        <v>16000</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:K3" si="0">D3+1000</f>
+        <v>17000</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>23000</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3" si="1">K3+1000</f>
+        <v>24000</v>
+      </c>
+      <c r="M3" s="6">
+        <f t="shared" ref="M3" si="2">L3+1000</f>
+        <v>25000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2.5417000000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2.4266999999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2.4243000000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2.5017</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2.4594</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2.4169</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2.4882</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2.4944000000000002</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2.4624000000000001</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2.4765999999999999</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2.4971999999999999</v>
+      </c>
+      <c r="O4">
+        <v>1.6998</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>$O$4*Q3</f>
+        <v>0.16998000000000002</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" ref="R4:Z4" si="3">$O$4*R3</f>
+        <v>0.33996000000000004</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.50993999999999995</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.67992000000000008</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.84989999999999999</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0198799999999999</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1898599999999999</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="3"/>
+        <v>1.3598400000000002</v>
+      </c>
+      <c r="Y4" s="7">
+        <f t="shared" si="3"/>
+        <v>1.52982</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6998</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.80489999999999995</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.8286</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.84209999999999996</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.85109999999999997</v>
+      </c>
+      <c r="O5">
+        <v>1.1916</v>
+      </c>
+      <c r="P5" s="2">
+        <f>P4+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>$O$5*Q3</f>
+        <v>0.11916</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" ref="R5:Z5" si="4">$O$5*R3</f>
+        <v>0.23832</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.35747999999999996</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.47664000000000001</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.5958</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.71495999999999993</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.83411999999999997</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.95328000000000002</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0724400000000001</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1916</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AE5" s="2">
+        <f>AE4+1</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
+      <c r="AK5" s="7"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B11" si="5">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.25440000000000002</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.2419</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.2407</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.23669999999999999</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.23680000000000001</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.23719999999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.2399</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6:P11" si="6">P5+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="7">
+        <f>$O$6*Q3</f>
+        <v>2.3990000000000001E-2</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" ref="R6:Z6" si="7">$O$6*R3</f>
+        <v>4.7980000000000002E-2</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="7"/>
+        <v>7.1969999999999992E-2</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="7"/>
+        <v>9.5960000000000004E-2</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.11995</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.14393999999999998</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.16793</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.19192000000000001</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.21591000000000002</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.2399</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AE6" s="2">
+        <f t="shared" ref="AE6:AE11" si="8">AE5+1</f>
+        <v>3</v>
+      </c>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.2104</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.2069</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.19220000000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.1736</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.1837</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.1802</v>
+      </c>
+      <c r="O7">
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>$O$7*Q3</f>
+        <v>1.6650000000000002E-2</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" ref="R7:Z7" si="9">$O$7*R3</f>
+        <v>3.3300000000000003E-2</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="9"/>
+        <v>4.9950000000000001E-2</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="9"/>
+        <v>6.6600000000000006E-2</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="9"/>
+        <v>8.3250000000000005E-2</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="9"/>
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11655</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.13320000000000001</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.14985000000000001</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.16650000000000001</v>
+      </c>
+      <c r="AE7" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.15090000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.1623</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.17030000000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.16685</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.16769999999999999</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.121</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>$O$8*Q3</f>
+        <v>1.21E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" ref="R8:Z8" si="10">$O$8*R3</f>
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="10"/>
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="10"/>
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="10"/>
+        <v>6.0499999999999998E-2</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="10"/>
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="10"/>
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="10"/>
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="Y8" s="7">
+        <f t="shared" si="10"/>
+        <v>0.1089</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="10"/>
+        <v>0.121</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>7.689E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7.3130000000000001E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6.6589999999999996E-2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>6.7110000000000003E-2</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6.0510000000000001E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5.9240000000000001E-2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>6.0679999999999998E-2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5.9049999999999998E-2</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5.8639999999999998E-2</v>
+      </c>
+      <c r="O9">
+        <v>4.5679999999999998E-2</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>$O$9*Q3</f>
+        <v>4.568E-3</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" ref="R9:Z9" si="11">$O$9*R3</f>
+        <v>9.136E-3</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="11"/>
+        <v>1.3703999999999999E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="11"/>
+        <v>1.8272E-2</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="11"/>
+        <v>2.2839999999999999E-2</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7407999999999998E-2</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="11"/>
+        <v>3.1975999999999997E-2</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="11"/>
+        <v>3.6544E-2</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="11"/>
+        <v>4.1112000000000003E-2</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="11"/>
+        <v>4.5679999999999998E-2</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3.7330000000000002E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3.61E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3.3509999999999998E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3.2689999999999997E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3.3840000000000002E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3.5430000000000003E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3.5439999999999999E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3.5529999999999999E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>3.6290000000000003E-2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.36630000000000001</v>
+      </c>
+      <c r="M10" s="7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O10">
+        <v>2.5870000000000001E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>$O$10*Q3</f>
+        <v>2.5870000000000003E-3</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" ref="R10:Z10" si="12">$O$10*R3</f>
+        <v>5.1740000000000006E-3</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="12"/>
+        <v>7.7609999999999997E-3</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="12"/>
+        <v>1.0348000000000001E-2</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="12"/>
+        <v>1.2935E-2</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="12"/>
+        <v>1.5521999999999999E-2</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="12"/>
+        <v>1.8109E-2</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="12"/>
+        <v>2.0696000000000003E-2</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="12"/>
+        <v>2.3283000000000002E-2</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="12"/>
+        <v>2.5870000000000001E-2</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.3879999999999998E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.4160000000000001E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.104E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1.9740000000000001E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1.9460000000000002E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1.9050000000000001E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1.933E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1.9779999999999999E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2.034E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2.0660000000000001E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2.0320000000000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.549E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>$O$11*Q3</f>
+        <v>1.549E-3</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" ref="R11:Z11" si="13">$O$11*R3</f>
+        <v>3.0980000000000001E-3</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="13"/>
+        <v>4.6470000000000001E-3</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="13"/>
+        <v>6.1960000000000001E-3</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="13"/>
+        <v>7.7450000000000001E-3</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="13"/>
+        <v>9.2940000000000002E-3</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0843E-2</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" si="13"/>
+        <v>1.2392E-2</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="13"/>
+        <v>1.3941E-2</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="13"/>
+        <v>1.549E-2</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f>B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>7.4551000000000001E-3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.443E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>7.4479999999999998E-3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>7.3169999999999997E-3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>7.4269999999999996E-3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7.3769999999999999E-3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7.5789999999999998E-3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>7.358E-3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7.1770000000000002E-3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>7.2579999999999997E-3</v>
+      </c>
+      <c r="M12" s="7">
+        <v>7.3940000000000004E-3</v>
+      </c>
+      <c r="O12">
+        <v>4.0530000000000002E-3</v>
+      </c>
+      <c r="P12" s="2">
+        <f>P11+1</f>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>$O$12*Q3</f>
+        <v>4.0530000000000004E-4</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" ref="R12:Z12" si="14">$O$12*R3</f>
+        <v>8.1060000000000008E-4</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="14"/>
+        <v>1.2159E-3</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="14"/>
+        <v>1.6212000000000002E-3</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="14"/>
+        <v>2.0265000000000001E-3</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="14"/>
+        <v>2.4318E-3</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" si="14"/>
+        <v>2.8371E-3</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="14"/>
+        <v>3.2424000000000003E-3</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="14"/>
+        <v>3.6477000000000002E-3</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="14"/>
+        <v>4.0530000000000002E-3</v>
+      </c>
+      <c r="AE12" s="2">
+        <f>AE11+1</f>
+        <v>9</v>
+      </c>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>17000</v>
       </c>
     </row>
   </sheetData>
@@ -20949,7 +21988,7 @@
         <v>12000</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:J3" si="0">D3+1000</f>
+        <f t="shared" ref="E3:I3" si="0">D3+1000</f>
         <v>13000</v>
       </c>
       <c r="F3" s="6">

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303EE766-49F5-4D32-B5F7-8F6732464F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26207B49-0254-4962-BD89-2EAE3ED6EE7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="area3_a" sheetId="10" r:id="rId9"/>
     <sheet name="area3_b" sheetId="11" r:id="rId10"/>
     <sheet name="area3_c" sheetId="12" r:id="rId11"/>
+    <sheet name="area1_a" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="32">
   <si>
     <t>range</t>
   </si>
@@ -253,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -297,6 +298,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1857,11 +1861,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC7CF49-3B57-483D-98A7-CE922F6357B9}">
   <dimension ref="A3:AN15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -2055,7 +2062,7 @@
         <f t="shared" si="3"/>
         <v>1.3598400000000002</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="3">
         <f t="shared" si="3"/>
         <v>1.52982</v>
       </c>
@@ -2066,15 +2073,33 @@
       <c r="AE4" s="2">
         <v>1</v>
       </c>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
+      <c r="AF4" s="35">
+        <v>2.3285999999999998</v>
+      </c>
+      <c r="AG4" s="35">
+        <v>2.2553000000000001</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>2.1930999999999998</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>2.1389</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>2.0906699999999998</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>2.0480999999999998</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>2.0102000000000002</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>1.9764999999999999</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>1.9468000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -2121,7 +2146,7 @@
         <f>P4+1</f>
         <v>2</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="3">
         <f>$O$5*Q3</f>
         <v>0.11916</v>
       </c>
@@ -2169,15 +2194,33 @@
         <f>AE4+1</f>
         <v>2</v>
       </c>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
+      <c r="AF5" s="36">
+        <v>0.83209999999999995</v>
+      </c>
+      <c r="AG5" s="35">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>0.99560000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
@@ -2228,7 +2271,7 @@
         <f>$O$6*Q3</f>
         <v>2.3990000000000001E-2</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="3">
         <f t="shared" ref="R6:Z6" si="7">$O$6*R3</f>
         <v>4.7980000000000002E-2</v>
       </c>
@@ -2272,15 +2315,33 @@
         <f t="shared" ref="AE6:AE11" si="8">AE5+1</f>
         <v>3</v>
       </c>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="32"/>
-      <c r="AL6" s="32"/>
-      <c r="AM6" s="32"/>
-      <c r="AN6" s="32"/>
+      <c r="AF6" s="35">
+        <v>0.24379999999999999</v>
+      </c>
+      <c r="AG6" s="36">
+        <v>0.2412</v>
+      </c>
+      <c r="AH6" s="33">
+        <v>0.2417</v>
+      </c>
+      <c r="AI6" s="33">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="AJ6" s="33">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="AK6" s="33">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="AL6" s="33">
+        <v>0.2535</v>
+      </c>
+      <c r="AM6" s="33">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="AN6" s="33">
+        <v>0.26429999999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
@@ -2347,7 +2408,7 @@
         <f t="shared" si="9"/>
         <v>8.3250000000000005E-2</v>
       </c>
-      <c r="V7" s="7">
+      <c r="V7" s="3">
         <f t="shared" si="9"/>
         <v>9.9900000000000003E-2</v>
       </c>
@@ -2371,15 +2432,33 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
+      <c r="AF7" s="35">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="AG7" s="35">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="AI7" s="32">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="AJ7" s="32">
+        <v>0.153</v>
+      </c>
+      <c r="AK7" s="34">
+        <v>0.1527</v>
+      </c>
+      <c r="AL7" s="32">
+        <v>0.15340000000000001</v>
+      </c>
+      <c r="AM7" s="32">
+        <v>0.1555</v>
+      </c>
+      <c r="AN7" s="32">
+        <v>0.15909999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
@@ -2458,7 +2537,7 @@
         <f t="shared" si="10"/>
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="Y8" s="3">
         <f t="shared" si="10"/>
         <v>0.1089</v>
       </c>
@@ -2470,15 +2549,33 @@
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
+      <c r="AF8" s="35">
+        <v>0.1719</v>
+      </c>
+      <c r="AG8" s="35">
+        <v>0.16930000000000001</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>0.16689999999999999</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>0.1646</v>
+      </c>
+      <c r="AJ8" s="32">
+        <v>0.1623</v>
+      </c>
+      <c r="AK8" s="32">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="AL8" s="32">
+        <v>0.1575</v>
+      </c>
+      <c r="AM8" s="32">
+        <v>0.155</v>
+      </c>
+      <c r="AN8" s="34">
+        <v>0.15240000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
@@ -2541,7 +2638,7 @@
         <f t="shared" si="11"/>
         <v>1.8272E-2</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="3">
         <f t="shared" si="11"/>
         <v>2.2839999999999999E-2</v>
       </c>
@@ -2569,15 +2666,33 @@
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32"/>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
+      <c r="AF9" s="35">
+        <v>5.9549999999999999E-2</v>
+      </c>
+      <c r="AG9" s="35">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AH9" s="33">
+        <v>5.8450000000000002E-2</v>
+      </c>
+      <c r="AI9" s="33">
+        <v>5.781E-2</v>
+      </c>
+      <c r="AJ9" s="34">
+        <v>5.7570000000000003E-2</v>
+      </c>
+      <c r="AK9" s="33">
+        <v>5.7680000000000002E-2</v>
+      </c>
+      <c r="AL9" s="33">
+        <v>0.58130000000000004</v>
+      </c>
+      <c r="AM9" s="33">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="AN9" s="33">
+        <v>6.0150000000000002E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
@@ -2656,7 +2771,7 @@
         <f t="shared" si="12"/>
         <v>2.0696000000000003E-2</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="Y10" s="3">
         <f t="shared" si="12"/>
         <v>2.3283000000000002E-2</v>
       </c>
@@ -2668,15 +2783,33 @@
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="AF10" s="35"/>
-      <c r="AG10" s="35"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="32"/>
-      <c r="AK10" s="32"/>
-      <c r="AL10" s="32"/>
-      <c r="AM10" s="32"/>
-      <c r="AN10" s="32"/>
+      <c r="AF10" s="35">
+        <v>3.3890000000000003E-2</v>
+      </c>
+      <c r="AG10" s="35">
+        <v>3.2680000000000001E-2</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>3.1690000000000003E-2</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>3.0849999999999999E-2</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>3.0169999999999999E-2</v>
+      </c>
+      <c r="AK10" s="32">
+        <v>2.9610000000000001E-2</v>
+      </c>
+      <c r="AL10" s="32">
+        <v>2.9190000000000001E-2</v>
+      </c>
+      <c r="AM10" s="32">
+        <v>2.8910000000000002E-2</v>
+      </c>
+      <c r="AN10" s="34">
+        <v>2.8799999999999999E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
@@ -2755,7 +2888,7 @@
         <f t="shared" si="13"/>
         <v>1.2392E-2</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="Y11" s="3">
         <f t="shared" si="13"/>
         <v>1.3941E-2</v>
       </c>
@@ -2767,15 +2900,33 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="AF11" s="35"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="32"/>
-      <c r="AK11" s="32"/>
-      <c r="AL11" s="32"/>
-      <c r="AM11" s="32"/>
-      <c r="AN11" s="32"/>
+      <c r="AF11" s="35">
+        <v>1.8089999999999998E-2</v>
+      </c>
+      <c r="AG11" s="35">
+        <v>1.7389999999999999E-2</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>1.6830000000000001E-2</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>1.6369999999999999E-2</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AK11" s="32">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="AL11" s="33">
+        <v>8.9139999999999997E-2</v>
+      </c>
+      <c r="AM11" s="32">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="AN11" s="34">
+        <v>1.52E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
@@ -2854,7 +3005,7 @@
         <f t="shared" si="14"/>
         <v>3.2424000000000003E-3</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="3">
         <f t="shared" si="14"/>
         <v>3.6477000000000002E-3</v>
       </c>
@@ -2866,15 +3017,33 @@
         <f>AE11+1</f>
         <v>9</v>
       </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
+      <c r="AF12" s="37">
+        <v>6.7949999999999998E-3</v>
+      </c>
+      <c r="AG12" s="37">
+        <v>6.3720000000000001E-3</v>
+      </c>
+      <c r="AH12" s="33">
+        <v>6.0540000000000004E-3</v>
+      </c>
+      <c r="AI12" s="33">
+        <v>5.7869999999999996E-3</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>5.5310000000000003E-3</v>
+      </c>
+      <c r="AK12" s="32">
+        <v>5.2940000000000001E-3</v>
+      </c>
+      <c r="AL12" s="32">
+        <v>5.0699999999999999E-3</v>
+      </c>
+      <c r="AM12" s="32">
+        <v>4.8659999999999997E-3</v>
+      </c>
+      <c r="AN12" s="34">
+        <v>4.6680000000000003E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -2884,6 +3053,1545 @@
     <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>17000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25778FC-BEB5-44FB-A136-0FF5A9CE4F12}">
+  <dimension ref="A2:AN27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R2" workbookViewId="0">
+      <selection activeCell="Q6" activeCellId="1" sqref="Q5 Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AD2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6">
+        <v>13000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3+1000</f>
+        <v>14000</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:M3" si="0">D3+1000</f>
+        <v>15000</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>16000</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>18000</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>19000</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+      <c r="L3" s="6">
+        <v>25000</v>
+      </c>
+      <c r="M3" s="6">
+        <v>30000</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.4923</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.5337000000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.4923</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.4813000000000001</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.4993000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.5061</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.50214</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.5148999999999999</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.5117</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="O4">
+        <v>1.0975999999999999</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>$O$4*Q3</f>
+        <v>0.10976</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" ref="R4:Z4" si="1">$O$4*R3</f>
+        <v>0.21951999999999999</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.32927999999999996</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.43903999999999999</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.65855999999999992</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.76831999999999989</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.87807999999999997</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98783999999999994</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0975999999999999</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="35">
+        <v>1.2894000000000001</v>
+      </c>
+      <c r="AG4" s="35">
+        <v>1.222</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>1.1732</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>1.1346000000000001</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>1.1004</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>1.0704</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>1.04277</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>1.0169600000000001</v>
+      </c>
+      <c r="AN4" s="3">
+        <v>0.9929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.54269999999999996</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.54659999999999997</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.55317000000000005</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0.56210000000000004</v>
+      </c>
+      <c r="O5">
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="P5" s="2">
+        <f>P4+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>$O$5*Q3</f>
+        <v>7.2109999999999994E-2</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" ref="R5:Z5" si="2">$O$5*R3</f>
+        <v>0.14421999999999999</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.21632999999999999</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.28843999999999997</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.36054999999999998</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.43265999999999999</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.50476999999999994</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.57687999999999995</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.64898999999999996</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.72109999999999996</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AE5" s="2">
+        <f>AE4+1</f>
+        <v>2</v>
+      </c>
+      <c r="AF5" s="36">
+        <v>0.58189999999999997</v>
+      </c>
+      <c r="AG5" s="35">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0.60570000000000002</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>0.62639999999999996</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>0.63759999999999994</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="AN5" s="5">
+        <v>0.6714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B11" si="3">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.3221</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.31619999999999998</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.3306</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.31580000000000003</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.3201</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0.33460000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.42970000000000003</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6:P11" si="4">P5+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>$O$6*Q3</f>
+        <v>4.2970000000000008E-2</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" ref="R6:Z6" si="5">$O$6*R3</f>
+        <v>8.5940000000000016E-2</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.12891</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.17188000000000003</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.21485000000000001</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25781999999999999</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.30079</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.34376000000000007</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.38673000000000002</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.42970000000000003</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AE6" s="2">
+        <f t="shared" ref="AE6:AE11" si="6">AE5+1</f>
+        <v>3</v>
+      </c>
+      <c r="AF6" s="36">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="AG6" s="35">
+        <v>0.31230000000000002</v>
+      </c>
+      <c r="AH6" s="32">
+        <v>0.3175</v>
+      </c>
+      <c r="AI6" s="32">
+        <v>0.3266</v>
+      </c>
+      <c r="AJ6" s="32">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="AK6" s="32">
+        <v>0.35759999999999997</v>
+      </c>
+      <c r="AL6" s="32">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="AM6" s="32">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="AN6" s="32">
+        <v>0.45369999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.28339999999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.28360000000000002</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.29060000000000002</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.2848</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.28460000000000002</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.2853</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.28939999999999999</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0.29420000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.2051</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="7">
+        <f>$O$7*Q3</f>
+        <v>2.051E-2</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" ref="R7:Z7" si="7">$O$7*R3</f>
+        <v>4.1020000000000001E-2</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="7"/>
+        <v>6.1530000000000001E-2</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="7"/>
+        <v>8.2040000000000002E-2</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10255</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.12306</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.14357</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.16408</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.18459</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.2051</v>
+      </c>
+      <c r="AE7" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="AG7" s="35">
+        <v>0.2545</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>0.24829999999999999</v>
+      </c>
+      <c r="AI7" s="34">
+        <v>0.24429999999999999</v>
+      </c>
+      <c r="AJ7" s="33">
+        <v>0.2407</v>
+      </c>
+      <c r="AK7" s="33">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="AL7" s="33">
+        <v>0.23849999999999999</v>
+      </c>
+      <c r="AM7" s="33">
+        <v>0.2397</v>
+      </c>
+      <c r="AN7" s="33">
+        <v>0.24229999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.20730000000000001</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.21079999999999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.2114</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.2112</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.21260000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1726</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>$O$8*Q3</f>
+        <v>1.7260000000000001E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" ref="R8:Z8" si="8">$O$8*R3</f>
+        <v>3.4520000000000002E-2</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="8"/>
+        <v>5.178E-2</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="8"/>
+        <v>6.9040000000000004E-2</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="8"/>
+        <v>8.6300000000000002E-2</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.10356</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.12082</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.13808000000000001</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="8"/>
+        <v>0.15534000000000001</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1726</v>
+      </c>
+      <c r="AE8" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AF8" s="35">
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="AG8" s="35">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>0.1923</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>0.18970000000000001</v>
+      </c>
+      <c r="AJ8" s="32">
+        <v>0.18740000000000001</v>
+      </c>
+      <c r="AK8" s="32">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="AL8" s="32">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="AM8" s="32">
+        <v>0.18140000000000001</v>
+      </c>
+      <c r="AN8" s="34">
+        <v>0.17960000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.19159999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1885</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.20960000000000001</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.1938</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.1946</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.19620000000000001</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.1978</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.2021</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>$O$9*Q3</f>
+        <v>1.576E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" ref="R9:Z9" si="9">$O$9*R3</f>
+        <v>3.1519999999999999E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="9"/>
+        <v>4.7279999999999996E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="9"/>
+        <v>6.3039999999999999E-2</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="9"/>
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="9"/>
+        <v>9.4559999999999991E-2</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11031999999999999</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.12608</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.14183999999999999</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="AE9" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AF9" s="35">
+        <v>0.1726</v>
+      </c>
+      <c r="AG9" s="35">
+        <v>0.1694</v>
+      </c>
+      <c r="AH9" s="32">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="AI9" s="32">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="AJ9" s="32">
+        <v>0.1648</v>
+      </c>
+      <c r="AK9" s="34">
+        <v>0.1646</v>
+      </c>
+      <c r="AL9" s="32">
+        <v>0.1651</v>
+      </c>
+      <c r="AM9" s="32">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="AN9" s="32">
+        <v>0.16830000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8.0850000000000005E-2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.9570000000000002E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8.09E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>8.1369999999999998E-2</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8.0089999999999995E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8.0140000000000003E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>7.9780000000000004E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7.9469999999999999E-2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>8.0170000000000005E-2</v>
+      </c>
+      <c r="M10" s="7">
+        <v>8.165E-2</v>
+      </c>
+      <c r="O10">
+        <v>6.1150000000000003E-2</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>$O$10*Q3</f>
+        <v>6.1150000000000006E-3</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" ref="R10:Z10" si="10">$O$10*R3</f>
+        <v>1.2230000000000001E-2</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="10"/>
+        <v>1.8345E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="10"/>
+        <v>2.4460000000000003E-2</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0575000000000001E-2</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="10"/>
+        <v>3.669E-2</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="10"/>
+        <v>4.2805000000000003E-2</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="10"/>
+        <v>4.8920000000000005E-2</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="10"/>
+        <v>5.5035000000000001E-2</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="10"/>
+        <v>6.1150000000000003E-2</v>
+      </c>
+      <c r="AE10" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AF10" s="35">
+        <v>7.535E-2</v>
+      </c>
+      <c r="AG10" s="35">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>6.9470000000000004E-2</v>
+      </c>
+      <c r="AJ10" s="34">
+        <v>6.83E-2</v>
+      </c>
+      <c r="AK10" s="33">
+        <v>6.7280000000000006E-2</v>
+      </c>
+      <c r="AL10" s="33">
+        <v>6.6420000000000007E-2</v>
+      </c>
+      <c r="AM10" s="33">
+        <v>6.5780000000000005E-2</v>
+      </c>
+      <c r="AN10" s="33">
+        <v>6.5379999999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.024E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3.049E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.09E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3.1739999999999997E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3.0519999999999999E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.083E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3.1140000000000001E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3.1289999999999998E-2</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3.15E-2</v>
+      </c>
+      <c r="O11">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="Q11" s="7">
+        <f>$O$11*Q3</f>
+        <v>1.99E-3</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" ref="R11:Z11" si="11">$O$11*R3</f>
+        <v>3.98E-3</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="11"/>
+        <v>5.9700000000000005E-3</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="11"/>
+        <v>7.9600000000000001E-3</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="11"/>
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="11"/>
+        <v>1.1940000000000001E-2</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="11"/>
+        <v>1.393E-2</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" si="11"/>
+        <v>1.592E-2</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="11"/>
+        <v>1.7910000000000002E-2</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="AE11" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AF11" s="35">
+        <v>2.7879999999999999E-2</v>
+      </c>
+      <c r="AG11" s="35">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>2.495E-2</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>2.3959999999999999E-2</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>0.2316</v>
+      </c>
+      <c r="AK11" s="34">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="AL11" s="33">
+        <v>2.1925E-2</v>
+      </c>
+      <c r="AM11" s="33">
+        <v>2.1499999999999998E-2</v>
+      </c>
+      <c r="AN11" s="33">
+        <v>2.1260000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f>B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4.8450000000000003E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4.8190000000000004E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>4.8320000000000004E-3</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4.9059999999999998E-3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>4.9230000000000003E-3</v>
+      </c>
+      <c r="H12" s="7">
+        <v>4.908E-3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4.8589999999999996E-3</v>
+      </c>
+      <c r="J12" s="7">
+        <v>4.8760000000000001E-3</v>
+      </c>
+      <c r="K12" s="7">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>4.8929999999999998E-3</v>
+      </c>
+      <c r="M12" s="7">
+        <v>4.9030000000000002E-3</v>
+      </c>
+      <c r="O12">
+        <v>4.4980000000000003E-3</v>
+      </c>
+      <c r="P12" s="2">
+        <f>P11+1</f>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="7">
+        <f>$O$12*Q3</f>
+        <v>4.4980000000000004E-4</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" ref="R12:Z12" si="12">$O$12*R3</f>
+        <v>8.9960000000000007E-4</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.3493999999999999E-3</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.7992000000000001E-3</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="12"/>
+        <v>2.2490000000000001E-3</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="12"/>
+        <v>2.6987999999999999E-3</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" si="12"/>
+        <v>3.1486000000000001E-3</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="12"/>
+        <v>3.5984000000000003E-3</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="12"/>
+        <v>4.0482000000000001E-3</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="12"/>
+        <v>4.4980000000000003E-3</v>
+      </c>
+      <c r="AE12" s="2">
+        <f>AE11+1</f>
+        <v>9</v>
+      </c>
+      <c r="AF12" s="35">
+        <v>4.4609999999999997E-3</v>
+      </c>
+      <c r="AG12" s="35">
+        <v>4.3359999999999996E-3</v>
+      </c>
+      <c r="AH12" s="32">
+        <v>4.2360000000000002E-3</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>4.1469999999999996E-3</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>4.0210000000000003E-3</v>
+      </c>
+      <c r="AK12" s="32">
+        <v>3.9830000000000004E-3</v>
+      </c>
+      <c r="AL12" s="32">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="AM12" s="32">
+        <v>3.8180000000000002E-3</v>
+      </c>
+      <c r="AN12" s="34">
+        <v>3.7290000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="17" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AD17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AG18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AI18" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AK18" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AM18" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AN18" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="37">
+        <v>1.2057</v>
+      </c>
+      <c r="AG19" s="37">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>1.0647</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>1.0435000000000001</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>1.0289600000000001</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>1.0208299999999999</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>1.01989</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>1.0283100000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE20" s="2">
+        <f>AE19+1</f>
+        <v>2</v>
+      </c>
+      <c r="AF20" s="36">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AG20" s="35">
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>0.6139</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>0.62709999999999999</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>0.6452</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>0.6784</v>
+      </c>
+    </row>
+    <row r="21" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE21" s="2">
+        <f t="shared" ref="AE21:AE26" si="13">AE20+1</f>
+        <v>3</v>
+      </c>
+      <c r="AF21" s="36">
+        <v>0.32629999999999998</v>
+      </c>
+      <c r="AG21" s="35">
+        <v>0.3276</v>
+      </c>
+      <c r="AH21" s="32">
+        <v>0.33389999999999997</v>
+      </c>
+      <c r="AI21" s="32">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="AJ21" s="32">
+        <v>0.3533</v>
+      </c>
+      <c r="AK21" s="32">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="AL21" s="32">
+        <v>0.3785</v>
+      </c>
+      <c r="AM21" s="32">
+        <v>0.39319999999999999</v>
+      </c>
+      <c r="AN21" s="32">
+        <v>0.40970000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE22" s="2">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="AF22" s="35">
+        <v>0.25990000000000002</v>
+      </c>
+      <c r="AG22" s="35">
+        <v>0.2465</v>
+      </c>
+      <c r="AH22" s="32">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="AI22" s="32">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="AJ22" s="32">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="AK22" s="32">
+        <v>0.2286</v>
+      </c>
+      <c r="AL22" s="32">
+        <v>0.2266</v>
+      </c>
+      <c r="AM22" s="32">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="AN22" s="34">
+        <v>0.22239999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE23" s="2">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AF23" s="37">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="AG23" s="37">
+        <v>0.1903</v>
+      </c>
+      <c r="AH23" s="33">
+        <v>0.18640000000000001</v>
+      </c>
+      <c r="AI23" s="33">
+        <v>0.183</v>
+      </c>
+      <c r="AJ23" s="33">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="AK23" s="33">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="AL23" s="33">
+        <v>0.1734</v>
+      </c>
+      <c r="AM23" s="33">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="AN23" s="34">
+        <v>0.16769999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE24" s="2">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="AF24" s="35">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="AG24" s="35">
+        <v>0.17530000000000001</v>
+      </c>
+      <c r="AH24" s="32">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="AJ24" s="32">
+        <v>0.16550000000000001</v>
+      </c>
+      <c r="AK24" s="32">
+        <v>0.1636</v>
+      </c>
+      <c r="AL24" s="34">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="AM24" s="32">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="AN24" s="32">
+        <v>0.16470000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE25" s="2">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="AF25" s="37">
+        <v>7.3370000000000005E-2</v>
+      </c>
+      <c r="AG25" s="37">
+        <v>7.0690000000000003E-2</v>
+      </c>
+      <c r="AH25" s="33">
+        <v>6.9190000000000002E-2</v>
+      </c>
+      <c r="AI25" s="33">
+        <v>6.8110000000000004E-2</v>
+      </c>
+      <c r="AJ25" s="33">
+        <v>6.7210000000000006E-2</v>
+      </c>
+      <c r="AK25" s="33">
+        <v>6.633E-2</v>
+      </c>
+      <c r="AL25" s="32">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="AM25" s="32">
+        <v>6.4229999999999995E-2</v>
+      </c>
+      <c r="AN25" s="34">
+        <v>6.3140000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE26" s="2">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="AF26" s="37">
+        <v>2.674E-2</v>
+      </c>
+      <c r="AG26" s="37">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="AH26" s="33">
+        <v>2.3230000000000001E-2</v>
+      </c>
+      <c r="AI26" s="33">
+        <v>2.2349999999999998E-2</v>
+      </c>
+      <c r="AJ26" s="33">
+        <v>2.172E-2</v>
+      </c>
+      <c r="AK26" s="33">
+        <v>2.1270000000000001E-2</v>
+      </c>
+      <c r="AL26" s="33">
+        <v>2.0969999999999999E-2</v>
+      </c>
+      <c r="AM26" s="33">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="AN26" s="34">
+        <v>2.077E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="30:40" x14ac:dyDescent="0.3">
+      <c r="AE27" s="2">
+        <f>AE26+1</f>
+        <v>9</v>
+      </c>
+      <c r="AF27" s="35">
+        <v>4.4409999999999996E-3</v>
+      </c>
+      <c r="AG27" s="35">
+        <v>4.2880000000000001E-3</v>
+      </c>
+      <c r="AH27" s="32">
+        <v>4.1689999999999998E-2</v>
+      </c>
+      <c r="AI27" s="33">
+        <v>4.0699999999999998E-3</v>
+      </c>
+      <c r="AJ27" s="33">
+        <v>3.9589999999999998E-3</v>
+      </c>
+      <c r="AK27" s="33">
+        <v>3.9350000000000001E-3</v>
+      </c>
+      <c r="AL27" s="34">
+        <v>3.9050000000000001E-3</v>
+      </c>
+      <c r="AM27" s="33">
+        <v>3.9699999999999996E-3</v>
+      </c>
+      <c r="AN27" s="33">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE8D48E-B3C9-4CB0-AF52-A3A963471DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7F9AD1-5DAA-4744-AA0B-D66B57DA794A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
     <sheet name="area1" sheetId="6" r:id="rId2"/>
     <sheet name="area1_a" sheetId="13" r:id="rId3"/>
     <sheet name="area1_Tr" sheetId="14" r:id="rId4"/>
-    <sheet name="area 2" sheetId="2" r:id="rId5"/>
-    <sheet name="area 3" sheetId="3" r:id="rId6"/>
-    <sheet name="area 4" sheetId="4" r:id="rId7"/>
-    <sheet name="area 5" sheetId="5" r:id="rId8"/>
-    <sheet name="area2_a" sheetId="8" r:id="rId9"/>
-    <sheet name="area2_b" sheetId="9" r:id="rId10"/>
-    <sheet name="area3_a" sheetId="10" r:id="rId11"/>
-    <sheet name="area3_b" sheetId="11" r:id="rId12"/>
-    <sheet name="area3_c" sheetId="12" r:id="rId13"/>
+    <sheet name="area1_J" sheetId="15" r:id="rId5"/>
+    <sheet name="area 2" sheetId="2" r:id="rId6"/>
+    <sheet name="area 3" sheetId="3" r:id="rId7"/>
+    <sheet name="area 4" sheetId="4" r:id="rId8"/>
+    <sheet name="area 5" sheetId="5" r:id="rId9"/>
+    <sheet name="area2_a" sheetId="8" r:id="rId10"/>
+    <sheet name="area2_b" sheetId="9" r:id="rId11"/>
+    <sheet name="area3_a" sheetId="10" r:id="rId12"/>
+    <sheet name="area3_b" sheetId="11" r:id="rId13"/>
+    <sheet name="area3_c" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="33">
   <si>
     <t>range</t>
   </si>
@@ -742,6 +743,2123 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D51598-43C8-43C8-B0AF-4826DB32F76D}">
+  <dimension ref="A1:AK32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="Z1" s="19"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>100000</v>
+      </c>
+      <c r="D2" s="17">
+        <f>C2+5000</f>
+        <v>105000</v>
+      </c>
+      <c r="E2" s="17">
+        <f>D2+5000</f>
+        <v>110000</v>
+      </c>
+      <c r="F2" s="17">
+        <f>E2+5000</f>
+        <v>115000</v>
+      </c>
+      <c r="G2" s="17">
+        <f>F2+5000</f>
+        <v>120000</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="19"/>
+      <c r="AA2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1.8950199999999999</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1.8937200000000001</v>
+      </c>
+      <c r="E3" s="15">
+        <v>1.8966000000000001</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1.8977999999999999</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1.8974</v>
+      </c>
+      <c r="K3" s="19">
+        <v>2.0103900000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <f>$K$3*M2</f>
+        <v>0.20103900000000002</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" ref="N3:V3" si="0">$K$3*N2</f>
+        <v>0.40207800000000005</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" si="0"/>
+        <v>0.60311700000000001</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="0"/>
+        <v>0.80415600000000009</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0051950000000001</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.206234</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.407273</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6083120000000002</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8093510000000002</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0103900000000001</v>
+      </c>
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1.6125</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1.6153999999999999</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>1.6335999999999999</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>1.6675</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>1.7145999999999999</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>1.776</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>1.8554999999999999</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>1.9608000000000001</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>2.1082399999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1.34968</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1.35005</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.3505</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.3512999999999999</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1.3519000000000001</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1.12252</v>
+      </c>
+      <c r="L4" s="2">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <f>$K$4*M2</f>
+        <v>0.112252</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:V4" si="1">$K$4*N2</f>
+        <v>0.22450400000000001</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.336756</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44900800000000002</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.56125999999999998</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.673512</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.78576399999999991</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89801600000000004</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0102679999999999</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.12252</v>
+      </c>
+      <c r="X4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="2">
+        <f>AA3+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0.9456</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.88919999999999999</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>0.8861</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0.89739999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B10" si="2">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.64117999999999997</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0.55628</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L10" si="3">L4+1</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="7">
+        <f>$K$5*M2</f>
+        <v>5.5628000000000004E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" ref="N5:V5" si="4">$K$5*N2</f>
+        <v>0.11125600000000001</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.166884</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.22251200000000002</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>$K$5*Q2</f>
+        <v>0.27814</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.33376800000000001</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.38939599999999996</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.44502400000000003</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.50065199999999999</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.55628</v>
+      </c>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="2">
+        <f t="shared" ref="AA5:AA10" si="5">AA4+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.55979999999999996</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0.56440000000000001</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0.57379999999999998</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.57050000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.39443</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.39412999999999998</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.39416000000000001</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.39450000000000002</v>
+      </c>
+      <c r="K6" s="19">
+        <v>0.28588999999999998</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="7">
+        <f>$K$6*M2</f>
+        <v>2.8589E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
+        <v>5.7178E-2</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="6"/>
+        <v>8.5766999999999996E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.114356</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.14294499999999999</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.17153399999999999</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="6"/>
+        <v>0.20012299999999997</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.228712</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.257301</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="6"/>
+        <v>0.28588999999999998</v>
+      </c>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>0.27350000000000002</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="AG6" s="7">
+        <v>0.26479999999999998</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0.26440000000000002</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0.26829999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.32052000000000003</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.32057999999999998</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.32067000000000001</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.32057000000000002</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.32074000000000003</v>
+      </c>
+      <c r="K7" s="19">
+        <v>0.240561</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="7">
+        <f>$K$7*M2</f>
+        <v>2.40561E-2</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
+        <v>4.8112200000000001E-2</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="7"/>
+        <v>7.2168299999999991E-2</v>
+      </c>
+      <c r="P7" s="7">
+        <f>$K$7*P2</f>
+        <v>9.6224400000000002E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.1202805</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.14433659999999998</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.16839269999999998</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.1924488</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.2165049</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.240561</v>
+      </c>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>0.2238</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.2172</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0.216</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>0.21609999999999999</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0.22020000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.26595000000000002</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.26577000000000001</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0.26617000000000002</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.26605000000000001</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.26624999999999999</v>
+      </c>
+      <c r="K8" s="19">
+        <v>0.19155700000000001</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="7">
+        <f>$K$8*M2</f>
+        <v>1.9155700000000001E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
+        <v>3.8311400000000002E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="8"/>
+        <v>5.74671E-2</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="8"/>
+        <v>7.6622800000000005E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="8"/>
+        <v>9.5778500000000003E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1149342</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.13408989999999998</v>
+      </c>
+      <c r="T8" s="3">
+        <f t="shared" si="8"/>
+        <v>0.15324560000000001</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.17240130000000001</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.19155700000000001</v>
+      </c>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0.20219999999999999</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0.19539999999999999</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0.19220000000000001</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0.19009999999999999</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>0.1883</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>0.18690000000000001</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.1857</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0.18640000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="20">
+        <v>0.16975999999999999</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.17003099999999999</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.16966999999999999</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.16955999999999999</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0.16974</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.14216400000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="7">
+        <f>$K$9*M2</f>
+        <v>1.4216400000000002E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
+        <v>2.8432800000000005E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="9"/>
+        <v>4.2649200000000005E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="9"/>
+        <v>5.6865600000000009E-2</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="9"/>
+        <v>7.1082000000000006E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f>$K$9*R2</f>
+        <v>8.529840000000001E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="9"/>
+        <v>9.95148E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11373120000000002</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.12794760000000002</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.14216400000000001</v>
+      </c>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0.14043</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0.13139999999999999</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0.1298</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>0.129</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0.129</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0.13389999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.17868899999999999</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.17979999999999999</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.180198</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.1807</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0.128384</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="7">
+        <f>$K$10*M2</f>
+        <v>1.28384E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
+        <v>2.56768E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="10"/>
+        <v>3.8515199999999999E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="10"/>
+        <v>5.1353599999999999E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="10"/>
+        <v>6.4191999999999999E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="10"/>
+        <v>7.7030399999999999E-2</v>
+      </c>
+      <c r="S10" s="7">
+        <f>$K$10*S2</f>
+        <v>8.9868799999999999E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.1027072</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="10"/>
+        <v>0.1155456</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.128384</v>
+      </c>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>0.15279999999999999</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>0.13450000000000001</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>0.13170000000000001</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0.1293</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="18">
+        <v>8.6275000000000004E-2</v>
+      </c>
+      <c r="D11" s="15">
+        <v>8.6569999999999994E-2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>8.6696999999999996E-2</v>
+      </c>
+      <c r="F11" s="15">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="G11" s="15">
+        <v>8.7169999999999997E-2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>7.7323000000000003E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <f>L10+1</f>
+        <v>9</v>
+      </c>
+      <c r="M11" s="7">
+        <f>$K$11*M2</f>
+        <v>7.732300000000001E-3</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
+        <v>1.5464600000000002E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="11"/>
+        <v>2.3196899999999999E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <f>$K$11*P2</f>
+        <v>3.0929200000000004E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="11"/>
+        <v>3.8661500000000001E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="11"/>
+        <v>4.6393799999999999E-2</v>
+      </c>
+      <c r="S11" s="3">
+        <f t="shared" si="11"/>
+        <v>5.4126099999999996E-2</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="11"/>
+        <v>6.1858400000000008E-2</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="11"/>
+        <v>6.9590700000000005E-2</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="11"/>
+        <v>7.7323000000000003E-2</v>
+      </c>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="2">
+        <f>AA10+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>7.5109999999999996E-2</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>7.2620000000000004E-2</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>7.1059999999999998E-2</v>
+      </c>
+      <c r="AE11" s="7">
+        <v>6.9959999999999994E-2</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>6.9150000000000003E-2</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>6.8669999999999995E-2</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>6.8489999999999995E-2</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>6.8779999999999994E-2</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>7.0279999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="Z12" s="19"/>
+    </row>
+    <row r="16" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="K16" s="31"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:H19" si="12">C19+5000</f>
+        <v>20000</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="12"/>
+        <v>25000</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="12"/>
+        <v>30000</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="12"/>
+        <v>35000</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="12"/>
+        <v>40000</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V19" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI19" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.7770999999999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.7625999999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.7667999999999999</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.7827999999999999</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.7838000000000001</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="K20">
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <f>$K$20*M19</f>
+        <v>0.1757</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" ref="N20:V20" si="13">$K$20*N19</f>
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="13"/>
+        <v>0.5270999999999999</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="13"/>
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="Q20" s="7">
+        <f t="shared" si="13"/>
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="R20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0541999999999998</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.2298999999999998</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.4056</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.5812999999999999</v>
+      </c>
+      <c r="V20" s="7">
+        <f t="shared" si="13"/>
+        <v>1.7569999999999999</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>1.5921000000000001</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>1.5468</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>1.5291999999999999</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>1.5267999999999999</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>1.5365</v>
+      </c>
+      <c r="AG20" s="7">
+        <v>1.5586</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>1.5971</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>1.6584000000000001</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>1.7637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f>B20+1</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.5897</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.58460000000000001</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.58960000000000001</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="K21">
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="L21" s="2">
+        <f>L20+1</f>
+        <v>2</v>
+      </c>
+      <c r="M21" s="7">
+        <f>$K$21*M19</f>
+        <v>5.6090000000000001E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" ref="N21:V21" si="14">$K$21*N19</f>
+        <v>0.11218</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.16826999999999998</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="14"/>
+        <v>0.22436</v>
+      </c>
+      <c r="Q21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.28044999999999998</v>
+      </c>
+      <c r="R21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.33653999999999995</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.39262999999999992</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.44872000000000001</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.50480999999999998</v>
+      </c>
+      <c r="V21" s="7">
+        <f t="shared" si="14"/>
+        <v>0.56089999999999995</v>
+      </c>
+      <c r="X21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="AA21" s="2">
+        <f>AA20+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="AE21" s="3">
+        <v>0.505</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>0.52170000000000005</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0.54820000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" ref="B22:B27" si="15">B21+1</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.29949999999999999</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.28841</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.2908</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.29210000000000003</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="K22">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" ref="L22:L27" si="16">L21+1</f>
+        <v>3</v>
+      </c>
+      <c r="M22" s="7">
+        <f>$K$22*M19</f>
+        <v>2.5819999999999999E-2</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" ref="N22:V22" si="17">$K$22*N19</f>
+        <v>5.1639999999999998E-2</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="17"/>
+        <v>7.7459999999999987E-2</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.10328</v>
+      </c>
+      <c r="Q22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="R22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.15491999999999997</v>
+      </c>
+      <c r="S22" s="3">
+        <f t="shared" si="17"/>
+        <v>0.18073999999999998</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.20655999999999999</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.23238</v>
+      </c>
+      <c r="V22" s="7">
+        <f t="shared" si="17"/>
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="X22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3"/>
+      <c r="AA22" s="2">
+        <f t="shared" ref="AA22:AA27" si="18">AA21+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>0.23569999999999999</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="AD22" s="33">
+        <v>0.219</v>
+      </c>
+      <c r="AE22" s="33">
+        <v>0.21490000000000001</v>
+      </c>
+      <c r="AF22" s="32">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>0.21010000000000001</v>
+      </c>
+      <c r="AH22" s="34">
+        <v>0.20860000000000001</v>
+      </c>
+      <c r="AI22" s="32">
+        <v>0.2087</v>
+      </c>
+      <c r="AJ22" s="32">
+        <v>0.21190000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.34389999999999998</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.3453</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.34889999999999999</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.35210000000000002</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="K23">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M23" s="7">
+        <f>$K$23*M19</f>
+        <v>2.1479999999999999E-2</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" ref="N23:V23" si="19">$K$23*N19</f>
+        <v>4.2959999999999998E-2</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="19"/>
+        <v>6.4439999999999997E-2</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="19"/>
+        <v>8.5919999999999996E-2</v>
+      </c>
+      <c r="Q23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.1074</v>
+      </c>
+      <c r="R23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.12887999999999999</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.15035999999999999</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.17183999999999999</v>
+      </c>
+      <c r="U23" s="3">
+        <f t="shared" si="19"/>
+        <v>0.19331999999999999</v>
+      </c>
+      <c r="V23" s="7">
+        <f t="shared" si="19"/>
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>0.29449999999999998</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0.255</v>
+      </c>
+      <c r="AE23" s="33">
+        <v>0.2432</v>
+      </c>
+      <c r="AF23" s="33">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="AG23" s="33">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="AH23" s="33">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="AI23" s="33">
+        <v>0.20910000000000001</v>
+      </c>
+      <c r="AJ23" s="34">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.22320000000000001</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.22550000000000001</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="K24">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="M24" s="7">
+        <f>$K$24*M19</f>
+        <v>1.5970000000000002E-2</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" ref="N24:V24" si="20">$K$24*N19</f>
+        <v>3.1940000000000003E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="20"/>
+        <v>4.7910000000000001E-2</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="20"/>
+        <v>6.3880000000000006E-2</v>
+      </c>
+      <c r="Q24" s="7">
+        <f t="shared" si="20"/>
+        <v>7.9850000000000004E-2</v>
+      </c>
+      <c r="R24" s="7">
+        <f t="shared" si="20"/>
+        <v>9.5820000000000002E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <f t="shared" si="20"/>
+        <v>0.11179</v>
+      </c>
+      <c r="T24" s="7">
+        <f t="shared" si="20"/>
+        <v>0.12776000000000001</v>
+      </c>
+      <c r="U24" s="7">
+        <f t="shared" si="20"/>
+        <v>0.14373000000000002</v>
+      </c>
+      <c r="V24" s="7">
+        <f t="shared" si="20"/>
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>0.1845</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>0.17080000000000001</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0.1636</v>
+      </c>
+      <c r="AE24" s="32">
+        <v>0.1593</v>
+      </c>
+      <c r="AF24" s="32">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>0.1545</v>
+      </c>
+      <c r="AH24" s="34">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="AI24" s="32">
+        <v>0.1542</v>
+      </c>
+      <c r="AJ24" s="33">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.1633</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.16569999999999999</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.1668</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.16678000000000001</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="K25">
+        <v>0.1371</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="M25" s="7">
+        <f>$K$25*M19</f>
+        <v>1.371E-2</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" ref="N25:V25" si="21">$K$25*N19</f>
+        <v>2.742E-2</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="21"/>
+        <v>4.113E-2</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="21"/>
+        <v>5.484E-2</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="21"/>
+        <v>6.855E-2</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="21"/>
+        <v>8.226E-2</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="21"/>
+        <v>9.597E-2</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" si="21"/>
+        <v>0.10968</v>
+      </c>
+      <c r="U25" s="3">
+        <f t="shared" si="21"/>
+        <v>0.12339</v>
+      </c>
+      <c r="V25" s="7">
+        <f t="shared" si="21"/>
+        <v>0.1371</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>0.1457</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>0.1366</v>
+      </c>
+      <c r="AE25" s="33">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="AF25" s="33">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="AG25" s="33">
+        <v>0.13020000000000001</v>
+      </c>
+      <c r="AH25" s="33">
+        <v>0.1288</v>
+      </c>
+      <c r="AI25" s="33">
+        <v>0.12770000000000001</v>
+      </c>
+      <c r="AJ25" s="34">
+        <v>0.12709999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8.8359999999999994E-2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>8.9359999999999995E-2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>8.9039999999999994E-2</v>
+      </c>
+      <c r="G26" s="7">
+        <v>8.9249999999999996E-2</v>
+      </c>
+      <c r="H26" s="7">
+        <v>9.8140000000000005E-2</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="K26">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="M26" s="7">
+        <f>$K$26*M19</f>
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" ref="N26:V26" si="22">$K$26*N19</f>
+        <v>1.8319999999999999E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="22"/>
+        <v>2.7480000000000001E-2</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="22"/>
+        <v>3.6639999999999999E-2</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="22"/>
+        <v>4.58E-2</v>
+      </c>
+      <c r="R26" s="3">
+        <f t="shared" si="22"/>
+        <v>5.4960000000000002E-2</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="22"/>
+        <v>6.4119999999999996E-2</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="22"/>
+        <v>7.3279999999999998E-2</v>
+      </c>
+      <c r="U26" s="7">
+        <f t="shared" si="22"/>
+        <v>8.2439999999999999E-2</v>
+      </c>
+      <c r="V26" s="7">
+        <f t="shared" si="22"/>
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>7.8990000000000005E-2</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>7.6189999999999994E-2</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>7.46E-2</v>
+      </c>
+      <c r="AE26" s="33">
+        <v>7.3609999999999995E-2</v>
+      </c>
+      <c r="AF26" s="33">
+        <v>7.3020000000000002E-2</v>
+      </c>
+      <c r="AG26" s="34">
+        <v>7.2770000000000001E-2</v>
+      </c>
+      <c r="AH26" s="33">
+        <v>7.2910000000000003E-2</v>
+      </c>
+      <c r="AI26" s="33">
+        <v>7.3590000000000003E-2</v>
+      </c>
+      <c r="AJ26" s="33">
+        <v>7.5230000000000005E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3.918E-2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3.7350000000000001E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.7319999999999999E-2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3.7819999999999999E-2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>3.8710000000000001E-2</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3.9039999999999998E-2</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="K27">
+        <v>3.3349999999999998E-2</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="M27" s="7">
+        <f>$K$27*M19</f>
+        <v>3.3349999999999999E-3</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" ref="N27:V27" si="23">$K$27*N19</f>
+        <v>6.6699999999999997E-3</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="23"/>
+        <v>1.0004999999999998E-2</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="23"/>
+        <v>1.3339999999999999E-2</v>
+      </c>
+      <c r="Q27" s="7">
+        <f t="shared" si="23"/>
+        <v>1.6674999999999999E-2</v>
+      </c>
+      <c r="R27" s="7">
+        <f t="shared" si="23"/>
+        <v>2.0009999999999997E-2</v>
+      </c>
+      <c r="S27" s="3">
+        <f t="shared" si="23"/>
+        <v>2.3344999999999998E-2</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" si="23"/>
+        <v>2.6679999999999999E-2</v>
+      </c>
+      <c r="U27" s="7">
+        <f t="shared" si="23"/>
+        <v>3.0015E-2</v>
+      </c>
+      <c r="V27" s="7">
+        <f t="shared" si="23"/>
+        <v>3.3349999999999998E-2</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>3.44E-2</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>3.3250000000000002E-2</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="AE27" s="32">
+        <v>3.2009999999999997E-2</v>
+      </c>
+      <c r="AF27" s="32">
+        <v>3.1640000000000001E-2</v>
+      </c>
+      <c r="AG27" s="32">
+        <v>3.1419999999999997E-2</v>
+      </c>
+      <c r="AH27" s="34">
+        <v>3.1350000000000003E-2</v>
+      </c>
+      <c r="AI27" s="32">
+        <v>3.1519999999999999E-2</v>
+      </c>
+      <c r="AJ27" s="32">
+        <v>3.2169999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <f>B27+1</f>
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1.349E-2</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.337E-2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1.3639999999999999E-2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1.3639999999999999E-2</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1.3655E-2</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1.3650000000000001E-2</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="K28">
+        <v>9.8139999999999998E-3</v>
+      </c>
+      <c r="L28" s="2">
+        <f>L27+1</f>
+        <v>9</v>
+      </c>
+      <c r="M28" s="7">
+        <f>$K$28*M19</f>
+        <v>9.8140000000000011E-4</v>
+      </c>
+      <c r="N28" s="7">
+        <f t="shared" ref="N28:V28" si="24">$K$28*N19</f>
+        <v>1.9628000000000002E-3</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="24"/>
+        <v>2.9441999999999997E-3</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" si="24"/>
+        <v>3.9256000000000004E-3</v>
+      </c>
+      <c r="Q28" s="7">
+        <f t="shared" si="24"/>
+        <v>4.9069999999999999E-3</v>
+      </c>
+      <c r="R28" s="7">
+        <f t="shared" si="24"/>
+        <v>5.8883999999999994E-3</v>
+      </c>
+      <c r="S28" s="7">
+        <f t="shared" si="24"/>
+        <v>6.8697999999999997E-3</v>
+      </c>
+      <c r="T28" s="7">
+        <f t="shared" si="24"/>
+        <v>7.8512000000000009E-3</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="24"/>
+        <v>8.8325999999999995E-3</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" si="24"/>
+        <v>9.8139999999999998E-3</v>
+      </c>
+      <c r="AA28" s="2">
+        <f>AA27+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>1.196E-2</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>1.162E-2</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="AE28" s="32">
+        <v>1.1220000000000001E-2</v>
+      </c>
+      <c r="AF28" s="32">
+        <v>1.1050000000000001E-2</v>
+      </c>
+      <c r="AG28" s="32">
+        <v>1.09E-2</v>
+      </c>
+      <c r="AH28" s="32">
+        <v>1.0749999999999999E-2</v>
+      </c>
+      <c r="AI28" s="32">
+        <v>1.0619999999999999E-2</v>
+      </c>
+      <c r="AJ28" s="34">
+        <v>1.052E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>15500</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="K32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A3264-3A61-4411-A092-3122019449F9}">
   <dimension ref="A2:V38"/>
   <sheetViews>
@@ -2320,7 +4438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6711240D-728F-43A4-869A-5546C70EDBE2}">
   <dimension ref="A3:AL15"/>
   <sheetViews>
@@ -3456,7 +5574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB70D321-8441-4D6C-96CE-087642A6DA2C}">
   <dimension ref="A3:AL15"/>
   <sheetViews>
@@ -4576,7 +6694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC7CF49-3B57-483D-98A7-CE922F6357B9}">
   <dimension ref="A3:AN15"/>
   <sheetViews>
@@ -10471,8 +12589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4996CB70-011F-4924-831C-A054FFA46D6C}">
   <dimension ref="A2:AK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S12" activeCellId="8" sqref="P4 Q5 U6 R7 R8 S9 S10 S11 S12"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10496,7 +12614,7 @@
         <v>45000</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:J3" si="0">D3+1000</f>
+        <f t="shared" ref="E3:I3" si="0">D3+1000</f>
         <v>46000</v>
       </c>
       <c r="F3" s="6">
@@ -12478,6 +14596,1926 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDF538E-843E-48EA-BAD6-D0F18E559536}">
+  <dimension ref="A2:AK38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T12" activeCellId="8" sqref="R4 T5 T7 V6 U8 V9 S10 T11 T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AA2">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6">
+        <v>33000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3+1000</f>
+        <v>34000</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:J3" si="0">D3+1000</f>
+        <v>35000</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>36000</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>37000</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>39000</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1.1966000000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.1970099999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.21</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.2024999999999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.1980999999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1.2015</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1.2014</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1.1994</v>
+      </c>
+      <c r="L4">
+        <v>1.1198999999999999</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <f>$L$4*N3</f>
+        <v>0.11198999999999999</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" ref="O4:W4" si="1">$L$4*O3</f>
+        <v>0.22397999999999998</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.33596999999999994</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44795999999999997</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.55994999999999995</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.67193999999999987</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.7839299999999999</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89591999999999994</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0079099999999999</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1198999999999999</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0.9879</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0.97360000000000002</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>0.97289999999999999</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>0.9768</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0.98719999999999997</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="M5" s="2">
+        <f>M4+1</f>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <f>$L$5*N3</f>
+        <v>6.3619999999999996E-2</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" ref="O5:W5" si="2">$L$5*O3</f>
+        <v>0.12723999999999999</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.19086</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.25447999999999998</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.38172</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.44533999999999996</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.50895999999999997</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.57257999999999998</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="2"/>
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="5"/>
+      <c r="AB5" s="2">
+        <f>AB4+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD5" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AF5" s="7">
+        <v>0.56140000000000001</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0.5534</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0.56479999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B11" si="3">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.41810000000000003</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.41959999999999997</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.41789999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.4219</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.4229</v>
+      </c>
+      <c r="L6">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M6:M11" si="4">M5+1</f>
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <f>$L$6*N3</f>
+        <v>3.49E-2</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" ref="O6:W6" si="5">$L$6*O3</f>
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.10469999999999999</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.1396</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.20939999999999998</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.24429999999999996</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.2792</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="5"/>
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AB6" s="2">
+        <f t="shared" ref="AB6:AB11" si="6">AB5+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE6" s="32">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AF6" s="32">
+        <v>0.34870000000000001</v>
+      </c>
+      <c r="AG6" s="32">
+        <v>0.34360000000000002</v>
+      </c>
+      <c r="AH6" s="32">
+        <v>0.3397</v>
+      </c>
+      <c r="AI6" s="32">
+        <v>0.3367</v>
+      </c>
+      <c r="AJ6" s="32">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="AK6" s="34">
+        <v>0.3347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.35089999999999999</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.3493</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.3478</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.34870000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.3478</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.34839999999999999</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.2676</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <f>$L$7*N3</f>
+        <v>2.6760000000000003E-2</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" ref="O7:W7" si="7">$L$7*O3</f>
+        <v>5.3520000000000005E-2</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="7"/>
+        <v>8.0280000000000004E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.10704000000000001</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.1338</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.16056000000000001</v>
+      </c>
+      <c r="T7" s="3">
+        <f t="shared" si="7"/>
+        <v>0.18731999999999999</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.21408000000000002</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.24084</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="7"/>
+        <v>0.2676</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AC7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD7" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE7" s="32">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="AF7" s="32">
+        <v>0.2626</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="AI7" s="32">
+        <v>0.25390000000000001</v>
+      </c>
+      <c r="AJ7" s="34">
+        <v>0.25340000000000001</v>
+      </c>
+      <c r="AK7" s="32">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.30590000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.30509999999999998</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.3054</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.30609999999999998</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.3075</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.30759999999999998</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.30769999999999997</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.307</v>
+      </c>
+      <c r="L8">
+        <v>0.2465</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="7">
+        <f>$L$8*N3</f>
+        <v>2.4650000000000002E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" ref="O8:W8" si="8">$L$8*O3</f>
+        <v>4.9300000000000004E-2</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="8"/>
+        <v>7.3950000000000002E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="8"/>
+        <v>9.8600000000000007E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.12325</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.1479</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.17254999999999998</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="8"/>
+        <v>0.19720000000000001</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.22184999999999999</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="8"/>
+        <v>0.2465</v>
+      </c>
+      <c r="AB8" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AC8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD8" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE8" s="32">
+        <v>0.2487</v>
+      </c>
+      <c r="AF8" s="32">
+        <v>0.24229999999999999</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>0.23760000000000001</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>0.2341</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AJ8" s="34">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="AK8" s="32">
+        <v>0.23350000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.2404</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.24149999999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.2402</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.2414</v>
+      </c>
+      <c r="L9">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="7">
+        <f>$L$9*N3</f>
+        <v>1.72E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" ref="O9:W9" si="9">$L$9*O3</f>
+        <v>3.44E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="9"/>
+        <v>5.1599999999999993E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" si="9"/>
+        <v>6.88E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="9"/>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.10319999999999999</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.12039999999999998</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.1376</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="9"/>
+        <v>0.15479999999999999</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="9"/>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AC9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="32">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="AF9" s="32">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="AG9" s="32">
+        <v>0.18629999999999999</v>
+      </c>
+      <c r="AH9" s="32">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="AI9" s="32">
+        <v>0.1774</v>
+      </c>
+      <c r="AJ9" s="32">
+        <v>0.17430000000000001</v>
+      </c>
+      <c r="AK9" s="34">
+        <v>0.17249999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.13830000000000001</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.1381</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="7">
+        <f>$L$10*N3</f>
+        <v>1.1610000000000001E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" ref="O10:W10" si="10">$L$10*O3</f>
+        <v>2.3220000000000001E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="10"/>
+        <v>3.483E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="10"/>
+        <v>4.6440000000000002E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="10"/>
+        <v>5.8049999999999997E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="10"/>
+        <v>6.966E-2</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="10"/>
+        <v>8.1269999999999995E-2</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="10"/>
+        <v>9.2880000000000004E-2</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.10449</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="10"/>
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="AB10" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="AC10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD10" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>0.1051</v>
+      </c>
+      <c r="AF10" s="32">
+        <v>0.1028</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>0.1014</v>
+      </c>
+      <c r="AH10" s="34">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>0.1012</v>
+      </c>
+      <c r="AK10" s="32">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>6.6530000000000006E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.6549999999999998E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>6.6220000000000001E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6.6140000000000004E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>6.6460000000000005E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>6.6549999999999998E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>6.6540000000000002E-2</v>
+      </c>
+      <c r="L11">
+        <v>5.4789999999999998E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N11" s="7">
+        <f>$L$11*N3</f>
+        <v>5.4790000000000004E-3</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" ref="O11:W11" si="11">$L$11*O3</f>
+        <v>1.0958000000000001E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6437E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="11"/>
+        <v>2.1916000000000001E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7394999999999999E-2</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="11"/>
+        <v>3.2874E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="11"/>
+        <v>3.8352999999999998E-2</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="11"/>
+        <v>4.3832000000000003E-2</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="11"/>
+        <v>4.9311000000000001E-2</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="11"/>
+        <v>5.4789999999999998E-2</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AC11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD11" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>5.5809999999999998E-2</v>
+      </c>
+      <c r="AF11" s="32">
+        <v>5.4829999999999997E-2</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>5.4120000000000001E-2</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="AI11" s="34">
+        <v>5.3409999999999999E-2</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>5.348E-2</v>
+      </c>
+      <c r="AK11" s="32">
+        <v>5.4019999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f>B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.728E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1.7250000000000001E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1.7250000000000001E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.7219999999999999E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.7340000000000001E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1.7469999999999999E-2</v>
+      </c>
+      <c r="L12">
+        <v>1.7510000000000001E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <f>M11+1</f>
+        <v>9</v>
+      </c>
+      <c r="N12" s="7">
+        <f>$L$12*N3</f>
+        <v>1.7510000000000002E-3</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" ref="O12:W12" si="12">$L$12*O3</f>
+        <v>3.5020000000000003E-3</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="12"/>
+        <v>5.2529999999999999E-3</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" si="12"/>
+        <v>7.0040000000000007E-3</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="12"/>
+        <v>8.7550000000000006E-3</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.0506E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="12"/>
+        <v>1.2257000000000001E-2</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.4008000000000001E-2</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.5759000000000002E-2</v>
+      </c>
+      <c r="W12" s="7">
+        <f t="shared" si="12"/>
+        <v>1.7510000000000001E-2</v>
+      </c>
+      <c r="AB12" s="2">
+        <f>AB11+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE12" s="32">
+        <v>1.5469999999999999E-2</v>
+      </c>
+      <c r="AF12" s="32">
+        <v>1.532E-2</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>1.523E-2</v>
+      </c>
+      <c r="AH12" s="34">
+        <v>0.15190000000000001</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>1.519E-2</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>1.5259999999999999E-2</v>
+      </c>
+      <c r="AK12" s="32">
+        <v>1.544E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <v>41000</v>
+      </c>
+      <c r="D16" s="6">
+        <f>C16+1000</f>
+        <v>42000</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" ref="E16:G16" si="13">D16+1000</f>
+        <v>43000</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="13"/>
+        <v>44000</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="13"/>
+        <v>45000</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="AA16">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1.206</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1.2076</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1.2049000000000001</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.2054</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="AB17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <f>B17+1</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.68369999999999997</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.68430000000000002</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="AB18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE18" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF18" s="35">
+        <v>0.96609999999999996</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>0.96340000000000003</v>
+      </c>
+      <c r="AH18" s="7">
+        <v>0.96460000000000001</v>
+      </c>
+      <c r="AI18" s="35">
+        <v>0.9698</v>
+      </c>
+      <c r="AJ18" s="35">
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="AK18" s="35">
+        <v>1.0029999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f t="shared" ref="B19:B24" si="14">B18+1</f>
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.41970000000000002</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.4158</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="AB19" s="2">
+        <f>AB18+1</f>
+        <v>2</v>
+      </c>
+      <c r="AC19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE19" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF19" s="35">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>0.55020000000000002</v>
+      </c>
+      <c r="AI19" s="36">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="AJ19" s="35">
+        <v>0.55089999999999995</v>
+      </c>
+      <c r="AK19" s="35">
+        <v>0.55994999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.34739999999999999</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="AB20" s="2">
+        <f t="shared" ref="AB20:AB25" si="15">AB19+1</f>
+        <v>3</v>
+      </c>
+      <c r="AC20" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD20" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE20" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF20" s="35">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="AG20" s="32">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="AH20" s="32">
+        <v>0.3382</v>
+      </c>
+      <c r="AI20" s="35">
+        <v>0.3337</v>
+      </c>
+      <c r="AJ20" s="35">
+        <v>0.3306</v>
+      </c>
+      <c r="AK20" s="36">
+        <v>0.32890000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.3075</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.30890000000000001</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="AB21" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AC21" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD21" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE21" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF21" s="35">
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="AG21" s="32">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="AH21" s="32">
+        <v>0.2576</v>
+      </c>
+      <c r="AI21" s="36">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="AJ21" s="35">
+        <v>0.25750000000000001</v>
+      </c>
+      <c r="AK21" s="35">
+        <v>0.2611</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.2422</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.24079999999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.24160000000000001</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.24229999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.24410000000000001</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="AB22" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AC22" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD22" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE22" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF22" s="35">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="AG22" s="32">
+        <v>0.23910000000000001</v>
+      </c>
+      <c r="AH22" s="32">
+        <v>0.2359</v>
+      </c>
+      <c r="AI22" s="35">
+        <v>0.2334</v>
+      </c>
+      <c r="AJ22" s="36">
+        <v>0.23230000000000001</v>
+      </c>
+      <c r="AK22" s="35">
+        <v>0.23369999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="AB23" s="2">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AC23" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD23" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE23" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF23" s="35">
+        <v>0.1842</v>
+      </c>
+      <c r="AG23" s="32">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="AH23" s="32">
+        <v>0.17480000000000001</v>
+      </c>
+      <c r="AI23" s="35">
+        <v>0.1714</v>
+      </c>
+      <c r="AJ23" s="35">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="AK23" s="36">
+        <v>0.16819999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6.6470000000000001E-2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>6.7110000000000003E-2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>6.7299999999999999E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>6.744E-2</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="AB24" s="2">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AC24" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD24" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE24" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF24" s="35">
+        <v>9.9709999999999993E-2</v>
+      </c>
+      <c r="AG24" s="32">
+        <v>9.8599999999999993E-2</v>
+      </c>
+      <c r="AH24" s="34">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="AI24" s="35">
+        <v>9.8169999999999993E-2</v>
+      </c>
+      <c r="AJ24" s="35">
+        <v>9.9030000000000007E-2</v>
+      </c>
+      <c r="AK24" s="35">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <f>B24+1</f>
+        <v>9</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.7330000000000002E-2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1.7319999999999999E-2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1.7330000000000002E-2</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1.7350000000000001E-2</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="AB25" s="2">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="AC25" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD25" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE25" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF25" s="35">
+        <v>5.4239999999999997E-2</v>
+      </c>
+      <c r="AG25" s="32">
+        <v>5.3560000000000003E-2</v>
+      </c>
+      <c r="AH25" s="32">
+        <v>5.3120000000000001E-2</v>
+      </c>
+      <c r="AI25" s="36">
+        <v>5.2940000000000001E-2</v>
+      </c>
+      <c r="AJ25" s="35">
+        <v>5.3069999999999999E-2</v>
+      </c>
+      <c r="AK25" s="35">
+        <v>5.3740000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB26" s="2">
+        <f>AB25+1</f>
+        <v>9</v>
+      </c>
+      <c r="AC26" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD26" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE26" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF26" s="35">
+        <v>1.5010000000000001E-2</v>
+      </c>
+      <c r="AG26" s="32">
+        <v>1.49E-2</v>
+      </c>
+      <c r="AH26" s="32">
+        <v>1.4829999999999999E-2</v>
+      </c>
+      <c r="AI26" s="36">
+        <v>1.482E-2</v>
+      </c>
+      <c r="AJ26" s="35">
+        <v>1.4880000000000001E-2</v>
+      </c>
+      <c r="AK26" s="35">
+        <v>1.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C28" s="6">
+        <v>49000</v>
+      </c>
+      <c r="D28" s="6">
+        <f>C28+1000</f>
+        <v>50000</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" ref="E28" si="16">D28+1000</f>
+        <v>51000</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" ref="F28" si="17">E28+1000</f>
+        <v>52000</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" ref="G28" si="18">F28+1000</f>
+        <v>53000</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1.1966000000000001</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1.1969000000000001</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1.2020999999999999</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1.2125999999999999</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <f>B29+1</f>
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.69710000000000005</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.6986</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.69869999999999999</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <f t="shared" ref="B31:B36" si="19">B30+1</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.4299</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0.43030000000000002</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.42709999999999998</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.35389999999999999</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.35460000000000003</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.3548</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.3579</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.3145</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.31480000000000002</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.314</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.314</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.2437</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.24410000000000001</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="C35" s="7">
+        <v>0.13769999999999999</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.13730000000000001</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="C36" s="7">
+        <v>6.7110000000000003E-2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>6.7269999999999996E-2</v>
+      </c>
+      <c r="E36" s="7">
+        <v>6.7269999999999996E-2</v>
+      </c>
+      <c r="F36" s="7">
+        <v>6.7049999999999998E-2</v>
+      </c>
+      <c r="G36" s="7">
+        <v>6.7320000000000005E-2</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f>B36+1</f>
+        <v>9</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1.728E-2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1.728E-2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1.7260000000000001E-2</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1.728E-2</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1.729E-2</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
   <dimension ref="A1:AK44"/>
   <sheetViews>
@@ -15552,7 +19590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
   <dimension ref="A1:AL52"/>
   <sheetViews>
@@ -19509,7 +23547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
   <dimension ref="A2:AK44"/>
   <sheetViews>
@@ -22611,7 +26649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46B17F-3465-4774-B397-C386614D55B2}">
   <dimension ref="A2:AJ44"/>
   <sheetViews>
@@ -24705,2121 +28743,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D51598-43C8-43C8-B0AF-4826DB32F76D}">
-  <dimension ref="A1:AK32"/>
-  <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="7" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="Z1" s="19"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="17">
-        <v>100000</v>
-      </c>
-      <c r="D2" s="17">
-        <f>C2+5000</f>
-        <v>105000</v>
-      </c>
-      <c r="E2" s="17">
-        <f>D2+5000</f>
-        <v>110000</v>
-      </c>
-      <c r="F2" s="17">
-        <f>E2+5000</f>
-        <v>115000</v>
-      </c>
-      <c r="G2" s="17">
-        <f>F2+5000</f>
-        <v>120000</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="V2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AG2" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="AI2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="AJ2" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="AK2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="15">
-        <v>1.8950199999999999</v>
-      </c>
-      <c r="D3" s="18">
-        <v>1.8937200000000001</v>
-      </c>
-      <c r="E3" s="15">
-        <v>1.8966000000000001</v>
-      </c>
-      <c r="F3" s="15">
-        <v>1.8977999999999999</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1.8974</v>
-      </c>
-      <c r="K3" s="19">
-        <v>2.0103900000000001</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <f>$K$3*M2</f>
-        <v>0.20103900000000002</v>
-      </c>
-      <c r="N3" s="3">
-        <f t="shared" ref="N3:V3" si="0">$K$3*N2</f>
-        <v>0.40207800000000005</v>
-      </c>
-      <c r="O3" s="7">
-        <f t="shared" si="0"/>
-        <v>0.60311700000000001</v>
-      </c>
-      <c r="P3" s="7">
-        <f t="shared" si="0"/>
-        <v>0.80415600000000009</v>
-      </c>
-      <c r="Q3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0051950000000001</v>
-      </c>
-      <c r="R3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.206234</v>
-      </c>
-      <c r="S3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.407273</v>
-      </c>
-      <c r="T3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6083120000000002</v>
-      </c>
-      <c r="U3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8093510000000002</v>
-      </c>
-      <c r="V3" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0103900000000001</v>
-      </c>
-      <c r="X3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="5">
-        <v>1.6125</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>1.6153999999999999</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>1.6335999999999999</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>1.6675</v>
-      </c>
-      <c r="AF3" s="7">
-        <v>1.7145999999999999</v>
-      </c>
-      <c r="AG3" s="7">
-        <v>1.776</v>
-      </c>
-      <c r="AH3" s="7">
-        <v>1.8554999999999999</v>
-      </c>
-      <c r="AI3" s="7">
-        <v>1.9608000000000001</v>
-      </c>
-      <c r="AJ3" s="7">
-        <v>2.1082399999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <f>B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1.34968</v>
-      </c>
-      <c r="D4" s="15">
-        <v>1.35005</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1.3505</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1.3512999999999999</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1.3519000000000001</v>
-      </c>
-      <c r="K4" s="19">
-        <v>1.12252</v>
-      </c>
-      <c r="L4" s="2">
-        <f>L3+1</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="7">
-        <f>$K$4*M2</f>
-        <v>0.112252</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" ref="N4:V4" si="1">$K$4*N2</f>
-        <v>0.22450400000000001</v>
-      </c>
-      <c r="O4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.336756</v>
-      </c>
-      <c r="P4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.44900800000000002</v>
-      </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.56125999999999998</v>
-      </c>
-      <c r="R4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.673512</v>
-      </c>
-      <c r="S4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.78576399999999991</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.89801600000000004</v>
-      </c>
-      <c r="U4" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0102679999999999</v>
-      </c>
-      <c r="V4" s="7">
-        <f t="shared" si="1"/>
-        <v>1.12252</v>
-      </c>
-      <c r="X4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="2">
-        <f>AA3+1</f>
-        <v>2</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>0.98980000000000001</v>
-      </c>
-      <c r="AC4" s="5">
-        <v>0.9456</v>
-      </c>
-      <c r="AD4" s="5">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>0.89629999999999999</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>0.88919999999999999</v>
-      </c>
-      <c r="AH4" s="5">
-        <v>0.88590000000000002</v>
-      </c>
-      <c r="AI4" s="3">
-        <v>0.8861</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>0.89739999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <f t="shared" ref="B5:B10" si="2">B4+1</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.64139999999999997</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0.64149999999999996</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0.64070000000000005</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0.64117999999999997</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0.55628</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5:L10" si="3">L4+1</f>
-        <v>3</v>
-      </c>
-      <c r="M5" s="7">
-        <f>$K$5*M2</f>
-        <v>5.5628000000000004E-2</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ref="N5:V5" si="4">$K$5*N2</f>
-        <v>0.11125600000000001</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.166884</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.22251200000000002</v>
-      </c>
-      <c r="Q5" s="7">
-        <f>$K$5*Q2</f>
-        <v>0.27814</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.33376800000000001</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.38939599999999996</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.44502400000000003</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.50065199999999999</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.55628</v>
-      </c>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="2">
-        <f t="shared" ref="AA5:AA10" si="5">AA4+1</f>
-        <v>3</v>
-      </c>
-      <c r="AB5" s="7">
-        <v>0.55789999999999995</v>
-      </c>
-      <c r="AC5" s="3">
-        <v>0.55579999999999996</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>0.55979999999999996</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>0.56440000000000001</v>
-      </c>
-      <c r="AF5" s="7">
-        <v>0.56850000000000001</v>
-      </c>
-      <c r="AG5" s="7">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>0.57379999999999998</v>
-      </c>
-      <c r="AJ5" s="7">
-        <v>0.57050000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0.39443</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.39412999999999998</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0.39419999999999999</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0.39416000000000001</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0.39450000000000002</v>
-      </c>
-      <c r="K6" s="19">
-        <v>0.28588999999999998</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M6" s="7">
-        <f>$K$6*M2</f>
-        <v>2.8589E-2</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" ref="N6:V6" si="6">$K$6*N2</f>
-        <v>5.7178E-2</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="6"/>
-        <v>8.5766999999999996E-2</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.114356</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.14294499999999999</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.17153399999999999</v>
-      </c>
-      <c r="S6" s="21">
-        <f t="shared" si="6"/>
-        <v>0.20012299999999997</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.228712</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.257301</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="6"/>
-        <v>0.28588999999999998</v>
-      </c>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="2">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0.29149999999999998</v>
-      </c>
-      <c r="AC6" s="5">
-        <v>0.27910000000000001</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>0.27350000000000002</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0.27029999999999998</v>
-      </c>
-      <c r="AF6" s="7">
-        <v>0.26719999999999999</v>
-      </c>
-      <c r="AG6" s="7">
-        <v>0.26479999999999998</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>0.26379999999999998</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>0.26440000000000002</v>
-      </c>
-      <c r="AJ6" s="7">
-        <v>0.26829999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.32052000000000003</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.32057999999999998</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0.32067000000000001</v>
-      </c>
-      <c r="F7" s="15">
-        <v>0.32057000000000002</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0.32074000000000003</v>
-      </c>
-      <c r="K7" s="19">
-        <v>0.240561</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M7" s="7">
-        <f>$K$7*M2</f>
-        <v>2.40561E-2</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" ref="N7:V7" si="7">$K$7*N2</f>
-        <v>4.8112200000000001E-2</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="7"/>
-        <v>7.2168299999999991E-2</v>
-      </c>
-      <c r="P7" s="7">
-        <f>$K$7*P2</f>
-        <v>9.6224400000000002E-2</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.1202805</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.14433659999999998</v>
-      </c>
-      <c r="S7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.16839269999999998</v>
-      </c>
-      <c r="T7" s="3">
-        <f t="shared" si="7"/>
-        <v>0.1924488</v>
-      </c>
-      <c r="U7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.2165049</v>
-      </c>
-      <c r="V7" s="7">
-        <f t="shared" si="7"/>
-        <v>0.240561</v>
-      </c>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="2">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0.24440000000000001</v>
-      </c>
-      <c r="AC7" s="5">
-        <v>0.23080000000000001</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0.2238</v>
-      </c>
-      <c r="AE7" s="5">
-        <v>0.21970000000000001</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>0.2172</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>0.216</v>
-      </c>
-      <c r="AH7" s="5">
-        <v>0.21609999999999999</v>
-      </c>
-      <c r="AI7" s="3">
-        <v>0.21709999999999999</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>0.22020000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0.26595000000000002</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0.26577000000000001</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0.26617000000000002</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0.26605000000000001</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0.26624999999999999</v>
-      </c>
-      <c r="K8" s="19">
-        <v>0.19155700000000001</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M8" s="7">
-        <f>$K$8*M2</f>
-        <v>1.9155700000000001E-2</v>
-      </c>
-      <c r="N8" s="7">
-        <f t="shared" ref="N8:V8" si="8">$K$8*N2</f>
-        <v>3.8311400000000002E-2</v>
-      </c>
-      <c r="O8" s="7">
-        <f t="shared" si="8"/>
-        <v>5.74671E-2</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" si="8"/>
-        <v>7.6622800000000005E-2</v>
-      </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="8"/>
-        <v>9.5778500000000003E-2</v>
-      </c>
-      <c r="R8" s="7">
-        <f t="shared" si="8"/>
-        <v>0.1149342</v>
-      </c>
-      <c r="S8" s="7">
-        <f t="shared" si="8"/>
-        <v>0.13408989999999998</v>
-      </c>
-      <c r="T8" s="3">
-        <f t="shared" si="8"/>
-        <v>0.15324560000000001</v>
-      </c>
-      <c r="U8" s="7">
-        <f t="shared" si="8"/>
-        <v>0.17240130000000001</v>
-      </c>
-      <c r="V8" s="7">
-        <f t="shared" si="8"/>
-        <v>0.19155700000000001</v>
-      </c>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="2">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>0.20219999999999999</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>0.19539999999999999</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>0.19220000000000001</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>0.19009999999999999</v>
-      </c>
-      <c r="AF8" s="7">
-        <v>0.1883</v>
-      </c>
-      <c r="AG8" s="7">
-        <v>0.18690000000000001</v>
-      </c>
-      <c r="AH8" s="7">
-        <v>0.186</v>
-      </c>
-      <c r="AI8" s="3">
-        <v>0.1857</v>
-      </c>
-      <c r="AJ8" s="7">
-        <v>0.18640000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="20">
-        <v>0.16975999999999999</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.17003099999999999</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.16966999999999999</v>
-      </c>
-      <c r="F9" s="18">
-        <v>0.16955999999999999</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0.16974</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0.14216400000000001</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M9" s="7">
-        <f>$K$9*M2</f>
-        <v>1.4216400000000002E-2</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" ref="N9:V9" si="9">$K$9*N2</f>
-        <v>2.8432800000000005E-2</v>
-      </c>
-      <c r="O9" s="7">
-        <f t="shared" si="9"/>
-        <v>4.2649200000000005E-2</v>
-      </c>
-      <c r="P9" s="7">
-        <f t="shared" si="9"/>
-        <v>5.6865600000000009E-2</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="9"/>
-        <v>7.1082000000000006E-2</v>
-      </c>
-      <c r="R9" s="7">
-        <f>$K$9*R2</f>
-        <v>8.529840000000001E-2</v>
-      </c>
-      <c r="S9" s="7">
-        <f t="shared" si="9"/>
-        <v>9.95148E-2</v>
-      </c>
-      <c r="T9" s="7">
-        <f t="shared" si="9"/>
-        <v>0.11373120000000002</v>
-      </c>
-      <c r="U9" s="7">
-        <f t="shared" si="9"/>
-        <v>0.12794760000000002</v>
-      </c>
-      <c r="V9" s="7">
-        <f t="shared" si="9"/>
-        <v>0.14216400000000001</v>
-      </c>
-      <c r="Z9" s="19"/>
-      <c r="AA9" s="2">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="AB9" s="5">
-        <v>0.14043</v>
-      </c>
-      <c r="AC9" s="5">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>0.13139999999999999</v>
-      </c>
-      <c r="AE9" s="5">
-        <v>0.1298</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>0.129</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>0.129</v>
-      </c>
-      <c r="AH9" s="5">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="AI9" s="5">
-        <v>0.13120000000000001</v>
-      </c>
-      <c r="AJ9" s="5">
-        <v>0.13389999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0.17868899999999999</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0.17979999999999999</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.18029999999999999</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0.180198</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0.1807</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0.128384</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M10" s="7">
-        <f>$K$10*M2</f>
-        <v>1.28384E-2</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" ref="N10:V10" si="10">$K$10*N2</f>
-        <v>2.56768E-2</v>
-      </c>
-      <c r="O10" s="7">
-        <f t="shared" si="10"/>
-        <v>3.8515199999999999E-2</v>
-      </c>
-      <c r="P10" s="7">
-        <f t="shared" si="10"/>
-        <v>5.1353599999999999E-2</v>
-      </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="10"/>
-        <v>6.4191999999999999E-2</v>
-      </c>
-      <c r="R10" s="7">
-        <f t="shared" si="10"/>
-        <v>7.7030399999999999E-2</v>
-      </c>
-      <c r="S10" s="7">
-        <f>$K$10*S2</f>
-        <v>8.9868799999999999E-2</v>
-      </c>
-      <c r="T10" s="7">
-        <f t="shared" si="10"/>
-        <v>0.1027072</v>
-      </c>
-      <c r="U10" s="3">
-        <f t="shared" si="10"/>
-        <v>0.1155456</v>
-      </c>
-      <c r="V10" s="7">
-        <f t="shared" si="10"/>
-        <v>0.128384</v>
-      </c>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="2">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="AB10" s="7">
-        <v>0.15279999999999999</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>0.14610000000000001</v>
-      </c>
-      <c r="AD10" s="7">
-        <v>0.14149999999999999</v>
-      </c>
-      <c r="AE10" s="7">
-        <v>0.13769999999999999</v>
-      </c>
-      <c r="AF10" s="7">
-        <v>0.13450000000000001</v>
-      </c>
-      <c r="AG10" s="7">
-        <v>0.13170000000000001</v>
-      </c>
-      <c r="AH10" s="7">
-        <v>0.1293</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="AJ10" s="3">
-        <v>0.12659999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <f>B10+1</f>
-        <v>9</v>
-      </c>
-      <c r="C11" s="18">
-        <v>8.6275000000000004E-2</v>
-      </c>
-      <c r="D11" s="15">
-        <v>8.6569999999999994E-2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>8.6696999999999996E-2</v>
-      </c>
-      <c r="F11" s="15">
-        <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="G11" s="15">
-        <v>8.7169999999999997E-2</v>
-      </c>
-      <c r="K11" s="19">
-        <v>7.7323000000000003E-2</v>
-      </c>
-      <c r="L11" s="2">
-        <f>L10+1</f>
-        <v>9</v>
-      </c>
-      <c r="M11" s="7">
-        <f>$K$11*M2</f>
-        <v>7.732300000000001E-3</v>
-      </c>
-      <c r="N11" s="7">
-        <f t="shared" ref="N11:V11" si="11">$K$11*N2</f>
-        <v>1.5464600000000002E-2</v>
-      </c>
-      <c r="O11" s="7">
-        <f t="shared" si="11"/>
-        <v>2.3196899999999999E-2</v>
-      </c>
-      <c r="P11" s="7">
-        <f>$K$11*P2</f>
-        <v>3.0929200000000004E-2</v>
-      </c>
-      <c r="Q11" s="7">
-        <f t="shared" si="11"/>
-        <v>3.8661500000000001E-2</v>
-      </c>
-      <c r="R11" s="7">
-        <f t="shared" si="11"/>
-        <v>4.6393799999999999E-2</v>
-      </c>
-      <c r="S11" s="3">
-        <f t="shared" si="11"/>
-        <v>5.4126099999999996E-2</v>
-      </c>
-      <c r="T11" s="7">
-        <f t="shared" si="11"/>
-        <v>6.1858400000000008E-2</v>
-      </c>
-      <c r="U11" s="7">
-        <f t="shared" si="11"/>
-        <v>6.9590700000000005E-2</v>
-      </c>
-      <c r="V11" s="7">
-        <f t="shared" si="11"/>
-        <v>7.7323000000000003E-2</v>
-      </c>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="2">
-        <f>AA10+1</f>
-        <v>9</v>
-      </c>
-      <c r="AB11" s="7">
-        <v>7.5109999999999996E-2</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>7.2620000000000004E-2</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>7.1059999999999998E-2</v>
-      </c>
-      <c r="AE11" s="7">
-        <v>6.9959999999999994E-2</v>
-      </c>
-      <c r="AF11" s="7">
-        <v>6.9150000000000003E-2</v>
-      </c>
-      <c r="AG11" s="7">
-        <v>6.8669999999999995E-2</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>6.8489999999999995E-2</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>6.8779999999999994E-2</v>
-      </c>
-      <c r="AJ11" s="7">
-        <v>7.0279999999999995E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="Z12" s="19"/>
-    </row>
-    <row r="16" spans="1:37" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="K16" s="31"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="K17"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="K18"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6">
-        <v>15000</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:H19" si="12">C19+5000</f>
-        <v>20000</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="12"/>
-        <v>25000</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="12"/>
-        <v>30000</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="12"/>
-        <v>35000</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="12"/>
-        <v>40000</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="K19" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="S19" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="T19" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="V19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="AD19" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AE19" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="AF19" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AG19" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AH19" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="AI19" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="AJ19" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1.7770999999999999</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1.7625999999999999</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="F20" s="7">
-        <v>1.7667999999999999</v>
-      </c>
-      <c r="G20" s="7">
-        <v>1.7827999999999999</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1.7838000000000001</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="K20">
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7">
-        <f>$K$20*M19</f>
-        <v>0.1757</v>
-      </c>
-      <c r="N20" s="7">
-        <f t="shared" ref="N20:V20" si="13">$K$20*N19</f>
-        <v>0.35139999999999999</v>
-      </c>
-      <c r="O20" s="7">
-        <f t="shared" si="13"/>
-        <v>0.5270999999999999</v>
-      </c>
-      <c r="P20" s="3">
-        <f t="shared" si="13"/>
-        <v>0.70279999999999998</v>
-      </c>
-      <c r="Q20" s="7">
-        <f t="shared" si="13"/>
-        <v>0.87849999999999995</v>
-      </c>
-      <c r="R20" s="7">
-        <f t="shared" si="13"/>
-        <v>1.0541999999999998</v>
-      </c>
-      <c r="S20" s="7">
-        <f t="shared" si="13"/>
-        <v>1.2298999999999998</v>
-      </c>
-      <c r="T20" s="7">
-        <f t="shared" si="13"/>
-        <v>1.4056</v>
-      </c>
-      <c r="U20" s="7">
-        <f t="shared" si="13"/>
-        <v>1.5812999999999999</v>
-      </c>
-      <c r="V20" s="7">
-        <f t="shared" si="13"/>
-        <v>1.7569999999999999</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="7">
-        <v>1.5921000000000001</v>
-      </c>
-      <c r="AC20" s="7">
-        <v>1.5468</v>
-      </c>
-      <c r="AD20" s="7">
-        <v>1.5291999999999999</v>
-      </c>
-      <c r="AE20" s="3">
-        <v>1.5267999999999999</v>
-      </c>
-      <c r="AF20" s="7">
-        <v>1.5365</v>
-      </c>
-      <c r="AG20" s="7">
-        <v>1.5586</v>
-      </c>
-      <c r="AH20" s="7">
-        <v>1.5971</v>
-      </c>
-      <c r="AI20" s="7">
-        <v>1.6584000000000001</v>
-      </c>
-      <c r="AJ20" s="7">
-        <v>1.7637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <f>B20+1</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.58530000000000004</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.5897</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.58460000000000001</v>
-      </c>
-      <c r="F21" s="7">
-        <v>0.58960000000000001</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0.59640000000000004</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="K21">
-        <v>0.56089999999999995</v>
-      </c>
-      <c r="L21" s="2">
-        <f>L20+1</f>
-        <v>2</v>
-      </c>
-      <c r="M21" s="7">
-        <f>$K$21*M19</f>
-        <v>5.6090000000000001E-2</v>
-      </c>
-      <c r="N21" s="7">
-        <f t="shared" ref="N21:V21" si="14">$K$21*N19</f>
-        <v>0.11218</v>
-      </c>
-      <c r="O21" s="7">
-        <f t="shared" si="14"/>
-        <v>0.16826999999999998</v>
-      </c>
-      <c r="P21" s="3">
-        <f t="shared" si="14"/>
-        <v>0.22436</v>
-      </c>
-      <c r="Q21" s="7">
-        <f t="shared" si="14"/>
-        <v>0.28044999999999998</v>
-      </c>
-      <c r="R21" s="7">
-        <f t="shared" si="14"/>
-        <v>0.33653999999999995</v>
-      </c>
-      <c r="S21" s="7">
-        <f t="shared" si="14"/>
-        <v>0.39262999999999992</v>
-      </c>
-      <c r="T21" s="7">
-        <f t="shared" si="14"/>
-        <v>0.44872000000000001</v>
-      </c>
-      <c r="U21" s="7">
-        <f t="shared" si="14"/>
-        <v>0.50480999999999998</v>
-      </c>
-      <c r="V21" s="7">
-        <f t="shared" si="14"/>
-        <v>0.56089999999999995</v>
-      </c>
-      <c r="X21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" s="5"/>
-      <c r="AA21" s="2">
-        <f>AA20+1</f>
-        <v>2</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>0.52780000000000005</v>
-      </c>
-      <c r="AC21" s="7">
-        <v>0.51190000000000002</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>0.50580000000000003</v>
-      </c>
-      <c r="AE21" s="3">
-        <v>0.505</v>
-      </c>
-      <c r="AF21" s="7">
-        <v>0.50770000000000004</v>
-      </c>
-      <c r="AG21" s="7">
-        <v>0.51339999999999997</v>
-      </c>
-      <c r="AH21" s="7">
-        <v>0.52170000000000005</v>
-      </c>
-      <c r="AI21" s="7">
-        <v>0.53310000000000002</v>
-      </c>
-      <c r="AJ21" s="7">
-        <v>0.54820000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <f t="shared" ref="B22:B27" si="15">B21+1</f>
-        <v>3</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.29949999999999999</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.29020000000000001</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.28841</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.2908</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.29210000000000003</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.29189999999999999</v>
-      </c>
-      <c r="I22" s="7"/>
-      <c r="K22">
-        <v>0.25819999999999999</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" ref="L22:L27" si="16">L21+1</f>
-        <v>3</v>
-      </c>
-      <c r="M22" s="7">
-        <f>$K$22*M19</f>
-        <v>2.5819999999999999E-2</v>
-      </c>
-      <c r="N22" s="7">
-        <f t="shared" ref="N22:V22" si="17">$K$22*N19</f>
-        <v>5.1639999999999998E-2</v>
-      </c>
-      <c r="O22" s="7">
-        <f t="shared" si="17"/>
-        <v>7.7459999999999987E-2</v>
-      </c>
-      <c r="P22" s="7">
-        <f t="shared" si="17"/>
-        <v>0.10328</v>
-      </c>
-      <c r="Q22" s="7">
-        <f t="shared" si="17"/>
-        <v>0.12909999999999999</v>
-      </c>
-      <c r="R22" s="7">
-        <f t="shared" si="17"/>
-        <v>0.15491999999999997</v>
-      </c>
-      <c r="S22" s="3">
-        <f t="shared" si="17"/>
-        <v>0.18073999999999998</v>
-      </c>
-      <c r="T22" s="7">
-        <f t="shared" si="17"/>
-        <v>0.20655999999999999</v>
-      </c>
-      <c r="U22" s="7">
-        <f t="shared" si="17"/>
-        <v>0.23238</v>
-      </c>
-      <c r="V22" s="7">
-        <f t="shared" si="17"/>
-        <v>0.25819999999999999</v>
-      </c>
-      <c r="X22" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3"/>
-      <c r="AA22" s="2">
-        <f t="shared" ref="AA22:AA27" si="18">AA21+1</f>
-        <v>3</v>
-      </c>
-      <c r="AB22" s="7">
-        <v>0.23569999999999999</v>
-      </c>
-      <c r="AC22" s="7">
-        <v>0.22509999999999999</v>
-      </c>
-      <c r="AD22" s="33">
-        <v>0.219</v>
-      </c>
-      <c r="AE22" s="33">
-        <v>0.21490000000000001</v>
-      </c>
-      <c r="AF22" s="32">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="AG22" s="32">
-        <v>0.21010000000000001</v>
-      </c>
-      <c r="AH22" s="34">
-        <v>0.20860000000000001</v>
-      </c>
-      <c r="AI22" s="32">
-        <v>0.2087</v>
-      </c>
-      <c r="AJ22" s="32">
-        <v>0.21190000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.34389999999999998</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.34399999999999997</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0.3453</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0.34889999999999999</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.35210000000000002</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="K23">
-        <v>0.21479999999999999</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="M23" s="7">
-        <f>$K$23*M19</f>
-        <v>2.1479999999999999E-2</v>
-      </c>
-      <c r="N23" s="7">
-        <f t="shared" ref="N23:V23" si="19">$K$23*N19</f>
-        <v>4.2959999999999998E-2</v>
-      </c>
-      <c r="O23" s="7">
-        <f t="shared" si="19"/>
-        <v>6.4439999999999997E-2</v>
-      </c>
-      <c r="P23" s="7">
-        <f t="shared" si="19"/>
-        <v>8.5919999999999996E-2</v>
-      </c>
-      <c r="Q23" s="7">
-        <f t="shared" si="19"/>
-        <v>0.1074</v>
-      </c>
-      <c r="R23" s="7">
-        <f t="shared" si="19"/>
-        <v>0.12887999999999999</v>
-      </c>
-      <c r="S23" s="7">
-        <f t="shared" si="19"/>
-        <v>0.15035999999999999</v>
-      </c>
-      <c r="T23" s="7">
-        <f t="shared" si="19"/>
-        <v>0.17183999999999999</v>
-      </c>
-      <c r="U23" s="3">
-        <f t="shared" si="19"/>
-        <v>0.19331999999999999</v>
-      </c>
-      <c r="V23" s="7">
-        <f t="shared" si="19"/>
-        <v>0.21479999999999999</v>
-      </c>
-      <c r="AA23" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AB23" s="7">
-        <v>0.29449999999999998</v>
-      </c>
-      <c r="AC23" s="7">
-        <v>0.27039999999999997</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>0.255</v>
-      </c>
-      <c r="AE23" s="33">
-        <v>0.2432</v>
-      </c>
-      <c r="AF23" s="33">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="AG23" s="33">
-        <v>0.22450000000000001</v>
-      </c>
-      <c r="AH23" s="33">
-        <v>0.21640000000000001</v>
-      </c>
-      <c r="AI23" s="33">
-        <v>0.20910000000000001</v>
-      </c>
-      <c r="AJ23" s="34">
-        <v>0.20300000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0.22620000000000001</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.22320000000000001</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.22439999999999999</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.22509999999999999</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.22550000000000001</v>
-      </c>
-      <c r="I24" s="7"/>
-      <c r="K24">
-        <v>0.15970000000000001</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="M24" s="7">
-        <f>$K$24*M19</f>
-        <v>1.5970000000000002E-2</v>
-      </c>
-      <c r="N24" s="7">
-        <f t="shared" ref="N24:V24" si="20">$K$24*N19</f>
-        <v>3.1940000000000003E-2</v>
-      </c>
-      <c r="O24" s="7">
-        <f t="shared" si="20"/>
-        <v>4.7910000000000001E-2</v>
-      </c>
-      <c r="P24" s="7">
-        <f t="shared" si="20"/>
-        <v>6.3880000000000006E-2</v>
-      </c>
-      <c r="Q24" s="7">
-        <f t="shared" si="20"/>
-        <v>7.9850000000000004E-2</v>
-      </c>
-      <c r="R24" s="7">
-        <f t="shared" si="20"/>
-        <v>9.5820000000000002E-2</v>
-      </c>
-      <c r="S24" s="3">
-        <f t="shared" si="20"/>
-        <v>0.11179</v>
-      </c>
-      <c r="T24" s="7">
-        <f t="shared" si="20"/>
-        <v>0.12776000000000001</v>
-      </c>
-      <c r="U24" s="7">
-        <f t="shared" si="20"/>
-        <v>0.14373000000000002</v>
-      </c>
-      <c r="V24" s="7">
-        <f t="shared" si="20"/>
-        <v>0.15970000000000001</v>
-      </c>
-      <c r="AA24" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AB24" s="7">
-        <v>0.1845</v>
-      </c>
-      <c r="AC24" s="7">
-        <v>0.17080000000000001</v>
-      </c>
-      <c r="AD24" s="5">
-        <v>0.1636</v>
-      </c>
-      <c r="AE24" s="32">
-        <v>0.1593</v>
-      </c>
-      <c r="AF24" s="32">
-        <v>0.15629999999999999</v>
-      </c>
-      <c r="AG24" s="32">
-        <v>0.1545</v>
-      </c>
-      <c r="AH24" s="34">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="AI24" s="32">
-        <v>0.1542</v>
-      </c>
-      <c r="AJ24" s="33">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.1633</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.16420000000000001</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="F25" s="7">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.1668</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0.16678000000000001</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="K25">
-        <v>0.1371</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="M25" s="7">
-        <f>$K$25*M19</f>
-        <v>1.371E-2</v>
-      </c>
-      <c r="N25" s="7">
-        <f t="shared" ref="N25:V25" si="21">$K$25*N19</f>
-        <v>2.742E-2</v>
-      </c>
-      <c r="O25" s="7">
-        <f t="shared" si="21"/>
-        <v>4.113E-2</v>
-      </c>
-      <c r="P25" s="7">
-        <f t="shared" si="21"/>
-        <v>5.484E-2</v>
-      </c>
-      <c r="Q25" s="7">
-        <f t="shared" si="21"/>
-        <v>6.855E-2</v>
-      </c>
-      <c r="R25" s="7">
-        <f t="shared" si="21"/>
-        <v>8.226E-2</v>
-      </c>
-      <c r="S25" s="7">
-        <f t="shared" si="21"/>
-        <v>9.597E-2</v>
-      </c>
-      <c r="T25" s="7">
-        <f t="shared" si="21"/>
-        <v>0.10968</v>
-      </c>
-      <c r="U25" s="3">
-        <f t="shared" si="21"/>
-        <v>0.12339</v>
-      </c>
-      <c r="V25" s="7">
-        <f t="shared" si="21"/>
-        <v>0.1371</v>
-      </c>
-      <c r="AA25" s="2">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>0.1457</v>
-      </c>
-      <c r="AC25" s="7">
-        <v>0.14019999999999999</v>
-      </c>
-      <c r="AD25" s="5">
-        <v>0.1366</v>
-      </c>
-      <c r="AE25" s="33">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="AF25" s="33">
-        <v>0.13189999999999999</v>
-      </c>
-      <c r="AG25" s="33">
-        <v>0.13020000000000001</v>
-      </c>
-      <c r="AH25" s="33">
-        <v>0.1288</v>
-      </c>
-      <c r="AI25" s="33">
-        <v>0.12770000000000001</v>
-      </c>
-      <c r="AJ25" s="34">
-        <v>0.12709999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="C26" s="3">
-        <v>8.8359999999999994E-2</v>
-      </c>
-      <c r="D26" s="7">
-        <v>8.8700000000000001E-2</v>
-      </c>
-      <c r="E26" s="7">
-        <v>8.9359999999999995E-2</v>
-      </c>
-      <c r="F26" s="7">
-        <v>8.9039999999999994E-2</v>
-      </c>
-      <c r="G26" s="7">
-        <v>8.9249999999999996E-2</v>
-      </c>
-      <c r="H26" s="7">
-        <v>9.8140000000000005E-2</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="K26">
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="M26" s="7">
-        <f>$K$26*M19</f>
-        <v>9.1599999999999997E-3</v>
-      </c>
-      <c r="N26" s="7">
-        <f t="shared" ref="N26:V26" si="22">$K$26*N19</f>
-        <v>1.8319999999999999E-2</v>
-      </c>
-      <c r="O26" s="7">
-        <f t="shared" si="22"/>
-        <v>2.7480000000000001E-2</v>
-      </c>
-      <c r="P26" s="7">
-        <f t="shared" si="22"/>
-        <v>3.6639999999999999E-2</v>
-      </c>
-      <c r="Q26" s="7">
-        <f t="shared" si="22"/>
-        <v>4.58E-2</v>
-      </c>
-      <c r="R26" s="3">
-        <f t="shared" si="22"/>
-        <v>5.4960000000000002E-2</v>
-      </c>
-      <c r="S26" s="7">
-        <f t="shared" si="22"/>
-        <v>6.4119999999999996E-2</v>
-      </c>
-      <c r="T26" s="7">
-        <f t="shared" si="22"/>
-        <v>7.3279999999999998E-2</v>
-      </c>
-      <c r="U26" s="7">
-        <f t="shared" si="22"/>
-        <v>8.2439999999999999E-2</v>
-      </c>
-      <c r="V26" s="7">
-        <f t="shared" si="22"/>
-        <v>9.1600000000000001E-2</v>
-      </c>
-      <c r="AA26" s="2">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>7.8990000000000005E-2</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>7.6189999999999994E-2</v>
-      </c>
-      <c r="AD26" s="5">
-        <v>7.46E-2</v>
-      </c>
-      <c r="AE26" s="33">
-        <v>7.3609999999999995E-2</v>
-      </c>
-      <c r="AF26" s="33">
-        <v>7.3020000000000002E-2</v>
-      </c>
-      <c r="AG26" s="34">
-        <v>7.2770000000000001E-2</v>
-      </c>
-      <c r="AH26" s="33">
-        <v>7.2910000000000003E-2</v>
-      </c>
-      <c r="AI26" s="33">
-        <v>7.3590000000000003E-2</v>
-      </c>
-      <c r="AJ26" s="33">
-        <v>7.5230000000000005E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3.918E-2</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3.7350000000000001E-2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3.7319999999999999E-2</v>
-      </c>
-      <c r="F27" s="7">
-        <v>3.7819999999999999E-2</v>
-      </c>
-      <c r="G27" s="7">
-        <v>3.8710000000000001E-2</v>
-      </c>
-      <c r="H27" s="7">
-        <v>3.9039999999999998E-2</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="K27">
-        <v>3.3349999999999998E-2</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="M27" s="7">
-        <f>$K$27*M19</f>
-        <v>3.3349999999999999E-3</v>
-      </c>
-      <c r="N27" s="7">
-        <f t="shared" ref="N27:V27" si="23">$K$27*N19</f>
-        <v>6.6699999999999997E-3</v>
-      </c>
-      <c r="O27" s="7">
-        <f t="shared" si="23"/>
-        <v>1.0004999999999998E-2</v>
-      </c>
-      <c r="P27" s="7">
-        <f t="shared" si="23"/>
-        <v>1.3339999999999999E-2</v>
-      </c>
-      <c r="Q27" s="7">
-        <f t="shared" si="23"/>
-        <v>1.6674999999999999E-2</v>
-      </c>
-      <c r="R27" s="7">
-        <f t="shared" si="23"/>
-        <v>2.0009999999999997E-2</v>
-      </c>
-      <c r="S27" s="3">
-        <f t="shared" si="23"/>
-        <v>2.3344999999999998E-2</v>
-      </c>
-      <c r="T27" s="7">
-        <f t="shared" si="23"/>
-        <v>2.6679999999999999E-2</v>
-      </c>
-      <c r="U27" s="7">
-        <f t="shared" si="23"/>
-        <v>3.0015E-2</v>
-      </c>
-      <c r="V27" s="7">
-        <f t="shared" si="23"/>
-        <v>3.3349999999999998E-2</v>
-      </c>
-      <c r="AA27" s="2">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="AB27" s="7">
-        <v>3.44E-2</v>
-      </c>
-      <c r="AC27" s="7">
-        <v>3.3250000000000002E-2</v>
-      </c>
-      <c r="AD27" s="7">
-        <v>3.2500000000000001E-2</v>
-      </c>
-      <c r="AE27" s="32">
-        <v>3.2009999999999997E-2</v>
-      </c>
-      <c r="AF27" s="32">
-        <v>3.1640000000000001E-2</v>
-      </c>
-      <c r="AG27" s="32">
-        <v>3.1419999999999997E-2</v>
-      </c>
-      <c r="AH27" s="34">
-        <v>3.1350000000000003E-2</v>
-      </c>
-      <c r="AI27" s="32">
-        <v>3.1519999999999999E-2</v>
-      </c>
-      <c r="AJ27" s="32">
-        <v>3.2169999999999997E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <f>B27+1</f>
-        <v>9</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1.349E-2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.337E-2</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1.3639999999999999E-2</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1.3639999999999999E-2</v>
-      </c>
-      <c r="G28" s="7">
-        <v>1.3655E-2</v>
-      </c>
-      <c r="H28" s="7">
-        <v>1.3650000000000001E-2</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="K28">
-        <v>9.8139999999999998E-3</v>
-      </c>
-      <c r="L28" s="2">
-        <f>L27+1</f>
-        <v>9</v>
-      </c>
-      <c r="M28" s="7">
-        <f>$K$28*M19</f>
-        <v>9.8140000000000011E-4</v>
-      </c>
-      <c r="N28" s="7">
-        <f t="shared" ref="N28:V28" si="24">$K$28*N19</f>
-        <v>1.9628000000000002E-3</v>
-      </c>
-      <c r="O28" s="7">
-        <f t="shared" si="24"/>
-        <v>2.9441999999999997E-3</v>
-      </c>
-      <c r="P28" s="7">
-        <f t="shared" si="24"/>
-        <v>3.9256000000000004E-3</v>
-      </c>
-      <c r="Q28" s="7">
-        <f t="shared" si="24"/>
-        <v>4.9069999999999999E-3</v>
-      </c>
-      <c r="R28" s="7">
-        <f t="shared" si="24"/>
-        <v>5.8883999999999994E-3</v>
-      </c>
-      <c r="S28" s="7">
-        <f t="shared" si="24"/>
-        <v>6.8697999999999997E-3</v>
-      </c>
-      <c r="T28" s="7">
-        <f t="shared" si="24"/>
-        <v>7.8512000000000009E-3</v>
-      </c>
-      <c r="U28" s="3">
-        <f t="shared" si="24"/>
-        <v>8.8325999999999995E-3</v>
-      </c>
-      <c r="V28" s="7">
-        <f t="shared" si="24"/>
-        <v>9.8139999999999998E-3</v>
-      </c>
-      <c r="AA28" s="2">
-        <f>AA27+1</f>
-        <v>9</v>
-      </c>
-      <c r="AB28" s="7">
-        <v>1.196E-2</v>
-      </c>
-      <c r="AC28" s="7">
-        <v>1.162E-2</v>
-      </c>
-      <c r="AD28" s="7">
-        <v>1.14E-2</v>
-      </c>
-      <c r="AE28" s="32">
-        <v>1.1220000000000001E-2</v>
-      </c>
-      <c r="AF28" s="32">
-        <v>1.1050000000000001E-2</v>
-      </c>
-      <c r="AG28" s="32">
-        <v>1.09E-2</v>
-      </c>
-      <c r="AH28" s="32">
-        <v>1.0749999999999999E-2</v>
-      </c>
-      <c r="AI28" s="32">
-        <v>1.0619999999999999E-2</v>
-      </c>
-      <c r="AJ28" s="34">
-        <v>1.052E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="K29"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="K30"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>15500</v>
-      </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="K31"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="K32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/_INTERPOLATION/optimal_nugget_range_value.xlsx
+++ b/_INTERPOLATION/optimal_nugget_range_value.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_INTERPOLATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7F9AD1-5DAA-4744-AA0B-D66B57DA794A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FA58AB-FA2E-412F-B0FE-D698101FDB46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{B3A2F8EB-B1AE-45BB-BB45-54B64F4D81FD}"/>
   </bookViews>
   <sheets>
     <sheet name="# control points" sheetId="7" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="area1_a" sheetId="13" r:id="rId3"/>
     <sheet name="area1_Tr" sheetId="14" r:id="rId4"/>
     <sheet name="area1_J" sheetId="15" r:id="rId5"/>
-    <sheet name="area 2" sheetId="2" r:id="rId6"/>
-    <sheet name="area 3" sheetId="3" r:id="rId7"/>
-    <sheet name="area 4" sheetId="4" r:id="rId8"/>
-    <sheet name="area 5" sheetId="5" r:id="rId9"/>
-    <sheet name="area2_a" sheetId="8" r:id="rId10"/>
-    <sheet name="area2_b" sheetId="9" r:id="rId11"/>
-    <sheet name="area3_a" sheetId="10" r:id="rId12"/>
-    <sheet name="area3_b" sheetId="11" r:id="rId13"/>
-    <sheet name="area3_c" sheetId="12" r:id="rId14"/>
+    <sheet name="area1_Tr_J" sheetId="16" r:id="rId6"/>
+    <sheet name="area 2" sheetId="2" r:id="rId7"/>
+    <sheet name="area 3" sheetId="3" r:id="rId8"/>
+    <sheet name="area 4" sheetId="4" r:id="rId9"/>
+    <sheet name="area 5" sheetId="5" r:id="rId10"/>
+    <sheet name="area2_a" sheetId="8" r:id="rId11"/>
+    <sheet name="area2_b" sheetId="9" r:id="rId12"/>
+    <sheet name="area3_a" sheetId="10" r:id="rId13"/>
+    <sheet name="area3_b" sheetId="11" r:id="rId14"/>
+    <sheet name="area3_c" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="33">
   <si>
     <t>range</t>
   </si>
@@ -743,6 +744,2102 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46B17F-3465-4774-B397-C386614D55B2}">
+  <dimension ref="A2:AJ44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>120000</v>
+      </c>
+      <c r="D2" s="6">
+        <f>C2+10000</f>
+        <v>130000</v>
+      </c>
+      <c r="E2" s="6">
+        <f>D2+10000</f>
+        <v>140000</v>
+      </c>
+      <c r="F2" s="6">
+        <f>E2+10000</f>
+        <v>150000</v>
+      </c>
+      <c r="G2" s="6">
+        <f>F2+10000</f>
+        <v>160000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.5139999999999998</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2.5110000000000001</v>
+      </c>
+      <c r="K3">
+        <v>2.746</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <f>$K$3*M2</f>
+        <v>0.27460000000000001</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:V3" si="0">$K$3*N2</f>
+        <v>0.54920000000000002</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.82379999999999998</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0984</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.373</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6476</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9221999999999999</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1968000000000001</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4714</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="0"/>
+        <v>2.746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.621</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1.6359999999999999</v>
+      </c>
+      <c r="K4">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="L4" s="2">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <f>$K$4*M2</f>
+        <v>0.1797</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:V4" si="1">$K$4*N2</f>
+        <v>0.3594</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.53909999999999991</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.71879999999999999</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0781999999999998</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2578999999999998</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.4376</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.6173</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7969999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f t="shared" ref="B5:B10" si="2">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.298</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1.3080000000000001</v>
+      </c>
+      <c r="K5">
+        <v>1.3281000000000001</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" ref="L5:L10" si="3">L4+1</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="7">
+        <f>$K$5*M2</f>
+        <v>0.13281000000000001</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" ref="N5:V5" si="4">$K$5*N2</f>
+        <v>0.26562000000000002</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.39843000000000001</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.53124000000000005</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.66405000000000003</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.79686000000000001</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.92967</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="4"/>
+        <v>1.0624800000000001</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="4"/>
+        <v>1.1952900000000002</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="4"/>
+        <v>1.3281000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K6">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="7">
+        <f>$K$6*M2</f>
+        <v>8.6550000000000016E-2</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" ref="N6:V6" si="5">$K$6*N2</f>
+        <v>0.17310000000000003</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25964999999999999</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.34620000000000006</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.43275000000000002</v>
+      </c>
+      <c r="R6" s="3">
+        <f t="shared" si="5"/>
+        <v>0.51929999999999998</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="5"/>
+        <v>0.60585</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.69240000000000013</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.77895000000000003</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.86550000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.61960000000000004</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="7">
+        <f>$K$7*M2</f>
+        <v>6.1960000000000008E-2</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" ref="N7:V7" si="6">$K$7*N2</f>
+        <v>0.12392000000000002</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.18588000000000002</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.24784000000000003</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.30980000000000002</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.37176000000000003</v>
+      </c>
+      <c r="S7" s="3">
+        <f t="shared" si="6"/>
+        <v>0.43371999999999999</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.49568000000000006</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.55764000000000002</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="6"/>
+        <v>0.61960000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K8">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="7">
+        <f>$K$8*M2</f>
+        <v>4.4770000000000004E-2</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" ref="N8:V8" si="7">$K$8*N2</f>
+        <v>8.9540000000000008E-2</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.13430999999999998</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.17908000000000002</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.22384999999999999</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.26861999999999997</v>
+      </c>
+      <c r="S8" s="3">
+        <f t="shared" si="7"/>
+        <v>0.31338999999999995</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.35816000000000003</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.40293000000000001</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="7"/>
+        <v>0.44769999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.26869999999999999</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="7">
+        <f>$K$9*M2</f>
+        <v>2.6870000000000002E-2</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ref="N9:V9" si="8">$K$9*N2</f>
+        <v>5.3740000000000003E-2</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="8"/>
+        <v>8.0610000000000001E-2</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="8"/>
+        <v>0.10748000000000001</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="8"/>
+        <v>0.13435</v>
+      </c>
+      <c r="R9" s="7">
+        <f>$K$9*R2</f>
+        <v>0.16122</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="8"/>
+        <v>0.18808999999999998</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="8"/>
+        <v>0.21496000000000001</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="8"/>
+        <v>0.24182999999999999</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="8"/>
+        <v>0.26869999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.192</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.193</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.1467</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M10" s="7">
+        <f>$K$10*M2</f>
+        <v>1.4670000000000001E-2</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" ref="N10:V10" si="9">$K$10*N2</f>
+        <v>2.9340000000000001E-2</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="9"/>
+        <v>4.4010000000000001E-2</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="9"/>
+        <v>5.8680000000000003E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" si="9"/>
+        <v>7.3349999999999999E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="9"/>
+        <v>8.8020000000000001E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.10268999999999999</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="9"/>
+        <v>0.11736000000000001</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="9"/>
+        <v>0.13203000000000001</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="9"/>
+        <v>0.1467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f>B10+1</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.1101</v>
+      </c>
+      <c r="L11" s="2">
+        <f>L10+1</f>
+        <v>9</v>
+      </c>
+      <c r="M11" s="7">
+        <f>$K$11*M2</f>
+        <v>1.1010000000000001E-2</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" ref="N11:V11" si="10">$K$11*N2</f>
+        <v>2.2020000000000001E-2</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="10"/>
+        <v>3.3029999999999997E-2</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="10"/>
+        <v>4.4040000000000003E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" si="10"/>
+        <v>5.5050000000000002E-2</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="10"/>
+        <v>6.6059999999999994E-2</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="10"/>
+        <v>7.707E-2</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="10"/>
+        <v>8.8080000000000006E-2</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="10"/>
+        <v>9.9090000000000011E-2</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="10"/>
+        <v>0.1101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="L18" s="2">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>2.161</v>
+      </c>
+      <c r="N18" s="7">
+        <v>2.11</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2.097</v>
+      </c>
+      <c r="P18" s="7">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>2.121</v>
+      </c>
+      <c r="R18" s="7">
+        <v>2.1520000000000001</v>
+      </c>
+      <c r="S18" s="7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T18" s="7">
+        <v>2.27</v>
+      </c>
+      <c r="U18" s="5">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="L19" s="2">
+        <f>L18+1</f>
+        <v>2</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1.448</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.444</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1.452</v>
+      </c>
+      <c r="P19" s="7">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1.488</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1.514</v>
+      </c>
+      <c r="S19" s="7">
+        <v>1.548</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1.593</v>
+      </c>
+      <c r="U19" s="5">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="L20" s="2">
+        <f t="shared" ref="L20:L25" si="11">L19+1</f>
+        <v>3</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1.238</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>1.151</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="S20" s="7">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="T20" s="7">
+        <v>1.1659999999999999</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1.1950000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="L21" s="2">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="O21" s="7">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="S21" s="7">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="T21" s="7">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="U21" s="7">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="L22" s="2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0.621</v>
+      </c>
+      <c r="O22" s="7">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="R22" s="7">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="T22" s="7">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="U22" s="7">
+        <v>0.57899999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="L23" s="2">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="O23" s="7">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="R23" s="7">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.39</v>
+      </c>
+      <c r="T23" s="7">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0.249</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="R24" s="5">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="S24" s="5">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="O25" s="7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P25" s="7">
+        <v>0.158</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0.156</v>
+      </c>
+      <c r="R25" s="7">
+        <v>0.154</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0.153</v>
+      </c>
+      <c r="T25" s="7">
+        <v>0.153</v>
+      </c>
+      <c r="U25" s="7">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="L26" s="2">
+        <f>L25+1</f>
+        <v>9</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.127</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.123</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="R26" s="5">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0.115</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="6">
+        <v>55000</v>
+      </c>
+      <c r="D32" s="6">
+        <f t="shared" ref="D32:I32" si="12">C32+5000</f>
+        <v>60000</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="12"/>
+        <v>65000</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="12"/>
+        <v>70000</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="12"/>
+        <v>75000</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="12"/>
+        <v>80000</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" si="12"/>
+        <v>85000</v>
+      </c>
+      <c r="K32" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AC32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AE32" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AG32" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1.8714999999999999</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1.8177000000000001</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1.8165</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.8106</v>
+      </c>
+      <c r="G33" s="7">
+        <v>1.8116000000000001</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.8222</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1.849</v>
+      </c>
+      <c r="K33">
+        <v>1.7244999999999999</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <f>$K$33*M32</f>
+        <v>0.17244999999999999</v>
+      </c>
+      <c r="N33" s="7">
+        <f t="shared" ref="N33:V33" si="13">$K$33*N32</f>
+        <v>0.34489999999999998</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="13"/>
+        <v>0.51734999999999998</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="13"/>
+        <v>0.68979999999999997</v>
+      </c>
+      <c r="Q33" s="7">
+        <f t="shared" si="13"/>
+        <v>0.86224999999999996</v>
+      </c>
+      <c r="R33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.0347</v>
+      </c>
+      <c r="S33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.2071499999999999</v>
+      </c>
+      <c r="T33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.3795999999999999</v>
+      </c>
+      <c r="U33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.5520499999999999</v>
+      </c>
+      <c r="V33" s="7">
+        <f t="shared" si="13"/>
+        <v>1.7244999999999999</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="7">
+        <v>1.6282000000000001</v>
+      </c>
+      <c r="AD33" s="7">
+        <v>1.6114999999999999</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>1.6091</v>
+      </c>
+      <c r="AG33" s="7">
+        <v>1.62042</v>
+      </c>
+      <c r="AH33" s="7">
+        <v>1.64</v>
+      </c>
+      <c r="AI33" s="7">
+        <v>1.6717</v>
+      </c>
+      <c r="AJ33" s="7">
+        <v>1.7231000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f>B33+1</f>
+        <v>2</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.92201</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.9325</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.93520000000000003</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="K34">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="L34" s="2">
+        <f>L33+1</f>
+        <v>2</v>
+      </c>
+      <c r="M34" s="7">
+        <f>$K$34*M32</f>
+        <v>8.5880000000000012E-2</v>
+      </c>
+      <c r="N34" s="7">
+        <f t="shared" ref="N34:V34" si="14">$K$34*N32</f>
+        <v>0.17176000000000002</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.25763999999999998</v>
+      </c>
+      <c r="P34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.34352000000000005</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="14"/>
+        <v>0.4294</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.51527999999999996</v>
+      </c>
+      <c r="S34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.60115999999999992</v>
+      </c>
+      <c r="T34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.6870400000000001</v>
+      </c>
+      <c r="U34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.77292000000000005</v>
+      </c>
+      <c r="V34" s="7">
+        <f t="shared" si="14"/>
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="X34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y34" s="5"/>
+      <c r="AA34" s="2">
+        <f>AA33+1</f>
+        <v>2</v>
+      </c>
+      <c r="AB34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="7">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="AD34" s="7">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="AF34" s="7">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0.80920000000000003</v>
+      </c>
+      <c r="AH34" s="7">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="AI34" s="7">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="AJ34" s="7">
+        <v>0.83260000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f t="shared" ref="B35:B40" si="15">B34+1</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.69510000000000005</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.70050000000000001</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.69810000000000005</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.69689999999999996</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.68810000000000004</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.68969999999999998</v>
+      </c>
+      <c r="K35">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" ref="L35:L40" si="16">L34+1</f>
+        <v>3</v>
+      </c>
+      <c r="M35" s="7">
+        <f>$K$35*M32</f>
+        <v>6.5990000000000007E-2</v>
+      </c>
+      <c r="N35" s="7">
+        <f t="shared" ref="N35:V35" si="17">$K$35*N32</f>
+        <v>0.13198000000000001</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.19797000000000001</v>
+      </c>
+      <c r="P35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.26396000000000003</v>
+      </c>
+      <c r="Q35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.32995000000000002</v>
+      </c>
+      <c r="R35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.39594000000000001</v>
+      </c>
+      <c r="S35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.46193000000000001</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="17"/>
+        <v>0.52792000000000006</v>
+      </c>
+      <c r="U35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.59391000000000005</v>
+      </c>
+      <c r="V35" s="7">
+        <f t="shared" si="17"/>
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="X35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3"/>
+      <c r="AA35" s="2">
+        <f t="shared" ref="AA35:AA40" si="18">AA34+1</f>
+        <v>3</v>
+      </c>
+      <c r="AB35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>0.6321</v>
+      </c>
+      <c r="AD35" s="29">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>0.60170000000000001</v>
+      </c>
+      <c r="AF35" s="7">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="AG35" s="7">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="AH35" s="7">
+        <v>0.5786</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AJ35" s="7">
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0.4254</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.40870000000000001</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.40429999999999999</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.3962</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.3901</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="M36" s="7">
+        <f>$K$36*M32</f>
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="N36" s="7">
+        <f t="shared" ref="N36:V36" si="19">$K$36*N32</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="O36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.10619999999999999</v>
+      </c>
+      <c r="P36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.1416</v>
+      </c>
+      <c r="Q36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="R36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.21239999999999998</v>
+      </c>
+      <c r="S36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.24779999999999996</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="19"/>
+        <v>0.28320000000000001</v>
+      </c>
+      <c r="U36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.31859999999999999</v>
+      </c>
+      <c r="V36" s="7">
+        <f t="shared" si="19"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="AA36" s="2">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="AB36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="7">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="AD36" s="7">
+        <v>0.37309999999999999</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>0.36909999999999998</v>
+      </c>
+      <c r="AF36" s="7">
+        <v>0.3659</v>
+      </c>
+      <c r="AG36" s="7">
+        <v>0.36349999999999999</v>
+      </c>
+      <c r="AH36" s="7">
+        <v>0.3619</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0.36149999999999999</v>
+      </c>
+      <c r="AJ36" s="7">
+        <v>0.36209999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.19769999999999999</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.2041</v>
+      </c>
+      <c r="K37">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="M37" s="7">
+        <f>$K$37*M32</f>
+        <v>2.239E-2</v>
+      </c>
+      <c r="N37" s="7">
+        <f t="shared" ref="N37:V37" si="20">$K$37*N32</f>
+        <v>4.478E-2</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="20"/>
+        <v>6.7169999999999994E-2</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="20"/>
+        <v>8.9560000000000001E-2</v>
+      </c>
+      <c r="Q37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.11194999999999999</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.13433999999999999</v>
+      </c>
+      <c r="S37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.15672999999999998</v>
+      </c>
+      <c r="T37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.17912</v>
+      </c>
+      <c r="U37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.20150999999999999</v>
+      </c>
+      <c r="V37" s="7">
+        <f t="shared" si="20"/>
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="AA37" s="2">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="AB37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="7">
+        <v>0.186</v>
+      </c>
+      <c r="AD37" s="7">
+        <v>0.18490000000000001</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="AF37" s="7">
+        <v>0.18509999999999999</v>
+      </c>
+      <c r="AG37" s="7">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="AH37" s="7">
+        <v>0.18779999999999999</v>
+      </c>
+      <c r="AI37" s="7">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="AJ37" s="7">
+        <v>0.19889999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.19370000000000001</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.18709999999999999</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.1885</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.18579999999999999</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.1875</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.189</v>
+      </c>
+      <c r="K38">
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="M38" s="7">
+        <f>$K$38*M32</f>
+        <v>1.4879999999999999E-2</v>
+      </c>
+      <c r="N38" s="7">
+        <f t="shared" ref="N38:V38" si="21">$K$38*N32</f>
+        <v>2.9759999999999998E-2</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="21"/>
+        <v>4.4639999999999992E-2</v>
+      </c>
+      <c r="P38" s="7">
+        <f t="shared" si="21"/>
+        <v>5.9519999999999997E-2</v>
+      </c>
+      <c r="Q38" s="7">
+        <f t="shared" si="21"/>
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="21"/>
+        <v>8.9279999999999984E-2</v>
+      </c>
+      <c r="S38" s="3">
+        <f t="shared" si="21"/>
+        <v>0.10415999999999999</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" si="21"/>
+        <v>0.11903999999999999</v>
+      </c>
+      <c r="U38" s="7">
+        <f t="shared" si="21"/>
+        <v>0.13391999999999998</v>
+      </c>
+      <c r="V38" s="7">
+        <f t="shared" si="21"/>
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="AA38" s="2">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="AB38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>0.1673</v>
+      </c>
+      <c r="AD38" s="7">
+        <v>0.1646</v>
+      </c>
+      <c r="AE38" s="7">
+        <v>0.16259999999999999</v>
+      </c>
+      <c r="AF38" s="7">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="AG38" s="7">
+        <v>0.1605</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>0.16039999999999999</v>
+      </c>
+      <c r="AI38" s="7">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="AJ38" s="7">
+        <v>0.16317999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.17519999999999999</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0.17469999999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.17510000000000001</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0.1759</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.1774</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.1774</v>
+      </c>
+      <c r="K39">
+        <v>0.1123</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="M39" s="7">
+        <f>$K$39*M32</f>
+        <v>1.123E-2</v>
+      </c>
+      <c r="N39" s="7">
+        <f t="shared" ref="N39:V39" si="22">$K$39*N32</f>
+        <v>2.2460000000000001E-2</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="22"/>
+        <v>3.3689999999999998E-2</v>
+      </c>
+      <c r="P39" s="7">
+        <f t="shared" si="22"/>
+        <v>4.4920000000000002E-2</v>
+      </c>
+      <c r="Q39" s="7">
+        <f t="shared" si="22"/>
+        <v>5.6149999999999999E-2</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="22"/>
+        <v>6.7379999999999995E-2</v>
+      </c>
+      <c r="S39" s="7">
+        <f t="shared" si="22"/>
+        <v>7.8609999999999999E-2</v>
+      </c>
+      <c r="T39" s="7">
+        <f t="shared" si="22"/>
+        <v>8.9840000000000003E-2</v>
+      </c>
+      <c r="U39" s="3">
+        <f t="shared" si="22"/>
+        <v>0.10106999999999999</v>
+      </c>
+      <c r="V39" s="7">
+        <f t="shared" si="22"/>
+        <v>0.1123</v>
+      </c>
+      <c r="AA39" s="2">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AB39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC39" s="7">
+        <v>0.1394</v>
+      </c>
+      <c r="AD39" s="7">
+        <v>0.1336</v>
+      </c>
+      <c r="AE39" s="7">
+        <v>0.12970000000000001</v>
+      </c>
+      <c r="AF39" s="7">
+        <v>0.127</v>
+      </c>
+      <c r="AG39" s="7">
+        <v>0.1249</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>0.1235</v>
+      </c>
+      <c r="AI39" s="7">
+        <v>0.1225</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>6.6299999999999998E-2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>6.7290000000000003E-2</v>
+      </c>
+      <c r="G40" s="7">
+        <v>6.8019999999999997E-2</v>
+      </c>
+      <c r="H40" s="7">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="I40" s="7">
+        <v>6.7769999999999997E-2</v>
+      </c>
+      <c r="K40">
+        <v>6.4180000000000001E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="M40" s="7">
+        <f>$K$40*M32</f>
+        <v>6.4180000000000001E-3</v>
+      </c>
+      <c r="N40" s="7">
+        <f t="shared" ref="N40:V40" si="23">$K$40*N32</f>
+        <v>1.2836E-2</v>
+      </c>
+      <c r="O40" s="7">
+        <f t="shared" si="23"/>
+        <v>1.9254E-2</v>
+      </c>
+      <c r="P40" s="7">
+        <f t="shared" si="23"/>
+        <v>2.5672E-2</v>
+      </c>
+      <c r="Q40" s="7">
+        <f t="shared" si="23"/>
+        <v>3.209E-2</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" si="23"/>
+        <v>3.8508000000000001E-2</v>
+      </c>
+      <c r="S40" s="3">
+        <f t="shared" si="23"/>
+        <v>4.4926000000000001E-2</v>
+      </c>
+      <c r="T40" s="7">
+        <f t="shared" si="23"/>
+        <v>5.1344000000000001E-2</v>
+      </c>
+      <c r="U40" s="7">
+        <f t="shared" si="23"/>
+        <v>5.7762000000000001E-2</v>
+      </c>
+      <c r="V40" s="7">
+        <f t="shared" si="23"/>
+        <v>6.4180000000000001E-2</v>
+      </c>
+      <c r="AA40" s="2">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="AB40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC40" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="AD40" s="7">
+        <v>5.9720000000000002E-2</v>
+      </c>
+      <c r="AE40" s="7">
+        <v>5.892E-2</v>
+      </c>
+      <c r="AF40" s="7">
+        <v>5.8450000000000002E-2</v>
+      </c>
+      <c r="AG40" s="7">
+        <v>5.8139999999999997E-2</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>5.8090000000000003E-2</v>
+      </c>
+      <c r="AI40" s="7">
+        <v>5.8389999999999997E-2</v>
+      </c>
+      <c r="AJ40" s="7">
+        <v>5.8689999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <f>B40+1</f>
+        <v>9</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.251E-2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1.247E-2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1.256E-2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1.2630000000000001E-2</v>
+      </c>
+      <c r="G41" s="7">
+        <v>1.2670000000000001E-2</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1.2579999999999999E-2</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.12609999999999999</v>
+      </c>
+      <c r="K41">
+        <v>1.064E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <f>L40+1</f>
+        <v>9</v>
+      </c>
+      <c r="M41" s="7">
+        <f>$K$41*M32</f>
+        <v>1.0640000000000001E-3</v>
+      </c>
+      <c r="N41" s="7">
+        <f t="shared" ref="N41:V41" si="24">$K$41*N32</f>
+        <v>2.1280000000000001E-3</v>
+      </c>
+      <c r="O41" s="7">
+        <f t="shared" si="24"/>
+        <v>3.192E-3</v>
+      </c>
+      <c r="P41" s="7">
+        <f t="shared" si="24"/>
+        <v>4.2560000000000002E-3</v>
+      </c>
+      <c r="Q41" s="7">
+        <f t="shared" si="24"/>
+        <v>5.3200000000000001E-3</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" si="24"/>
+        <v>6.3839999999999999E-3</v>
+      </c>
+      <c r="S41" s="3">
+        <f t="shared" si="24"/>
+        <v>7.4479999999999998E-3</v>
+      </c>
+      <c r="T41" s="7">
+        <f t="shared" si="24"/>
+        <v>8.5120000000000005E-3</v>
+      </c>
+      <c r="U41" s="7">
+        <f t="shared" si="24"/>
+        <v>9.5760000000000012E-3</v>
+      </c>
+      <c r="V41" s="7">
+        <f t="shared" si="24"/>
+        <v>1.064E-2</v>
+      </c>
+      <c r="AA41" s="2">
+        <f>AA40+1</f>
+        <v>9</v>
+      </c>
+      <c r="AB41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC41" s="7">
+        <v>1.14E-2</v>
+      </c>
+      <c r="AD41" s="7">
+        <v>1.12E-2</v>
+      </c>
+      <c r="AE41" s="7">
+        <v>1.1039999999999999E-2</v>
+      </c>
+      <c r="AF41" s="7">
+        <v>1.0919999999999999E-2</v>
+      </c>
+      <c r="AG41" s="7">
+        <v>1.085E-2</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>1.081E-2</v>
+      </c>
+      <c r="AI41" s="7">
+        <v>1.082E-2</v>
+      </c>
+      <c r="AJ41" s="7">
+        <v>0.10920000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>59000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D51598-43C8-43C8-B0AF-4826DB32F76D}">
   <dimension ref="A1:AK32"/>
   <sheetViews>
@@ -2859,7 +4956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A1A3264-3A61-4411-A092-3122019449F9}">
   <dimension ref="A2:V38"/>
   <sheetViews>
@@ -4438,7 +6535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6711240D-728F-43A4-869A-5546C70EDBE2}">
   <dimension ref="A3:AL15"/>
   <sheetViews>
@@ -5574,7 +7671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB70D321-8441-4D6C-96CE-087642A6DA2C}">
   <dimension ref="A3:AL15"/>
   <sheetViews>
@@ -6694,7 +8791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC7CF49-3B57-483D-98A7-CE922F6357B9}">
   <dimension ref="A3:AN15"/>
   <sheetViews>
@@ -14599,8 +16696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDDF538E-843E-48EA-BAD6-D0F18E559536}">
   <dimension ref="A2:AK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T12" activeCellId="8" sqref="R4 T5 T7 V6 U8 V9 S10 T11 T12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16516,6 +18613,2038 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1265CF6-800A-4D84-A847-E7BCC3F583C4}">
+  <dimension ref="A2:AM38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AC2">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6">
+        <v>60000</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3+1000</f>
+        <v>61000</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:J3" si="0">D3+1000</f>
+        <v>62000</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" si="0"/>
+        <v>63000</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" si="0"/>
+        <v>64000</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" si="0"/>
+        <v>66000</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>67000</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3" si="1">J3+1000</f>
+        <v>68000</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3" si="2">K3+1000</f>
+        <v>69000</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="T3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AG3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AH3" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AI3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AJ3" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AK3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.82410000000000005</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.76029999999999998</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <f>$N$4*P3</f>
+        <v>7.603E-2</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Y4" si="3">$N$4*Q3</f>
+        <v>0.15206</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.22808999999999999</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.30412</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.38014999999999999</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.45617999999999997</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.53220999999999996</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.60824</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.68427000000000004</v>
+      </c>
+      <c r="Y4" s="7">
+        <f t="shared" si="3"/>
+        <v>0.76029999999999998</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="35">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="AF4" s="36">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>0.68230000000000002</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0.70850000000000002</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>0.7258</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0.77290000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <f>B4+1</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.60970000000000002</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.61040000000000005</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.63170000000000004</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.66190000000000004</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="O5" s="2">
+        <f>O4+1</f>
+        <v>2</v>
+      </c>
+      <c r="P5" s="7">
+        <f>$N$5*P3</f>
+        <v>5.2159999999999998E-2</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" ref="Q5:Y5" si="4">$N$5*Q3</f>
+        <v>0.10432</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.15647999999999998</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.20863999999999999</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.31295999999999996</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.36511999999999994</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.41727999999999998</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.46943999999999997</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AD5" s="2">
+        <f>AD4+1</f>
+        <v>2</v>
+      </c>
+      <c r="AE5" s="35">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="AF5" s="35">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="AG5" s="7">
+        <v>0.58440000000000003</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0.5796</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>0.57769999999999999</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0.58089999999999997</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0.58640000000000003</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0.59609999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:B11" si="5">B5+1</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.3644</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.36530000000000001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.36559999999999998</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.37080000000000002</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.36969999999999997</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.36919999999999997</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="N6">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O11" si="6">O5+1</f>
+        <v>3</v>
+      </c>
+      <c r="P6" s="7">
+        <f>$N$6*P3</f>
+        <v>3.2240000000000005E-2</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" ref="Q6:Y6" si="7">$N$6*Q3</f>
+        <v>6.448000000000001E-2</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="7"/>
+        <v>9.672E-2</v>
+      </c>
+      <c r="S6" s="3">
+        <f t="shared" si="7"/>
+        <v>0.12896000000000002</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.19344</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.22567999999999999</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.25792000000000004</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.29016000000000003</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="7"/>
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="3"/>
+      <c r="AD6" s="2">
+        <f t="shared" ref="AD6:AD11" si="8">AD5+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE6" s="35">
+        <v>0.31309999999999999</v>
+      </c>
+      <c r="AF6" s="35">
+        <v>0.30680000000000002</v>
+      </c>
+      <c r="AG6" s="32">
+        <v>0.30349999999999999</v>
+      </c>
+      <c r="AH6" s="34">
+        <v>0.30259999999999998</v>
+      </c>
+      <c r="AI6" s="32">
+        <v>0.30309999999999998</v>
+      </c>
+      <c r="AJ6" s="32">
+        <v>0.30470000000000003</v>
+      </c>
+      <c r="AK6" s="32">
+        <v>0.30740000000000001</v>
+      </c>
+      <c r="AL6" s="32">
+        <v>0.31130000000000002</v>
+      </c>
+      <c r="AM6" s="32">
+        <v>0.31669999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.33660000000000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.33660000000000001</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.3377</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.3357</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.33829999999999999</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.33529999999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.33710000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="P7" s="7">
+        <f>$N$7*P3</f>
+        <v>2.5850000000000001E-2</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" ref="Q7:Y7" si="9">$N$7*Q3</f>
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="9"/>
+        <v>7.7549999999999994E-2</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.12925</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.15509999999999999</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="9"/>
+        <v>0.18095</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.23265000000000002</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="9"/>
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="AF7" s="35">
+        <v>0.28870000000000001</v>
+      </c>
+      <c r="AG7" s="32">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="AH7" s="32">
+        <v>0.2782</v>
+      </c>
+      <c r="AI7" s="32">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="AJ7" s="32">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="AK7" s="34">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="AL7" s="32">
+        <v>0.27439999999999998</v>
+      </c>
+      <c r="AM7" s="32">
+        <v>0.27739999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.28149999999999997</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.28010000000000002</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="P8" s="7">
+        <f>$N$8*P3</f>
+        <v>2.2220000000000004E-2</v>
+      </c>
+      <c r="Q8" s="7">
+        <f t="shared" ref="Q8:Y8" si="10">$N$8*Q3</f>
+        <v>4.4440000000000007E-2</v>
+      </c>
+      <c r="R8" s="7">
+        <f t="shared" si="10"/>
+        <v>6.6659999999999997E-2</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="10"/>
+        <v>8.8880000000000015E-2</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" si="10"/>
+        <v>0.1111</v>
+      </c>
+      <c r="U8" s="7">
+        <f t="shared" si="10"/>
+        <v>0.13331999999999999</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="10"/>
+        <v>0.15553999999999998</v>
+      </c>
+      <c r="W8" s="7">
+        <f t="shared" si="10"/>
+        <v>0.17776000000000003</v>
+      </c>
+      <c r="X8" s="7">
+        <f t="shared" si="10"/>
+        <v>0.19998000000000002</v>
+      </c>
+      <c r="Y8" s="7">
+        <f t="shared" si="10"/>
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="AD8" s="2">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AE8" s="35">
+        <v>0.2399</v>
+      </c>
+      <c r="AF8" s="35">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="AG8" s="32">
+        <v>0.22489999999999999</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>0.2195</v>
+      </c>
+      <c r="AJ8" s="32">
+        <v>0.2185</v>
+      </c>
+      <c r="AK8" s="34">
+        <v>0.21829999999999999</v>
+      </c>
+      <c r="AL8" s="32">
+        <v>0.21909999999999999</v>
+      </c>
+      <c r="AM8" s="32">
+        <v>0.22140000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.2404</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.2407</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.24079999999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.24110000000000001</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.2349</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.23880000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="P9" s="7">
+        <f>$N$9*P3</f>
+        <v>2.0200000000000003E-2</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" ref="Q9:Y9" si="11">$N$9*Q3</f>
+        <v>4.0400000000000005E-2</v>
+      </c>
+      <c r="R9" s="7">
+        <f t="shared" si="11"/>
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="11"/>
+        <v>8.0800000000000011E-2</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="11"/>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" si="11"/>
+        <v>0.1212</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="11"/>
+        <v>0.1414</v>
+      </c>
+      <c r="W9" s="7">
+        <f t="shared" si="11"/>
+        <v>0.16160000000000002</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="11"/>
+        <v>0.18180000000000002</v>
+      </c>
+      <c r="Y9" s="7">
+        <f t="shared" si="11"/>
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AE9" s="35">
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="AF9" s="35">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="AG9" s="32">
+        <v>0.2014</v>
+      </c>
+      <c r="AH9" s="32">
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="AI9" s="32">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AJ9" s="32">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AK9" s="34">
+        <v>0.19980000000000001</v>
+      </c>
+      <c r="AL9" s="32">
+        <v>0.2016</v>
+      </c>
+      <c r="AM9" s="32">
+        <v>0.20480000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.13789999999999999</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.1376</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.1376</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.13550000000000001</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.13469999999999999</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="N10">
+        <v>0.1231</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="P10" s="7">
+        <f>$N$10*P3</f>
+        <v>1.2310000000000001E-2</v>
+      </c>
+      <c r="Q10" s="7">
+        <f t="shared" ref="Q10:Y10" si="12">$N$10*Q3</f>
+        <v>2.4620000000000003E-2</v>
+      </c>
+      <c r="R10" s="7">
+        <f t="shared" si="12"/>
+        <v>3.6929999999999998E-2</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="12"/>
+        <v>4.9240000000000006E-2</v>
+      </c>
+      <c r="T10" s="3">
+        <f t="shared" si="12"/>
+        <v>6.1550000000000001E-2</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="12"/>
+        <v>7.3859999999999995E-2</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="12"/>
+        <v>8.6169999999999997E-2</v>
+      </c>
+      <c r="W10" s="7">
+        <f t="shared" si="12"/>
+        <v>9.8480000000000012E-2</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="12"/>
+        <v>0.11079</v>
+      </c>
+      <c r="Y10" s="7">
+        <f t="shared" si="12"/>
+        <v>0.1231</v>
+      </c>
+      <c r="AD10" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AE10" s="35">
+        <v>0.123</v>
+      </c>
+      <c r="AF10" s="35">
+        <v>0.1198</v>
+      </c>
+      <c r="AG10" s="32">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AI10" s="34">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>0.1166</v>
+      </c>
+      <c r="AK10" s="32">
+        <v>0.1172</v>
+      </c>
+      <c r="AL10" s="32">
+        <v>0.1186</v>
+      </c>
+      <c r="AM10" s="32">
+        <v>0.12130000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2.5350000000000001E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2.5239999999999999E-2</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.5239999999999999E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2.5329999999999998E-2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2.5770000000000001E-2</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2.5190000000000001E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2.564E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2.563E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>2.5760000000000002E-2</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2.5749999999999999E-2</v>
+      </c>
+      <c r="N11">
+        <v>1.933E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="P11" s="7">
+        <f>$N$11*P3</f>
+        <v>1.933E-3</v>
+      </c>
+      <c r="Q11" s="7">
+        <f t="shared" ref="Q11:Y11" si="13">$N$11*Q3</f>
+        <v>3.8660000000000001E-3</v>
+      </c>
+      <c r="R11" s="7">
+        <f t="shared" si="13"/>
+        <v>5.7989999999999995E-3</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="13"/>
+        <v>7.7320000000000002E-3</v>
+      </c>
+      <c r="T11" s="7">
+        <f t="shared" si="13"/>
+        <v>9.665E-3</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="13"/>
+        <v>1.1597999999999999E-2</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="13"/>
+        <v>1.3531E-2</v>
+      </c>
+      <c r="W11" s="7">
+        <f t="shared" si="13"/>
+        <v>1.5464E-2</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" si="13"/>
+        <v>1.7396999999999999E-2</v>
+      </c>
+      <c r="Y11" s="7">
+        <f t="shared" si="13"/>
+        <v>1.933E-2</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AE11" s="35">
+        <v>2.2589999999999999E-2</v>
+      </c>
+      <c r="AF11" s="35">
+        <v>2.1610000000000001E-2</v>
+      </c>
+      <c r="AG11" s="32">
+        <v>2.0990000000000002E-2</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>2.0639999999999999E-2</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>0.2046</v>
+      </c>
+      <c r="AJ11" s="34">
+        <v>0.2044</v>
+      </c>
+      <c r="AK11" s="32">
+        <v>2.0559999999999998E-2</v>
+      </c>
+      <c r="AL11" s="32">
+        <v>2.0840000000000001E-2</v>
+      </c>
+      <c r="AM11" s="32">
+        <v>2.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f>B11+1</f>
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1.242E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.12509999999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.12520000000000001</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1.2449999999999999E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.248E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1.248E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1.256E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1.252E-2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1.2529999999999999E-2</v>
+      </c>
+      <c r="N12">
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="O12" s="2">
+        <f>O11+1</f>
+        <v>9</v>
+      </c>
+      <c r="P12" s="7">
+        <f>$N$12*P3</f>
+        <v>1.054E-3</v>
+      </c>
+      <c r="Q12" s="7">
+        <f t="shared" ref="Q12:Y12" si="14">$N$12*Q3</f>
+        <v>2.1080000000000001E-3</v>
+      </c>
+      <c r="R12" s="7">
+        <f t="shared" si="14"/>
+        <v>3.1620000000000003E-3</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="14"/>
+        <v>4.2160000000000001E-3</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" si="14"/>
+        <v>5.2700000000000004E-3</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="14"/>
+        <v>6.3240000000000006E-3</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="14"/>
+        <v>7.378E-3</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="14"/>
+        <v>8.4320000000000003E-3</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="14"/>
+        <v>9.4860000000000014E-3</v>
+      </c>
+      <c r="Y12" s="7">
+        <f t="shared" si="14"/>
+        <v>1.0540000000000001E-2</v>
+      </c>
+      <c r="AD12" s="2">
+        <f>AD11+1</f>
+        <v>9</v>
+      </c>
+      <c r="AE12" s="35">
+        <v>1.1039999999999999E-2</v>
+      </c>
+      <c r="AF12" s="35">
+        <v>1.0580000000000001E-2</v>
+      </c>
+      <c r="AG12" s="32">
+        <v>1.027E-2</v>
+      </c>
+      <c r="AH12" s="32">
+        <v>1.005E-2</v>
+      </c>
+      <c r="AI12" s="32">
+        <v>9.8650000000000005E-3</v>
+      </c>
+      <c r="AJ12" s="32">
+        <v>9.7300000000000008E-3</v>
+      </c>
+      <c r="AK12" s="32">
+        <v>9.6450000000000008E-3</v>
+      </c>
+      <c r="AL12" s="34">
+        <v>9.6249999999999999E-3</v>
+      </c>
+      <c r="AM12" s="32">
+        <v>9.7450000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>51000</v>
+      </c>
+      <c r="C15" s="6">
+        <v>70000</v>
+      </c>
+      <c r="D15" s="6">
+        <f>C15+1000</f>
+        <v>71000</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" ref="E15" si="15">D15+1000</f>
+        <v>72000</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" ref="F15" si="16">E15+1000</f>
+        <v>73000</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" ref="G15" si="17">F15+1000</f>
+        <v>74000</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ref="H15" si="18">G15+1000</f>
+        <v>75000</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" ref="I15" si="19">H15+1000</f>
+        <v>76000</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" ref="J15" si="20">I15+1000</f>
+        <v>77000</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" ref="K15" si="21">J15+1000</f>
+        <v>78000</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" ref="L15" si="22">K15+1000</f>
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.81740000000000002</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.82040000000000002</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.81930000000000003</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.8226</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.81979999999999997</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="AC16">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <f>B16+1</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.66169999999999995</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.65439999999999998</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.64759999999999995</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.64910000000000001</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.64990000000000003</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.64980000000000004</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AK17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AM17" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <f t="shared" ref="B18:B23" si="23">B17+1</f>
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.36730000000000002</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.3649</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.36359999999999998</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="35">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AF18" s="36">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="AG18" s="35">
+        <v>0.67530000000000001</v>
+      </c>
+      <c r="AH18" s="35">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="AI18" s="35">
+        <v>0.6946</v>
+      </c>
+      <c r="AJ18" s="35">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="AK18" s="35">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AL18" s="35">
+        <v>0.745</v>
+      </c>
+      <c r="AM18" s="35">
+        <v>0.7712</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.3362</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.33679999999999999</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.34029999999999999</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.33989999999999998</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.3402</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.34050000000000002</v>
+      </c>
+      <c r="AD19" s="2">
+        <f>AD18+1</f>
+        <v>2</v>
+      </c>
+      <c r="AE19" s="35">
+        <v>0.60550000000000004</v>
+      </c>
+      <c r="AF19" s="35">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="AG19" s="35">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="AH19" s="35">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="AI19" s="36">
+        <v>0.57720000000000005</v>
+      </c>
+      <c r="AJ19" s="35">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="AK19" s="35">
+        <v>0.58069999999999999</v>
+      </c>
+      <c r="AL19" s="35">
+        <v>0.58540000000000003</v>
+      </c>
+      <c r="AM19" s="35">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.28189999999999998</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.28249999999999997</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.28170000000000001</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.28170000000000001</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.28110000000000002</v>
+      </c>
+      <c r="AD20" s="2">
+        <f t="shared" ref="AD20:AD25" si="24">AD19+1</f>
+        <v>3</v>
+      </c>
+      <c r="AE20" s="35">
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="AF20" s="35">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="AG20" s="35">
+        <v>0.2949</v>
+      </c>
+      <c r="AH20" s="36">
+        <v>0.29459999999999997</v>
+      </c>
+      <c r="AI20" s="35">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="AJ20" s="35">
+        <v>0.2979</v>
+      </c>
+      <c r="AK20" s="35">
+        <v>0.30130000000000001</v>
+      </c>
+      <c r="AL20" s="35">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="AM20" s="35">
+        <v>0.31230000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <f t="shared" si="23"/>
+        <v>6</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.23630000000000001</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.2349</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.2349</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.2351</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.2369</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.23760000000000001</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.2361</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="AE21" s="35">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="AF21" s="35">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="AG21" s="35">
+        <v>0.28349999999999997</v>
+      </c>
+      <c r="AH21" s="35">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="AI21" s="35">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="AJ21" s="35">
+        <v>0.27550000000000002</v>
+      </c>
+      <c r="AK21" s="36">
+        <v>0.27529999999999999</v>
+      </c>
+      <c r="AL21" s="35">
+        <v>0.27639999999999998</v>
+      </c>
+      <c r="AM21" s="35">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.13420000000000001</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.1328</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.1313</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.1326</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.1321</v>
+      </c>
+      <c r="AD22" s="2">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="AE22" s="35">
+        <v>0.24060000000000001</v>
+      </c>
+      <c r="AF22" s="35">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="AG22" s="35">
+        <v>0.2261</v>
+      </c>
+      <c r="AH22" s="35">
+        <v>0.2228</v>
+      </c>
+      <c r="AI22" s="35">
+        <v>0.2208</v>
+      </c>
+      <c r="AJ22" s="35">
+        <v>0.21970000000000001</v>
+      </c>
+      <c r="AK22" s="36">
+        <v>0.21929999999999999</v>
+      </c>
+      <c r="AL22" s="35">
+        <v>0.2198</v>
+      </c>
+      <c r="AM22" s="35">
+        <v>0.22140000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.5729999999999999E-2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2.5749999999999999E-2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>2.5780000000000001E-2</v>
+      </c>
+      <c r="F23" s="7">
+        <v>2.58E-2</v>
+      </c>
+      <c r="G23" s="7">
+        <v>2.5850000000000001E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <v>2.5919999999999999E-2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2.598E-2</v>
+      </c>
+      <c r="J23" s="7">
+        <v>2.598E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>2.579E-2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2.5819999999999999E-2</v>
+      </c>
+      <c r="AD23" s="2">
+        <f t="shared" si="24"/>
+        <v>6</v>
+      </c>
+      <c r="AE23" s="35">
+        <v>0.20830000000000001</v>
+      </c>
+      <c r="AF23" s="35">
+        <v>0.20319999999999999</v>
+      </c>
+      <c r="AG23" s="35">
+        <v>0.2006</v>
+      </c>
+      <c r="AH23" s="35">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="AI23" s="36">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="AJ23" s="35">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AK23" s="35">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="AL23" s="35">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="AM23" s="35">
+        <v>0.20680000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <f>B23+1</f>
+        <v>9</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1.257E-2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1.2579999999999999E-2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.26E-2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1.261E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1.26E-2</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1.26E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1.256E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1.256E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1.2540000000000001E-2</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1.257E-2</v>
+      </c>
+      <c r="AD24" s="2">
+        <f t="shared" si="24"/>
+        <v>7</v>
+      </c>
+      <c r="AE24" s="35">
+        <v>0.1179</v>
+      </c>
+      <c r="AF24" s="35">
+        <v>0.1147</v>
+      </c>
+      <c r="AG24" s="35">
+        <v>0.1129</v>
+      </c>
+      <c r="AH24" s="36">
+        <v>0.112</v>
+      </c>
+      <c r="AI24" s="35">
+        <v>0.1116</v>
+      </c>
+      <c r="AJ24" s="35">
+        <v>0.1116</v>
+      </c>
+      <c r="AK24" s="35">
+        <v>0.11219999999999999</v>
+      </c>
+      <c r="AL24" s="35">
+        <v>0.1135</v>
+      </c>
+      <c r="AM24" s="35">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="AD25" s="2">
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="AE25" s="35">
+        <v>2.2610000000000002E-2</v>
+      </c>
+      <c r="AF25" s="35">
+        <v>2.1649999999999999E-2</v>
+      </c>
+      <c r="AG25" s="35">
+        <v>2.104E-2</v>
+      </c>
+      <c r="AH25" s="35">
+        <v>2.07E-2</v>
+      </c>
+      <c r="AI25" s="35">
+        <v>2.053E-2</v>
+      </c>
+      <c r="AJ25" s="36">
+        <v>2.051E-2</v>
+      </c>
+      <c r="AK25" s="35">
+        <v>0.20619999999999999</v>
+      </c>
+      <c r="AL25" s="35">
+        <v>2.087E-2</v>
+      </c>
+      <c r="AM25" s="35">
+        <v>2.129E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="AD26" s="2">
+        <f>AD25+1</f>
+        <v>9</v>
+      </c>
+      <c r="AE26" s="35">
+        <v>1.107E-2</v>
+      </c>
+      <c r="AF26" s="35">
+        <v>1.059E-2</v>
+      </c>
+      <c r="AG26" s="35">
+        <v>1.027E-2</v>
+      </c>
+      <c r="AH26" s="35">
+        <v>1.004E-2</v>
+      </c>
+      <c r="AI26" s="35">
+        <v>9.8630000000000002E-3</v>
+      </c>
+      <c r="AJ26" s="35">
+        <v>9.7300000000000008E-3</v>
+      </c>
+      <c r="AK26" s="36">
+        <v>9.6530000000000001E-3</v>
+      </c>
+      <c r="AL26" s="35">
+        <v>9.6589999999999992E-3</v>
+      </c>
+      <c r="AM26" s="35">
+        <v>9.8490000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D581325-AD81-475A-AF9F-DDB2D0EABBD0}">
   <dimension ref="A1:AK44"/>
   <sheetViews>
@@ -19590,7 +23719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9274FB9D-1AAE-48BA-B553-F04CA9EC5B52}">
   <dimension ref="A1:AL52"/>
   <sheetViews>
@@ -23547,7 +27676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F76589-2F58-4FC5-9DAE-D369C6953E4C}">
   <dimension ref="A2:AK44"/>
   <sheetViews>
@@ -26647,2100 +30776,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46B17F-3465-4774-B397-C386614D55B2}">
-  <dimension ref="A2:AJ44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>120000</v>
-      </c>
-      <c r="D2" s="6">
-        <f>C2+10000</f>
-        <v>130000</v>
-      </c>
-      <c r="E2" s="6">
-        <f>D2+10000</f>
-        <v>140000</v>
-      </c>
-      <c r="F2" s="6">
-        <f>E2+10000</f>
-        <v>150000</v>
-      </c>
-      <c r="G2" s="6">
-        <f>F2+10000</f>
-        <v>160000</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="S2" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="V2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2.4710000000000001</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2.4990000000000001</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2.5139999999999998</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2.5110000000000001</v>
-      </c>
-      <c r="K3">
-        <v>2.746</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" s="7">
-        <f>$K$3*M2</f>
-        <v>0.27460000000000001</v>
-      </c>
-      <c r="N3" s="7">
-        <f t="shared" ref="N3:V3" si="0">$K$3*N2</f>
-        <v>0.54920000000000002</v>
-      </c>
-      <c r="O3" s="3">
-        <f t="shared" si="0"/>
-        <v>0.82379999999999998</v>
-      </c>
-      <c r="P3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.0984</v>
-      </c>
-      <c r="Q3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.373</v>
-      </c>
-      <c r="R3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6476</v>
-      </c>
-      <c r="S3" s="7">
-        <f t="shared" si="0"/>
-        <v>1.9221999999999999</v>
-      </c>
-      <c r="T3" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1968000000000001</v>
-      </c>
-      <c r="U3" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4714</v>
-      </c>
-      <c r="V3" s="7">
-        <f t="shared" si="0"/>
-        <v>2.746</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
-        <f>B3+1</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="D4" s="7">
-        <v>1.6220000000000001</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.621</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1.6359999999999999</v>
-      </c>
-      <c r="K4">
-        <v>1.7969999999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <f>L3+1</f>
-        <v>2</v>
-      </c>
-      <c r="M4" s="7">
-        <f>$K$4*M2</f>
-        <v>0.1797</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:V4" si="1">$K$4*N2</f>
-        <v>0.3594</v>
-      </c>
-      <c r="O4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.53909999999999991</v>
-      </c>
-      <c r="P4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.71879999999999999</v>
-      </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.89849999999999997</v>
-      </c>
-      <c r="R4" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0781999999999998</v>
-      </c>
-      <c r="S4" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2578999999999998</v>
-      </c>
-      <c r="T4" s="7">
-        <f t="shared" si="1"/>
-        <v>1.4376</v>
-      </c>
-      <c r="U4" s="7">
-        <f t="shared" si="1"/>
-        <v>1.6173</v>
-      </c>
-      <c r="V4" s="7">
-        <f t="shared" si="1"/>
-        <v>1.7969999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <f t="shared" ref="B5:B10" si="2">B4+1</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1.2949999999999999</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1.298</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1.3080000000000001</v>
-      </c>
-      <c r="K5">
-        <v>1.3281000000000001</v>
-      </c>
-      <c r="L5" s="2">
-        <f t="shared" ref="L5:L10" si="3">L4+1</f>
-        <v>3</v>
-      </c>
-      <c r="M5" s="7">
-        <f>$K$5*M2</f>
-        <v>0.13281000000000001</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" ref="N5:V5" si="4">$K$5*N2</f>
-        <v>0.26562000000000002</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.39843000000000001</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.53124000000000005</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.66405000000000003</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="4"/>
-        <v>0.79686000000000001</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="4"/>
-        <v>0.92967</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="4"/>
-        <v>1.0624800000000001</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="4"/>
-        <v>1.1952900000000002</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="4"/>
-        <v>1.3281000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.98899999999999999</v>
-      </c>
-      <c r="K6">
-        <v>0.86550000000000005</v>
-      </c>
-      <c r="L6" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="M6" s="7">
-        <f>$K$6*M2</f>
-        <v>8.6550000000000016E-2</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" ref="N6:V6" si="5">$K$6*N2</f>
-        <v>0.17310000000000003</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.25964999999999999</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.34620000000000006</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.43275000000000002</v>
-      </c>
-      <c r="R6" s="3">
-        <f t="shared" si="5"/>
-        <v>0.51929999999999998</v>
-      </c>
-      <c r="S6" s="8">
-        <f t="shared" si="5"/>
-        <v>0.60585</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.69240000000000013</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.77895000000000003</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="5"/>
-        <v>0.86550000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="K7">
-        <v>0.61960000000000004</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="M7" s="7">
-        <f>$K$7*M2</f>
-        <v>6.1960000000000008E-2</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" ref="N7:V7" si="6">$K$7*N2</f>
-        <v>0.12392000000000002</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="6"/>
-        <v>0.18588000000000002</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="6"/>
-        <v>0.24784000000000003</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="6"/>
-        <v>0.30980000000000002</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" si="6"/>
-        <v>0.37176000000000003</v>
-      </c>
-      <c r="S7" s="3">
-        <f t="shared" si="6"/>
-        <v>0.43371999999999999</v>
-      </c>
-      <c r="T7" s="7">
-        <f t="shared" si="6"/>
-        <v>0.49568000000000006</v>
-      </c>
-      <c r="U7" s="7">
-        <f t="shared" si="6"/>
-        <v>0.55764000000000002</v>
-      </c>
-      <c r="V7" s="7">
-        <f t="shared" si="6"/>
-        <v>0.61960000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.45500000000000002</v>
-      </c>
-      <c r="K8">
-        <v>0.44769999999999999</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="M8" s="7">
-        <f>$K$8*M2</f>
-        <v>4.4770000000000004E-2</v>
-      </c>
-      <c r="N8" s="7">
-        <f t="shared" ref="N8:V8" si="7">$K$8*N2</f>
-        <v>8.9540000000000008E-2</v>
-      </c>
-      <c r="O8" s="7">
-        <f t="shared" si="7"/>
-        <v>0.13430999999999998</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" si="7"/>
-        <v>0.17908000000000002</v>
-      </c>
-      <c r="Q8" s="7">
-        <f t="shared" si="7"/>
-        <v>0.22384999999999999</v>
-      </c>
-      <c r="R8" s="7">
-        <f t="shared" si="7"/>
-        <v>0.26861999999999997</v>
-      </c>
-      <c r="S8" s="3">
-        <f t="shared" si="7"/>
-        <v>0.31338999999999995</v>
-      </c>
-      <c r="T8" s="7">
-        <f t="shared" si="7"/>
-        <v>0.35816000000000003</v>
-      </c>
-      <c r="U8" s="7">
-        <f t="shared" si="7"/>
-        <v>0.40293000000000001</v>
-      </c>
-      <c r="V8" s="7">
-        <f t="shared" si="7"/>
-        <v>0.44769999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="K9">
-        <v>0.26869999999999999</v>
-      </c>
-      <c r="L9" s="2">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="M9" s="7">
-        <f>$K$9*M2</f>
-        <v>2.6870000000000002E-2</v>
-      </c>
-      <c r="N9" s="7">
-        <f t="shared" ref="N9:V9" si="8">$K$9*N2</f>
-        <v>5.3740000000000003E-2</v>
-      </c>
-      <c r="O9" s="7">
-        <f t="shared" si="8"/>
-        <v>8.0610000000000001E-2</v>
-      </c>
-      <c r="P9" s="7">
-        <f t="shared" si="8"/>
-        <v>0.10748000000000001</v>
-      </c>
-      <c r="Q9" s="3">
-        <f t="shared" si="8"/>
-        <v>0.13435</v>
-      </c>
-      <c r="R9" s="7">
-        <f>$K$9*R2</f>
-        <v>0.16122</v>
-      </c>
-      <c r="S9" s="7">
-        <f t="shared" si="8"/>
-        <v>0.18808999999999998</v>
-      </c>
-      <c r="T9" s="7">
-        <f t="shared" si="8"/>
-        <v>0.21496000000000001</v>
-      </c>
-      <c r="U9" s="7">
-        <f t="shared" si="8"/>
-        <v>0.24182999999999999</v>
-      </c>
-      <c r="V9" s="7">
-        <f t="shared" si="8"/>
-        <v>0.26869999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.192</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.193</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K10">
-        <v>0.1467</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="M10" s="7">
-        <f>$K$10*M2</f>
-        <v>1.4670000000000001E-2</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" ref="N10:V10" si="9">$K$10*N2</f>
-        <v>2.9340000000000001E-2</v>
-      </c>
-      <c r="O10" s="7">
-        <f t="shared" si="9"/>
-        <v>4.4010000000000001E-2</v>
-      </c>
-      <c r="P10" s="7">
-        <f t="shared" si="9"/>
-        <v>5.8680000000000003E-2</v>
-      </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="9"/>
-        <v>7.3349999999999999E-2</v>
-      </c>
-      <c r="R10" s="7">
-        <f t="shared" si="9"/>
-        <v>8.8020000000000001E-2</v>
-      </c>
-      <c r="S10" s="3">
-        <f t="shared" si="9"/>
-        <v>0.10268999999999999</v>
-      </c>
-      <c r="T10" s="7">
-        <f t="shared" si="9"/>
-        <v>0.11736000000000001</v>
-      </c>
-      <c r="U10" s="7">
-        <f t="shared" si="9"/>
-        <v>0.13203000000000001</v>
-      </c>
-      <c r="V10" s="7">
-        <f t="shared" si="9"/>
-        <v>0.1467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <f>B10+1</f>
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="K11">
-        <v>0.1101</v>
-      </c>
-      <c r="L11" s="2">
-        <f>L10+1</f>
-        <v>9</v>
-      </c>
-      <c r="M11" s="7">
-        <f>$K$11*M2</f>
-        <v>1.1010000000000001E-2</v>
-      </c>
-      <c r="N11" s="7">
-        <f t="shared" ref="N11:V11" si="10">$K$11*N2</f>
-        <v>2.2020000000000001E-2</v>
-      </c>
-      <c r="O11" s="7">
-        <f t="shared" si="10"/>
-        <v>3.3029999999999997E-2</v>
-      </c>
-      <c r="P11" s="7">
-        <f t="shared" si="10"/>
-        <v>4.4040000000000003E-2</v>
-      </c>
-      <c r="Q11" s="7">
-        <f t="shared" si="10"/>
-        <v>5.5050000000000002E-2</v>
-      </c>
-      <c r="R11" s="7">
-        <f t="shared" si="10"/>
-        <v>6.6059999999999994E-2</v>
-      </c>
-      <c r="S11" s="7">
-        <f t="shared" si="10"/>
-        <v>7.707E-2</v>
-      </c>
-      <c r="T11" s="3">
-        <f t="shared" si="10"/>
-        <v>8.8080000000000006E-2</v>
-      </c>
-      <c r="U11" s="7">
-        <f t="shared" si="10"/>
-        <v>9.9090000000000011E-2</v>
-      </c>
-      <c r="V11" s="7">
-        <f t="shared" si="10"/>
-        <v>0.1101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L17" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R17" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="S17" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="T17" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I18" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="L18" s="2">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2.161</v>
-      </c>
-      <c r="N18" s="7">
-        <v>2.11</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2.097</v>
-      </c>
-      <c r="P18" s="7">
-        <v>2.1019999999999999</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>2.121</v>
-      </c>
-      <c r="R18" s="7">
-        <v>2.1520000000000001</v>
-      </c>
-      <c r="S18" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="T18" s="7">
-        <v>2.27</v>
-      </c>
-      <c r="U18" s="5">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="L19" s="2">
-        <f>L18+1</f>
-        <v>2</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1.448</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1.444</v>
-      </c>
-      <c r="O19" s="7">
-        <v>1.452</v>
-      </c>
-      <c r="P19" s="7">
-        <v>1.4670000000000001</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>1.488</v>
-      </c>
-      <c r="R19" s="7">
-        <v>1.514</v>
-      </c>
-      <c r="S19" s="7">
-        <v>1.548</v>
-      </c>
-      <c r="T19" s="7">
-        <v>1.593</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L20" s="2">
-        <f t="shared" ref="L20:L25" si="11">L19+1</f>
-        <v>3</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1.238</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="O20" s="7">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="P20" s="7">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>1.151</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="S20" s="7">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="T20" s="7">
-        <v>1.1659999999999999</v>
-      </c>
-      <c r="U20" s="7">
-        <v>1.1950000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L21" s="2">
-        <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="P21" s="7">
-        <v>0.80800000000000005</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0.80200000000000005</v>
-      </c>
-      <c r="S21" s="7">
-        <v>0.80300000000000005</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L22" s="2">
-        <f t="shared" si="11"/>
-        <v>5</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0.621</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="P22" s="7">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="R22" s="7">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="T22" s="7">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0.57899999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L23" s="2">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0.41</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="R23" s="7">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0.39</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0.39600000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="11"/>
-        <v>7</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0.249</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="P24" s="5">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="Q24" s="5">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="R24" s="5">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="S24" s="5">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="11"/>
-        <v>8</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0.158</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0.156</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0.154</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0.153</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0.153</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="L26" s="2">
-        <f>L25+1</f>
-        <v>9</v>
-      </c>
-      <c r="M26" s="5">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="N26" s="5">
-        <v>0.127</v>
-      </c>
-      <c r="O26" s="5">
-        <v>0.123</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="R26" s="5">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="S26" s="7">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0.115</v>
-      </c>
-      <c r="U26" s="7">
-        <v>0.115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="6">
-        <v>55000</v>
-      </c>
-      <c r="D32" s="6">
-        <f t="shared" ref="D32:I32" si="12">C32+5000</f>
-        <v>60000</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="12"/>
-        <v>65000</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="12"/>
-        <v>70000</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="12"/>
-        <v>75000</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="12"/>
-        <v>80000</v>
-      </c>
-      <c r="I32" s="6">
-        <f t="shared" si="12"/>
-        <v>85000</v>
-      </c>
-      <c r="K32" t="s">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="R32" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="S32" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="T32" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="U32" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="V32" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB32" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="AC32" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="AD32" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AE32" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="AF32" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AG32" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AH32" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="AI32" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="AJ32" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1.8714999999999999</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1.8177000000000001</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1.8165</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1.8106</v>
-      </c>
-      <c r="G33" s="7">
-        <v>1.8116000000000001</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1.8222</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1.849</v>
-      </c>
-      <c r="K33">
-        <v>1.7244999999999999</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="7">
-        <f>$K$33*M32</f>
-        <v>0.17244999999999999</v>
-      </c>
-      <c r="N33" s="7">
-        <f t="shared" ref="N33:V33" si="13">$K$33*N32</f>
-        <v>0.34489999999999998</v>
-      </c>
-      <c r="O33" s="7">
-        <f t="shared" si="13"/>
-        <v>0.51734999999999998</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="13"/>
-        <v>0.68979999999999997</v>
-      </c>
-      <c r="Q33" s="7">
-        <f t="shared" si="13"/>
-        <v>0.86224999999999996</v>
-      </c>
-      <c r="R33" s="7">
-        <f t="shared" si="13"/>
-        <v>1.0347</v>
-      </c>
-      <c r="S33" s="7">
-        <f t="shared" si="13"/>
-        <v>1.2071499999999999</v>
-      </c>
-      <c r="T33" s="7">
-        <f t="shared" si="13"/>
-        <v>1.3795999999999999</v>
-      </c>
-      <c r="U33" s="7">
-        <f t="shared" si="13"/>
-        <v>1.5520499999999999</v>
-      </c>
-      <c r="V33" s="7">
-        <f t="shared" si="13"/>
-        <v>1.7244999999999999</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC33" s="7">
-        <v>1.6282000000000001</v>
-      </c>
-      <c r="AD33" s="7">
-        <v>1.6114999999999999</v>
-      </c>
-      <c r="AE33" s="3">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="AF33" s="7">
-        <v>1.6091</v>
-      </c>
-      <c r="AG33" s="7">
-        <v>1.62042</v>
-      </c>
-      <c r="AH33" s="7">
-        <v>1.64</v>
-      </c>
-      <c r="AI33" s="7">
-        <v>1.6717</v>
-      </c>
-      <c r="AJ33" s="7">
-        <v>1.7231000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
-        <f>B33+1</f>
-        <v>2</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.92201</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0.92569999999999997</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.9325</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0.93310000000000004</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0.93520000000000003</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0.93279999999999996</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0.92279999999999995</v>
-      </c>
-      <c r="K34">
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="L34" s="2">
-        <f>L33+1</f>
-        <v>2</v>
-      </c>
-      <c r="M34" s="7">
-        <f>$K$34*M32</f>
-        <v>8.5880000000000012E-2</v>
-      </c>
-      <c r="N34" s="7">
-        <f t="shared" ref="N34:V34" si="14">$K$34*N32</f>
-        <v>0.17176000000000002</v>
-      </c>
-      <c r="O34" s="7">
-        <f t="shared" si="14"/>
-        <v>0.25763999999999998</v>
-      </c>
-      <c r="P34" s="7">
-        <f t="shared" si="14"/>
-        <v>0.34352000000000005</v>
-      </c>
-      <c r="Q34" s="3">
-        <f t="shared" si="14"/>
-        <v>0.4294</v>
-      </c>
-      <c r="R34" s="7">
-        <f t="shared" si="14"/>
-        <v>0.51527999999999996</v>
-      </c>
-      <c r="S34" s="7">
-        <f t="shared" si="14"/>
-        <v>0.60115999999999992</v>
-      </c>
-      <c r="T34" s="7">
-        <f t="shared" si="14"/>
-        <v>0.6870400000000001</v>
-      </c>
-      <c r="U34" s="7">
-        <f t="shared" si="14"/>
-        <v>0.77292000000000005</v>
-      </c>
-      <c r="V34" s="7">
-        <f t="shared" si="14"/>
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="X34" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="5"/>
-      <c r="AA34" s="2">
-        <f>AA33+1</f>
-        <v>2</v>
-      </c>
-      <c r="AB34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC34" s="7">
-        <v>0.83030000000000004</v>
-      </c>
-      <c r="AD34" s="7">
-        <v>0.81710000000000005</v>
-      </c>
-      <c r="AE34" s="7">
-        <v>0.81010000000000004</v>
-      </c>
-      <c r="AF34" s="7">
-        <v>0.80789999999999995</v>
-      </c>
-      <c r="AG34" s="3">
-        <v>0.80920000000000003</v>
-      </c>
-      <c r="AH34" s="7">
-        <v>0.81359999999999999</v>
-      </c>
-      <c r="AI34" s="7">
-        <v>0.82110000000000005</v>
-      </c>
-      <c r="AJ34" s="7">
-        <v>0.83260000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
-        <f t="shared" ref="B35:B40" si="15">B34+1</f>
-        <v>3</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.68710000000000004</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0.69510000000000005</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.70050000000000001</v>
-      </c>
-      <c r="F35" s="7">
-        <v>0.69810000000000005</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0.69689999999999996</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0.68810000000000004</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0.68969999999999998</v>
-      </c>
-      <c r="K35">
-        <v>0.65990000000000004</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" ref="L35:L40" si="16">L34+1</f>
-        <v>3</v>
-      </c>
-      <c r="M35" s="7">
-        <f>$K$35*M32</f>
-        <v>6.5990000000000007E-2</v>
-      </c>
-      <c r="N35" s="7">
-        <f t="shared" ref="N35:V35" si="17">$K$35*N32</f>
-        <v>0.13198000000000001</v>
-      </c>
-      <c r="O35" s="7">
-        <f t="shared" si="17"/>
-        <v>0.19797000000000001</v>
-      </c>
-      <c r="P35" s="7">
-        <f t="shared" si="17"/>
-        <v>0.26396000000000003</v>
-      </c>
-      <c r="Q35" s="7">
-        <f t="shared" si="17"/>
-        <v>0.32995000000000002</v>
-      </c>
-      <c r="R35" s="7">
-        <f t="shared" si="17"/>
-        <v>0.39594000000000001</v>
-      </c>
-      <c r="S35" s="7">
-        <f t="shared" si="17"/>
-        <v>0.46193000000000001</v>
-      </c>
-      <c r="T35" s="3">
-        <f t="shared" si="17"/>
-        <v>0.52792000000000006</v>
-      </c>
-      <c r="U35" s="7">
-        <f t="shared" si="17"/>
-        <v>0.59391000000000005</v>
-      </c>
-      <c r="V35" s="7">
-        <f t="shared" si="17"/>
-        <v>0.65990000000000004</v>
-      </c>
-      <c r="X35" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="3"/>
-      <c r="AA35" s="2">
-        <f t="shared" ref="AA35:AA40" si="18">AA34+1</f>
-        <v>3</v>
-      </c>
-      <c r="AB35" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC35" s="7">
-        <v>0.6321</v>
-      </c>
-      <c r="AD35" s="29">
-        <v>0.61509999999999998</v>
-      </c>
-      <c r="AE35" s="7">
-        <v>0.60170000000000001</v>
-      </c>
-      <c r="AF35" s="7">
-        <v>0.59209999999999996</v>
-      </c>
-      <c r="AG35" s="7">
-        <v>0.58320000000000005</v>
-      </c>
-      <c r="AH35" s="7">
-        <v>0.5786</v>
-      </c>
-      <c r="AI35" s="3">
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="AJ35" s="7">
-        <v>0.58799999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0.4254</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0.40889999999999999</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0.40870000000000001</v>
-      </c>
-      <c r="F36" s="7">
-        <v>0.40429999999999999</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0.3962</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.3901</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0.39119999999999999</v>
-      </c>
-      <c r="K36">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="L36" s="2">
-        <f t="shared" si="16"/>
-        <v>4</v>
-      </c>
-      <c r="M36" s="7">
-        <f>$K$36*M32</f>
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="N36" s="7">
-        <f t="shared" ref="N36:V36" si="19">$K$36*N32</f>
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="O36" s="7">
-        <f t="shared" si="19"/>
-        <v>0.10619999999999999</v>
-      </c>
-      <c r="P36" s="7">
-        <f t="shared" si="19"/>
-        <v>0.1416</v>
-      </c>
-      <c r="Q36" s="7">
-        <f t="shared" si="19"/>
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="R36" s="7">
-        <f t="shared" si="19"/>
-        <v>0.21239999999999998</v>
-      </c>
-      <c r="S36" s="7">
-        <f t="shared" si="19"/>
-        <v>0.24779999999999996</v>
-      </c>
-      <c r="T36" s="3">
-        <f t="shared" si="19"/>
-        <v>0.28320000000000001</v>
-      </c>
-      <c r="U36" s="7">
-        <f t="shared" si="19"/>
-        <v>0.31859999999999999</v>
-      </c>
-      <c r="V36" s="7">
-        <f t="shared" si="19"/>
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="AA36" s="2">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="AB36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC36" s="7">
-        <v>0.37780000000000002</v>
-      </c>
-      <c r="AD36" s="7">
-        <v>0.37309999999999999</v>
-      </c>
-      <c r="AE36" s="7">
-        <v>0.36909999999999998</v>
-      </c>
-      <c r="AF36" s="7">
-        <v>0.3659</v>
-      </c>
-      <c r="AG36" s="7">
-        <v>0.36349999999999999</v>
-      </c>
-      <c r="AH36" s="7">
-        <v>0.3619</v>
-      </c>
-      <c r="AI36" s="3">
-        <v>0.36149999999999999</v>
-      </c>
-      <c r="AJ36" s="7">
-        <v>0.36209999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0.19769999999999999</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0.20349999999999999</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0.20080000000000001</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.20030000000000001</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0.20280000000000001</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0.2041</v>
-      </c>
-      <c r="K37">
-        <v>0.22389999999999999</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="M37" s="7">
-        <f>$K$37*M32</f>
-        <v>2.239E-2</v>
-      </c>
-      <c r="N37" s="7">
-        <f t="shared" ref="N37:V37" si="20">$K$37*N32</f>
-        <v>4.478E-2</v>
-      </c>
-      <c r="O37" s="7">
-        <f t="shared" si="20"/>
-        <v>6.7169999999999994E-2</v>
-      </c>
-      <c r="P37" s="3">
-        <f t="shared" si="20"/>
-        <v>8.9560000000000001E-2</v>
-      </c>
-      <c r="Q37" s="7">
-        <f t="shared" si="20"/>
-        <v>0.11194999999999999</v>
-      </c>
-      <c r="R37" s="7">
-        <f t="shared" si="20"/>
-        <v>0.13433999999999999</v>
-      </c>
-      <c r="S37" s="7">
-        <f t="shared" si="20"/>
-        <v>0.15672999999999998</v>
-      </c>
-      <c r="T37" s="7">
-        <f t="shared" si="20"/>
-        <v>0.17912</v>
-      </c>
-      <c r="U37" s="7">
-        <f t="shared" si="20"/>
-        <v>0.20150999999999999</v>
-      </c>
-      <c r="V37" s="7">
-        <f t="shared" si="20"/>
-        <v>0.22389999999999999</v>
-      </c>
-      <c r="AA37" s="2">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="AB37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC37" s="7">
-        <v>0.186</v>
-      </c>
-      <c r="AD37" s="7">
-        <v>0.18490000000000001</v>
-      </c>
-      <c r="AE37" s="3">
-        <v>0.18479999999999999</v>
-      </c>
-      <c r="AF37" s="7">
-        <v>0.18509999999999999</v>
-      </c>
-      <c r="AG37" s="7">
-        <v>0.18579999999999999</v>
-      </c>
-      <c r="AH37" s="7">
-        <v>0.18779999999999999</v>
-      </c>
-      <c r="AI37" s="7">
-        <v>0.19170000000000001</v>
-      </c>
-      <c r="AJ37" s="7">
-        <v>0.19889999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
-        <f t="shared" si="15"/>
-        <v>6</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0.19370000000000001</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0.1875</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="F38" s="7">
-        <v>0.1885</v>
-      </c>
-      <c r="G38" s="3">
-        <v>0.18579999999999999</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0.1875</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0.189</v>
-      </c>
-      <c r="K38">
-        <v>0.14879999999999999</v>
-      </c>
-      <c r="L38" s="2">
-        <f t="shared" si="16"/>
-        <v>6</v>
-      </c>
-      <c r="M38" s="7">
-        <f>$K$38*M32</f>
-        <v>1.4879999999999999E-2</v>
-      </c>
-      <c r="N38" s="7">
-        <f t="shared" ref="N38:V38" si="21">$K$38*N32</f>
-        <v>2.9759999999999998E-2</v>
-      </c>
-      <c r="O38" s="7">
-        <f t="shared" si="21"/>
-        <v>4.4639999999999992E-2</v>
-      </c>
-      <c r="P38" s="7">
-        <f t="shared" si="21"/>
-        <v>5.9519999999999997E-2</v>
-      </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="21"/>
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="R38" s="7">
-        <f t="shared" si="21"/>
-        <v>8.9279999999999984E-2</v>
-      </c>
-      <c r="S38" s="3">
-        <f t="shared" si="21"/>
-        <v>0.10415999999999999</v>
-      </c>
-      <c r="T38" s="7">
-        <f t="shared" si="21"/>
-        <v>0.11903999999999999</v>
-      </c>
-      <c r="U38" s="7">
-        <f t="shared" si="21"/>
-        <v>0.13391999999999998</v>
-      </c>
-      <c r="V38" s="7">
-        <f t="shared" si="21"/>
-        <v>0.14879999999999999</v>
-      </c>
-      <c r="AA38" s="2">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="AB38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC38" s="7">
-        <v>0.1673</v>
-      </c>
-      <c r="AD38" s="7">
-        <v>0.1646</v>
-      </c>
-      <c r="AE38" s="7">
-        <v>0.16259999999999999</v>
-      </c>
-      <c r="AF38" s="7">
-        <v>0.16120000000000001</v>
-      </c>
-      <c r="AG38" s="7">
-        <v>0.1605</v>
-      </c>
-      <c r="AH38" s="3">
-        <v>0.16039999999999999</v>
-      </c>
-      <c r="AI38" s="7">
-        <v>0.16109999999999999</v>
-      </c>
-      <c r="AJ38" s="7">
-        <v>0.16317999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
-        <f t="shared" si="15"/>
-        <v>7</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0.17519999999999999</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0.17469999999999999</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.17419999999999999</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0.17510000000000001</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0.1759</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0.1774</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0.1774</v>
-      </c>
-      <c r="K39">
-        <v>0.1123</v>
-      </c>
-      <c r="L39" s="2">
-        <f t="shared" si="16"/>
-        <v>7</v>
-      </c>
-      <c r="M39" s="7">
-        <f>$K$39*M32</f>
-        <v>1.123E-2</v>
-      </c>
-      <c r="N39" s="7">
-        <f t="shared" ref="N39:V39" si="22">$K$39*N32</f>
-        <v>2.2460000000000001E-2</v>
-      </c>
-      <c r="O39" s="7">
-        <f t="shared" si="22"/>
-        <v>3.3689999999999998E-2</v>
-      </c>
-      <c r="P39" s="7">
-        <f t="shared" si="22"/>
-        <v>4.4920000000000002E-2</v>
-      </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="22"/>
-        <v>5.6149999999999999E-2</v>
-      </c>
-      <c r="R39" s="7">
-        <f t="shared" si="22"/>
-        <v>6.7379999999999995E-2</v>
-      </c>
-      <c r="S39" s="7">
-        <f t="shared" si="22"/>
-        <v>7.8609999999999999E-2</v>
-      </c>
-      <c r="T39" s="7">
-        <f t="shared" si="22"/>
-        <v>8.9840000000000003E-2</v>
-      </c>
-      <c r="U39" s="3">
-        <f t="shared" si="22"/>
-        <v>0.10106999999999999</v>
-      </c>
-      <c r="V39" s="7">
-        <f t="shared" si="22"/>
-        <v>0.1123</v>
-      </c>
-      <c r="AA39" s="2">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="AB39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC39" s="7">
-        <v>0.1394</v>
-      </c>
-      <c r="AD39" s="7">
-        <v>0.1336</v>
-      </c>
-      <c r="AE39" s="7">
-        <v>0.12970000000000001</v>
-      </c>
-      <c r="AF39" s="7">
-        <v>0.127</v>
-      </c>
-      <c r="AG39" s="7">
-        <v>0.1249</v>
-      </c>
-      <c r="AH39" s="7">
-        <v>0.1235</v>
-      </c>
-      <c r="AI39" s="7">
-        <v>0.1225</v>
-      </c>
-      <c r="AJ39" s="3">
-        <v>0.12230000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="C40" s="7">
-        <v>6.8500000000000005E-2</v>
-      </c>
-      <c r="D40" s="7">
-        <v>6.6500000000000004E-2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="F40" s="7">
-        <v>6.7290000000000003E-2</v>
-      </c>
-      <c r="G40" s="7">
-        <v>6.8019999999999997E-2</v>
-      </c>
-      <c r="H40" s="7">
-        <v>6.7799999999999999E-2</v>
-      </c>
-      <c r="I40" s="7">
-        <v>6.7769999999999997E-2</v>
-      </c>
-      <c r="K40">
-        <v>6.4180000000000001E-2</v>
-      </c>
-      <c r="L40" s="2">
-        <f t="shared" si="16"/>
-        <v>8</v>
-      </c>
-      <c r="M40" s="7">
-        <f>$K$40*M32</f>
-        <v>6.4180000000000001E-3</v>
-      </c>
-      <c r="N40" s="7">
-        <f t="shared" ref="N40:V40" si="23">$K$40*N32</f>
-        <v>1.2836E-2</v>
-      </c>
-      <c r="O40" s="7">
-        <f t="shared" si="23"/>
-        <v>1.9254E-2</v>
-      </c>
-      <c r="P40" s="7">
-        <f t="shared" si="23"/>
-        <v>2.5672E-2</v>
-      </c>
-      <c r="Q40" s="7">
-        <f t="shared" si="23"/>
-        <v>3.209E-2</v>
-      </c>
-      <c r="R40" s="7">
-        <f t="shared" si="23"/>
-        <v>3.8508000000000001E-2</v>
-      </c>
-      <c r="S40" s="3">
-        <f t="shared" si="23"/>
-        <v>4.4926000000000001E-2</v>
-      </c>
-      <c r="T40" s="7">
-        <f t="shared" si="23"/>
-        <v>5.1344000000000001E-2</v>
-      </c>
-      <c r="U40" s="7">
-        <f t="shared" si="23"/>
-        <v>5.7762000000000001E-2</v>
-      </c>
-      <c r="V40" s="7">
-        <f t="shared" si="23"/>
-        <v>6.4180000000000001E-2</v>
-      </c>
-      <c r="AA40" s="2">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="AB40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC40" s="7">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="AD40" s="7">
-        <v>5.9720000000000002E-2</v>
-      </c>
-      <c r="AE40" s="7">
-        <v>5.892E-2</v>
-      </c>
-      <c r="AF40" s="7">
-        <v>5.8450000000000002E-2</v>
-      </c>
-      <c r="AG40" s="7">
-        <v>5.8139999999999997E-2</v>
-      </c>
-      <c r="AH40" s="3">
-        <v>5.8090000000000003E-2</v>
-      </c>
-      <c r="AI40" s="7">
-        <v>5.8389999999999997E-2</v>
-      </c>
-      <c r="AJ40" s="7">
-        <v>5.8689999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
-        <f>B40+1</f>
-        <v>9</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1.251E-2</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1.247E-2</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1.256E-2</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1.2630000000000001E-2</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1.2670000000000001E-2</v>
-      </c>
-      <c r="H41" s="7">
-        <v>1.2579999999999999E-2</v>
-      </c>
-      <c r="I41" s="7">
-        <v>0.12609999999999999</v>
-      </c>
-      <c r="K41">
-        <v>1.064E-2</v>
-      </c>
-      <c r="L41" s="2">
-        <f>L40+1</f>
-        <v>9</v>
-      </c>
-      <c r="M41" s="7">
-        <f>$K$41*M32</f>
-        <v>1.0640000000000001E-3</v>
-      </c>
-      <c r="N41" s="7">
-        <f t="shared" ref="N41:V41" si="24">$K$41*N32</f>
-        <v>2.1280000000000001E-3</v>
-      </c>
-      <c r="O41" s="7">
-        <f t="shared" si="24"/>
-        <v>3.192E-3</v>
-      </c>
-      <c r="P41" s="7">
-        <f t="shared" si="24"/>
-        <v>4.2560000000000002E-3</v>
-      </c>
-      <c r="Q41" s="7">
-        <f t="shared" si="24"/>
-        <v>5.3200000000000001E-3</v>
-      </c>
-      <c r="R41" s="7">
-        <f t="shared" si="24"/>
-        <v>6.3839999999999999E-3</v>
-      </c>
-      <c r="S41" s="3">
-        <f t="shared" si="24"/>
-        <v>7.4479999999999998E-3</v>
-      </c>
-      <c r="T41" s="7">
-        <f t="shared" si="24"/>
-        <v>8.5120000000000005E-3</v>
-      </c>
-      <c r="U41" s="7">
-        <f t="shared" si="24"/>
-        <v>9.5760000000000012E-3</v>
-      </c>
-      <c r="V41" s="7">
-        <f t="shared" si="24"/>
-        <v>1.064E-2</v>
-      </c>
-      <c r="AA41" s="2">
-        <f>AA40+1</f>
-        <v>9</v>
-      </c>
-      <c r="AB41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC41" s="7">
-        <v>1.14E-2</v>
-      </c>
-      <c r="AD41" s="7">
-        <v>1.12E-2</v>
-      </c>
-      <c r="AE41" s="7">
-        <v>1.1039999999999999E-2</v>
-      </c>
-      <c r="AF41" s="7">
-        <v>1.0919999999999999E-2</v>
-      </c>
-      <c r="AG41" s="7">
-        <v>1.085E-2</v>
-      </c>
-      <c r="AH41" s="3">
-        <v>1.081E-2</v>
-      </c>
-      <c r="AI41" s="7">
-        <v>1.082E-2</v>
-      </c>
-      <c r="AJ41" s="7">
-        <v>0.10920000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>59000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>